--- a/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
+++ b/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebContent\static\guide\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB8F1CD-6A59-4179-9E3E-61D0BD64F527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF36363-3F7C-42CC-8A2D-3B88EB0CE727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="15540" tabRatio="869" xr2:uid="{1E9DB366-6AE4-4F47-9B28-6B909BD1B54D}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'영문홈페이지 메뉴구조도'!$A$4:$K$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">한국은행_영문_사용자IA!$A$4:$Q$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">한국은행_영문_사용자IA!$A$4:$T$254</definedName>
     <definedName name="chechday" localSheetId="0">#REF!</definedName>
     <definedName name="chechday">#REF!</definedName>
     <definedName name="chechday2" localSheetId="0">#REF!</definedName>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="453">
   <si>
     <t>Notice</t>
   </si>
@@ -1970,6 +1970,18 @@
   </si>
   <si>
     <t>"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 있음 (작업할것)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1977,7 +1989,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2420,7 +2432,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2910,9 +2922,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2931,6 +2940,75 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2953,78 +3031,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3432,11 +3438,11 @@
   <dimension ref="A1:T286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P28" sqref="P28"/>
+      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2" style="40" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="40" customWidth="1"/>
@@ -3444,7 +3450,7 @@
     <col min="4" max="4" width="24.25" style="157" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="157" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="157" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="201" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="191" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="157" customWidth="1"/>
     <col min="9" max="9" width="11" style="156" customWidth="1"/>
     <col min="10" max="10" width="8.25" style="156" customWidth="1"/>
@@ -3838,37 +3844,37 @@
     <col min="16075" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="172" t="s">
+    <row r="1" spans="1:19" ht="31.5">
+      <c r="A1" s="194" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+      <c r="F1" s="195"/>
+      <c r="G1" s="195"/>
+      <c r="H1" s="195"/>
+      <c r="I1" s="195"/>
+      <c r="J1" s="195"/>
+      <c r="K1" s="195"/>
+      <c r="L1" s="195"/>
+      <c r="M1" s="195"/>
+      <c r="N1" s="195"/>
+      <c r="O1" s="195"/>
+      <c r="P1" s="195"/>
+      <c r="Q1" s="195"/>
+      <c r="R1" s="195"/>
+      <c r="S1" s="195"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="190"/>
+      <c r="G2" s="180"/>
       <c r="H2" s="42"/>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
@@ -3882,31 +3888,31 @@
       <c r="R2" s="43"/>
       <c r="S2" s="43"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="16.5" customHeight="1">
       <c r="A3" s="45"/>
       <c r="B3" s="45" t="s">
         <v>209</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="174" t="s">
+      <c r="E3" s="196" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="174"/>
-      <c r="G3" s="186"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="176"/>
       <c r="H3" s="47"/>
-      <c r="I3" s="175" t="s">
+      <c r="I3" s="197" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="177" t="s">
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="198"/>
+      <c r="M3" s="199" t="s">
         <v>211</v>
       </c>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="176"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
       <c r="Q3" s="48" t="s">
         <v>212</v>
       </c>
@@ -3915,7 +3921,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" customHeight="1">
       <c r="A4" s="49"/>
       <c r="B4" s="49" t="s">
         <v>213</v>
@@ -3932,7 +3938,7 @@
       <c r="F4" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="187"/>
+      <c r="G4" s="177"/>
       <c r="H4" s="50" t="s">
         <v>218</v>
       </c>
@@ -3966,7 +3972,7 @@
       <c r="R4" s="49"/>
       <c r="S4" s="161"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="s">
         <v>228</v>
@@ -3975,7 +3981,7 @@
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
-      <c r="G5" s="188"/>
+      <c r="G5" s="178"/>
       <c r="H5" s="34"/>
       <c r="I5" s="55"/>
       <c r="J5" s="55" t="s">
@@ -3994,10 +4000,10 @@
       <c r="Q5" s="57">
         <v>1</v>
       </c>
-      <c r="R5" s="185"/>
+      <c r="R5" s="175"/>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="58"/>
       <c r="B6" s="59" t="s">
         <v>231</v>
@@ -4006,7 +4012,7 @@
       <c r="D6" s="61"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
-      <c r="G6" s="188"/>
+      <c r="G6" s="178"/>
       <c r="H6" s="34"/>
       <c r="I6" s="16"/>
       <c r="J6" s="56"/>
@@ -4020,7 +4026,7 @@
       <c r="R6" s="57"/>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="58"/>
       <c r="B7" s="62"/>
       <c r="C7" s="60" t="s">
@@ -4029,13 +4035,13 @@
       <c r="D7" s="61"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
-      <c r="G7" s="188"/>
+      <c r="G7" s="178"/>
       <c r="H7" s="34"/>
       <c r="I7" s="16"/>
       <c r="J7" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K7" s="164" t="s">
+      <c r="K7" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L7" s="16"/>
@@ -4050,12 +4056,12 @@
       <c r="Q7" s="57">
         <v>1</v>
       </c>
-      <c r="R7" s="185" t="s">
+      <c r="R7" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="58"/>
       <c r="B8" s="62"/>
       <c r="C8" s="60" t="s">
@@ -4064,33 +4070,33 @@
       <c r="D8" s="61"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
-      <c r="G8" s="188"/>
+      <c r="G8" s="178"/>
       <c r="H8" s="34"/>
       <c r="I8" s="16"/>
       <c r="J8" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="164" t="s">
+      <c r="K8" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="65">
         <v>400240</v>
       </c>
-      <c r="O8" s="63"/>
-      <c r="P8" s="15"/>
       <c r="Q8" s="57">
         <v>1</v>
       </c>
-      <c r="R8" s="185" t="s">
+      <c r="R8" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S8" s="15"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="58"/>
       <c r="B9" s="62"/>
       <c r="C9" s="64"/>
@@ -4101,31 +4107,31 @@
         <v>234</v>
       </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="188"/>
+      <c r="G9" s="178"/>
       <c r="H9" s="34"/>
       <c r="I9" s="16"/>
       <c r="J9" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="164" t="s">
+      <c r="K9" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="65">
         <v>400440</v>
       </c>
-      <c r="O9" s="63"/>
-      <c r="P9" s="15"/>
       <c r="Q9" s="57"/>
-      <c r="R9" s="185" t="s">
+      <c r="R9" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S9" s="15"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="58"/>
       <c r="B10" s="62"/>
       <c r="C10" s="64"/>
@@ -4136,31 +4142,31 @@
         <v>234</v>
       </c>
       <c r="F10" s="34"/>
-      <c r="G10" s="188"/>
+      <c r="G10" s="178"/>
       <c r="H10" s="34"/>
       <c r="I10" s="16"/>
       <c r="J10" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K10" s="164" t="s">
+      <c r="K10" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L10" s="16"/>
       <c r="M10" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="65">
         <v>400441</v>
       </c>
-      <c r="O10" s="63"/>
-      <c r="P10" s="15"/>
       <c r="Q10" s="57"/>
-      <c r="R10" s="185" t="s">
+      <c r="R10" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S10" s="15"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="58"/>
       <c r="B11" s="62"/>
       <c r="C11" s="64"/>
@@ -4171,31 +4177,31 @@
         <v>234</v>
       </c>
       <c r="F11" s="34"/>
-      <c r="G11" s="188"/>
+      <c r="G11" s="178"/>
       <c r="H11" s="34"/>
       <c r="I11" s="16"/>
       <c r="J11" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K11" s="164" t="s">
+      <c r="K11" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="65">
         <v>400442</v>
       </c>
-      <c r="O11" s="63"/>
-      <c r="P11" s="15"/>
       <c r="Q11" s="57"/>
-      <c r="R11" s="185" t="s">
+      <c r="R11" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="58"/>
       <c r="B12" s="62"/>
       <c r="C12" s="64"/>
@@ -4206,31 +4212,31 @@
         <v>234</v>
       </c>
       <c r="F12" s="34"/>
-      <c r="G12" s="188"/>
+      <c r="G12" s="178"/>
       <c r="H12" s="34"/>
       <c r="I12" s="16"/>
       <c r="J12" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K12" s="164" t="s">
+      <c r="K12" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="63"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="65">
         <v>400443</v>
       </c>
-      <c r="O12" s="63"/>
-      <c r="P12" s="15"/>
       <c r="Q12" s="57"/>
-      <c r="R12" s="185" t="s">
+      <c r="R12" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="58"/>
       <c r="B13" s="62"/>
       <c r="C13" s="64"/>
@@ -4241,31 +4247,31 @@
         <v>234</v>
       </c>
       <c r="F13" s="34"/>
-      <c r="G13" s="188"/>
+      <c r="G13" s="178"/>
       <c r="H13" s="34"/>
       <c r="I13" s="16"/>
       <c r="J13" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="164" t="s">
+      <c r="K13" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="63"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="65">
         <v>400444</v>
       </c>
-      <c r="O13" s="63"/>
-      <c r="P13" s="15"/>
       <c r="Q13" s="57"/>
-      <c r="R13" s="185" t="s">
+      <c r="R13" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="58"/>
       <c r="B14" s="62"/>
       <c r="C14" s="64"/>
@@ -4276,31 +4282,31 @@
         <v>234</v>
       </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="188"/>
+      <c r="G14" s="178"/>
       <c r="H14" s="34"/>
       <c r="I14" s="16"/>
       <c r="J14" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="164" t="s">
+      <c r="K14" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L14" s="16"/>
       <c r="M14" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="65">
         <v>400445</v>
       </c>
-      <c r="O14" s="63"/>
-      <c r="P14" s="15"/>
       <c r="Q14" s="57"/>
-      <c r="R14" s="185" t="s">
+      <c r="R14" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="58"/>
       <c r="B15" s="62"/>
       <c r="C15" s="64"/>
@@ -4311,31 +4317,31 @@
         <v>234</v>
       </c>
       <c r="F15" s="34"/>
-      <c r="G15" s="188"/>
+      <c r="G15" s="178"/>
       <c r="H15" s="34"/>
       <c r="I15" s="16"/>
       <c r="J15" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K15" s="164" t="s">
+      <c r="K15" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="65">
         <v>400446</v>
       </c>
-      <c r="O15" s="63"/>
-      <c r="P15" s="15"/>
       <c r="Q15" s="57"/>
-      <c r="R15" s="185" t="s">
+      <c r="R15" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="58"/>
       <c r="B16" s="62"/>
       <c r="C16" s="64"/>
@@ -4346,31 +4352,31 @@
         <v>234</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="188"/>
+      <c r="G16" s="178"/>
       <c r="H16" s="34"/>
       <c r="I16" s="16"/>
       <c r="J16" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K16" s="164" t="s">
+      <c r="K16" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="65">
         <v>400447</v>
       </c>
-      <c r="O16" s="63"/>
-      <c r="P16" s="15"/>
       <c r="Q16" s="57"/>
-      <c r="R16" s="185" t="s">
+      <c r="R16" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="58"/>
       <c r="B17" s="62"/>
       <c r="C17" s="64"/>
@@ -4381,31 +4387,31 @@
         <v>234</v>
       </c>
       <c r="F17" s="34"/>
-      <c r="G17" s="188"/>
+      <c r="G17" s="178"/>
       <c r="H17" s="34"/>
       <c r="I17" s="16"/>
       <c r="J17" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K17" s="164" t="s">
+      <c r="K17" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="65">
         <v>400448</v>
       </c>
-      <c r="O17" s="63"/>
-      <c r="P17" s="15"/>
       <c r="Q17" s="57"/>
-      <c r="R17" s="185" t="s">
+      <c r="R17" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="58"/>
       <c r="B18" s="62"/>
       <c r="C18" s="64"/>
@@ -4416,31 +4422,31 @@
         <v>234</v>
       </c>
       <c r="F18" s="34"/>
-      <c r="G18" s="188"/>
+      <c r="G18" s="178"/>
       <c r="H18" s="34"/>
       <c r="I18" s="16"/>
       <c r="J18" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K18" s="164" t="s">
+      <c r="K18" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L18" s="16"/>
       <c r="M18" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="65">
         <v>400449</v>
       </c>
-      <c r="O18" s="63"/>
-      <c r="P18" s="15"/>
       <c r="Q18" s="57"/>
-      <c r="R18" s="185" t="s">
+      <c r="R18" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="58"/>
       <c r="B19" s="62"/>
       <c r="C19" s="64"/>
@@ -4451,31 +4457,31 @@
         <v>234</v>
       </c>
       <c r="F19" s="34"/>
-      <c r="G19" s="188"/>
+      <c r="G19" s="178"/>
       <c r="H19" s="34"/>
       <c r="I19" s="16"/>
       <c r="J19" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K19" s="164" t="s">
+      <c r="K19" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="65">
         <v>400450</v>
       </c>
-      <c r="O19" s="63"/>
-      <c r="P19" s="15"/>
       <c r="Q19" s="57"/>
-      <c r="R19" s="185" t="s">
+      <c r="R19" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="58"/>
       <c r="B20" s="62"/>
       <c r="C20" s="64"/>
@@ -4486,31 +4492,31 @@
         <v>234</v>
       </c>
       <c r="F20" s="34"/>
-      <c r="G20" s="188"/>
+      <c r="G20" s="178"/>
       <c r="H20" s="34"/>
       <c r="I20" s="16"/>
       <c r="J20" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K20" s="164" t="s">
+      <c r="K20" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L20" s="16"/>
       <c r="M20" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N20" s="28">
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="65">
         <v>400451</v>
       </c>
-      <c r="O20" s="63"/>
-      <c r="P20" s="15"/>
       <c r="Q20" s="57"/>
-      <c r="R20" s="185" t="s">
+      <c r="R20" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="58"/>
       <c r="B21" s="62"/>
       <c r="C21" s="64"/>
@@ -4521,31 +4527,31 @@
         <v>234</v>
       </c>
       <c r="F21" s="34"/>
-      <c r="G21" s="188"/>
+      <c r="G21" s="178"/>
       <c r="H21" s="34"/>
       <c r="I21" s="16"/>
       <c r="J21" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K21" s="164" t="s">
+      <c r="K21" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N21" s="28">
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="65">
         <v>400452</v>
       </c>
-      <c r="O21" s="63"/>
-      <c r="P21" s="15"/>
       <c r="Q21" s="57"/>
-      <c r="R21" s="185" t="s">
+      <c r="R21" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="58"/>
       <c r="B22" s="62" t="s">
         <v>235</v>
@@ -4558,31 +4564,31 @@
         <v>234</v>
       </c>
       <c r="F22" s="34"/>
-      <c r="G22" s="188"/>
+      <c r="G22" s="178"/>
       <c r="H22" s="34"/>
       <c r="I22" s="16"/>
       <c r="J22" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K22" s="164" t="s">
+      <c r="K22" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N22" s="28">
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="65">
         <v>400453</v>
       </c>
-      <c r="O22" s="63"/>
-      <c r="P22" s="15"/>
       <c r="Q22" s="57"/>
-      <c r="R22" s="185" t="s">
+      <c r="R22" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="58"/>
       <c r="B23" s="62"/>
       <c r="C23" s="64"/>
@@ -4593,31 +4599,31 @@
         <v>234</v>
       </c>
       <c r="F23" s="34"/>
-      <c r="G23" s="188"/>
+      <c r="G23" s="178"/>
       <c r="H23" s="34"/>
       <c r="I23" s="16"/>
       <c r="J23" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K23" s="164" t="s">
+      <c r="K23" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N23" s="28">
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="65">
         <v>400454</v>
       </c>
-      <c r="O23" s="63"/>
-      <c r="P23" s="15"/>
       <c r="Q23" s="57"/>
-      <c r="R23" s="185" t="s">
+      <c r="R23" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="58"/>
       <c r="B24" s="62"/>
       <c r="C24" s="64"/>
@@ -4628,31 +4634,31 @@
         <v>234</v>
       </c>
       <c r="F24" s="34"/>
-      <c r="G24" s="188"/>
+      <c r="G24" s="178"/>
       <c r="H24" s="34"/>
       <c r="I24" s="16"/>
       <c r="J24" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K24" s="164" t="s">
+      <c r="K24" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="65">
         <v>400455</v>
       </c>
-      <c r="O24" s="63"/>
-      <c r="P24" s="15"/>
       <c r="Q24" s="57"/>
-      <c r="R24" s="185" t="s">
+      <c r="R24" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="58"/>
       <c r="B25" s="62"/>
       <c r="C25" s="64"/>
@@ -4663,31 +4669,31 @@
         <v>234</v>
       </c>
       <c r="F25" s="34"/>
-      <c r="G25" s="188"/>
+      <c r="G25" s="178"/>
       <c r="H25" s="34"/>
       <c r="I25" s="16"/>
       <c r="J25" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K25" s="164" t="s">
+      <c r="K25" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N25" s="28">
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="65">
         <v>400456</v>
       </c>
-      <c r="O25" s="63"/>
-      <c r="P25" s="15"/>
       <c r="Q25" s="57"/>
-      <c r="R25" s="185" t="s">
+      <c r="R25" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="58"/>
       <c r="B26" s="62"/>
       <c r="C26" s="64"/>
@@ -4698,31 +4704,31 @@
         <v>234</v>
       </c>
       <c r="F26" s="34"/>
-      <c r="G26" s="188"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="34"/>
       <c r="I26" s="16"/>
       <c r="J26" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K26" s="164" t="s">
+      <c r="K26" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N26" s="28">
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="65">
         <v>400457</v>
       </c>
-      <c r="O26" s="63"/>
-      <c r="P26" s="15"/>
       <c r="Q26" s="57"/>
-      <c r="R26" s="185" t="s">
+      <c r="R26" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="58"/>
       <c r="B27" s="62"/>
       <c r="C27" s="64"/>
@@ -4733,31 +4739,31 @@
         <v>234</v>
       </c>
       <c r="F27" s="34"/>
-      <c r="G27" s="188"/>
+      <c r="G27" s="178"/>
       <c r="H27" s="34"/>
       <c r="I27" s="16"/>
       <c r="J27" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K27" s="164" t="s">
+      <c r="K27" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N27" s="28">
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="65">
         <v>400458</v>
       </c>
-      <c r="O27" s="63"/>
-      <c r="P27" s="15"/>
       <c r="Q27" s="57"/>
-      <c r="R27" s="185" t="s">
+      <c r="R27" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="58"/>
       <c r="B28" s="62"/>
       <c r="C28" s="64"/>
@@ -4768,31 +4774,31 @@
         <v>234</v>
       </c>
       <c r="F28" s="34"/>
-      <c r="G28" s="188"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="34"/>
       <c r="I28" s="16"/>
       <c r="J28" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K28" s="164" t="s">
+      <c r="K28" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L28" s="16"/>
       <c r="M28" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N28" s="28">
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="65">
         <v>400459</v>
       </c>
-      <c r="O28" s="63"/>
-      <c r="P28" s="15"/>
       <c r="Q28" s="57"/>
-      <c r="R28" s="185" t="s">
+      <c r="R28" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="58"/>
       <c r="B29" s="62"/>
       <c r="C29" s="64"/>
@@ -4803,31 +4809,31 @@
         <v>234</v>
       </c>
       <c r="F29" s="34"/>
-      <c r="G29" s="188"/>
+      <c r="G29" s="178"/>
       <c r="H29" s="34"/>
       <c r="I29" s="16"/>
       <c r="J29" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K29" s="164" t="s">
+      <c r="K29" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N29" s="28">
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="65">
         <v>400460</v>
       </c>
-      <c r="O29" s="63"/>
-      <c r="P29" s="15"/>
       <c r="Q29" s="57"/>
-      <c r="R29" s="185" t="s">
+      <c r="R29" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="58"/>
       <c r="B30" s="62"/>
       <c r="C30" s="64"/>
@@ -4838,31 +4844,31 @@
         <v>234</v>
       </c>
       <c r="F30" s="34"/>
-      <c r="G30" s="188"/>
+      <c r="G30" s="178"/>
       <c r="H30" s="34"/>
       <c r="I30" s="16"/>
       <c r="J30" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K30" s="164" t="s">
+      <c r="K30" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N30" s="28">
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="65">
         <v>400461</v>
       </c>
-      <c r="O30" s="63"/>
-      <c r="P30" s="15"/>
       <c r="Q30" s="57"/>
-      <c r="R30" s="185" t="s">
+      <c r="R30" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="58"/>
       <c r="B31" s="62"/>
       <c r="C31" s="64"/>
@@ -4873,31 +4879,31 @@
         <v>234</v>
       </c>
       <c r="F31" s="34"/>
-      <c r="G31" s="188"/>
+      <c r="G31" s="178"/>
       <c r="H31" s="34"/>
       <c r="I31" s="16"/>
       <c r="J31" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K31" s="164" t="s">
+      <c r="K31" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="65">
         <v>400462</v>
       </c>
-      <c r="O31" s="63"/>
-      <c r="P31" s="15"/>
       <c r="Q31" s="57"/>
-      <c r="R31" s="185" t="s">
+      <c r="R31" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="58"/>
       <c r="B32" s="62"/>
       <c r="C32" s="64"/>
@@ -4908,31 +4914,31 @@
         <v>234</v>
       </c>
       <c r="F32" s="34"/>
-      <c r="G32" s="188"/>
+      <c r="G32" s="178"/>
       <c r="H32" s="34"/>
       <c r="I32" s="16"/>
       <c r="J32" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K32" s="164" t="s">
+      <c r="K32" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N32" s="28">
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="65">
         <v>400463</v>
       </c>
-      <c r="O32" s="63"/>
-      <c r="P32" s="15"/>
       <c r="Q32" s="57"/>
-      <c r="R32" s="185" t="s">
+      <c r="R32" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" s="58"/>
       <c r="B33" s="62"/>
       <c r="C33" s="64"/>
@@ -4943,31 +4949,31 @@
         <v>234</v>
       </c>
       <c r="F33" s="34"/>
-      <c r="G33" s="188"/>
+      <c r="G33" s="178"/>
       <c r="H33" s="34"/>
       <c r="I33" s="16"/>
       <c r="J33" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K33" s="164" t="s">
+      <c r="K33" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N33" s="28">
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="65">
         <v>400464</v>
       </c>
-      <c r="O33" s="63"/>
-      <c r="P33" s="15"/>
       <c r="Q33" s="57"/>
-      <c r="R33" s="185" t="s">
+      <c r="R33" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" s="58"/>
       <c r="B34" s="62"/>
       <c r="C34" s="13" t="s">
@@ -4978,14 +4984,14 @@
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="188"/>
+      <c r="G34" s="178"/>
       <c r="H34" s="34"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="K34" s="55" t="s">
-        <v>237</v>
+      <c r="J34" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="163" t="s">
+        <v>233</v>
       </c>
       <c r="L34" s="16"/>
       <c r="M34" s="17" t="s">
@@ -4995,14 +5001,18 @@
         <v>400249</v>
       </c>
       <c r="O34" s="16"/>
-      <c r="P34" s="15"/>
+      <c r="P34" s="19" t="s">
+        <v>452</v>
+      </c>
       <c r="Q34" s="57">
         <v>1</v>
       </c>
       <c r="R34" s="57"/>
-      <c r="S34" s="15"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S34" s="15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="58"/>
       <c r="B35" s="62"/>
       <c r="C35" s="59" t="s">
@@ -5011,7 +5021,7 @@
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
-      <c r="G35" s="191"/>
+      <c r="G35" s="181"/>
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="63"/>
@@ -5025,7 +5035,7 @@
       <c r="R35" s="63"/>
       <c r="S35" s="63"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" s="58"/>
       <c r="B36" s="62"/>
       <c r="C36" s="62"/>
@@ -5034,13 +5044,13 @@
       </c>
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
-      <c r="G36" s="192"/>
+      <c r="G36" s="182"/>
       <c r="H36" s="66"/>
       <c r="I36" s="20"/>
       <c r="J36" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="K36" s="165" t="s">
+      <c r="K36" s="164" t="s">
         <v>233</v>
       </c>
       <c r="L36" s="20"/>
@@ -5058,7 +5068,7 @@
       <c r="R36" s="69"/>
       <c r="S36" s="70"/>
     </row>
-    <row r="37" spans="1:19" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="40.5">
       <c r="A37" s="58"/>
       <c r="B37" s="62"/>
       <c r="C37" s="62"/>
@@ -5067,7 +5077,7 @@
       </c>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="188"/>
+      <c r="G37" s="178"/>
       <c r="H37" s="34"/>
       <c r="I37" s="29" t="s">
         <v>238</v>
@@ -5075,7 +5085,7 @@
       <c r="J37" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K37" s="164" t="s">
+      <c r="K37" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L37" s="73"/>
@@ -5092,10 +5102,12 @@
       <c r="Q37" s="72">
         <v>1</v>
       </c>
-      <c r="R37" s="72"/>
+      <c r="R37" s="175" t="s">
+        <v>447</v>
+      </c>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" s="58"/>
       <c r="B38" s="62"/>
       <c r="C38" s="62"/>
@@ -5106,107 +5118,111 @@
       <c r="F38" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G38" s="189"/>
+      <c r="G38" s="179"/>
       <c r="H38" s="34"/>
       <c r="I38" s="29"/>
       <c r="J38" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K38" s="164" t="s">
+      <c r="K38" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L38" s="73"/>
       <c r="M38" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N38" s="19">
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="56">
         <v>400465</v>
       </c>
-      <c r="O38" s="72"/>
-      <c r="P38" s="74"/>
       <c r="Q38" s="72">
         <v>1</v>
       </c>
-      <c r="R38" s="185" t="s">
+      <c r="R38" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" s="58"/>
       <c r="B39" s="62"/>
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
-      <c r="E39" s="178" t="s">
+      <c r="E39" s="169" t="s">
         <v>240</v>
       </c>
-      <c r="F39" s="179" t="s">
+      <c r="F39" s="170" t="s">
         <v>242</v>
       </c>
-      <c r="G39" s="189"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="181"/>
-      <c r="J39" s="178" t="s">
+      <c r="G39" s="179"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="169" t="s">
         <v>232</v>
       </c>
-      <c r="K39" s="182" t="s">
+      <c r="K39" s="173" t="s">
         <v>233</v>
       </c>
-      <c r="L39" s="183"/>
-      <c r="M39" s="178" t="s">
+      <c r="L39" s="174"/>
+      <c r="M39" s="169" t="s">
         <v>181</v>
       </c>
-      <c r="N39" s="178">
+      <c r="N39" s="173"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="169">
         <v>400466</v>
       </c>
-      <c r="O39" s="182"/>
-      <c r="P39" s="184"/>
-      <c r="Q39" s="182">
+      <c r="Q39" s="173">
         <v>1</v>
       </c>
-      <c r="R39" s="72"/>
+      <c r="R39" s="72" t="s">
+        <v>450</v>
+      </c>
       <c r="S39" s="22" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19">
       <c r="A40" s="58"/>
       <c r="B40" s="62"/>
       <c r="C40" s="62"/>
       <c r="D40" s="62"/>
-      <c r="E40" s="178" t="s">
+      <c r="E40" s="169" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="179" t="s">
+      <c r="F40" s="170" t="s">
         <v>243</v>
       </c>
-      <c r="G40" s="189"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="181"/>
-      <c r="J40" s="178" t="s">
+      <c r="G40" s="179"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="169" t="s">
         <v>232</v>
       </c>
-      <c r="K40" s="182" t="s">
+      <c r="K40" s="173" t="s">
         <v>233</v>
       </c>
-      <c r="L40" s="183"/>
-      <c r="M40" s="178" t="s">
+      <c r="L40" s="174"/>
+      <c r="M40" s="169" t="s">
         <v>181</v>
       </c>
-      <c r="N40" s="178">
+      <c r="N40" s="173"/>
+      <c r="O40" s="173"/>
+      <c r="P40" s="169">
         <v>400467</v>
       </c>
-      <c r="O40" s="182"/>
-      <c r="P40" s="184"/>
-      <c r="Q40" s="182">
+      <c r="Q40" s="173">
         <v>1</v>
       </c>
-      <c r="R40" s="72"/>
+      <c r="R40" s="72" t="s">
+        <v>450</v>
+      </c>
       <c r="S40" s="22" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19">
       <c r="A41" s="58"/>
       <c r="B41" s="62"/>
       <c r="C41" s="62"/>
@@ -5217,33 +5233,33 @@
       <c r="F41" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G41" s="189"/>
+      <c r="G41" s="179"/>
       <c r="H41" s="34"/>
       <c r="I41" s="29"/>
       <c r="J41" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K41" s="164" t="s">
+      <c r="K41" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L41" s="73"/>
       <c r="M41" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="56">
         <v>400468</v>
       </c>
-      <c r="O41" s="72"/>
-      <c r="P41" s="74"/>
       <c r="Q41" s="72">
         <v>1</v>
       </c>
-      <c r="R41" s="185" t="s">
+      <c r="R41" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="A42" s="58"/>
       <c r="B42" s="62"/>
       <c r="C42" s="62"/>
@@ -5254,33 +5270,33 @@
       <c r="F42" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="G42" s="189"/>
+      <c r="G42" s="179"/>
       <c r="H42" s="34"/>
       <c r="I42" s="29"/>
       <c r="J42" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K42" s="164" t="s">
+      <c r="K42" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L42" s="73"/>
       <c r="M42" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="56">
         <v>400469</v>
       </c>
-      <c r="O42" s="72"/>
-      <c r="P42" s="74"/>
       <c r="Q42" s="72">
         <v>1</v>
       </c>
-      <c r="R42" s="185" t="s">
+      <c r="R42" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" s="58"/>
       <c r="B43" s="62"/>
       <c r="C43" s="62"/>
@@ -5291,33 +5307,33 @@
       <c r="F43" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G43" s="189"/>
+      <c r="G43" s="179"/>
       <c r="H43" s="34"/>
       <c r="I43" s="29"/>
       <c r="J43" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K43" s="164" t="s">
+      <c r="K43" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L43" s="73"/>
       <c r="M43" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="56">
         <v>400470</v>
       </c>
-      <c r="O43" s="72"/>
-      <c r="P43" s="74"/>
       <c r="Q43" s="72">
         <v>1</v>
       </c>
-      <c r="R43" s="185" t="s">
+      <c r="R43" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="A44" s="58"/>
       <c r="B44" s="62"/>
       <c r="C44" s="62"/>
@@ -5328,33 +5344,32 @@
       <c r="F44" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="G44" s="189"/>
+      <c r="G44" s="179"/>
       <c r="H44" s="34"/>
       <c r="I44" s="29"/>
       <c r="J44" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K44" s="164" t="s">
+      <c r="K44" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L44" s="73"/>
       <c r="M44" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N44" s="19">
+      <c r="O44" s="72"/>
+      <c r="P44" s="56">
         <v>400471</v>
       </c>
-      <c r="O44" s="72"/>
-      <c r="P44" s="74"/>
       <c r="Q44" s="72">
         <v>1</v>
       </c>
-      <c r="R44" s="185" t="s">
+      <c r="R44" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" s="58"/>
       <c r="B45" s="62"/>
       <c r="C45" s="62"/>
@@ -5363,13 +5378,13 @@
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="189"/>
+      <c r="G45" s="179"/>
       <c r="H45" s="34"/>
       <c r="I45" s="73"/>
       <c r="J45" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K45" s="164" t="s">
+      <c r="K45" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L45" s="73"/>
@@ -5380,14 +5395,16 @@
         <v>400243</v>
       </c>
       <c r="O45" s="72"/>
-      <c r="P45" s="74"/>
+      <c r="P45" s="68"/>
       <c r="Q45" s="72">
         <v>1</v>
       </c>
-      <c r="R45" s="72"/>
+      <c r="R45" s="175" t="s">
+        <v>447</v>
+      </c>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" s="58"/>
       <c r="B46" s="62"/>
       <c r="C46" s="62"/>
@@ -5398,31 +5415,33 @@
       <c r="F46" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G46" s="189"/>
+      <c r="G46" s="179"/>
       <c r="H46" s="34"/>
       <c r="I46" s="73"/>
       <c r="J46" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K46" s="164" t="s">
+      <c r="K46" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L46" s="73"/>
       <c r="M46" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N46" s="19">
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="56">
         <v>400472</v>
       </c>
-      <c r="O46" s="72"/>
-      <c r="P46" s="74"/>
       <c r="Q46" s="72">
         <v>1</v>
       </c>
-      <c r="R46" s="72"/>
+      <c r="R46" s="175" t="s">
+        <v>447</v>
+      </c>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" s="58"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62"/>
@@ -5433,31 +5452,33 @@
       <c r="F47" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G47" s="189"/>
+      <c r="G47" s="179"/>
       <c r="H47" s="34"/>
       <c r="I47" s="73"/>
       <c r="J47" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K47" s="164" t="s">
+      <c r="K47" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L47" s="73"/>
       <c r="M47" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N47" s="19">
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="56">
         <v>400473</v>
       </c>
-      <c r="O47" s="72"/>
-      <c r="P47" s="74"/>
       <c r="Q47" s="72">
         <v>1</v>
       </c>
-      <c r="R47" s="72"/>
+      <c r="R47" s="175" t="s">
+        <v>447</v>
+      </c>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" s="58"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62"/>
@@ -5468,7 +5489,7 @@
       <c r="F48" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="188" t="s">
+      <c r="G48" s="178" t="s">
         <v>448</v>
       </c>
       <c r="H48" s="34"/>
@@ -5476,25 +5497,27 @@
       <c r="J48" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K48" s="164" t="s">
+      <c r="K48" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L48" s="73"/>
       <c r="M48" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N48" s="19">
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="56">
         <v>400474</v>
       </c>
-      <c r="O48" s="72"/>
-      <c r="P48" s="74"/>
       <c r="Q48" s="72">
         <v>1</v>
       </c>
-      <c r="R48" s="72"/>
+      <c r="R48" s="175" t="s">
+        <v>447</v>
+      </c>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" s="58"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
@@ -5505,7 +5528,7 @@
       <c r="F49" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G49" s="188" t="s">
+      <c r="G49" s="178" t="s">
         <v>449</v>
       </c>
       <c r="H49" s="34"/>
@@ -5513,25 +5536,27 @@
       <c r="J49" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K49" s="164" t="s">
+      <c r="K49" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L49" s="73"/>
       <c r="M49" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N49" s="19">
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="56">
         <v>400475</v>
       </c>
-      <c r="O49" s="72"/>
-      <c r="P49" s="74"/>
       <c r="Q49" s="72">
         <v>1</v>
       </c>
-      <c r="R49" s="72"/>
+      <c r="R49" s="175" t="s">
+        <v>447</v>
+      </c>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" s="58"/>
       <c r="B50" s="62"/>
       <c r="C50" s="62"/>
@@ -5542,7 +5567,7 @@
       <c r="F50" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G50" s="188" t="s">
+      <c r="G50" s="178" t="s">
         <v>449</v>
       </c>
       <c r="H50" s="34"/>
@@ -5550,25 +5575,27 @@
       <c r="J50" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K50" s="164" t="s">
+      <c r="K50" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L50" s="73"/>
       <c r="M50" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N50" s="19">
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="56">
         <v>400476</v>
       </c>
-      <c r="O50" s="72"/>
-      <c r="P50" s="74"/>
       <c r="Q50" s="72">
         <v>1</v>
       </c>
-      <c r="R50" s="72"/>
+      <c r="R50" s="175" t="s">
+        <v>447</v>
+      </c>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" s="58"/>
       <c r="B51" s="62"/>
       <c r="C51" s="62"/>
@@ -5579,7 +5606,7 @@
       <c r="F51" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="G51" s="188" t="s">
+      <c r="G51" s="178" t="s">
         <v>449</v>
       </c>
       <c r="H51" s="34"/>
@@ -5587,25 +5614,27 @@
       <c r="J51" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K51" s="164" t="s">
+      <c r="K51" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L51" s="73"/>
       <c r="M51" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N51" s="19">
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="56">
         <v>400477</v>
       </c>
-      <c r="O51" s="72"/>
-      <c r="P51" s="74"/>
       <c r="Q51" s="72">
         <v>1</v>
       </c>
-      <c r="R51" s="72"/>
+      <c r="R51" s="175" t="s">
+        <v>447</v>
+      </c>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" s="58"/>
       <c r="B52" s="62"/>
       <c r="C52" s="62"/>
@@ -5616,7 +5645,7 @@
       <c r="F52" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G52" s="188" t="s">
+      <c r="G52" s="178" t="s">
         <v>449</v>
       </c>
       <c r="H52" s="34"/>
@@ -5624,25 +5653,27 @@
       <c r="J52" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K52" s="164" t="s">
+      <c r="K52" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L52" s="73"/>
       <c r="M52" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N52" s="19">
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="56">
         <v>400478</v>
       </c>
-      <c r="O52" s="72"/>
-      <c r="P52" s="74"/>
       <c r="Q52" s="72">
         <v>1</v>
       </c>
-      <c r="R52" s="72"/>
+      <c r="R52" s="175" t="s">
+        <v>447</v>
+      </c>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" s="58"/>
       <c r="B53" s="62"/>
       <c r="C53" s="75"/>
@@ -5651,7 +5682,7 @@
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="189" t="s">
+      <c r="G53" s="179" t="s">
         <v>446</v>
       </c>
       <c r="H53" s="34"/>
@@ -5659,7 +5690,7 @@
       <c r="J53" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K53" s="164" t="s">
+      <c r="K53" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L53" s="73"/>
@@ -5670,16 +5701,16 @@
         <v>400244</v>
       </c>
       <c r="O53" s="72"/>
-      <c r="P53" s="74"/>
+      <c r="P53" s="68"/>
       <c r="Q53" s="72">
         <v>1</v>
       </c>
-      <c r="R53" s="185" t="s">
+      <c r="R53" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" s="58"/>
       <c r="B54" s="62"/>
       <c r="C54" s="75"/>
@@ -5690,7 +5721,7 @@
       <c r="F54" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="G54" s="189" t="s">
+      <c r="G54" s="179" t="s">
         <v>449</v>
       </c>
       <c r="H54" s="34"/>
@@ -5698,27 +5729,27 @@
       <c r="J54" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K54" s="164" t="s">
+      <c r="K54" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L54" s="73"/>
       <c r="M54" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N54" s="19">
+      <c r="N54" s="63"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="56">
         <v>400479</v>
       </c>
-      <c r="O54" s="72"/>
-      <c r="P54" s="74"/>
       <c r="Q54" s="72">
         <v>1</v>
       </c>
-      <c r="R54" s="185" t="s">
+      <c r="R54" s="175" t="s">
         <v>447</v>
       </c>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="27">
       <c r="A55" s="58"/>
       <c r="B55" s="62"/>
       <c r="C55" s="31" t="s">
@@ -5727,7 +5758,7 @@
       <c r="D55" s="63"/>
       <c r="E55" s="16"/>
       <c r="F55" s="63"/>
-      <c r="G55" s="191"/>
+      <c r="G55" s="181"/>
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="63"/>
@@ -5741,7 +5772,7 @@
       <c r="R55" s="63"/>
       <c r="S55" s="63"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56" s="58"/>
       <c r="B56" s="62"/>
       <c r="C56" s="32"/>
@@ -5750,13 +5781,13 @@
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="189"/>
+      <c r="G56" s="179"/>
       <c r="H56" s="34"/>
       <c r="I56" s="73"/>
       <c r="J56" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K56" s="164" t="s">
+      <c r="K56" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L56" s="73"/>
@@ -5774,7 +5805,7 @@
       <c r="R56" s="111"/>
       <c r="S56" s="143"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19">
       <c r="A57" s="58"/>
       <c r="B57" s="62"/>
       <c r="C57" s="32"/>
@@ -5783,13 +5814,13 @@
       </c>
       <c r="E57" s="33"/>
       <c r="F57" s="13"/>
-      <c r="G57" s="189"/>
+      <c r="G57" s="179"/>
       <c r="H57" s="34"/>
       <c r="I57" s="73"/>
       <c r="J57" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K57" s="164" t="s">
+      <c r="K57" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L57" s="73"/>
@@ -5807,7 +5838,7 @@
       <c r="R57" s="136"/>
       <c r="S57" s="158"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19">
       <c r="A58" s="58"/>
       <c r="B58" s="62"/>
       <c r="C58" s="12"/>
@@ -5816,13 +5847,13 @@
       </c>
       <c r="E58" s="33"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="189"/>
+      <c r="G58" s="179"/>
       <c r="H58" s="34"/>
       <c r="I58" s="73"/>
       <c r="J58" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K58" s="164" t="s">
+      <c r="K58" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L58" s="73"/>
@@ -5840,7 +5871,7 @@
       <c r="R58" s="74"/>
       <c r="S58" s="35"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19">
       <c r="A59" s="58"/>
       <c r="B59" s="62"/>
       <c r="C59" s="76" t="s">
@@ -5851,13 +5882,13 @@
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
-      <c r="G59" s="189"/>
+      <c r="G59" s="179"/>
       <c r="H59" s="34"/>
       <c r="I59" s="73"/>
       <c r="J59" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K59" s="164" t="s">
+      <c r="K59" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L59" s="73"/>
@@ -5875,7 +5906,7 @@
       <c r="R59" s="72"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19">
       <c r="A60" s="58"/>
       <c r="B60" s="62"/>
       <c r="C60" s="31" t="s">
@@ -5884,7 +5915,7 @@
       <c r="D60" s="31"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="189"/>
+      <c r="G60" s="179"/>
       <c r="H60" s="34"/>
       <c r="I60" s="73"/>
       <c r="J60" s="22"/>
@@ -5898,7 +5929,7 @@
       <c r="R60" s="72"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19">
       <c r="A61" s="58"/>
       <c r="B61" s="62"/>
       <c r="C61" s="32"/>
@@ -5911,13 +5942,13 @@
       <c r="F61" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="G61" s="189"/>
+      <c r="G61" s="179"/>
       <c r="H61" s="34"/>
       <c r="I61" s="73"/>
       <c r="J61" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K61" s="164" t="s">
+      <c r="K61" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L61" s="73"/>
@@ -5935,7 +5966,7 @@
       <c r="R61" s="72"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19">
       <c r="A62" s="58"/>
       <c r="B62" s="62"/>
       <c r="C62" s="32"/>
@@ -5946,13 +5977,13 @@
       <c r="F62" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="G62" s="189"/>
+      <c r="G62" s="179"/>
       <c r="H62" s="34"/>
       <c r="I62" s="73"/>
       <c r="J62" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K62" s="164" t="s">
+      <c r="K62" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L62" s="73"/>
@@ -5970,7 +6001,7 @@
       <c r="R62" s="72"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19">
       <c r="A63" s="58"/>
       <c r="B63" s="78"/>
       <c r="C63" s="32"/>
@@ -5979,13 +6010,13 @@
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
-      <c r="G63" s="189"/>
+      <c r="G63" s="179"/>
       <c r="H63" s="34"/>
       <c r="I63" s="13"/>
       <c r="J63" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K63" s="164" t="s">
+      <c r="K63" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L63" s="73"/>
@@ -6003,7 +6034,7 @@
       <c r="R63" s="72"/>
       <c r="S63" s="73"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19">
       <c r="A64" s="58"/>
       <c r="B64" s="78"/>
       <c r="C64" s="32"/>
@@ -6016,7 +6047,7 @@
       <c r="F64" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="G64" s="193"/>
+      <c r="G64" s="183"/>
       <c r="H64" s="34"/>
       <c r="I64" s="73" t="s">
         <v>258</v>
@@ -6042,7 +6073,7 @@
       <c r="R64" s="72"/>
       <c r="S64" s="73"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19">
       <c r="A65" s="58"/>
       <c r="B65" s="78"/>
       <c r="C65" s="32"/>
@@ -6053,7 +6084,7 @@
       <c r="F65" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="194"/>
+      <c r="G65" s="184"/>
       <c r="H65" s="34"/>
       <c r="I65" s="73"/>
       <c r="J65" s="73" t="s">
@@ -6077,7 +6108,7 @@
       <c r="R65" s="72"/>
       <c r="S65" s="73"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19">
       <c r="A66" s="58"/>
       <c r="B66" s="78"/>
       <c r="C66" s="32"/>
@@ -6088,7 +6119,7 @@
       <c r="F66" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="G66" s="194"/>
+      <c r="G66" s="184"/>
       <c r="H66" s="34"/>
       <c r="I66" s="73"/>
       <c r="J66" s="73" t="s">
@@ -6112,7 +6143,7 @@
       <c r="R66" s="72"/>
       <c r="S66" s="73"/>
     </row>
-    <row r="67" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" s="81" customFormat="1">
       <c r="A67" s="58"/>
       <c r="B67" s="78"/>
       <c r="C67" s="32"/>
@@ -6121,13 +6152,13 @@
       </c>
       <c r="E67" s="60"/>
       <c r="F67" s="60"/>
-      <c r="G67" s="194"/>
+      <c r="G67" s="184"/>
       <c r="H67" s="34"/>
       <c r="I67" s="73"/>
       <c r="J67" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K67" s="164" t="s">
+      <c r="K67" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L67" s="73"/>
@@ -6145,7 +6176,7 @@
       <c r="R67" s="72"/>
       <c r="S67" s="73"/>
     </row>
-    <row r="68" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" s="81" customFormat="1">
       <c r="A68" s="58"/>
       <c r="B68" s="78"/>
       <c r="C68" s="32"/>
@@ -6156,7 +6187,7 @@
         <v>260</v>
       </c>
       <c r="F68" s="60"/>
-      <c r="G68" s="194"/>
+      <c r="G68" s="184"/>
       <c r="H68" s="34"/>
       <c r="I68" s="73"/>
       <c r="J68" s="73" t="s">
@@ -6180,7 +6211,7 @@
       <c r="R68" s="72"/>
       <c r="S68" s="73"/>
     </row>
-    <row r="69" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" s="81" customFormat="1">
       <c r="A69" s="58"/>
       <c r="B69" s="78"/>
       <c r="C69" s="32"/>
@@ -6191,7 +6222,7 @@
         <v>260</v>
       </c>
       <c r="F69" s="60"/>
-      <c r="G69" s="194"/>
+      <c r="G69" s="184"/>
       <c r="H69" s="34"/>
       <c r="I69" s="73"/>
       <c r="J69" s="73" t="s">
@@ -6215,7 +6246,7 @@
       <c r="R69" s="72"/>
       <c r="S69" s="73"/>
     </row>
-    <row r="70" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" s="81" customFormat="1">
       <c r="A70" s="58"/>
       <c r="B70" s="78"/>
       <c r="C70" s="12"/>
@@ -6226,7 +6257,7 @@
         <v>260</v>
       </c>
       <c r="F70" s="60"/>
-      <c r="G70" s="194"/>
+      <c r="G70" s="184"/>
       <c r="H70" s="34"/>
       <c r="I70" s="73"/>
       <c r="J70" s="73" t="s">
@@ -6250,7 +6281,7 @@
       <c r="R70" s="72"/>
       <c r="S70" s="73"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19">
       <c r="A71" s="58"/>
       <c r="B71" s="62"/>
       <c r="C71" s="31" t="s">
@@ -6259,7 +6290,7 @@
       <c r="D71" s="63"/>
       <c r="E71" s="82"/>
       <c r="F71" s="63"/>
-      <c r="G71" s="191"/>
+      <c r="G71" s="181"/>
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="63"/>
@@ -6273,7 +6304,7 @@
       <c r="R71" s="63"/>
       <c r="S71" s="63"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19">
       <c r="A72" s="58"/>
       <c r="B72" s="62"/>
       <c r="C72" s="32"/>
@@ -6282,13 +6313,13 @@
       </c>
       <c r="E72" s="33"/>
       <c r="F72" s="12"/>
-      <c r="G72" s="195"/>
+      <c r="G72" s="185"/>
       <c r="H72" s="66"/>
       <c r="I72" s="83"/>
       <c r="J72" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="K72" s="165" t="s">
+      <c r="K72" s="164" t="s">
         <v>233</v>
       </c>
       <c r="L72" s="83"/>
@@ -6306,7 +6337,7 @@
       <c r="R72" s="74"/>
       <c r="S72" s="35"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19">
       <c r="A73" s="58"/>
       <c r="B73" s="62"/>
       <c r="C73" s="32"/>
@@ -6319,13 +6350,13 @@
       <c r="F73" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="G73" s="188"/>
+      <c r="G73" s="178"/>
       <c r="H73" s="34"/>
       <c r="I73" s="73"/>
       <c r="J73" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K73" s="164" t="s">
+      <c r="K73" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L73" s="73"/>
@@ -6343,7 +6374,7 @@
       <c r="R73" s="111"/>
       <c r="S73" s="143"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19">
       <c r="A74" s="58"/>
       <c r="B74" s="62"/>
       <c r="C74" s="32"/>
@@ -6354,13 +6385,13 @@
       <c r="F74" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="G74" s="188"/>
+      <c r="G74" s="178"/>
       <c r="H74" s="34"/>
       <c r="I74" s="73"/>
       <c r="J74" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K74" s="164" t="s">
+      <c r="K74" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L74" s="73"/>
@@ -6378,7 +6409,7 @@
       <c r="R74" s="136"/>
       <c r="S74" s="158"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19">
       <c r="A75" s="58"/>
       <c r="B75" s="62"/>
       <c r="C75" s="32"/>
@@ -6389,13 +6420,13 @@
       <c r="F75" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="G75" s="188"/>
+      <c r="G75" s="178"/>
       <c r="H75" s="34"/>
       <c r="I75" s="73"/>
       <c r="J75" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K75" s="164" t="s">
+      <c r="K75" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L75" s="73"/>
@@ -6413,7 +6444,7 @@
       <c r="R75" s="74"/>
       <c r="S75" s="35"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19">
       <c r="A76" s="58"/>
       <c r="B76" s="75"/>
       <c r="C76" s="12"/>
@@ -6422,13 +6453,13 @@
       </c>
       <c r="E76" s="33"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="189"/>
+      <c r="G76" s="179"/>
       <c r="H76" s="34"/>
       <c r="I76" s="73"/>
       <c r="J76" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K76" s="164" t="s">
+      <c r="K76" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L76" s="73"/>
@@ -6446,7 +6477,7 @@
       <c r="R76" s="72"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19">
       <c r="A77" s="58"/>
       <c r="B77" s="79" t="s">
         <v>82</v>
@@ -6455,7 +6486,7 @@
       <c r="D77" s="63"/>
       <c r="E77" s="82"/>
       <c r="F77" s="63"/>
-      <c r="G77" s="191"/>
+      <c r="G77" s="181"/>
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="63"/>
@@ -6469,7 +6500,7 @@
       <c r="R77" s="63"/>
       <c r="S77" s="63"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
       <c r="A78" s="58"/>
       <c r="B78" s="78"/>
       <c r="C78" s="32" t="s">
@@ -6478,7 +6509,7 @@
       <c r="D78" s="63"/>
       <c r="E78" s="82"/>
       <c r="F78" s="63"/>
-      <c r="G78" s="191"/>
+      <c r="G78" s="181"/>
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="63"/>
@@ -6492,7 +6523,7 @@
       <c r="R78" s="63"/>
       <c r="S78" s="63"/>
     </row>
-    <row r="79" spans="1:19" ht="54" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="54">
       <c r="A79" s="58"/>
       <c r="B79" s="78"/>
       <c r="C79" s="32"/>
@@ -6505,7 +6536,7 @@
       <c r="F79" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="195"/>
+      <c r="G79" s="185"/>
       <c r="H79" s="66"/>
       <c r="I79" s="35" t="s">
         <v>263</v>
@@ -6513,7 +6544,7 @@
       <c r="J79" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="K79" s="165" t="s">
+      <c r="K79" s="164" t="s">
         <v>233</v>
       </c>
       <c r="L79" s="35"/>
@@ -6531,7 +6562,7 @@
       <c r="R79" s="136"/>
       <c r="S79" s="158"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19">
       <c r="A80" s="58"/>
       <c r="B80" s="78"/>
       <c r="C80" s="32"/>
@@ -6542,13 +6573,13 @@
       <c r="F80" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G80" s="189"/>
+      <c r="G80" s="179"/>
       <c r="H80" s="34"/>
       <c r="I80" s="15"/>
       <c r="J80" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K80" s="164" t="s">
+      <c r="K80" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L80" s="70"/>
@@ -6566,7 +6597,7 @@
       <c r="R80" s="103"/>
       <c r="S80" s="98"/>
     </row>
-    <row r="81" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="27">
       <c r="A81" s="58"/>
       <c r="B81" s="78"/>
       <c r="C81" s="32"/>
@@ -6577,7 +6608,7 @@
       <c r="F81" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G81" s="189"/>
+      <c r="G81" s="179"/>
       <c r="H81" s="34"/>
       <c r="I81" s="15"/>
       <c r="J81" s="15" t="s">
@@ -6601,7 +6632,7 @@
       <c r="R81" s="103"/>
       <c r="S81" s="98"/>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="27">
       <c r="A82" s="58"/>
       <c r="B82" s="78"/>
       <c r="C82" s="32"/>
@@ -6612,13 +6643,13 @@
       <c r="F82" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G82" s="189"/>
+      <c r="G82" s="179"/>
       <c r="H82" s="34"/>
       <c r="I82" s="15"/>
       <c r="J82" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K82" s="164" t="s">
+      <c r="K82" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L82" s="70"/>
@@ -6636,7 +6667,7 @@
       <c r="R82" s="69"/>
       <c r="S82" s="70"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19">
       <c r="A83" s="58"/>
       <c r="B83" s="78"/>
       <c r="C83" s="32"/>
@@ -6649,13 +6680,13 @@
       <c r="F83" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="G83" s="189"/>
+      <c r="G83" s="179"/>
       <c r="H83" s="34"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K83" s="164" t="s">
+      <c r="K83" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L83" s="69"/>
@@ -6673,7 +6704,7 @@
       <c r="R83" s="102"/>
       <c r="S83" s="104"/>
     </row>
-    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="27">
       <c r="A84" s="58"/>
       <c r="B84" s="78"/>
       <c r="C84" s="32"/>
@@ -6684,13 +6715,13 @@
       <c r="F84" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="189"/>
+      <c r="G84" s="179"/>
       <c r="H84" s="34"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K84" s="164" t="s">
+      <c r="K84" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L84" s="69"/>
@@ -6708,7 +6739,7 @@
       <c r="R84" s="103"/>
       <c r="S84" s="146"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19">
       <c r="A85" s="58"/>
       <c r="B85" s="78"/>
       <c r="C85" s="32"/>
@@ -6719,13 +6750,13 @@
       <c r="F85" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="G85" s="189"/>
+      <c r="G85" s="179"/>
       <c r="H85" s="34"/>
       <c r="I85" s="15"/>
       <c r="J85" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K85" s="164" t="s">
+      <c r="K85" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L85" s="69"/>
@@ -6743,7 +6774,7 @@
       <c r="R85" s="69"/>
       <c r="S85" s="20"/>
     </row>
-    <row r="86" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="27">
       <c r="A86" s="58"/>
       <c r="B86" s="78"/>
       <c r="C86" s="32"/>
@@ -6754,13 +6785,13 @@
       <c r="F86" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G86" s="189"/>
+      <c r="G86" s="179"/>
       <c r="H86" s="34"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K86" s="164" t="s">
+      <c r="K86" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L86" s="69"/>
@@ -6778,7 +6809,7 @@
       <c r="R86" s="57"/>
       <c r="S86" s="16"/>
     </row>
-    <row r="87" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="27">
       <c r="A87" s="58"/>
       <c r="B87" s="78"/>
       <c r="C87" s="32"/>
@@ -6791,7 +6822,7 @@
       <c r="F87" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G87" s="189"/>
+      <c r="G87" s="179"/>
       <c r="H87" s="34"/>
       <c r="I87" s="56" t="s">
         <v>264</v>
@@ -6819,7 +6850,7 @@
       <c r="R87" s="57"/>
       <c r="S87" s="16"/>
     </row>
-    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="27">
       <c r="A88" s="58"/>
       <c r="B88" s="78"/>
       <c r="C88" s="32"/>
@@ -6830,7 +6861,7 @@
       <c r="F88" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="G88" s="189"/>
+      <c r="G88" s="179"/>
       <c r="H88" s="34"/>
       <c r="I88" s="56"/>
       <c r="J88" s="15" t="s">
@@ -6850,7 +6881,7 @@
       <c r="R88" s="57"/>
       <c r="S88" s="16"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19">
       <c r="A89" s="58"/>
       <c r="B89" s="78"/>
       <c r="C89" s="12"/>
@@ -6859,13 +6890,13 @@
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="36"/>
-      <c r="G89" s="189"/>
+      <c r="G89" s="179"/>
       <c r="H89" s="34"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K89" s="164" t="s">
+      <c r="K89" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L89" s="57"/>
@@ -6883,7 +6914,7 @@
       <c r="R89" s="57"/>
       <c r="S89" s="16"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19">
       <c r="A90" s="58"/>
       <c r="B90" s="78"/>
       <c r="C90" s="31" t="s">
@@ -6892,7 +6923,7 @@
       <c r="D90" s="40"/>
       <c r="E90" s="44"/>
       <c r="F90" s="40"/>
-      <c r="G90" s="196"/>
+      <c r="G90" s="186"/>
       <c r="H90" s="40"/>
       <c r="I90" s="40"/>
       <c r="J90" s="40"/>
@@ -6906,7 +6937,7 @@
       <c r="R90" s="40"/>
       <c r="S90" s="40"/>
     </row>
-    <row r="91" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="27">
       <c r="A91" s="58"/>
       <c r="B91" s="78"/>
       <c r="C91" s="32"/>
@@ -6919,13 +6950,13 @@
       <c r="F91" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="G91" s="188"/>
+      <c r="G91" s="178"/>
       <c r="H91" s="34"/>
       <c r="I91" s="15"/>
       <c r="J91" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K91" s="164" t="s">
+      <c r="K91" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L91" s="16"/>
@@ -6943,7 +6974,7 @@
       <c r="R91" s="102"/>
       <c r="S91" s="104"/>
     </row>
-    <row r="92" spans="1:19" ht="54" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="54">
       <c r="A92" s="58"/>
       <c r="B92" s="78"/>
       <c r="C92" s="32"/>
@@ -6954,13 +6985,13 @@
       <c r="F92" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="G92" s="188"/>
+      <c r="G92" s="178"/>
       <c r="H92" s="34"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K92" s="164" t="s">
+      <c r="K92" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L92" s="16"/>
@@ -6978,7 +7009,7 @@
       <c r="R92" s="103"/>
       <c r="S92" s="146"/>
     </row>
-    <row r="93" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="27">
       <c r="A93" s="58"/>
       <c r="B93" s="78"/>
       <c r="C93" s="32"/>
@@ -6989,13 +7020,13 @@
       <c r="F93" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="G93" s="188"/>
+      <c r="G93" s="178"/>
       <c r="H93" s="34"/>
       <c r="I93" s="15"/>
       <c r="J93" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K93" s="164" t="s">
+      <c r="K93" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L93" s="16"/>
@@ -7013,7 +7044,7 @@
       <c r="R93" s="69"/>
       <c r="S93" s="20"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19">
       <c r="A94" s="58"/>
       <c r="B94" s="78"/>
       <c r="C94" s="32"/>
@@ -7026,13 +7057,13 @@
       <c r="F94" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="G94" s="189"/>
+      <c r="G94" s="179"/>
       <c r="H94" s="34"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K94" s="164" t="s">
+      <c r="K94" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L94" s="16"/>
@@ -7050,7 +7081,7 @@
       <c r="R94" s="102"/>
       <c r="S94" s="104"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19">
       <c r="A95" s="58"/>
       <c r="B95" s="78"/>
       <c r="C95" s="32"/>
@@ -7061,13 +7092,13 @@
       <c r="F95" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="G95" s="189"/>
+      <c r="G95" s="179"/>
       <c r="H95" s="34"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K95" s="164" t="s">
+      <c r="K95" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L95" s="16"/>
@@ -7085,7 +7116,7 @@
       <c r="R95" s="103"/>
       <c r="S95" s="146"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19">
       <c r="A96" s="58"/>
       <c r="B96" s="78"/>
       <c r="C96" s="32"/>
@@ -7096,13 +7127,13 @@
       <c r="F96" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="G96" s="189"/>
+      <c r="G96" s="179"/>
       <c r="H96" s="34"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K96" s="164" t="s">
+      <c r="K96" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L96" s="16"/>
@@ -7120,7 +7151,7 @@
       <c r="R96" s="69"/>
       <c r="S96" s="20"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19">
       <c r="A97" s="58"/>
       <c r="B97" s="78"/>
       <c r="C97" s="32"/>
@@ -7133,13 +7164,13 @@
       <c r="F97" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="G97" s="189"/>
+      <c r="G97" s="179"/>
       <c r="H97" s="34"/>
       <c r="I97" s="15"/>
       <c r="J97" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K97" s="164" t="s">
+      <c r="K97" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L97" s="16"/>
@@ -7157,7 +7188,7 @@
       <c r="R97" s="102"/>
       <c r="S97" s="104"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19">
       <c r="A98" s="58"/>
       <c r="B98" s="78"/>
       <c r="C98" s="32"/>
@@ -7168,13 +7199,13 @@
       <c r="F98" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="G98" s="189"/>
+      <c r="G98" s="179"/>
       <c r="H98" s="34"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K98" s="164" t="s">
+      <c r="K98" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L98" s="20"/>
@@ -7192,7 +7223,7 @@
       <c r="R98" s="103"/>
       <c r="S98" s="146"/>
     </row>
-    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="27">
       <c r="A99" s="58"/>
       <c r="B99" s="78"/>
       <c r="C99" s="32"/>
@@ -7203,13 +7234,13 @@
       <c r="F99" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="G99" s="189"/>
+      <c r="G99" s="179"/>
       <c r="H99" s="34"/>
       <c r="I99" s="15"/>
       <c r="J99" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K99" s="164" t="s">
+      <c r="K99" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L99" s="20"/>
@@ -7227,7 +7258,7 @@
       <c r="R99" s="69"/>
       <c r="S99" s="20"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19">
       <c r="A100" s="58"/>
       <c r="B100" s="78"/>
       <c r="C100" s="32"/>
@@ -7240,13 +7271,13 @@
       <c r="F100" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="G100" s="189"/>
+      <c r="G100" s="179"/>
       <c r="H100" s="34"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="K100" s="164" t="s">
+      <c r="K100" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L100" s="69"/>
@@ -7264,7 +7295,7 @@
       <c r="R100" s="102"/>
       <c r="S100" s="104"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19">
       <c r="A101" s="58"/>
       <c r="B101" s="78"/>
       <c r="C101" s="32"/>
@@ -7275,7 +7306,7 @@
       <c r="F101" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G101" s="189"/>
+      <c r="G101" s="179"/>
       <c r="H101" s="34"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15" t="s">
@@ -7303,7 +7334,7 @@
       <c r="R101" s="69"/>
       <c r="S101" s="20"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19">
       <c r="A102" s="58"/>
       <c r="B102" s="78"/>
       <c r="C102" s="12"/>
@@ -7314,13 +7345,13 @@
         <v>195</v>
       </c>
       <c r="F102" s="36"/>
-      <c r="G102" s="189"/>
+      <c r="G102" s="179"/>
       <c r="H102" s="34"/>
       <c r="I102" s="15"/>
       <c r="J102" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K102" s="164" t="s">
+      <c r="K102" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L102" s="69"/>
@@ -7338,7 +7369,7 @@
       <c r="R102" s="57"/>
       <c r="S102" s="16"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19">
       <c r="A103" s="58"/>
       <c r="B103" s="78"/>
       <c r="C103" s="31" t="s">
@@ -7347,7 +7378,7 @@
       <c r="D103" s="63"/>
       <c r="E103" s="82"/>
       <c r="F103" s="63"/>
-      <c r="G103" s="191"/>
+      <c r="G103" s="181"/>
       <c r="H103" s="63"/>
       <c r="I103" s="63"/>
       <c r="J103" s="63"/>
@@ -7361,7 +7392,7 @@
       <c r="R103" s="63"/>
       <c r="S103" s="63"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19">
       <c r="A104" s="58"/>
       <c r="B104" s="78"/>
       <c r="C104" s="32"/>
@@ -7374,13 +7405,13 @@
       <c r="F104" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="G104" s="195"/>
+      <c r="G104" s="185"/>
       <c r="H104" s="66"/>
       <c r="I104" s="71"/>
       <c r="J104" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K104" s="165" t="s">
+      <c r="K104" s="164" t="s">
         <v>257</v>
       </c>
       <c r="L104" s="20"/>
@@ -7398,7 +7429,7 @@
       <c r="R104" s="103"/>
       <c r="S104" s="146"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19">
       <c r="A105" s="58"/>
       <c r="B105" s="78"/>
       <c r="C105" s="32"/>
@@ -7409,13 +7440,13 @@
       <c r="F105" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="G105" s="189"/>
+      <c r="G105" s="179"/>
       <c r="H105" s="34"/>
       <c r="I105" s="36"/>
       <c r="J105" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K105" s="164" t="s">
+      <c r="K105" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L105" s="16"/>
@@ -7433,7 +7464,7 @@
       <c r="R105" s="103"/>
       <c r="S105" s="146"/>
     </row>
-    <row r="106" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="27">
       <c r="A106" s="58"/>
       <c r="B106" s="78"/>
       <c r="C106" s="32"/>
@@ -7444,13 +7475,13 @@
       <c r="F106" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="G106" s="189"/>
+      <c r="G106" s="179"/>
       <c r="H106" s="34"/>
       <c r="I106" s="36"/>
       <c r="J106" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K106" s="164" t="s">
+      <c r="K106" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L106" s="16"/>
@@ -7468,7 +7499,7 @@
       <c r="R106" s="69"/>
       <c r="S106" s="20"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19">
       <c r="A107" s="58"/>
       <c r="B107" s="78"/>
       <c r="C107" s="32"/>
@@ -7481,13 +7512,13 @@
       <c r="F107" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="G107" s="189"/>
+      <c r="G107" s="179"/>
       <c r="H107" s="34"/>
       <c r="I107" s="36"/>
       <c r="J107" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K107" s="164" t="s">
+      <c r="K107" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L107" s="16"/>
@@ -7505,7 +7536,7 @@
       <c r="R107" s="102"/>
       <c r="S107" s="104"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19">
       <c r="A108" s="58"/>
       <c r="B108" s="78"/>
       <c r="C108" s="32"/>
@@ -7516,13 +7547,13 @@
       <c r="F108" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="G108" s="189"/>
+      <c r="G108" s="179"/>
       <c r="H108" s="34"/>
       <c r="I108" s="36"/>
       <c r="J108" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K108" s="164" t="s">
+      <c r="K108" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L108" s="16"/>
@@ -7540,7 +7571,7 @@
       <c r="R108" s="103"/>
       <c r="S108" s="146"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19">
       <c r="A109" s="58"/>
       <c r="B109" s="78"/>
       <c r="C109" s="32"/>
@@ -7551,13 +7582,13 @@
       <c r="F109" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="G109" s="189"/>
+      <c r="G109" s="179"/>
       <c r="H109" s="34"/>
       <c r="I109" s="36"/>
       <c r="J109" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K109" s="164" t="s">
+      <c r="K109" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L109" s="16"/>
@@ -7575,7 +7606,7 @@
       <c r="R109" s="103"/>
       <c r="S109" s="146"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19">
       <c r="A110" s="58"/>
       <c r="B110" s="78"/>
       <c r="C110" s="32"/>
@@ -7586,13 +7617,13 @@
       <c r="F110" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="G110" s="189"/>
+      <c r="G110" s="179"/>
       <c r="H110" s="34"/>
       <c r="I110" s="36"/>
       <c r="J110" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K110" s="164" t="s">
+      <c r="K110" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L110" s="16"/>
@@ -7610,7 +7641,7 @@
       <c r="R110" s="103"/>
       <c r="S110" s="146"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19">
       <c r="A111" s="58"/>
       <c r="B111" s="78"/>
       <c r="C111" s="32"/>
@@ -7621,13 +7652,13 @@
       <c r="F111" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="G111" s="189"/>
+      <c r="G111" s="179"/>
       <c r="H111" s="34"/>
       <c r="I111" s="36"/>
       <c r="J111" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K111" s="164" t="s">
+      <c r="K111" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L111" s="16"/>
@@ -7645,7 +7676,7 @@
       <c r="R111" s="103"/>
       <c r="S111" s="146"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19">
       <c r="A112" s="58"/>
       <c r="B112" s="78"/>
       <c r="C112" s="32"/>
@@ -7656,13 +7687,13 @@
       <c r="F112" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="G112" s="189"/>
+      <c r="G112" s="179"/>
       <c r="H112" s="34"/>
       <c r="I112" s="36"/>
       <c r="J112" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K112" s="164" t="s">
+      <c r="K112" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L112" s="16"/>
@@ -7680,7 +7711,7 @@
       <c r="R112" s="69"/>
       <c r="S112" s="20"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19">
       <c r="A113" s="58"/>
       <c r="B113" s="78"/>
       <c r="C113" s="32"/>
@@ -7693,13 +7724,13 @@
       <c r="F113" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="G113" s="189"/>
+      <c r="G113" s="179"/>
       <c r="H113" s="34"/>
       <c r="I113" s="36"/>
       <c r="J113" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K113" s="164" t="s">
+      <c r="K113" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L113" s="16"/>
@@ -7717,7 +7748,7 @@
       <c r="R113" s="102"/>
       <c r="S113" s="104"/>
     </row>
-    <row r="114" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="27">
       <c r="A114" s="58"/>
       <c r="B114" s="78"/>
       <c r="C114" s="32"/>
@@ -7728,13 +7759,13 @@
       <c r="F114" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G114" s="189"/>
+      <c r="G114" s="179"/>
       <c r="H114" s="34"/>
       <c r="I114" s="36"/>
       <c r="J114" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K114" s="164" t="s">
+      <c r="K114" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L114" s="16"/>
@@ -7752,7 +7783,7 @@
       <c r="R114" s="69"/>
       <c r="S114" s="20"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19">
       <c r="A115" s="58"/>
       <c r="B115" s="78"/>
       <c r="C115" s="32"/>
@@ -7765,13 +7796,13 @@
       <c r="F115" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="G115" s="189"/>
+      <c r="G115" s="179"/>
       <c r="H115" s="34"/>
       <c r="I115" s="36"/>
       <c r="J115" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K115" s="164" t="s">
+      <c r="K115" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L115" s="73"/>
@@ -7789,7 +7820,7 @@
       <c r="R115" s="102"/>
       <c r="S115" s="104"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19">
       <c r="A116" s="58"/>
       <c r="B116" s="78"/>
       <c r="C116" s="32"/>
@@ -7800,13 +7831,13 @@
       <c r="F116" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G116" s="189"/>
+      <c r="G116" s="179"/>
       <c r="H116" s="34"/>
       <c r="I116" s="36"/>
       <c r="J116" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K116" s="164" t="s">
+      <c r="K116" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L116" s="73"/>
@@ -7824,7 +7855,7 @@
       <c r="R116" s="69"/>
       <c r="S116" s="20"/>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="27">
       <c r="A117" s="58"/>
       <c r="B117" s="78"/>
       <c r="C117" s="32"/>
@@ -7837,7 +7868,7 @@
       <c r="F117" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="G117" s="197"/>
+      <c r="G117" s="187"/>
       <c r="H117" s="34" t="s">
         <v>298</v>
       </c>
@@ -7845,7 +7876,7 @@
       <c r="J117" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K117" s="164" t="s">
+      <c r="K117" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L117" s="16"/>
@@ -7863,7 +7894,7 @@
       <c r="R117" s="102"/>
       <c r="S117" s="104"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19">
       <c r="A118" s="58"/>
       <c r="B118" s="78"/>
       <c r="C118" s="32"/>
@@ -7872,7 +7903,7 @@
         <v>195</v>
       </c>
       <c r="F118" s="32"/>
-      <c r="G118" s="198"/>
+      <c r="G118" s="188"/>
       <c r="H118" s="34" t="s">
         <v>299</v>
       </c>
@@ -7880,7 +7911,7 @@
       <c r="J118" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K118" s="164" t="s">
+      <c r="K118" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L118" s="16"/>
@@ -7898,7 +7929,7 @@
       <c r="R118" s="103"/>
       <c r="S118" s="146"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19">
       <c r="A119" s="58"/>
       <c r="B119" s="78"/>
       <c r="C119" s="32"/>
@@ -7907,7 +7938,7 @@
         <v>195</v>
       </c>
       <c r="F119" s="32"/>
-      <c r="G119" s="198"/>
+      <c r="G119" s="188"/>
       <c r="H119" s="34" t="s">
         <v>300</v>
       </c>
@@ -7915,7 +7946,7 @@
       <c r="J119" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K119" s="164" t="s">
+      <c r="K119" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L119" s="16"/>
@@ -7933,7 +7964,7 @@
       <c r="R119" s="103"/>
       <c r="S119" s="146"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19">
       <c r="A120" s="58"/>
       <c r="B120" s="78"/>
       <c r="C120" s="32"/>
@@ -7942,7 +7973,7 @@
         <v>195</v>
       </c>
       <c r="F120" s="32"/>
-      <c r="G120" s="198"/>
+      <c r="G120" s="188"/>
       <c r="H120" s="34" t="s">
         <v>301</v>
       </c>
@@ -7950,7 +7981,7 @@
       <c r="J120" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K120" s="164" t="s">
+      <c r="K120" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L120" s="16"/>
@@ -7968,7 +7999,7 @@
       <c r="R120" s="103"/>
       <c r="S120" s="146"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19">
       <c r="A121" s="58"/>
       <c r="B121" s="78"/>
       <c r="C121" s="32"/>
@@ -7977,7 +8008,7 @@
         <v>195</v>
       </c>
       <c r="F121" s="32"/>
-      <c r="G121" s="198"/>
+      <c r="G121" s="188"/>
       <c r="H121" s="34" t="s">
         <v>302</v>
       </c>
@@ -7985,7 +8016,7 @@
       <c r="J121" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K121" s="164" t="s">
+      <c r="K121" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L121" s="16"/>
@@ -8003,7 +8034,7 @@
       <c r="R121" s="103"/>
       <c r="S121" s="146"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19">
       <c r="A122" s="58"/>
       <c r="B122" s="78"/>
       <c r="C122" s="32"/>
@@ -8012,7 +8043,7 @@
         <v>195</v>
       </c>
       <c r="F122" s="32"/>
-      <c r="G122" s="198"/>
+      <c r="G122" s="188"/>
       <c r="H122" s="34" t="s">
         <v>303</v>
       </c>
@@ -8020,7 +8051,7 @@
       <c r="J122" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K122" s="164" t="s">
+      <c r="K122" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L122" s="16"/>
@@ -8038,7 +8069,7 @@
       <c r="R122" s="103"/>
       <c r="S122" s="146"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19">
       <c r="A123" s="58"/>
       <c r="B123" s="78"/>
       <c r="C123" s="32"/>
@@ -8047,7 +8078,7 @@
         <v>195</v>
       </c>
       <c r="F123" s="32"/>
-      <c r="G123" s="198"/>
+      <c r="G123" s="188"/>
       <c r="H123" s="34" t="s">
         <v>304</v>
       </c>
@@ -8055,7 +8086,7 @@
       <c r="J123" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K123" s="164" t="s">
+      <c r="K123" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L123" s="16"/>
@@ -8073,7 +8104,7 @@
       <c r="R123" s="103"/>
       <c r="S123" s="146"/>
     </row>
-    <row r="124" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="27">
       <c r="A124" s="58"/>
       <c r="B124" s="78"/>
       <c r="C124" s="32"/>
@@ -8082,7 +8113,7 @@
         <v>195</v>
       </c>
       <c r="F124" s="12"/>
-      <c r="G124" s="195"/>
+      <c r="G124" s="185"/>
       <c r="H124" s="34" t="s">
         <v>305</v>
       </c>
@@ -8090,7 +8121,7 @@
       <c r="J124" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K124" s="164" t="s">
+      <c r="K124" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L124" s="16"/>
@@ -8108,7 +8139,7 @@
       <c r="R124" s="103"/>
       <c r="S124" s="146"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19">
       <c r="A125" s="58"/>
       <c r="B125" s="78"/>
       <c r="C125" s="32"/>
@@ -8119,13 +8150,13 @@
       <c r="F125" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="G125" s="189"/>
+      <c r="G125" s="179"/>
       <c r="H125" s="34"/>
       <c r="I125" s="36"/>
       <c r="J125" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K125" s="164" t="s">
+      <c r="K125" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L125" s="16"/>
@@ -8143,7 +8174,7 @@
       <c r="R125" s="69"/>
       <c r="S125" s="20"/>
     </row>
-    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="27">
       <c r="A126" s="58"/>
       <c r="B126" s="78"/>
       <c r="C126" s="32"/>
@@ -8152,13 +8183,13 @@
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
-      <c r="G126" s="189"/>
+      <c r="G126" s="179"/>
       <c r="H126" s="34"/>
       <c r="I126" s="36"/>
       <c r="J126" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K126" s="164" t="s">
+      <c r="K126" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L126" s="16"/>
@@ -8176,7 +8207,7 @@
       <c r="R126" s="57"/>
       <c r="S126" s="16"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19">
       <c r="A127" s="58"/>
       <c r="B127" s="78"/>
       <c r="C127" s="32"/>
@@ -8187,13 +8218,13 @@
       <c r="F127" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G127" s="189"/>
+      <c r="G127" s="179"/>
       <c r="H127" s="34"/>
       <c r="I127" s="36"/>
       <c r="J127" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K127" s="164" t="s">
+      <c r="K127" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L127" s="16"/>
@@ -8211,7 +8242,7 @@
       <c r="R127" s="57"/>
       <c r="S127" s="16"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19">
       <c r="A128" s="58"/>
       <c r="B128" s="78"/>
       <c r="C128" s="32"/>
@@ -8224,13 +8255,13 @@
       <c r="F128" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="G128" s="189"/>
+      <c r="G128" s="179"/>
       <c r="H128" s="34"/>
       <c r="I128" s="36"/>
       <c r="J128" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K128" s="164" t="s">
+      <c r="K128" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L128" s="16"/>
@@ -8248,7 +8279,7 @@
       <c r="R128" s="102"/>
       <c r="S128" s="104"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19">
       <c r="A129" s="58"/>
       <c r="B129" s="80"/>
       <c r="C129" s="12"/>
@@ -8259,13 +8290,13 @@
       <c r="F129" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G129" s="189"/>
+      <c r="G129" s="179"/>
       <c r="H129" s="34"/>
       <c r="I129" s="36"/>
       <c r="J129" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K129" s="164" t="s">
+      <c r="K129" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L129" s="16"/>
@@ -8283,7 +8314,7 @@
       <c r="R129" s="69"/>
       <c r="S129" s="20"/>
     </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="27">
       <c r="A130" s="58"/>
       <c r="B130" s="78"/>
       <c r="C130" s="31" t="s">
@@ -8292,7 +8323,7 @@
       <c r="D130" s="63"/>
       <c r="E130" s="82"/>
       <c r="F130" s="63"/>
-      <c r="G130" s="191"/>
+      <c r="G130" s="181"/>
       <c r="H130" s="63"/>
       <c r="I130" s="63"/>
       <c r="J130" s="63"/>
@@ -8306,7 +8337,7 @@
       <c r="R130" s="63"/>
       <c r="S130" s="63"/>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="27">
       <c r="A131" s="58"/>
       <c r="B131" s="78"/>
       <c r="C131" s="32"/>
@@ -8319,13 +8350,13 @@
       <c r="F131" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="G131" s="195"/>
+      <c r="G131" s="185"/>
       <c r="H131" s="66"/>
       <c r="I131" s="70"/>
       <c r="J131" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K131" s="165" t="s">
+      <c r="K131" s="164" t="s">
         <v>233</v>
       </c>
       <c r="L131" s="69"/>
@@ -8343,7 +8374,7 @@
       <c r="R131" s="103"/>
       <c r="S131" s="146"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19">
       <c r="A132" s="58"/>
       <c r="B132" s="78"/>
       <c r="C132" s="32"/>
@@ -8354,13 +8385,13 @@
       <c r="F132" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="G132" s="189"/>
+      <c r="G132" s="179"/>
       <c r="H132" s="34"/>
       <c r="I132" s="15"/>
       <c r="J132" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K132" s="164" t="s">
+      <c r="K132" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L132" s="69"/>
@@ -8378,7 +8409,7 @@
       <c r="R132" s="69"/>
       <c r="S132" s="20"/>
     </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="27">
       <c r="A133" s="58"/>
       <c r="B133" s="78"/>
       <c r="C133" s="32"/>
@@ -8389,13 +8420,13 @@
       <c r="F133" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G133" s="189"/>
+      <c r="G133" s="179"/>
       <c r="H133" s="34"/>
       <c r="I133" s="15"/>
       <c r="J133" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K133" s="164" t="s">
+      <c r="K133" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L133" s="69"/>
@@ -8413,7 +8444,7 @@
       <c r="R133" s="57"/>
       <c r="S133" s="16"/>
     </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="27">
       <c r="A134" s="58"/>
       <c r="B134" s="78"/>
       <c r="C134" s="32"/>
@@ -8426,13 +8457,13 @@
       <c r="F134" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="G134" s="189"/>
+      <c r="G134" s="179"/>
       <c r="H134" s="34"/>
       <c r="I134" s="15"/>
       <c r="J134" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K134" s="164" t="s">
+      <c r="K134" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L134" s="69"/>
@@ -8450,7 +8481,7 @@
       <c r="R134" s="102"/>
       <c r="S134" s="104"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19">
       <c r="A135" s="58"/>
       <c r="B135" s="78"/>
       <c r="C135" s="32"/>
@@ -8461,13 +8492,13 @@
       <c r="F135" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="G135" s="189"/>
+      <c r="G135" s="179"/>
       <c r="H135" s="34"/>
       <c r="I135" s="15"/>
       <c r="J135" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K135" s="164" t="s">
+      <c r="K135" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L135" s="69"/>
@@ -8485,7 +8516,7 @@
       <c r="R135" s="103"/>
       <c r="S135" s="146"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19">
       <c r="A136" s="58"/>
       <c r="B136" s="78"/>
       <c r="C136" s="32"/>
@@ -8496,13 +8527,13 @@
       <c r="F136" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="G136" s="189"/>
+      <c r="G136" s="179"/>
       <c r="H136" s="34"/>
       <c r="I136" s="15"/>
       <c r="J136" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K136" s="164" t="s">
+      <c r="K136" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L136" s="69"/>
@@ -8520,7 +8551,7 @@
       <c r="R136" s="103"/>
       <c r="S136" s="146"/>
     </row>
-    <row r="137" spans="1:19" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" s="95" customFormat="1">
       <c r="A137" s="58"/>
       <c r="B137" s="85"/>
       <c r="C137" s="86"/>
@@ -8531,7 +8562,7 @@
       <c r="F137" s="89" t="s">
         <v>313</v>
       </c>
-      <c r="G137" s="199"/>
+      <c r="G137" s="189"/>
       <c r="H137" s="90"/>
       <c r="I137" s="91"/>
       <c r="J137" s="91" t="s">
@@ -8553,7 +8584,7 @@
       <c r="R137" s="93"/>
       <c r="S137" s="159"/>
     </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="27">
       <c r="A138" s="58"/>
       <c r="B138" s="78"/>
       <c r="C138" s="13" t="s">
@@ -8564,13 +8595,13 @@
       <c r="F138" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G138" s="189"/>
+      <c r="G138" s="179"/>
       <c r="H138" s="34"/>
       <c r="I138" s="15"/>
       <c r="J138" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K138" s="164" t="s">
+      <c r="K138" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L138" s="69"/>
@@ -8588,7 +8619,7 @@
       <c r="R138" s="57"/>
       <c r="S138" s="16"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19">
       <c r="A139" s="58"/>
       <c r="B139" s="78"/>
       <c r="C139" s="31" t="s">
@@ -8597,7 +8628,7 @@
       <c r="D139" s="63"/>
       <c r="E139" s="82"/>
       <c r="F139" s="63"/>
-      <c r="G139" s="191"/>
+      <c r="G139" s="181"/>
       <c r="H139" s="63"/>
       <c r="I139" s="63"/>
       <c r="J139" s="63"/>
@@ -8611,7 +8642,7 @@
       <c r="R139" s="63"/>
       <c r="S139" s="63"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19">
       <c r="A140" s="58"/>
       <c r="B140" s="78"/>
       <c r="C140" s="32"/>
@@ -8624,13 +8655,13 @@
       <c r="F140" s="71" t="s">
         <v>314</v>
       </c>
-      <c r="G140" s="195"/>
+      <c r="G140" s="185"/>
       <c r="H140" s="66"/>
       <c r="I140" s="70"/>
       <c r="J140" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K140" s="165" t="s">
+      <c r="K140" s="164" t="s">
         <v>233</v>
       </c>
       <c r="L140" s="69"/>
@@ -8648,7 +8679,7 @@
       <c r="R140" s="69"/>
       <c r="S140" s="16"/>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="27">
       <c r="A141" s="58"/>
       <c r="B141" s="78"/>
       <c r="C141" s="32"/>
@@ -8659,13 +8690,13 @@
       <c r="F141" s="36" t="s">
         <v>315</v>
       </c>
-      <c r="G141" s="189"/>
+      <c r="G141" s="179"/>
       <c r="H141" s="34"/>
       <c r="I141" s="15"/>
       <c r="J141" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K141" s="164" t="s">
+      <c r="K141" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L141" s="69"/>
@@ -8683,7 +8714,7 @@
       <c r="R141" s="57"/>
       <c r="S141" s="16"/>
     </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="27">
       <c r="A142" s="58"/>
       <c r="B142" s="78"/>
       <c r="C142" s="32"/>
@@ -8694,13 +8725,13 @@
       <c r="F142" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="G142" s="189"/>
+      <c r="G142" s="179"/>
       <c r="H142" s="34"/>
       <c r="I142" s="15"/>
       <c r="J142" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K142" s="164" t="s">
+      <c r="K142" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L142" s="69"/>
@@ -8718,7 +8749,7 @@
       <c r="R142" s="57"/>
       <c r="S142" s="16"/>
     </row>
-    <row r="143" spans="1:19" s="95" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" s="95" customFormat="1">
       <c r="A143" s="96"/>
       <c r="B143" s="85"/>
       <c r="C143" s="86"/>
@@ -8727,7 +8758,7 @@
       </c>
       <c r="E143" s="88"/>
       <c r="F143" s="89"/>
-      <c r="G143" s="199"/>
+      <c r="G143" s="189"/>
       <c r="H143" s="90"/>
       <c r="I143" s="91"/>
       <c r="J143" s="91"/>
@@ -8743,7 +8774,7 @@
       <c r="R143" s="93"/>
       <c r="S143" s="159"/>
     </row>
-    <row r="144" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="27">
       <c r="A144" s="58"/>
       <c r="B144" s="78"/>
       <c r="C144" s="12"/>
@@ -8752,13 +8783,13 @@
       </c>
       <c r="E144" s="33"/>
       <c r="F144" s="36"/>
-      <c r="G144" s="189"/>
+      <c r="G144" s="179"/>
       <c r="H144" s="34"/>
       <c r="I144" s="15"/>
       <c r="J144" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K144" s="164" t="s">
+      <c r="K144" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L144" s="69"/>
@@ -8776,7 +8807,7 @@
       <c r="R144" s="57"/>
       <c r="S144" s="16"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19">
       <c r="A145" s="58"/>
       <c r="B145" s="78"/>
       <c r="C145" s="31" t="s">
@@ -8785,7 +8816,7 @@
       <c r="D145" s="63"/>
       <c r="E145" s="82"/>
       <c r="F145" s="63"/>
-      <c r="G145" s="191"/>
+      <c r="G145" s="181"/>
       <c r="H145" s="63"/>
       <c r="I145" s="63"/>
       <c r="J145" s="63"/>
@@ -8796,10 +8827,10 @@
       <c r="O145" s="63"/>
       <c r="P145" s="63"/>
       <c r="Q145" s="63"/>
-      <c r="R145" s="168"/>
-      <c r="S145" s="168"/>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R145" s="167"/>
+      <c r="S145" s="167"/>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="58"/>
       <c r="B146" s="78"/>
       <c r="C146" s="32"/>
@@ -8812,13 +8843,13 @@
       <c r="F146" s="71" t="s">
         <v>318</v>
       </c>
-      <c r="G146" s="195"/>
+      <c r="G146" s="185"/>
       <c r="H146" s="66"/>
       <c r="I146" s="71"/>
       <c r="J146" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K146" s="165" t="s">
+      <c r="K146" s="164" t="s">
         <v>233</v>
       </c>
       <c r="L146" s="69"/>
@@ -8836,7 +8867,7 @@
       <c r="R146" s="69"/>
       <c r="S146" s="16"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19">
       <c r="A147" s="58"/>
       <c r="B147" s="78"/>
       <c r="C147" s="32"/>
@@ -8847,13 +8878,13 @@
       <c r="F147" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="G147" s="189"/>
+      <c r="G147" s="179"/>
       <c r="H147" s="34"/>
       <c r="I147" s="36"/>
       <c r="J147" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K147" s="164" t="s">
+      <c r="K147" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L147" s="69"/>
@@ -8871,7 +8902,7 @@
       <c r="R147" s="57"/>
       <c r="S147" s="16"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19">
       <c r="A148" s="58"/>
       <c r="B148" s="78"/>
       <c r="C148" s="32"/>
@@ -8882,13 +8913,13 @@
       <c r="F148" s="36" t="s">
         <v>320</v>
       </c>
-      <c r="G148" s="189"/>
+      <c r="G148" s="179"/>
       <c r="H148" s="34"/>
       <c r="I148" s="36"/>
       <c r="J148" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K148" s="164" t="s">
+      <c r="K148" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L148" s="69"/>
@@ -8906,7 +8937,7 @@
       <c r="R148" s="57"/>
       <c r="S148" s="16"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19">
       <c r="A149" s="58"/>
       <c r="B149" s="78"/>
       <c r="C149" s="32"/>
@@ -8917,13 +8948,13 @@
       <c r="F149" s="36" t="s">
         <v>321</v>
       </c>
-      <c r="G149" s="189"/>
+      <c r="G149" s="179"/>
       <c r="H149" s="34"/>
       <c r="I149" s="36"/>
       <c r="J149" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K149" s="164" t="s">
+      <c r="K149" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L149" s="69"/>
@@ -8941,7 +8972,7 @@
       <c r="R149" s="57"/>
       <c r="S149" s="16"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19">
       <c r="A150" s="58"/>
       <c r="B150" s="78"/>
       <c r="C150" s="32"/>
@@ -8952,13 +8983,13 @@
       <c r="F150" s="36" t="s">
         <v>322</v>
       </c>
-      <c r="G150" s="189"/>
+      <c r="G150" s="179"/>
       <c r="H150" s="34"/>
       <c r="I150" s="36"/>
       <c r="J150" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K150" s="164" t="s">
+      <c r="K150" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L150" s="69"/>
@@ -8976,7 +9007,7 @@
       <c r="R150" s="57"/>
       <c r="S150" s="16"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19">
       <c r="A151" s="58"/>
       <c r="B151" s="78"/>
       <c r="C151" s="32"/>
@@ -8989,13 +9020,13 @@
       <c r="F151" s="36" t="s">
         <v>323</v>
       </c>
-      <c r="G151" s="189"/>
+      <c r="G151" s="179"/>
       <c r="H151" s="34"/>
       <c r="I151" s="36"/>
       <c r="J151" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K151" s="164" t="s">
+      <c r="K151" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L151" s="69"/>
@@ -9013,7 +9044,7 @@
       <c r="R151" s="57"/>
       <c r="S151" s="16"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19">
       <c r="A152" s="58"/>
       <c r="B152" s="78"/>
       <c r="C152" s="32"/>
@@ -9024,13 +9055,13 @@
       <c r="F152" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="G152" s="189"/>
+      <c r="G152" s="179"/>
       <c r="H152" s="34"/>
       <c r="I152" s="36"/>
       <c r="J152" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K152" s="164" t="s">
+      <c r="K152" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L152" s="69"/>
@@ -9048,7 +9079,7 @@
       <c r="R152" s="57"/>
       <c r="S152" s="16"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19">
       <c r="A153" s="58"/>
       <c r="B153" s="78"/>
       <c r="C153" s="32"/>
@@ -9059,13 +9090,13 @@
       <c r="F153" s="36" t="s">
         <v>325</v>
       </c>
-      <c r="G153" s="189"/>
+      <c r="G153" s="179"/>
       <c r="H153" s="34"/>
       <c r="I153" s="36"/>
       <c r="J153" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K153" s="164" t="s">
+      <c r="K153" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L153" s="69"/>
@@ -9083,7 +9114,7 @@
       <c r="R153" s="57"/>
       <c r="S153" s="16"/>
     </row>
-    <row r="154" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="27">
       <c r="A154" s="58"/>
       <c r="B154" s="78"/>
       <c r="C154" s="32"/>
@@ -9094,13 +9125,13 @@
       <c r="F154" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="G154" s="189"/>
+      <c r="G154" s="179"/>
       <c r="H154" s="34"/>
       <c r="I154" s="36"/>
       <c r="J154" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K154" s="164" t="s">
+      <c r="K154" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L154" s="69"/>
@@ -9118,7 +9149,7 @@
       <c r="R154" s="57"/>
       <c r="S154" s="16"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19">
       <c r="A155" s="58"/>
       <c r="B155" s="78"/>
       <c r="C155" s="32"/>
@@ -9129,13 +9160,13 @@
       <c r="F155" s="36" t="s">
         <v>327</v>
       </c>
-      <c r="G155" s="189"/>
+      <c r="G155" s="179"/>
       <c r="H155" s="34"/>
       <c r="I155" s="36"/>
       <c r="J155" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K155" s="164" t="s">
+      <c r="K155" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L155" s="69"/>
@@ -9153,7 +9184,7 @@
       <c r="R155" s="57"/>
       <c r="S155" s="16"/>
     </row>
-    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="27">
       <c r="A156" s="58"/>
       <c r="B156" s="78"/>
       <c r="C156" s="32"/>
@@ -9166,13 +9197,13 @@
       <c r="F156" s="36" t="s">
         <v>328</v>
       </c>
-      <c r="G156" s="189"/>
+      <c r="G156" s="179"/>
       <c r="H156" s="34"/>
       <c r="I156" s="36"/>
       <c r="J156" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K156" s="164" t="s">
+      <c r="K156" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L156" s="68"/>
@@ -9190,7 +9221,7 @@
       <c r="R156" s="57"/>
       <c r="S156" s="16"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19">
       <c r="A157" s="58"/>
       <c r="B157" s="78"/>
       <c r="C157" s="32"/>
@@ -9201,13 +9232,13 @@
       <c r="F157" s="36" t="s">
         <v>329</v>
       </c>
-      <c r="G157" s="189"/>
+      <c r="G157" s="179"/>
       <c r="H157" s="34"/>
       <c r="I157" s="36"/>
       <c r="J157" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K157" s="164" t="s">
+      <c r="K157" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L157" s="68"/>
@@ -9225,7 +9256,7 @@
       <c r="R157" s="57"/>
       <c r="S157" s="16"/>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="27">
       <c r="A158" s="58"/>
       <c r="B158" s="78"/>
       <c r="C158" s="32"/>
@@ -9236,13 +9267,13 @@
       <c r="F158" s="36" t="s">
         <v>330</v>
       </c>
-      <c r="G158" s="189"/>
+      <c r="G158" s="179"/>
       <c r="H158" s="34"/>
       <c r="I158" s="36"/>
       <c r="J158" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K158" s="164" t="s">
+      <c r="K158" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L158" s="68"/>
@@ -9260,7 +9291,7 @@
       <c r="R158" s="57"/>
       <c r="S158" s="16"/>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="27">
       <c r="A159" s="58"/>
       <c r="B159" s="78"/>
       <c r="C159" s="32"/>
@@ -9271,13 +9302,13 @@
       <c r="F159" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="G159" s="189"/>
+      <c r="G159" s="179"/>
       <c r="H159" s="34"/>
       <c r="I159" s="36"/>
       <c r="J159" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K159" s="164" t="s">
+      <c r="K159" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L159" s="68"/>
@@ -9295,7 +9326,7 @@
       <c r="R159" s="57"/>
       <c r="S159" s="16"/>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="27">
       <c r="A160" s="58"/>
       <c r="B160" s="78"/>
       <c r="C160" s="32"/>
@@ -9306,13 +9337,13 @@
       <c r="F160" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="G160" s="189"/>
+      <c r="G160" s="179"/>
       <c r="H160" s="34"/>
       <c r="I160" s="36"/>
       <c r="J160" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K160" s="164" t="s">
+      <c r="K160" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L160" s="68"/>
@@ -9330,7 +9361,7 @@
       <c r="R160" s="57"/>
       <c r="S160" s="16"/>
     </row>
-    <row r="161" spans="1:20" ht="27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="27">
       <c r="A161" s="58"/>
       <c r="B161" s="78"/>
       <c r="C161" s="12"/>
@@ -9341,7 +9372,7 @@
       <c r="F161" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="G161" s="189"/>
+      <c r="G161" s="179"/>
       <c r="H161" s="34"/>
       <c r="I161" s="13"/>
       <c r="J161" s="22" t="s">
@@ -9369,7 +9400,7 @@
       <c r="R161" s="74"/>
       <c r="S161" s="83"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20">
       <c r="A162" s="58"/>
       <c r="B162" s="78"/>
       <c r="C162" s="31" t="s">
@@ -9378,7 +9409,7 @@
       <c r="D162" s="63"/>
       <c r="E162" s="82"/>
       <c r="F162" s="63"/>
-      <c r="G162" s="191"/>
+      <c r="G162" s="181"/>
       <c r="H162" s="63"/>
       <c r="I162" s="63"/>
       <c r="J162" s="63"/>
@@ -9392,7 +9423,7 @@
       <c r="R162" s="63"/>
       <c r="S162" s="63"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20">
       <c r="A163" s="58"/>
       <c r="B163" s="78"/>
       <c r="C163" s="32"/>
@@ -9401,13 +9432,13 @@
       </c>
       <c r="E163" s="33"/>
       <c r="F163" s="71"/>
-      <c r="G163" s="195"/>
+      <c r="G163" s="185"/>
       <c r="H163" s="66"/>
       <c r="I163" s="71"/>
       <c r="J163" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K163" s="165" t="s">
+      <c r="K163" s="164" t="s">
         <v>233</v>
       </c>
       <c r="L163" s="69"/>
@@ -9430,7 +9461,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" ht="27">
       <c r="A164" s="58"/>
       <c r="B164" s="78"/>
       <c r="C164" s="32"/>
@@ -9439,7 +9470,7 @@
       </c>
       <c r="E164" s="33"/>
       <c r="F164" s="71"/>
-      <c r="G164" s="195"/>
+      <c r="G164" s="185"/>
       <c r="H164" s="66"/>
       <c r="I164" s="71"/>
       <c r="J164" s="98"/>
@@ -9448,7 +9479,7 @@
       <c r="M164" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N164" s="167"/>
+      <c r="N164" s="166"/>
       <c r="O164" s="69"/>
       <c r="P164" s="162">
         <v>400201</v>
@@ -9457,7 +9488,7 @@
       <c r="R164" s="69"/>
       <c r="S164" s="16"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20">
       <c r="A165" s="58"/>
       <c r="B165" s="78"/>
       <c r="C165" s="32"/>
@@ -9466,7 +9497,7 @@
       </c>
       <c r="E165" s="33"/>
       <c r="F165" s="36"/>
-      <c r="G165" s="189"/>
+      <c r="G165" s="179"/>
       <c r="H165" s="34"/>
       <c r="I165" s="36"/>
       <c r="J165" s="99"/>
@@ -9488,7 +9519,7 @@
       <c r="R165" s="57"/>
       <c r="S165" s="16"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20">
       <c r="A166" s="58"/>
       <c r="B166" s="78"/>
       <c r="C166" s="32"/>
@@ -9497,7 +9528,7 @@
       </c>
       <c r="E166" s="33"/>
       <c r="F166" s="100"/>
-      <c r="G166" s="197"/>
+      <c r="G166" s="187"/>
       <c r="H166" s="101"/>
       <c r="I166" s="100"/>
       <c r="J166" s="99"/>
@@ -9508,14 +9539,14 @@
       </c>
       <c r="N166" s="122"/>
       <c r="O166" s="102"/>
-      <c r="P166" s="169">
+      <c r="P166" s="168">
         <v>400487</v>
       </c>
       <c r="Q166" s="102"/>
       <c r="R166" s="102"/>
       <c r="S166" s="16"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20">
       <c r="A167" s="58"/>
       <c r="B167" s="78"/>
       <c r="C167" s="32"/>
@@ -9524,7 +9555,7 @@
       </c>
       <c r="E167" s="33"/>
       <c r="F167" s="100"/>
-      <c r="G167" s="197"/>
+      <c r="G167" s="187"/>
       <c r="H167" s="101"/>
       <c r="I167" s="100"/>
       <c r="J167" s="99"/>
@@ -9546,7 +9577,7 @@
       <c r="R167" s="102"/>
       <c r="S167" s="16"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20">
       <c r="A168" s="58"/>
       <c r="B168" s="79" t="s">
         <v>95</v>
@@ -9555,7 +9586,7 @@
       <c r="D168" s="63"/>
       <c r="E168" s="82"/>
       <c r="F168" s="63"/>
-      <c r="G168" s="191"/>
+      <c r="G168" s="181"/>
       <c r="H168" s="63"/>
       <c r="I168" s="63"/>
       <c r="J168" s="63"/>
@@ -9569,7 +9600,7 @@
       <c r="R168" s="63"/>
       <c r="S168" s="63"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20">
       <c r="A169" s="58"/>
       <c r="B169" s="78"/>
       <c r="C169" s="32" t="s">
@@ -9578,7 +9609,7 @@
       <c r="D169" s="63"/>
       <c r="E169" s="82"/>
       <c r="F169" s="63"/>
-      <c r="G169" s="191"/>
+      <c r="G169" s="181"/>
       <c r="H169" s="63"/>
       <c r="I169" s="63"/>
       <c r="J169" s="63"/>
@@ -9592,7 +9623,7 @@
       <c r="R169" s="63"/>
       <c r="S169" s="63"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20">
       <c r="A170" s="58"/>
       <c r="B170" s="78"/>
       <c r="C170" s="32"/>
@@ -9605,7 +9636,7 @@
       <c r="F170" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="G170" s="195"/>
+      <c r="G170" s="185"/>
       <c r="H170" s="66"/>
       <c r="I170" s="70" t="s">
         <v>344</v>
@@ -9635,7 +9666,7 @@
       <c r="R170" s="69"/>
       <c r="S170" s="16"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20">
       <c r="A171" s="58"/>
       <c r="B171" s="78"/>
       <c r="C171" s="32"/>
@@ -9646,7 +9677,7 @@
       <c r="F171" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G171" s="189"/>
+      <c r="G171" s="179"/>
       <c r="H171" s="34"/>
       <c r="I171" s="106" t="s">
         <v>347</v>
@@ -9676,7 +9707,7 @@
       <c r="R171" s="57"/>
       <c r="S171" s="16"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20">
       <c r="A172" s="58"/>
       <c r="B172" s="78"/>
       <c r="C172" s="32"/>
@@ -9687,7 +9718,7 @@
         <v>343</v>
       </c>
       <c r="F172" s="36"/>
-      <c r="G172" s="189"/>
+      <c r="G172" s="179"/>
       <c r="H172" s="34"/>
       <c r="I172" s="15" t="s">
         <v>344</v>
@@ -9717,7 +9748,7 @@
       <c r="R172" s="57"/>
       <c r="S172" s="16"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20">
       <c r="A173" s="58"/>
       <c r="B173" s="78"/>
       <c r="C173" s="32"/>
@@ -9728,7 +9759,7 @@
         <v>343</v>
       </c>
       <c r="F173" s="100"/>
-      <c r="G173" s="197"/>
+      <c r="G173" s="187"/>
       <c r="H173" s="101"/>
       <c r="I173" s="107" t="s">
         <v>347</v>
@@ -9758,7 +9789,7 @@
       <c r="R173" s="102"/>
       <c r="S173" s="16"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20">
       <c r="A174" s="58"/>
       <c r="B174" s="78"/>
       <c r="C174" s="31" t="s">
@@ -9767,7 +9798,7 @@
       <c r="D174" s="63"/>
       <c r="E174" s="105"/>
       <c r="F174" s="63"/>
-      <c r="G174" s="191"/>
+      <c r="G174" s="181"/>
       <c r="H174" s="63"/>
       <c r="I174" s="63"/>
       <c r="J174" s="63"/>
@@ -9778,10 +9809,10 @@
       <c r="O174" s="63"/>
       <c r="P174" s="63"/>
       <c r="Q174" s="63"/>
-      <c r="R174" s="168"/>
-      <c r="S174" s="168"/>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R174" s="167"/>
+      <c r="S174" s="167"/>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" s="58"/>
       <c r="B175" s="78"/>
       <c r="C175" s="32"/>
@@ -9792,7 +9823,7 @@
         <v>343</v>
       </c>
       <c r="F175" s="71"/>
-      <c r="G175" s="195"/>
+      <c r="G175" s="185"/>
       <c r="H175" s="66"/>
       <c r="I175" s="70" t="s">
         <v>344</v>
@@ -9822,7 +9853,7 @@
       <c r="R175" s="69"/>
       <c r="S175" s="20"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20">
       <c r="A176" s="58"/>
       <c r="B176" s="78"/>
       <c r="C176" s="12"/>
@@ -9833,7 +9864,7 @@
         <v>343</v>
       </c>
       <c r="F176" s="100"/>
-      <c r="G176" s="197"/>
+      <c r="G176" s="187"/>
       <c r="H176" s="101"/>
       <c r="I176" s="107" t="s">
         <v>347</v>
@@ -9863,7 +9894,7 @@
       <c r="R176" s="102"/>
       <c r="S176" s="104"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19">
       <c r="A177" s="58"/>
       <c r="B177" s="78"/>
       <c r="C177" s="31" t="s">
@@ -9874,7 +9905,7 @@
         <v>343</v>
       </c>
       <c r="F177" s="63"/>
-      <c r="G177" s="191"/>
+      <c r="G177" s="181"/>
       <c r="H177" s="63"/>
       <c r="I177" s="63"/>
       <c r="J177" s="63"/>
@@ -9888,7 +9919,7 @@
       <c r="R177" s="63"/>
       <c r="S177" s="63"/>
     </row>
-    <row r="178" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="27">
       <c r="A178" s="58"/>
       <c r="B178" s="78"/>
       <c r="C178" s="32"/>
@@ -9899,7 +9930,7 @@
         <v>343</v>
       </c>
       <c r="F178" s="71"/>
-      <c r="G178" s="195"/>
+      <c r="G178" s="185"/>
       <c r="H178" s="66"/>
       <c r="I178" s="108" t="s">
         <v>347</v>
@@ -9927,7 +9958,7 @@
       <c r="R178" s="69"/>
       <c r="S178" s="20"/>
     </row>
-    <row r="179" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="27">
       <c r="A179" s="58"/>
       <c r="B179" s="78"/>
       <c r="C179" s="12"/>
@@ -9938,7 +9969,7 @@
         <v>343</v>
       </c>
       <c r="F179" s="36"/>
-      <c r="G179" s="189"/>
+      <c r="G179" s="179"/>
       <c r="H179" s="34"/>
       <c r="I179" s="106" t="s">
         <v>347</v>
@@ -9970,7 +10001,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19">
       <c r="A180" s="58"/>
       <c r="B180" s="78"/>
       <c r="C180" s="13" t="s">
@@ -9981,7 +10012,7 @@
         <v>343</v>
       </c>
       <c r="F180" s="100"/>
-      <c r="G180" s="197"/>
+      <c r="G180" s="187"/>
       <c r="H180" s="109"/>
       <c r="I180" s="107" t="s">
         <v>347</v>
@@ -10011,7 +10042,7 @@
       <c r="R180" s="102"/>
       <c r="S180" s="104"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19">
       <c r="A181" s="58"/>
       <c r="B181" s="78"/>
       <c r="C181" s="31" t="s">
@@ -10022,7 +10053,7 @@
         <v>343</v>
       </c>
       <c r="F181" s="63"/>
-      <c r="G181" s="191"/>
+      <c r="G181" s="181"/>
       <c r="H181" s="63"/>
       <c r="I181" s="63"/>
       <c r="J181" s="63"/>
@@ -10036,7 +10067,7 @@
       <c r="R181" s="63"/>
       <c r="S181" s="63"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19">
       <c r="A182" s="58"/>
       <c r="B182" s="78"/>
       <c r="C182" s="32"/>
@@ -10047,7 +10078,7 @@
         <v>343</v>
       </c>
       <c r="F182" s="71"/>
-      <c r="G182" s="195"/>
+      <c r="G182" s="185"/>
       <c r="H182" s="110"/>
       <c r="I182" s="108" t="s">
         <v>347</v>
@@ -10077,7 +10108,7 @@
       <c r="R182" s="69"/>
       <c r="S182" s="20"/>
     </row>
-    <row r="183" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="27">
       <c r="A183" s="58"/>
       <c r="B183" s="78"/>
       <c r="C183" s="32"/>
@@ -10088,7 +10119,7 @@
         <v>343</v>
       </c>
       <c r="F183" s="13"/>
-      <c r="G183" s="189"/>
+      <c r="G183" s="179"/>
       <c r="H183" s="82"/>
       <c r="I183" s="33" t="s">
         <v>347</v>
@@ -10118,7 +10149,7 @@
       <c r="R183" s="72"/>
       <c r="S183" s="73"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19">
       <c r="A184" s="58"/>
       <c r="B184" s="78"/>
       <c r="C184" s="32"/>
@@ -10129,7 +10160,7 @@
         <v>343</v>
       </c>
       <c r="F184" s="36"/>
-      <c r="G184" s="189"/>
+      <c r="G184" s="179"/>
       <c r="H184" s="82"/>
       <c r="I184" s="112" t="s">
         <v>347</v>
@@ -10159,7 +10190,7 @@
       <c r="R184" s="57"/>
       <c r="S184" s="16"/>
     </row>
-    <row r="185" spans="1:19" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" s="81" customFormat="1" ht="45" customHeight="1">
       <c r="A185" s="114"/>
       <c r="B185" s="115"/>
       <c r="C185" s="116"/>
@@ -10170,7 +10201,7 @@
         <v>343</v>
       </c>
       <c r="F185" s="14"/>
-      <c r="G185" s="197"/>
+      <c r="G185" s="187"/>
       <c r="H185" s="118"/>
       <c r="I185" s="119" t="s">
         <v>347</v>
@@ -10196,7 +10227,7 @@
       <c r="R185" s="120"/>
       <c r="S185" s="123"/>
     </row>
-    <row r="186" spans="1:19" s="81" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" s="81" customFormat="1" ht="40.5">
       <c r="A186" s="114"/>
       <c r="B186" s="115"/>
       <c r="C186" s="116"/>
@@ -10207,7 +10238,7 @@
       <c r="F186" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="G186" s="197"/>
+      <c r="G186" s="187"/>
       <c r="H186" s="118"/>
       <c r="I186" s="119" t="s">
         <v>347</v>
@@ -10233,7 +10264,7 @@
       <c r="R186" s="120"/>
       <c r="S186" s="123"/>
     </row>
-    <row r="187" spans="1:19" s="81" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" s="81" customFormat="1" ht="40.5">
       <c r="A187" s="114"/>
       <c r="B187" s="115"/>
       <c r="C187" s="116"/>
@@ -10244,7 +10275,7 @@
       <c r="F187" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="G187" s="197"/>
+      <c r="G187" s="187"/>
       <c r="H187" s="118"/>
       <c r="I187" s="119" t="s">
         <v>347</v>
@@ -10270,7 +10301,7 @@
       <c r="R187" s="120"/>
       <c r="S187" s="123"/>
     </row>
-    <row r="188" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="27">
       <c r="A188" s="58"/>
       <c r="B188" s="78"/>
       <c r="C188" s="12"/>
@@ -10281,7 +10312,7 @@
         <v>343</v>
       </c>
       <c r="F188" s="100"/>
-      <c r="G188" s="197"/>
+      <c r="G188" s="187"/>
       <c r="H188" s="125"/>
       <c r="I188" s="126" t="s">
         <v>347</v>
@@ -10311,7 +10342,7 @@
       <c r="R188" s="102"/>
       <c r="S188" s="104"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19">
       <c r="A189" s="58"/>
       <c r="B189" s="78"/>
       <c r="C189" s="31" t="s">
@@ -10322,7 +10353,7 @@
         <v>343</v>
       </c>
       <c r="F189" s="63"/>
-      <c r="G189" s="191"/>
+      <c r="G189" s="181"/>
       <c r="H189" s="63"/>
       <c r="I189" s="63"/>
       <c r="J189" s="63"/>
@@ -10336,7 +10367,7 @@
       <c r="R189" s="63"/>
       <c r="S189" s="63"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19">
       <c r="A190" s="58"/>
       <c r="B190" s="78"/>
       <c r="C190" s="32"/>
@@ -10347,7 +10378,7 @@
         <v>343</v>
       </c>
       <c r="F190" s="71"/>
-      <c r="G190" s="195"/>
+      <c r="G190" s="185"/>
       <c r="H190" s="129"/>
       <c r="I190" s="130" t="s">
         <v>347</v>
@@ -10377,7 +10408,7 @@
       <c r="R190" s="69"/>
       <c r="S190" s="20"/>
     </row>
-    <row r="191" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="27">
       <c r="A191" s="58"/>
       <c r="B191" s="78"/>
       <c r="C191" s="32"/>
@@ -10388,7 +10419,7 @@
         <v>343</v>
       </c>
       <c r="F191" s="36"/>
-      <c r="G191" s="189"/>
+      <c r="G191" s="179"/>
       <c r="H191" s="82"/>
       <c r="I191" s="56" t="s">
         <v>344</v>
@@ -10418,7 +10449,7 @@
       <c r="R191" s="57"/>
       <c r="S191" s="16"/>
     </row>
-    <row r="192" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="27">
       <c r="A192" s="58"/>
       <c r="B192" s="78"/>
       <c r="C192" s="32"/>
@@ -10429,7 +10460,7 @@
         <v>343</v>
       </c>
       <c r="F192" s="36"/>
-      <c r="G192" s="189"/>
+      <c r="G192" s="179"/>
       <c r="H192" s="82"/>
       <c r="I192" s="56" t="s">
         <v>344</v>
@@ -10459,7 +10490,7 @@
       <c r="R192" s="57"/>
       <c r="S192" s="16"/>
     </row>
-    <row r="193" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="27">
       <c r="A193" s="58"/>
       <c r="B193" s="78"/>
       <c r="C193" s="32"/>
@@ -10470,7 +10501,7 @@
         <v>343</v>
       </c>
       <c r="F193" s="36"/>
-      <c r="G193" s="189"/>
+      <c r="G193" s="179"/>
       <c r="H193" s="132"/>
       <c r="I193" s="112" t="s">
         <v>347</v>
@@ -10500,7 +10531,7 @@
       <c r="R193" s="57"/>
       <c r="S193" s="16"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19">
       <c r="A194" s="58"/>
       <c r="B194" s="78"/>
       <c r="C194" s="32"/>
@@ -10511,7 +10542,7 @@
         <v>343</v>
       </c>
       <c r="F194" s="36"/>
-      <c r="G194" s="189"/>
+      <c r="G194" s="179"/>
       <c r="H194" s="132"/>
       <c r="I194" s="106" t="s">
         <v>347</v>
@@ -10541,7 +10572,7 @@
       <c r="R194" s="57"/>
       <c r="S194" s="16"/>
     </row>
-    <row r="195" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="27">
       <c r="A195" s="58"/>
       <c r="B195" s="78"/>
       <c r="C195" s="32"/>
@@ -10552,7 +10583,7 @@
         <v>343</v>
       </c>
       <c r="F195" s="36"/>
-      <c r="G195" s="189"/>
+      <c r="G195" s="179"/>
       <c r="H195" s="132"/>
       <c r="I195" s="112" t="s">
         <v>347</v>
@@ -10582,7 +10613,7 @@
       <c r="R195" s="57"/>
       <c r="S195" s="16"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19">
       <c r="A196" s="58"/>
       <c r="B196" s="78"/>
       <c r="C196" s="32"/>
@@ -10593,7 +10624,7 @@
         <v>343</v>
       </c>
       <c r="F196" s="36"/>
-      <c r="G196" s="189"/>
+      <c r="G196" s="179"/>
       <c r="H196" s="132"/>
       <c r="I196" s="33" t="s">
         <v>347</v>
@@ -10623,7 +10654,7 @@
       <c r="R196" s="57"/>
       <c r="S196" s="16"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19">
       <c r="A197" s="58"/>
       <c r="B197" s="78"/>
       <c r="C197" s="32"/>
@@ -10636,7 +10667,7 @@
       <c r="F197" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G197" s="189"/>
+      <c r="G197" s="179"/>
       <c r="H197" s="132"/>
       <c r="I197" s="33" t="s">
         <v>347</v>
@@ -10666,7 +10697,7 @@
       <c r="R197" s="57"/>
       <c r="S197" s="16"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19">
       <c r="A198" s="58"/>
       <c r="B198" s="78"/>
       <c r="C198" s="32"/>
@@ -10677,7 +10708,7 @@
       <c r="F198" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G198" s="189"/>
+      <c r="G198" s="179"/>
       <c r="H198" s="132"/>
       <c r="I198" s="33" t="s">
         <v>347</v>
@@ -10707,7 +10738,7 @@
       <c r="R198" s="57"/>
       <c r="S198" s="16"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19">
       <c r="A199" s="58"/>
       <c r="B199" s="78"/>
       <c r="C199" s="12"/>
@@ -10718,7 +10749,7 @@
       <c r="F199" s="100" t="s">
         <v>377</v>
       </c>
-      <c r="G199" s="197"/>
+      <c r="G199" s="187"/>
       <c r="H199" s="109"/>
       <c r="I199" s="135" t="s">
         <v>347</v>
@@ -10748,7 +10779,7 @@
       <c r="R199" s="102"/>
       <c r="S199" s="104"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19">
       <c r="A200" s="58"/>
       <c r="B200" s="78"/>
       <c r="C200" s="31" t="s">
@@ -10759,7 +10790,7 @@
         <v>343</v>
       </c>
       <c r="F200" s="63"/>
-      <c r="G200" s="191"/>
+      <c r="G200" s="181"/>
       <c r="H200" s="63"/>
       <c r="I200" s="63"/>
       <c r="J200" s="63"/>
@@ -10773,7 +10804,7 @@
       <c r="R200" s="63"/>
       <c r="S200" s="63"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19">
       <c r="A201" s="58"/>
       <c r="B201" s="78"/>
       <c r="C201" s="32"/>
@@ -10784,7 +10815,7 @@
         <v>343</v>
       </c>
       <c r="F201" s="71"/>
-      <c r="G201" s="195"/>
+      <c r="G201" s="185"/>
       <c r="H201" s="110"/>
       <c r="I201" s="105" t="s">
         <v>347</v>
@@ -10814,7 +10845,7 @@
       <c r="R201" s="69"/>
       <c r="S201" s="20"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19">
       <c r="A202" s="58"/>
       <c r="B202" s="78"/>
       <c r="C202" s="32"/>
@@ -10825,7 +10856,7 @@
         <v>343</v>
       </c>
       <c r="F202" s="36"/>
-      <c r="G202" s="189"/>
+      <c r="G202" s="179"/>
       <c r="H202" s="132"/>
       <c r="I202" s="33" t="s">
         <v>347</v>
@@ -10855,7 +10886,7 @@
       <c r="R202" s="57"/>
       <c r="S202" s="16"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19">
       <c r="A203" s="58"/>
       <c r="B203" s="78"/>
       <c r="C203" s="32"/>
@@ -10866,7 +10897,7 @@
         <v>343</v>
       </c>
       <c r="F203" s="36"/>
-      <c r="G203" s="189"/>
+      <c r="G203" s="179"/>
       <c r="H203" s="132"/>
       <c r="I203" s="33" t="s">
         <v>347</v>
@@ -10896,7 +10927,7 @@
       <c r="R203" s="57"/>
       <c r="S203" s="16"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19">
       <c r="A204" s="58"/>
       <c r="B204" s="78"/>
       <c r="C204" s="32"/>
@@ -10907,7 +10938,7 @@
         <v>343</v>
       </c>
       <c r="F204" s="36"/>
-      <c r="G204" s="189"/>
+      <c r="G204" s="179"/>
       <c r="H204" s="132"/>
       <c r="I204" s="33" t="s">
         <v>347</v>
@@ -10937,7 +10968,7 @@
       <c r="R204" s="57"/>
       <c r="S204" s="16"/>
     </row>
-    <row r="205" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="27">
       <c r="A205" s="58"/>
       <c r="B205" s="78"/>
       <c r="C205" s="32"/>
@@ -10948,7 +10979,7 @@
         <v>343</v>
       </c>
       <c r="F205" s="36"/>
-      <c r="G205" s="189"/>
+      <c r="G205" s="179"/>
       <c r="H205" s="132"/>
       <c r="I205" s="33" t="s">
         <v>347</v>
@@ -10978,7 +11009,7 @@
       <c r="R205" s="57"/>
       <c r="S205" s="16"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19">
       <c r="A206" s="58"/>
       <c r="B206" s="78"/>
       <c r="C206" s="32"/>
@@ -10989,7 +11020,7 @@
         <v>343</v>
       </c>
       <c r="F206" s="36"/>
-      <c r="G206" s="189"/>
+      <c r="G206" s="179"/>
       <c r="H206" s="132"/>
       <c r="I206" s="33" t="s">
         <v>347</v>
@@ -11019,7 +11050,7 @@
       <c r="R206" s="57"/>
       <c r="S206" s="16"/>
     </row>
-    <row r="207" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="27">
       <c r="A207" s="58"/>
       <c r="B207" s="78"/>
       <c r="C207" s="32"/>
@@ -11030,7 +11061,7 @@
         <v>343</v>
       </c>
       <c r="F207" s="36"/>
-      <c r="G207" s="189"/>
+      <c r="G207" s="179"/>
       <c r="H207" s="132"/>
       <c r="I207" s="33" t="s">
         <v>347</v>
@@ -11060,7 +11091,7 @@
       <c r="R207" s="57"/>
       <c r="S207" s="16"/>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="27">
       <c r="A208" s="58"/>
       <c r="B208" s="78"/>
       <c r="C208" s="12"/>
@@ -11071,7 +11102,7 @@
         <v>343</v>
       </c>
       <c r="F208" s="100"/>
-      <c r="G208" s="197"/>
+      <c r="G208" s="187"/>
       <c r="H208" s="109"/>
       <c r="I208" s="135" t="s">
         <v>347</v>
@@ -11101,7 +11132,7 @@
       <c r="R208" s="102"/>
       <c r="S208" s="104"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19">
       <c r="A209" s="58"/>
       <c r="B209" s="78"/>
       <c r="C209" s="31" t="s">
@@ -11112,7 +11143,7 @@
         <v>343</v>
       </c>
       <c r="F209" s="63"/>
-      <c r="G209" s="191"/>
+      <c r="G209" s="181"/>
       <c r="H209" s="63"/>
       <c r="I209" s="63"/>
       <c r="J209" s="63"/>
@@ -11126,7 +11157,7 @@
       <c r="R209" s="63"/>
       <c r="S209" s="63"/>
     </row>
-    <row r="210" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="27">
       <c r="A210" s="58"/>
       <c r="B210" s="78"/>
       <c r="C210" s="32"/>
@@ -11139,7 +11170,7 @@
       <c r="F210" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="G210" s="195"/>
+      <c r="G210" s="185"/>
       <c r="H210" s="110"/>
       <c r="I210" s="35"/>
       <c r="J210" s="136" t="s">
@@ -11167,7 +11198,7 @@
       <c r="R210" s="69"/>
       <c r="S210" s="20"/>
     </row>
-    <row r="211" spans="1:19" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="40.5">
       <c r="A211" s="58"/>
       <c r="B211" s="78"/>
       <c r="C211" s="32"/>
@@ -11178,13 +11209,13 @@
       <c r="F211" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G211" s="189"/>
+      <c r="G211" s="179"/>
       <c r="H211" s="132"/>
       <c r="I211" s="15"/>
       <c r="J211" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="K211" s="164" t="s">
+      <c r="K211" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L211" s="69"/>
@@ -11204,7 +11235,7 @@
       <c r="R211" s="57"/>
       <c r="S211" s="16"/>
     </row>
-    <row r="212" spans="1:19" s="140" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" s="140" customFormat="1" ht="27">
       <c r="A212" s="58"/>
       <c r="B212" s="78"/>
       <c r="C212" s="32"/>
@@ -11217,7 +11248,7 @@
       <c r="F212" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="G212" s="189"/>
+      <c r="G212" s="179"/>
       <c r="H212" s="33"/>
       <c r="I212" s="36"/>
       <c r="J212" s="102" t="s">
@@ -11245,7 +11276,7 @@
       <c r="R212" s="57"/>
       <c r="S212" s="65"/>
     </row>
-    <row r="213" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="27">
       <c r="A213" s="58"/>
       <c r="B213" s="78"/>
       <c r="C213" s="32"/>
@@ -11256,7 +11287,7 @@
       <c r="F213" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G213" s="189"/>
+      <c r="G213" s="179"/>
       <c r="H213" s="33"/>
       <c r="I213" s="13"/>
       <c r="J213" s="111" t="s">
@@ -11284,7 +11315,7 @@
       <c r="R213" s="72"/>
       <c r="S213" s="73"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19">
       <c r="A214" s="58"/>
       <c r="B214" s="78"/>
       <c r="C214" s="32"/>
@@ -11295,7 +11326,7 @@
       <c r="F214" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G214" s="189"/>
+      <c r="G214" s="179"/>
       <c r="H214" s="33"/>
       <c r="I214" s="36"/>
       <c r="J214" s="102" t="s">
@@ -11323,7 +11354,7 @@
       <c r="R214" s="57"/>
       <c r="S214" s="16"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19">
       <c r="A215" s="58"/>
       <c r="B215" s="78"/>
       <c r="C215" s="32"/>
@@ -11336,7 +11367,7 @@
       <c r="F215" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="G215" s="189"/>
+      <c r="G215" s="179"/>
       <c r="H215" s="33"/>
       <c r="I215" s="106" t="s">
         <v>347</v>
@@ -11366,7 +11397,7 @@
       <c r="R215" s="57"/>
       <c r="S215" s="16"/>
     </row>
-    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="27">
       <c r="A216" s="58"/>
       <c r="B216" s="78"/>
       <c r="C216" s="32"/>
@@ -11377,7 +11408,7 @@
       <c r="F216" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="G216" s="189"/>
+      <c r="G216" s="179"/>
       <c r="H216" s="33"/>
       <c r="I216" s="106" t="s">
         <v>347</v>
@@ -11407,7 +11438,7 @@
       <c r="R216" s="57"/>
       <c r="S216" s="16"/>
     </row>
-    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="27">
       <c r="A217" s="58"/>
       <c r="B217" s="80"/>
       <c r="C217" s="12"/>
@@ -11418,7 +11449,7 @@
       <c r="F217" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="G217" s="189"/>
+      <c r="G217" s="179"/>
       <c r="H217" s="33"/>
       <c r="I217" s="106" t="s">
         <v>347</v>
@@ -11448,7 +11479,7 @@
       <c r="R217" s="57"/>
       <c r="S217" s="16"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19">
       <c r="A218" s="58"/>
       <c r="B218" s="78"/>
       <c r="C218" s="31" t="s">
@@ -11457,7 +11488,7 @@
       <c r="D218" s="31"/>
       <c r="E218" s="109"/>
       <c r="F218" s="109"/>
-      <c r="G218" s="197"/>
+      <c r="G218" s="187"/>
       <c r="H218" s="109"/>
       <c r="I218" s="135" t="s">
         <v>347</v>
@@ -11487,7 +11518,7 @@
       <c r="R218" s="111"/>
       <c r="S218" s="144"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19">
       <c r="A219" s="58"/>
       <c r="B219" s="31" t="s">
         <v>33</v>
@@ -11496,7 +11527,7 @@
       <c r="D219" s="63"/>
       <c r="E219" s="63"/>
       <c r="F219" s="63"/>
-      <c r="G219" s="191"/>
+      <c r="G219" s="181"/>
       <c r="H219" s="63"/>
       <c r="I219" s="63"/>
       <c r="J219" s="63"/>
@@ -11510,7 +11541,7 @@
       <c r="R219" s="63"/>
       <c r="S219" s="63"/>
     </row>
-    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="27">
       <c r="A220" s="58"/>
       <c r="B220" s="32"/>
       <c r="C220" s="31" t="s">
@@ -11523,13 +11554,13 @@
       <c r="F220" s="110" t="s">
         <v>402</v>
       </c>
-      <c r="G220" s="195"/>
+      <c r="G220" s="185"/>
       <c r="H220" s="105"/>
       <c r="I220" s="20"/>
       <c r="J220" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="K220" s="165" t="s">
+      <c r="K220" s="164" t="s">
         <v>257</v>
       </c>
       <c r="L220" s="20"/>
@@ -11547,7 +11578,7 @@
       <c r="R220" s="103"/>
       <c r="S220" s="146"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19">
       <c r="A221" s="58"/>
       <c r="B221" s="32"/>
       <c r="C221" s="32"/>
@@ -11558,7 +11589,7 @@
       <c r="F221" s="132" t="s">
         <v>403</v>
       </c>
-      <c r="G221" s="189"/>
+      <c r="G221" s="179"/>
       <c r="H221" s="33"/>
       <c r="I221" s="16"/>
       <c r="J221" s="56"/>
@@ -11576,7 +11607,7 @@
       <c r="R221" s="103"/>
       <c r="S221" s="146"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19">
       <c r="A222" s="58"/>
       <c r="B222" s="32"/>
       <c r="C222" s="12"/>
@@ -11587,7 +11618,7 @@
       <c r="F222" s="132" t="s">
         <v>404</v>
       </c>
-      <c r="G222" s="189"/>
+      <c r="G222" s="179"/>
       <c r="H222" s="33"/>
       <c r="I222" s="16"/>
       <c r="J222" s="56"/>
@@ -11605,7 +11636,7 @@
       <c r="R222" s="69"/>
       <c r="S222" s="20"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19">
       <c r="A223" s="58"/>
       <c r="B223" s="32"/>
       <c r="C223" s="12" t="s">
@@ -11614,13 +11645,13 @@
       <c r="D223" s="32"/>
       <c r="E223" s="145"/>
       <c r="F223" s="145"/>
-      <c r="G223" s="198"/>
+      <c r="G223" s="188"/>
       <c r="H223" s="145"/>
       <c r="I223" s="146"/>
       <c r="J223" s="147" t="s">
         <v>232</v>
       </c>
-      <c r="K223" s="166" t="s">
+      <c r="K223" s="165" t="s">
         <v>233</v>
       </c>
       <c r="L223" s="98"/>
@@ -11638,7 +11669,7 @@
       <c r="R223" s="103"/>
       <c r="S223" s="146"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19">
       <c r="A224" s="58"/>
       <c r="B224" s="32"/>
       <c r="C224" s="31" t="s">
@@ -11647,7 +11678,7 @@
       <c r="D224" s="63"/>
       <c r="E224" s="63"/>
       <c r="F224" s="63"/>
-      <c r="G224" s="191"/>
+      <c r="G224" s="181"/>
       <c r="H224" s="63"/>
       <c r="I224" s="63"/>
       <c r="J224" s="63"/>
@@ -11661,7 +11692,7 @@
       <c r="R224" s="63"/>
       <c r="S224" s="63"/>
     </row>
-    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="27">
       <c r="A225" s="58"/>
       <c r="B225" s="32"/>
       <c r="C225" s="32"/>
@@ -11674,7 +11705,7 @@
       <c r="F225" s="36" t="s">
         <v>407</v>
       </c>
-      <c r="G225" s="189"/>
+      <c r="G225" s="179"/>
       <c r="H225" s="132" t="s">
         <v>408</v>
       </c>
@@ -11693,14 +11724,14 @@
         <v>400385</v>
       </c>
       <c r="O225" s="57"/>
-      <c r="P225" s="28"/>
+      <c r="P225" s="65"/>
       <c r="Q225" s="57">
         <v>1</v>
       </c>
       <c r="R225" s="57"/>
       <c r="S225" s="16"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19">
       <c r="A226" s="58"/>
       <c r="B226" s="32"/>
       <c r="C226" s="32"/>
@@ -11709,7 +11740,7 @@
         <v>195</v>
       </c>
       <c r="F226" s="36"/>
-      <c r="G226" s="189"/>
+      <c r="G226" s="179"/>
       <c r="H226" s="132" t="s">
         <v>409</v>
       </c>
@@ -11722,12 +11753,12 @@
       </c>
       <c r="N226" s="15"/>
       <c r="O226" s="57"/>
-      <c r="P226" s="163"/>
+      <c r="P226" s="131"/>
       <c r="Q226" s="57"/>
       <c r="R226" s="57"/>
       <c r="S226" s="16"/>
     </row>
-    <row r="227" spans="1:19" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="49.5" customHeight="1">
       <c r="A227" s="58"/>
       <c r="B227" s="32"/>
       <c r="C227" s="32"/>
@@ -11736,7 +11767,7 @@
         <v>195</v>
       </c>
       <c r="F227" s="36"/>
-      <c r="G227" s="189"/>
+      <c r="G227" s="179"/>
       <c r="H227" s="132" t="s">
         <v>410</v>
       </c>
@@ -11749,12 +11780,12 @@
       </c>
       <c r="N227" s="15"/>
       <c r="O227" s="57"/>
-      <c r="P227" s="163"/>
+      <c r="P227" s="131"/>
       <c r="Q227" s="57"/>
       <c r="R227" s="57"/>
       <c r="S227" s="16"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19">
       <c r="A228" s="58"/>
       <c r="B228" s="32"/>
       <c r="C228" s="32"/>
@@ -11763,7 +11794,7 @@
         <v>195</v>
       </c>
       <c r="F228" s="36"/>
-      <c r="G228" s="189"/>
+      <c r="G228" s="179"/>
       <c r="H228" s="132" t="s">
         <v>411</v>
       </c>
@@ -11776,12 +11807,12 @@
       </c>
       <c r="N228" s="15"/>
       <c r="O228" s="57"/>
-      <c r="P228" s="163"/>
+      <c r="P228" s="131"/>
       <c r="Q228" s="57"/>
       <c r="R228" s="57"/>
       <c r="S228" s="16"/>
     </row>
-    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="27">
       <c r="A229" s="58"/>
       <c r="B229" s="32"/>
       <c r="C229" s="32"/>
@@ -11790,7 +11821,7 @@
         <v>195</v>
       </c>
       <c r="F229" s="36"/>
-      <c r="G229" s="189"/>
+      <c r="G229" s="179"/>
       <c r="H229" s="132" t="s">
         <v>412</v>
       </c>
@@ -11803,12 +11834,12 @@
       </c>
       <c r="N229" s="15"/>
       <c r="O229" s="57"/>
-      <c r="P229" s="163"/>
+      <c r="P229" s="131"/>
       <c r="Q229" s="57"/>
       <c r="R229" s="57"/>
       <c r="S229" s="16"/>
     </row>
-    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="27">
       <c r="A230" s="58"/>
       <c r="B230" s="32"/>
       <c r="C230" s="32"/>
@@ -11819,7 +11850,7 @@
       <c r="F230" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="G230" s="189"/>
+      <c r="G230" s="179"/>
       <c r="H230" s="132" t="s">
         <v>414</v>
       </c>
@@ -11838,14 +11869,14 @@
         <v>400385</v>
       </c>
       <c r="O230" s="57"/>
-      <c r="P230" s="162"/>
+      <c r="P230" s="68"/>
       <c r="Q230" s="57">
         <v>1</v>
       </c>
       <c r="R230" s="57"/>
       <c r="S230" s="16"/>
     </row>
-    <row r="231" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="45" customHeight="1">
       <c r="A231" s="58"/>
       <c r="B231" s="32"/>
       <c r="C231" s="32"/>
@@ -11854,7 +11885,7 @@
         <v>195</v>
       </c>
       <c r="F231" s="100"/>
-      <c r="G231" s="197"/>
+      <c r="G231" s="187"/>
       <c r="H231" s="132" t="s">
         <v>415</v>
       </c>
@@ -11867,12 +11898,12 @@
       </c>
       <c r="N231" s="15"/>
       <c r="O231" s="57"/>
-      <c r="P231" s="162"/>
+      <c r="P231" s="68"/>
       <c r="Q231" s="57"/>
       <c r="R231" s="57"/>
       <c r="S231" s="16"/>
     </row>
-    <row r="232" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="58.5" customHeight="1">
       <c r="A232" s="58"/>
       <c r="B232" s="32"/>
       <c r="C232" s="32"/>
@@ -11881,7 +11912,7 @@
         <v>195</v>
       </c>
       <c r="F232" s="100"/>
-      <c r="G232" s="197"/>
+      <c r="G232" s="187"/>
       <c r="H232" s="132" t="s">
         <v>416</v>
       </c>
@@ -11894,12 +11925,12 @@
       </c>
       <c r="N232" s="15"/>
       <c r="O232" s="57"/>
-      <c r="P232" s="162"/>
+      <c r="P232" s="68"/>
       <c r="Q232" s="57"/>
       <c r="R232" s="57"/>
       <c r="S232" s="16"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19">
       <c r="A233" s="58"/>
       <c r="B233" s="32"/>
       <c r="C233" s="32"/>
@@ -11910,7 +11941,7 @@
       <c r="F233" s="79" t="s">
         <v>417</v>
       </c>
-      <c r="G233" s="193"/>
+      <c r="G233" s="183"/>
       <c r="H233" s="132" t="s">
         <v>418</v>
       </c>
@@ -11929,14 +11960,14 @@
         <v>400385</v>
       </c>
       <c r="O233" s="57"/>
-      <c r="P233" s="162"/>
+      <c r="P233" s="68"/>
       <c r="Q233" s="57">
         <v>1</v>
       </c>
       <c r="R233" s="57"/>
       <c r="S233" s="16"/>
     </row>
-    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="27">
       <c r="A234" s="58"/>
       <c r="B234" s="32"/>
       <c r="C234" s="32"/>
@@ -11945,7 +11976,7 @@
         <v>195</v>
       </c>
       <c r="F234" s="79"/>
-      <c r="G234" s="193"/>
+      <c r="G234" s="183"/>
       <c r="H234" s="132" t="s">
         <v>419</v>
       </c>
@@ -11958,12 +11989,12 @@
       </c>
       <c r="N234" s="15"/>
       <c r="O234" s="57"/>
-      <c r="P234" s="162"/>
+      <c r="P234" s="68"/>
       <c r="Q234" s="57"/>
       <c r="R234" s="57"/>
       <c r="S234" s="16"/>
     </row>
-    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="27">
       <c r="A235" s="58"/>
       <c r="B235" s="32"/>
       <c r="C235" s="32"/>
@@ -11972,7 +12003,7 @@
         <v>195</v>
       </c>
       <c r="F235" s="79"/>
-      <c r="G235" s="193"/>
+      <c r="G235" s="183"/>
       <c r="H235" s="132" t="s">
         <v>420</v>
       </c>
@@ -11985,12 +12016,12 @@
       </c>
       <c r="N235" s="15"/>
       <c r="O235" s="57"/>
-      <c r="P235" s="162"/>
+      <c r="P235" s="68"/>
       <c r="Q235" s="57"/>
       <c r="R235" s="57"/>
       <c r="S235" s="16"/>
     </row>
-    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="27">
       <c r="A236" s="58"/>
       <c r="B236" s="32"/>
       <c r="C236" s="32"/>
@@ -11999,7 +12030,7 @@
         <v>195</v>
       </c>
       <c r="F236" s="79"/>
-      <c r="G236" s="193"/>
+      <c r="G236" s="183"/>
       <c r="H236" s="132" t="s">
         <v>421</v>
       </c>
@@ -12012,12 +12043,12 @@
       </c>
       <c r="N236" s="15"/>
       <c r="O236" s="57"/>
-      <c r="P236" s="162"/>
+      <c r="P236" s="68"/>
       <c r="Q236" s="57"/>
       <c r="R236" s="57"/>
       <c r="S236" s="16"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19">
       <c r="A237" s="58"/>
       <c r="B237" s="32"/>
       <c r="C237" s="32"/>
@@ -12026,7 +12057,7 @@
         <v>195</v>
       </c>
       <c r="F237" s="79"/>
-      <c r="G237" s="193"/>
+      <c r="G237" s="183"/>
       <c r="H237" s="132" t="s">
         <v>422</v>
       </c>
@@ -12039,12 +12070,12 @@
       </c>
       <c r="N237" s="15"/>
       <c r="O237" s="57"/>
-      <c r="P237" s="162"/>
+      <c r="P237" s="68"/>
       <c r="Q237" s="57"/>
       <c r="R237" s="57"/>
       <c r="S237" s="16"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19">
       <c r="A238" s="58"/>
       <c r="B238" s="32"/>
       <c r="C238" s="32"/>
@@ -12053,7 +12084,7 @@
       </c>
       <c r="E238" s="132"/>
       <c r="F238" s="132"/>
-      <c r="G238" s="189"/>
+      <c r="G238" s="179"/>
       <c r="H238" s="132"/>
       <c r="I238" s="106" t="s">
         <v>347</v>
@@ -12081,7 +12112,7 @@
       <c r="R238" s="57"/>
       <c r="S238" s="16"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19">
       <c r="A239" s="58"/>
       <c r="B239" s="32"/>
       <c r="C239" s="32"/>
@@ -12090,7 +12121,7 @@
       </c>
       <c r="E239" s="132"/>
       <c r="F239" s="132"/>
-      <c r="G239" s="189"/>
+      <c r="G239" s="179"/>
       <c r="H239" s="132"/>
       <c r="I239" s="106" t="s">
         <v>347</v>
@@ -12120,7 +12151,7 @@
       <c r="R239" s="57"/>
       <c r="S239" s="16"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19">
       <c r="A240" s="58"/>
       <c r="B240" s="32"/>
       <c r="C240" s="12"/>
@@ -12129,7 +12160,7 @@
       </c>
       <c r="E240" s="109"/>
       <c r="F240" s="109"/>
-      <c r="G240" s="197"/>
+      <c r="G240" s="187"/>
       <c r="H240" s="109"/>
       <c r="I240" s="107" t="s">
         <v>347</v>
@@ -12159,7 +12190,7 @@
       <c r="R240" s="102"/>
       <c r="S240" s="104"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19">
       <c r="A241" s="58"/>
       <c r="B241" s="32"/>
       <c r="C241" s="31" t="s">
@@ -12168,7 +12199,7 @@
       <c r="D241" s="63"/>
       <c r="E241" s="63"/>
       <c r="F241" s="63"/>
-      <c r="G241" s="191"/>
+      <c r="G241" s="181"/>
       <c r="H241" s="63"/>
       <c r="I241" s="63"/>
       <c r="J241" s="63"/>
@@ -12182,7 +12213,7 @@
       <c r="R241" s="63"/>
       <c r="S241" s="63"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19">
       <c r="A242" s="58"/>
       <c r="B242" s="32"/>
       <c r="C242" s="32"/>
@@ -12191,7 +12222,7 @@
       </c>
       <c r="E242" s="110"/>
       <c r="F242" s="110"/>
-      <c r="G242" s="195"/>
+      <c r="G242" s="185"/>
       <c r="H242" s="110"/>
       <c r="I242" s="108" t="s">
         <v>347</v>
@@ -12219,7 +12250,7 @@
       <c r="R242" s="69"/>
       <c r="S242" s="20"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19">
       <c r="A243" s="58"/>
       <c r="B243" s="32"/>
       <c r="C243" s="12"/>
@@ -12228,7 +12259,7 @@
       </c>
       <c r="E243" s="109"/>
       <c r="F243" s="109"/>
-      <c r="G243" s="197"/>
+      <c r="G243" s="187"/>
       <c r="H243" s="109"/>
       <c r="I243" s="107" t="s">
         <v>347</v>
@@ -12258,7 +12289,7 @@
       <c r="R243" s="102"/>
       <c r="S243" s="104"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19">
       <c r="A244" s="58"/>
       <c r="B244" s="32"/>
       <c r="C244" s="31" t="s">
@@ -12267,7 +12298,7 @@
       <c r="D244" s="63"/>
       <c r="E244" s="63"/>
       <c r="F244" s="63"/>
-      <c r="G244" s="191"/>
+      <c r="G244" s="181"/>
       <c r="H244" s="63"/>
       <c r="I244" s="63"/>
       <c r="J244" s="63"/>
@@ -12281,7 +12312,7 @@
       <c r="R244" s="63"/>
       <c r="S244" s="63"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19">
       <c r="A245" s="58"/>
       <c r="B245" s="32"/>
       <c r="C245" s="32"/>
@@ -12290,7 +12321,7 @@
       </c>
       <c r="E245" s="33"/>
       <c r="F245" s="152"/>
-      <c r="G245" s="200"/>
+      <c r="G245" s="190"/>
       <c r="H245" s="110"/>
       <c r="I245" s="71"/>
       <c r="J245" s="131" t="s">
@@ -12314,7 +12345,7 @@
       <c r="R245" s="69"/>
       <c r="S245" s="20"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19">
       <c r="A246" s="58"/>
       <c r="B246" s="32"/>
       <c r="C246" s="32"/>
@@ -12323,7 +12354,7 @@
       </c>
       <c r="E246" s="33"/>
       <c r="F246" s="153"/>
-      <c r="G246" s="194"/>
+      <c r="G246" s="184"/>
       <c r="H246" s="132"/>
       <c r="I246" s="36"/>
       <c r="J246" s="65" t="s">
@@ -12347,7 +12378,7 @@
       <c r="R246" s="57"/>
       <c r="S246" s="16"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19">
       <c r="A247" s="58"/>
       <c r="B247" s="32"/>
       <c r="C247" s="32"/>
@@ -12356,7 +12387,7 @@
       </c>
       <c r="E247" s="33"/>
       <c r="F247" s="44"/>
-      <c r="G247" s="196"/>
+      <c r="G247" s="186"/>
       <c r="H247" s="132"/>
       <c r="I247" s="36"/>
       <c r="J247" s="65" t="s">
@@ -12380,7 +12411,7 @@
       <c r="R247" s="57"/>
       <c r="S247" s="16"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19">
       <c r="A248" s="58"/>
       <c r="B248" s="32"/>
       <c r="C248" s="32"/>
@@ -12389,7 +12420,7 @@
       </c>
       <c r="E248" s="33"/>
       <c r="F248" s="153"/>
-      <c r="G248" s="194"/>
+      <c r="G248" s="184"/>
       <c r="H248" s="132"/>
       <c r="I248" s="36"/>
       <c r="J248" s="65" t="s">
@@ -12413,7 +12444,7 @@
       <c r="R248" s="57"/>
       <c r="S248" s="16"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19">
       <c r="A249" s="58"/>
       <c r="B249" s="32"/>
       <c r="C249" s="32"/>
@@ -12422,7 +12453,7 @@
       </c>
       <c r="E249" s="33"/>
       <c r="F249" s="153"/>
-      <c r="G249" s="194"/>
+      <c r="G249" s="184"/>
       <c r="H249" s="33"/>
       <c r="I249" s="36"/>
       <c r="J249" s="65" t="s">
@@ -12446,7 +12477,7 @@
       <c r="R249" s="57"/>
       <c r="S249" s="16"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19">
       <c r="A250" s="58"/>
       <c r="B250" s="32"/>
       <c r="C250" s="32"/>
@@ -12455,7 +12486,7 @@
       </c>
       <c r="E250" s="33"/>
       <c r="F250" s="153"/>
-      <c r="G250" s="194"/>
+      <c r="G250" s="184"/>
       <c r="H250" s="33"/>
       <c r="I250" s="36"/>
       <c r="J250" s="65" t="s">
@@ -12479,7 +12510,7 @@
       <c r="R250" s="57"/>
       <c r="S250" s="16"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19">
       <c r="A251" s="58"/>
       <c r="B251" s="32"/>
       <c r="C251" s="32"/>
@@ -12488,7 +12519,7 @@
       </c>
       <c r="E251" s="33"/>
       <c r="F251" s="153"/>
-      <c r="G251" s="194"/>
+      <c r="G251" s="184"/>
       <c r="H251" s="33"/>
       <c r="I251" s="36"/>
       <c r="J251" s="65" t="s">
@@ -12512,7 +12543,7 @@
       <c r="R251" s="57"/>
       <c r="S251" s="16"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19">
       <c r="A252" s="58"/>
       <c r="B252" s="32"/>
       <c r="C252" s="32"/>
@@ -12521,7 +12552,7 @@
       </c>
       <c r="E252" s="33"/>
       <c r="F252" s="153"/>
-      <c r="G252" s="194"/>
+      <c r="G252" s="184"/>
       <c r="H252" s="33"/>
       <c r="I252" s="36"/>
       <c r="J252" s="65" t="s">
@@ -12545,7 +12576,7 @@
       <c r="R252" s="57"/>
       <c r="S252" s="16"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19">
       <c r="A253" s="53"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -12554,7 +12585,7 @@
       </c>
       <c r="E253" s="33"/>
       <c r="F253" s="153"/>
-      <c r="G253" s="194"/>
+      <c r="G253" s="184"/>
       <c r="H253" s="33"/>
       <c r="I253" s="36"/>
       <c r="J253" s="65" t="s">
@@ -12578,25 +12609,25 @@
       <c r="R253" s="57"/>
       <c r="S253" s="16"/>
     </row>
-    <row r="254" spans="1:19" s="155" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="170" t="s">
+    <row r="254" spans="1:19" s="155" customFormat="1" ht="33" customHeight="1">
+      <c r="A254" s="192" t="s">
         <v>439</v>
       </c>
-      <c r="B254" s="171"/>
-      <c r="C254" s="171"/>
-      <c r="D254" s="171"/>
-      <c r="E254" s="171"/>
-      <c r="F254" s="171"/>
-      <c r="G254" s="171"/>
-      <c r="H254" s="171"/>
-      <c r="I254" s="171"/>
-      <c r="J254" s="171"/>
-      <c r="K254" s="171"/>
-      <c r="L254" s="171"/>
-      <c r="M254" s="171"/>
-      <c r="N254" s="171"/>
-      <c r="O254" s="171"/>
-      <c r="P254" s="171"/>
+      <c r="B254" s="193"/>
+      <c r="C254" s="193"/>
+      <c r="D254" s="193"/>
+      <c r="E254" s="193"/>
+      <c r="F254" s="193"/>
+      <c r="G254" s="193"/>
+      <c r="H254" s="193"/>
+      <c r="I254" s="193"/>
+      <c r="J254" s="193"/>
+      <c r="K254" s="193"/>
+      <c r="L254" s="193"/>
+      <c r="M254" s="193"/>
+      <c r="N254" s="193"/>
+      <c r="O254" s="193"/>
+      <c r="P254" s="193"/>
       <c r="Q254" s="154">
         <f>SUM(Q5:Q253)</f>
         <v>233</v>
@@ -12604,31 +12635,31 @@
       <c r="R254" s="160"/>
       <c r="S254" s="160"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19">
       <c r="C255" s="40"/>
       <c r="D255" s="40"/>
       <c r="E255" s="40"/>
       <c r="F255" s="40"/>
-      <c r="G255" s="196"/>
+      <c r="G255" s="186"/>
       <c r="H255" s="40"/>
       <c r="J255" s="40"/>
       <c r="K255" s="40"/>
       <c r="M255" s="40"/>
       <c r="O255" s="40"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19">
       <c r="C256" s="40"/>
       <c r="D256" s="40"/>
       <c r="E256" s="40"/>
       <c r="F256" s="40"/>
-      <c r="G256" s="196"/>
+      <c r="G256" s="186"/>
       <c r="H256" s="40"/>
       <c r="J256" s="40"/>
       <c r="K256" s="40"/>
       <c r="M256" s="40"/>
       <c r="O256" s="40"/>
     </row>
-    <row r="259" spans="13:14" x14ac:dyDescent="0.3">
+    <row r="259" spans="13:14">
       <c r="M259" s="156" t="s">
         <v>443</v>
       </c>
@@ -12636,31 +12667,31 @@
         <v>444</v>
       </c>
     </row>
-    <row r="264" spans="13:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" spans="13:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" spans="13:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" spans="13:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" spans="13:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" spans="13:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" spans="13:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" spans="13:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" spans="13:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" spans="13:14" ht="13.5" customHeight="1"/>
+    <row r="265" spans="13:14" ht="13.5" customHeight="1"/>
+    <row r="266" spans="13:14" ht="13.5" customHeight="1"/>
+    <row r="267" spans="13:14" ht="13.5" customHeight="1"/>
+    <row r="268" spans="13:14" ht="13.5" customHeight="1"/>
+    <row r="269" spans="13:14" ht="13.5" customHeight="1"/>
+    <row r="270" spans="13:14" ht="13.5" customHeight="1"/>
+    <row r="271" spans="13:14" ht="13.5" customHeight="1"/>
+    <row r="272" spans="13:14" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:Q162" xr:uid="{A1B9FEF3-25B0-499B-A2E8-C34293223CD8}"/>
+  <autoFilter ref="A4:T254" xr:uid="{E34A958B-0152-4677-938C-94B96D7C6F27}"/>
   <mergeCells count="5">
     <mergeCell ref="A254:P254"/>
     <mergeCell ref="A1:S1"/>
@@ -12697,7 +12728,7 @@
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="2" width="18" style="9" customWidth="1"/>
@@ -12711,13 +12742,13 @@
     <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>149</v>
       </c>
@@ -12748,7 +12779,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="49.5">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -12773,7 +12804,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -12794,7 +12825,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -12813,7 +12844,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -12832,7 +12863,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -12851,7 +12882,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -12870,7 +12901,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -12889,7 +12920,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -12908,7 +12939,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="8"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -12927,7 +12958,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -12946,7 +12977,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -12965,7 +12996,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="8"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -12984,7 +13015,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="8"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -13003,7 +13034,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="8"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -13022,7 +13053,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -13041,7 +13072,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -13060,7 +13091,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -13079,7 +13110,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -13098,7 +13129,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -13117,7 +13148,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -13136,7 +13167,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -13155,7 +13186,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -13174,7 +13205,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -13193,7 +13224,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -13212,7 +13243,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -13231,7 +13262,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -13250,7 +13281,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="8"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -13269,7 +13300,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="99">
       <c r="A32" s="8">
         <v>3</v>
       </c>
@@ -13294,7 +13325,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="49.5">
       <c r="A33" s="8">
         <v>4</v>
       </c>
@@ -13319,7 +13350,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="99">
       <c r="A34" s="8">
         <v>5</v>
       </c>
@@ -13340,7 +13371,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="8"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
@@ -13353,7 +13384,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="8"/>
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
@@ -13366,7 +13397,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="8"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
@@ -13379,7 +13410,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="8"/>
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
@@ -13392,7 +13423,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="8"/>
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
@@ -13405,7 +13436,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="66">
       <c r="A40" s="8">
         <v>6</v>
       </c>
@@ -13426,7 +13457,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="66">
       <c r="A41" s="8">
         <v>7</v>
       </c>
@@ -13449,7 +13480,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="8"/>
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
@@ -13462,7 +13493,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="49.5">
       <c r="A43" s="8">
         <v>8</v>
       </c>
@@ -13483,7 +13514,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="8"/>
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
@@ -13502,7 +13533,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="8"/>
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
@@ -13521,7 +13552,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="27">
       <c r="A46" s="8"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
@@ -13540,7 +13571,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="8">
         <v>9</v>
       </c>
@@ -13565,7 +13596,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="82.5">
       <c r="A48" s="8">
         <v>10</v>
       </c>
@@ -13592,7 +13623,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="8"/>
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
@@ -13613,7 +13644,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="66">
       <c r="A50" s="8">
         <v>11</v>
       </c>
@@ -13632,7 +13663,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="8"/>
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
@@ -13651,7 +13682,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="8"/>
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
@@ -13674,7 +13705,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="8"/>
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
@@ -13695,7 +13726,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="8"/>
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
@@ -13716,7 +13747,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="8"/>
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
@@ -13735,7 +13766,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="8">
         <v>12</v>
       </c>
@@ -13752,7 +13783,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="66">
       <c r="B57" s="5"/>
       <c r="C57" s="4" t="s">
         <v>83</v>
@@ -13768,7 +13799,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="49.5">
       <c r="B58" s="5"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
@@ -13782,7 +13813,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="27">
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -13802,7 +13833,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="B60" s="5"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -13822,7 +13853,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="27">
       <c r="B61" s="5"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -13842,7 +13873,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="27">
       <c r="B62" s="5"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -13862,7 +13893,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="49.5">
       <c r="A63" s="8">
         <v>13</v>
       </c>
@@ -13881,7 +13912,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="8"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
@@ -13902,7 +13933,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="27">
       <c r="A65" s="8"/>
       <c r="B65" s="5"/>
       <c r="C65" s="4"/>
@@ -13923,7 +13954,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="8"/>
       <c r="B66" s="5"/>
       <c r="C66" s="4"/>
@@ -13944,7 +13975,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="49.5">
       <c r="A67" s="8">
         <v>14</v>
       </c>
@@ -13967,7 +13998,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="33">
       <c r="A68" s="8">
         <v>15</v>
       </c>
@@ -13986,7 +14017,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="8"/>
       <c r="B69" s="5"/>
       <c r="C69" s="4"/>
@@ -14007,7 +14038,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="27">
       <c r="A70" s="8"/>
       <c r="B70" s="5"/>
       <c r="C70" s="4"/>
@@ -14028,7 +14059,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="8">
         <v>16</v>
       </c>
@@ -14049,7 +14080,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="82.5">
       <c r="A72" s="8">
         <v>17</v>
       </c>
@@ -14070,7 +14101,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="49.5">
       <c r="A73" s="8">
         <v>18</v>
       </c>
@@ -14089,7 +14120,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="49.5">
       <c r="A74" s="8">
         <v>19</v>
       </c>
@@ -14108,7 +14139,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="66">
       <c r="A75" s="8">
         <v>20</v>
       </c>
@@ -14127,7 +14158,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" s="8">
         <v>21</v>
       </c>
@@ -14144,7 +14175,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="49.5">
       <c r="A77" s="8">
         <v>22</v>
       </c>
@@ -14167,7 +14198,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="33">
       <c r="A78" s="8">
         <v>23</v>
       </c>
@@ -14186,7 +14217,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="49.5">
       <c r="A79" s="8">
         <v>24</v>
       </c>
@@ -14205,7 +14236,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="49.5">
       <c r="A80" s="8">
         <v>25</v>
       </c>
@@ -14224,7 +14255,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="49.5">
       <c r="A81" s="8">
         <v>26</v>
       </c>
@@ -14243,7 +14274,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="33">
       <c r="A82" s="8">
         <v>27</v>
       </c>
@@ -14262,7 +14293,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="115.5">
       <c r="A83" s="8">
         <v>28</v>
       </c>
@@ -14283,7 +14314,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="1:11" ht="287.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="287.25" customHeight="1">
       <c r="A84" s="8">
         <v>29</v>
       </c>
@@ -14302,7 +14333,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" ht="354" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="354" customHeight="1">
       <c r="A85" s="8">
         <v>30</v>
       </c>
@@ -14321,7 +14352,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="49.5">
       <c r="A86" s="8">
         <v>31</v>
       </c>
@@ -14340,7 +14371,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="66">
       <c r="A87" s="8">
         <v>32</v>
       </c>
@@ -14361,7 +14392,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="49.5">
       <c r="A88" s="8">
         <v>33</v>
       </c>
@@ -14380,7 +14411,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="49.5">
       <c r="A89" s="8">
         <v>34</v>
       </c>
@@ -14399,7 +14430,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="49.5">
       <c r="A90" s="8">
         <v>35</v>
       </c>
@@ -14420,7 +14451,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="33">
       <c r="A91" s="8">
         <v>36</v>
       </c>
@@ -14439,7 +14470,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="33">
       <c r="A92" s="8">
         <v>37</v>
       </c>
@@ -14458,7 +14489,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11">
       <c r="A93" s="8">
         <v>38</v>
       </c>
@@ -14477,7 +14508,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="49.5">
       <c r="A94" s="8">
         <v>39</v>
       </c>
@@ -14496,7 +14527,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="33">
       <c r="A95" s="8">
         <v>40</v>
       </c>
@@ -14519,7 +14550,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="6"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="A96" s="8">
         <v>41</v>
       </c>
@@ -14536,7 +14567,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97" s="8">
         <v>42</v>
       </c>
@@ -14553,7 +14584,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="33">
       <c r="A98" s="8">
         <v>43</v>
       </c>
@@ -14570,7 +14601,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="6"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99" s="8">
         <v>44</v>
       </c>
@@ -14587,7 +14618,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100" s="8">
         <v>45</v>
       </c>
@@ -14604,7 +14635,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="6"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101" s="8">
         <v>46</v>
       </c>
@@ -14621,7 +14652,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102" s="8">
         <v>47</v>
       </c>
@@ -14638,7 +14669,7 @@
       <c r="J102" s="4"/>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103" s="8">
         <v>48</v>
       </c>
@@ -14655,7 +14686,7 @@
       <c r="J103" s="4"/>
       <c r="K103" s="6"/>
     </row>
-    <row r="104" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="33">
       <c r="A104" s="8">
         <v>49</v>
       </c>
@@ -14674,7 +14705,7 @@
       <c r="J104" s="4"/>
       <c r="K104" s="6"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105" s="8">
         <v>50</v>
       </c>
@@ -14691,7 +14722,7 @@
       <c r="J105" s="4"/>
       <c r="K105" s="6"/>
     </row>
-    <row r="106" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="33">
       <c r="A106" s="8">
         <v>51</v>
       </c>
@@ -14710,7 +14741,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="107" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="33">
       <c r="A107" s="8">
         <v>52</v>
       </c>
@@ -14729,7 +14760,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108" s="8">
         <v>53</v>
       </c>
@@ -14746,7 +14777,7 @@
       <c r="J108" s="4"/>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109" s="8">
         <v>54</v>
       </c>
@@ -14763,7 +14794,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="6"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110" s="8">
         <v>55</v>
       </c>
@@ -14782,7 +14813,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="6"/>
     </row>
-    <row r="111" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="27">
       <c r="A111" s="8"/>
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
@@ -14797,7 +14828,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="6"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112" s="8">
         <v>56</v>
       </c>
@@ -14814,7 +14845,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="6"/>
     </row>
-    <row r="113" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="40.5">
       <c r="A113" s="8">
         <v>57</v>
       </c>
@@ -14831,7 +14862,7 @@
       <c r="J113" s="4"/>
       <c r="K113" s="6"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="A114" s="8">
         <v>58</v>
       </c>
@@ -14848,7 +14879,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="6"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115" s="8">
         <v>59</v>
       </c>
@@ -14867,7 +14898,7 @@
       <c r="J115" s="4"/>
       <c r="K115" s="6"/>
     </row>
-    <row r="116" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="33">
       <c r="A116" s="8">
         <v>60</v>
       </c>
@@ -14884,7 +14915,7 @@
       <c r="J116" s="4"/>
       <c r="K116" s="6"/>
     </row>
-    <row r="117" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="33">
       <c r="A117" s="8">
         <v>61</v>
       </c>
@@ -14901,7 +14932,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="49.5">
       <c r="A118" s="8">
         <v>62</v>
       </c>
@@ -14918,7 +14949,7 @@
       <c r="J118" s="4"/>
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="33">
       <c r="A119" s="8">
         <v>63</v>
       </c>
@@ -14935,7 +14966,7 @@
       <c r="J119" s="4"/>
       <c r="K119" s="6"/>
     </row>
-    <row r="120" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="49.5">
       <c r="A120" s="8">
         <v>64</v>
       </c>
@@ -14952,7 +14983,7 @@
       <c r="J120" s="4"/>
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="33">
       <c r="A121" s="8">
         <v>65</v>
       </c>
@@ -14969,7 +15000,7 @@
       <c r="J121" s="4"/>
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="33">
       <c r="A122" s="8">
         <v>66</v>
       </c>
@@ -14988,7 +15019,7 @@
       <c r="J122" s="4"/>
       <c r="K122" s="6"/>
     </row>
-    <row r="123" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="33">
       <c r="A123" s="8">
         <v>67</v>
       </c>
@@ -15005,7 +15036,7 @@
       <c r="J123" s="4"/>
       <c r="K123" s="6"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11">
       <c r="A124" s="8">
         <v>68</v>
       </c>
@@ -15022,7 +15053,7 @@
       <c r="J124" s="4"/>
       <c r="K124" s="6"/>
     </row>
-    <row r="125" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="33">
       <c r="A125" s="8">
         <v>69</v>
       </c>
@@ -15041,7 +15072,7 @@
       <c r="J125" s="4"/>
       <c r="K125" s="6"/>
     </row>
-    <row r="126" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="33">
       <c r="A126" s="8">
         <v>70</v>
       </c>
@@ -15058,7 +15089,7 @@
       <c r="J126" s="4"/>
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="33">
       <c r="A127" s="8">
         <v>71</v>
       </c>
@@ -15075,7 +15106,7 @@
       <c r="J127" s="4"/>
       <c r="K127" s="6"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11">
       <c r="A128" s="8">
         <v>72</v>
       </c>
@@ -15092,7 +15123,7 @@
       <c r="J128" s="4"/>
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="33">
       <c r="A129" s="8">
         <v>73</v>
       </c>
@@ -15109,7 +15140,7 @@
       <c r="J129" s="4"/>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="33">
       <c r="A130" s="8">
         <v>74</v>
       </c>
@@ -15126,7 +15157,7 @@
       <c r="J130" s="4"/>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="49.5">
       <c r="A131" s="8">
         <v>75</v>
       </c>
@@ -15143,7 +15174,7 @@
       <c r="J131" s="4"/>
       <c r="K131" s="6"/>
     </row>
-    <row r="132" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="33">
       <c r="A132" s="8">
         <v>76</v>
       </c>
@@ -15160,7 +15191,7 @@
       <c r="J132" s="4"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="33">
       <c r="A133" s="8">
         <v>77</v>
       </c>
@@ -15181,7 +15212,7 @@
       <c r="J133" s="4"/>
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="49.5">
       <c r="A134" s="8">
         <v>78</v>
       </c>
@@ -15198,7 +15229,7 @@
       <c r="J134" s="4"/>
       <c r="K134" s="6"/>
     </row>
-    <row r="135" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="33">
       <c r="A135" s="8">
         <v>79</v>
       </c>
@@ -15217,7 +15248,7 @@
       <c r="J135" s="4"/>
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="33">
       <c r="A136" s="8">
         <v>80</v>
       </c>
@@ -15234,7 +15265,7 @@
       <c r="J136" s="4"/>
       <c r="K136" s="6"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11">
       <c r="A137" s="8">
         <v>81</v>
       </c>
@@ -15251,7 +15282,7 @@
       <c r="J137" s="4"/>
       <c r="K137" s="6"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11">
       <c r="A138" s="8">
         <v>82</v>
       </c>
@@ -15270,7 +15301,7 @@
       <c r="J138" s="4"/>
       <c r="K138" s="6"/>
     </row>
-    <row r="139" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="49.5">
       <c r="A139" s="8">
         <v>83</v>
       </c>
@@ -15287,7 +15318,7 @@
       <c r="J139" s="4"/>
       <c r="K139" s="6"/>
     </row>
-    <row r="140" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="33">
       <c r="A140" s="8">
         <v>84</v>
       </c>
@@ -15304,7 +15335,7 @@
       <c r="J140" s="4"/>
       <c r="K140" s="6"/>
     </row>
-    <row r="141" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="33">
       <c r="A141" s="8">
         <v>85</v>
       </c>
@@ -15327,7 +15358,7 @@
       <c r="J141" s="4"/>
       <c r="K141" s="6"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11">
       <c r="A142" s="8">
         <v>86</v>
       </c>
@@ -15348,7 +15379,7 @@
       <c r="J142" s="4"/>
       <c r="K142" s="6"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11">
       <c r="A143" s="8">
         <v>87</v>
       </c>
@@ -15371,7 +15402,7 @@
       <c r="J143" s="4"/>
       <c r="K143" s="6"/>
     </row>
-    <row r="144" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="33">
       <c r="A144" s="8">
         <v>88</v>
       </c>
@@ -15390,7 +15421,7 @@
       <c r="J144" s="4"/>
       <c r="K144" s="6"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145" s="8">
         <v>89</v>
       </c>
@@ -15409,7 +15440,7 @@
       <c r="J145" s="4"/>
       <c r="K145" s="6"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11">
       <c r="A146" s="8">
         <v>90</v>
       </c>
@@ -15428,7 +15459,7 @@
       <c r="J146" s="4"/>
       <c r="K146" s="6"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11">
       <c r="A147" s="8">
         <v>91</v>
       </c>
@@ -15449,7 +15480,7 @@
       <c r="J147" s="4"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11">
       <c r="A148" s="8">
         <v>92</v>
       </c>
@@ -15468,7 +15499,7 @@
       <c r="J148" s="4"/>
       <c r="K148" s="6"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11">
       <c r="A149" s="8">
         <v>93</v>
       </c>

--- a/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
+++ b/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebContent\static\guide\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF36363-3F7C-42CC-8A2D-3B88EB0CE727}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29522C33-5B29-4CE7-A428-D7D99F62A33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="15540" tabRatio="869" xr2:uid="{1E9DB366-6AE4-4F47-9B28-6B909BD1B54D}"/>
   </bookViews>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="461">
   <si>
     <t>Notice</t>
   </si>
@@ -1377,9 +1377,6 @@
     <t>Introduction to Banknotes</t>
   </si>
   <si>
-    <t>Introduction to Coins</t>
-  </si>
-  <si>
     <t>Brief history of current Korea notes in circulation</t>
   </si>
   <si>
@@ -1982,6 +1979,42 @@
   </si>
   <si>
     <t>미완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 텍스트 필요. 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부망 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 디자인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Financial System in Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부망 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction to Coins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1989,7 +2022,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2432,7 +2465,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2913,9 +2946,6 @@
     <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3031,6 +3061,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3438,11 +3477,11 @@
   <dimension ref="A1:T286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N56" sqref="N56"/>
+      <pane ySplit="4" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S256" sqref="S256"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="40" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="40" customWidth="1"/>
@@ -3450,7 +3489,7 @@
     <col min="4" max="4" width="24.25" style="157" customWidth="1"/>
     <col min="5" max="5" width="14.25" style="157" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="157" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="191" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="190" customWidth="1"/>
     <col min="8" max="8" width="15.125" style="157" customWidth="1"/>
     <col min="9" max="9" width="11" style="156" customWidth="1"/>
     <col min="10" max="10" width="8.25" style="156" customWidth="1"/>
@@ -3844,37 +3883,37 @@
     <col min="16075" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="31.5">
-      <c r="A1" s="194" t="s">
+    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="193" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="194"/>
+      <c r="Q1" s="194"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="194"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
-      <c r="G2" s="180"/>
+      <c r="G2" s="179"/>
       <c r="H2" s="42"/>
       <c r="I2" s="43"/>
       <c r="J2" s="43"/>
@@ -3888,40 +3927,40 @@
       <c r="R2" s="43"/>
       <c r="S2" s="43"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" customHeight="1">
+    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="45"/>
       <c r="B3" s="45" t="s">
         <v>209</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="196" t="s">
+      <c r="E3" s="195" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="196"/>
-      <c r="G3" s="176"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="175"/>
       <c r="H3" s="47"/>
-      <c r="I3" s="197" t="s">
+      <c r="I3" s="196" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="199" t="s">
+      <c r="J3" s="196"/>
+      <c r="K3" s="196"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="198" t="s">
         <v>211</v>
       </c>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="198"/>
+      <c r="N3" s="196"/>
+      <c r="O3" s="196"/>
+      <c r="P3" s="197"/>
       <c r="Q3" s="48" t="s">
         <v>212</v>
       </c>
       <c r="R3" s="48"/>
-      <c r="S3" s="161" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="24" customHeight="1">
+      <c r="S3" s="160" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="49"/>
       <c r="B4" s="49" t="s">
         <v>213</v>
@@ -3938,7 +3977,7 @@
       <c r="F4" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="177"/>
+      <c r="G4" s="176"/>
       <c r="H4" s="50" t="s">
         <v>218</v>
       </c>
@@ -3970,9 +4009,9 @@
         <v>227</v>
       </c>
       <c r="R4" s="49"/>
-      <c r="S4" s="161"/>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="S4" s="160"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="s">
         <v>228</v>
@@ -3981,7 +4020,7 @@
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
-      <c r="G5" s="178"/>
+      <c r="G5" s="177"/>
       <c r="H5" s="34"/>
       <c r="I5" s="55"/>
       <c r="J5" s="55" t="s">
@@ -4000,10 +4039,10 @@
       <c r="Q5" s="57">
         <v>1</v>
       </c>
-      <c r="R5" s="175"/>
+      <c r="R5" s="174"/>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="58"/>
       <c r="B6" s="59" t="s">
         <v>231</v>
@@ -4012,7 +4051,7 @@
       <c r="D6" s="61"/>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
-      <c r="G6" s="178"/>
+      <c r="G6" s="177"/>
       <c r="H6" s="34"/>
       <c r="I6" s="16"/>
       <c r="J6" s="56"/>
@@ -4026,7 +4065,7 @@
       <c r="R6" s="57"/>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="58"/>
       <c r="B7" s="62"/>
       <c r="C7" s="60" t="s">
@@ -4035,13 +4074,13 @@
       <c r="D7" s="61"/>
       <c r="E7" s="34"/>
       <c r="F7" s="34"/>
-      <c r="G7" s="178"/>
+      <c r="G7" s="177"/>
       <c r="H7" s="34"/>
       <c r="I7" s="16"/>
       <c r="J7" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K7" s="163" t="s">
+      <c r="K7" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L7" s="16"/>
@@ -4056,12 +4095,12 @@
       <c r="Q7" s="57">
         <v>1</v>
       </c>
-      <c r="R7" s="175" t="s">
-        <v>447</v>
+      <c r="R7" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="58"/>
       <c r="B8" s="62"/>
       <c r="C8" s="60" t="s">
@@ -4070,13 +4109,13 @@
       <c r="D8" s="61"/>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
-      <c r="G8" s="178"/>
+      <c r="G8" s="177"/>
       <c r="H8" s="34"/>
       <c r="I8" s="16"/>
       <c r="J8" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K8" s="163" t="s">
+      <c r="K8" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L8" s="16"/>
@@ -4091,12 +4130,12 @@
       <c r="Q8" s="57">
         <v>1</v>
       </c>
-      <c r="R8" s="175" t="s">
-        <v>447</v>
+      <c r="R8" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S8" s="15"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="58"/>
       <c r="B9" s="62"/>
       <c r="C9" s="64"/>
@@ -4107,13 +4146,13 @@
         <v>234</v>
       </c>
       <c r="F9" s="34"/>
-      <c r="G9" s="178"/>
+      <c r="G9" s="177"/>
       <c r="H9" s="34"/>
       <c r="I9" s="16"/>
       <c r="J9" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="163" t="s">
+      <c r="K9" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L9" s="16"/>
@@ -4126,12 +4165,12 @@
         <v>400440</v>
       </c>
       <c r="Q9" s="57"/>
-      <c r="R9" s="175" t="s">
-        <v>447</v>
+      <c r="R9" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S9" s="15"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="58"/>
       <c r="B10" s="62"/>
       <c r="C10" s="64"/>
@@ -4142,13 +4181,13 @@
         <v>234</v>
       </c>
       <c r="F10" s="34"/>
-      <c r="G10" s="178"/>
+      <c r="G10" s="177"/>
       <c r="H10" s="34"/>
       <c r="I10" s="16"/>
       <c r="J10" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K10" s="163" t="s">
+      <c r="K10" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L10" s="16"/>
@@ -4161,12 +4200,12 @@
         <v>400441</v>
       </c>
       <c r="Q10" s="57"/>
-      <c r="R10" s="175" t="s">
-        <v>447</v>
+      <c r="R10" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S10" s="15"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="58"/>
       <c r="B11" s="62"/>
       <c r="C11" s="64"/>
@@ -4177,13 +4216,13 @@
         <v>234</v>
       </c>
       <c r="F11" s="34"/>
-      <c r="G11" s="178"/>
+      <c r="G11" s="177"/>
       <c r="H11" s="34"/>
       <c r="I11" s="16"/>
       <c r="J11" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K11" s="163" t="s">
+      <c r="K11" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L11" s="16"/>
@@ -4196,12 +4235,12 @@
         <v>400442</v>
       </c>
       <c r="Q11" s="57"/>
-      <c r="R11" s="175" t="s">
-        <v>447</v>
+      <c r="R11" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="58"/>
       <c r="B12" s="62"/>
       <c r="C12" s="64"/>
@@ -4212,13 +4251,13 @@
         <v>234</v>
       </c>
       <c r="F12" s="34"/>
-      <c r="G12" s="178"/>
+      <c r="G12" s="177"/>
       <c r="H12" s="34"/>
       <c r="I12" s="16"/>
       <c r="J12" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K12" s="163" t="s">
+      <c r="K12" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L12" s="16"/>
@@ -4231,12 +4270,12 @@
         <v>400443</v>
       </c>
       <c r="Q12" s="57"/>
-      <c r="R12" s="175" t="s">
-        <v>447</v>
+      <c r="R12" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="58"/>
       <c r="B13" s="62"/>
       <c r="C13" s="64"/>
@@ -4247,13 +4286,13 @@
         <v>234</v>
       </c>
       <c r="F13" s="34"/>
-      <c r="G13" s="178"/>
+      <c r="G13" s="177"/>
       <c r="H13" s="34"/>
       <c r="I13" s="16"/>
       <c r="J13" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="163" t="s">
+      <c r="K13" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L13" s="16"/>
@@ -4266,12 +4305,12 @@
         <v>400444</v>
       </c>
       <c r="Q13" s="57"/>
-      <c r="R13" s="175" t="s">
-        <v>447</v>
+      <c r="R13" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="58"/>
       <c r="B14" s="62"/>
       <c r="C14" s="64"/>
@@ -4282,13 +4321,13 @@
         <v>234</v>
       </c>
       <c r="F14" s="34"/>
-      <c r="G14" s="178"/>
+      <c r="G14" s="177"/>
       <c r="H14" s="34"/>
       <c r="I14" s="16"/>
       <c r="J14" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K14" s="163" t="s">
+      <c r="K14" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L14" s="16"/>
@@ -4301,12 +4340,12 @@
         <v>400445</v>
       </c>
       <c r="Q14" s="57"/>
-      <c r="R14" s="175" t="s">
-        <v>447</v>
+      <c r="R14" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="58"/>
       <c r="B15" s="62"/>
       <c r="C15" s="64"/>
@@ -4317,13 +4356,13 @@
         <v>234</v>
       </c>
       <c r="F15" s="34"/>
-      <c r="G15" s="178"/>
+      <c r="G15" s="177"/>
       <c r="H15" s="34"/>
       <c r="I15" s="16"/>
       <c r="J15" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K15" s="163" t="s">
+      <c r="K15" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L15" s="16"/>
@@ -4336,12 +4375,12 @@
         <v>400446</v>
       </c>
       <c r="Q15" s="57"/>
-      <c r="R15" s="175" t="s">
-        <v>447</v>
+      <c r="R15" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="58"/>
       <c r="B16" s="62"/>
       <c r="C16" s="64"/>
@@ -4352,13 +4391,13 @@
         <v>234</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="178"/>
+      <c r="G16" s="177"/>
       <c r="H16" s="34"/>
       <c r="I16" s="16"/>
       <c r="J16" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K16" s="163" t="s">
+      <c r="K16" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L16" s="16"/>
@@ -4371,12 +4410,12 @@
         <v>400447</v>
       </c>
       <c r="Q16" s="57"/>
-      <c r="R16" s="175" t="s">
-        <v>447</v>
+      <c r="R16" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="58"/>
       <c r="B17" s="62"/>
       <c r="C17" s="64"/>
@@ -4387,13 +4426,13 @@
         <v>234</v>
       </c>
       <c r="F17" s="34"/>
-      <c r="G17" s="178"/>
+      <c r="G17" s="177"/>
       <c r="H17" s="34"/>
       <c r="I17" s="16"/>
       <c r="J17" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K17" s="163" t="s">
+      <c r="K17" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L17" s="16"/>
@@ -4406,12 +4445,12 @@
         <v>400448</v>
       </c>
       <c r="Q17" s="57"/>
-      <c r="R17" s="175" t="s">
-        <v>447</v>
+      <c r="R17" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="58"/>
       <c r="B18" s="62"/>
       <c r="C18" s="64"/>
@@ -4422,13 +4461,13 @@
         <v>234</v>
       </c>
       <c r="F18" s="34"/>
-      <c r="G18" s="178"/>
+      <c r="G18" s="177"/>
       <c r="H18" s="34"/>
       <c r="I18" s="16"/>
       <c r="J18" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K18" s="163" t="s">
+      <c r="K18" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L18" s="16"/>
@@ -4441,12 +4480,12 @@
         <v>400449</v>
       </c>
       <c r="Q18" s="57"/>
-      <c r="R18" s="175" t="s">
-        <v>447</v>
+      <c r="R18" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="58"/>
       <c r="B19" s="62"/>
       <c r="C19" s="64"/>
@@ -4457,13 +4496,13 @@
         <v>234</v>
       </c>
       <c r="F19" s="34"/>
-      <c r="G19" s="178"/>
+      <c r="G19" s="177"/>
       <c r="H19" s="34"/>
       <c r="I19" s="16"/>
       <c r="J19" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K19" s="163" t="s">
+      <c r="K19" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L19" s="16"/>
@@ -4476,12 +4515,12 @@
         <v>400450</v>
       </c>
       <c r="Q19" s="57"/>
-      <c r="R19" s="175" t="s">
-        <v>447</v>
+      <c r="R19" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="58"/>
       <c r="B20" s="62"/>
       <c r="C20" s="64"/>
@@ -4492,13 +4531,13 @@
         <v>234</v>
       </c>
       <c r="F20" s="34"/>
-      <c r="G20" s="178"/>
+      <c r="G20" s="177"/>
       <c r="H20" s="34"/>
       <c r="I20" s="16"/>
       <c r="J20" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K20" s="163" t="s">
+      <c r="K20" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L20" s="16"/>
@@ -4511,12 +4550,12 @@
         <v>400451</v>
       </c>
       <c r="Q20" s="57"/>
-      <c r="R20" s="175" t="s">
-        <v>447</v>
+      <c r="R20" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="58"/>
       <c r="B21" s="62"/>
       <c r="C21" s="64"/>
@@ -4527,13 +4566,13 @@
         <v>234</v>
       </c>
       <c r="F21" s="34"/>
-      <c r="G21" s="178"/>
+      <c r="G21" s="177"/>
       <c r="H21" s="34"/>
       <c r="I21" s="16"/>
       <c r="J21" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K21" s="163" t="s">
+      <c r="K21" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L21" s="16"/>
@@ -4546,12 +4585,12 @@
         <v>400452</v>
       </c>
       <c r="Q21" s="57"/>
-      <c r="R21" s="175" t="s">
-        <v>447</v>
+      <c r="R21" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="58"/>
       <c r="B22" s="62" t="s">
         <v>235</v>
@@ -4564,13 +4603,13 @@
         <v>234</v>
       </c>
       <c r="F22" s="34"/>
-      <c r="G22" s="178"/>
+      <c r="G22" s="177"/>
       <c r="H22" s="34"/>
       <c r="I22" s="16"/>
       <c r="J22" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K22" s="163" t="s">
+      <c r="K22" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L22" s="16"/>
@@ -4583,12 +4622,12 @@
         <v>400453</v>
       </c>
       <c r="Q22" s="57"/>
-      <c r="R22" s="175" t="s">
-        <v>447</v>
+      <c r="R22" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="58"/>
       <c r="B23" s="62"/>
       <c r="C23" s="64"/>
@@ -4599,13 +4638,13 @@
         <v>234</v>
       </c>
       <c r="F23" s="34"/>
-      <c r="G23" s="178"/>
+      <c r="G23" s="177"/>
       <c r="H23" s="34"/>
       <c r="I23" s="16"/>
       <c r="J23" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K23" s="163" t="s">
+      <c r="K23" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L23" s="16"/>
@@ -4618,12 +4657,12 @@
         <v>400454</v>
       </c>
       <c r="Q23" s="57"/>
-      <c r="R23" s="175" t="s">
-        <v>447</v>
+      <c r="R23" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="58"/>
       <c r="B24" s="62"/>
       <c r="C24" s="64"/>
@@ -4634,13 +4673,13 @@
         <v>234</v>
       </c>
       <c r="F24" s="34"/>
-      <c r="G24" s="178"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="34"/>
       <c r="I24" s="16"/>
       <c r="J24" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K24" s="163" t="s">
+      <c r="K24" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L24" s="16"/>
@@ -4653,12 +4692,12 @@
         <v>400455</v>
       </c>
       <c r="Q24" s="57"/>
-      <c r="R24" s="175" t="s">
-        <v>447</v>
+      <c r="R24" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="58"/>
       <c r="B25" s="62"/>
       <c r="C25" s="64"/>
@@ -4669,13 +4708,13 @@
         <v>234</v>
       </c>
       <c r="F25" s="34"/>
-      <c r="G25" s="178"/>
+      <c r="G25" s="177"/>
       <c r="H25" s="34"/>
       <c r="I25" s="16"/>
       <c r="J25" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K25" s="163" t="s">
+      <c r="K25" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L25" s="16"/>
@@ -4688,12 +4727,12 @@
         <v>400456</v>
       </c>
       <c r="Q25" s="57"/>
-      <c r="R25" s="175" t="s">
-        <v>447</v>
+      <c r="R25" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="58"/>
       <c r="B26" s="62"/>
       <c r="C26" s="64"/>
@@ -4704,13 +4743,13 @@
         <v>234</v>
       </c>
       <c r="F26" s="34"/>
-      <c r="G26" s="178"/>
+      <c r="G26" s="177"/>
       <c r="H26" s="34"/>
       <c r="I26" s="16"/>
       <c r="J26" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K26" s="163" t="s">
+      <c r="K26" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L26" s="16"/>
@@ -4723,12 +4762,12 @@
         <v>400457</v>
       </c>
       <c r="Q26" s="57"/>
-      <c r="R26" s="175" t="s">
-        <v>447</v>
+      <c r="R26" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="58"/>
       <c r="B27" s="62"/>
       <c r="C27" s="64"/>
@@ -4739,13 +4778,13 @@
         <v>234</v>
       </c>
       <c r="F27" s="34"/>
-      <c r="G27" s="178"/>
+      <c r="G27" s="177"/>
       <c r="H27" s="34"/>
       <c r="I27" s="16"/>
       <c r="J27" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K27" s="163" t="s">
+      <c r="K27" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L27" s="16"/>
@@ -4758,12 +4797,12 @@
         <v>400458</v>
       </c>
       <c r="Q27" s="57"/>
-      <c r="R27" s="175" t="s">
-        <v>447</v>
+      <c r="R27" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="58"/>
       <c r="B28" s="62"/>
       <c r="C28" s="64"/>
@@ -4774,13 +4813,13 @@
         <v>234</v>
       </c>
       <c r="F28" s="34"/>
-      <c r="G28" s="178"/>
+      <c r="G28" s="177"/>
       <c r="H28" s="34"/>
       <c r="I28" s="16"/>
       <c r="J28" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K28" s="163" t="s">
+      <c r="K28" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L28" s="16"/>
@@ -4793,12 +4832,12 @@
         <v>400459</v>
       </c>
       <c r="Q28" s="57"/>
-      <c r="R28" s="175" t="s">
-        <v>447</v>
+      <c r="R28" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="58"/>
       <c r="B29" s="62"/>
       <c r="C29" s="64"/>
@@ -4809,13 +4848,13 @@
         <v>234</v>
       </c>
       <c r="F29" s="34"/>
-      <c r="G29" s="178"/>
+      <c r="G29" s="177"/>
       <c r="H29" s="34"/>
       <c r="I29" s="16"/>
       <c r="J29" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K29" s="163" t="s">
+      <c r="K29" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L29" s="16"/>
@@ -4828,12 +4867,12 @@
         <v>400460</v>
       </c>
       <c r="Q29" s="57"/>
-      <c r="R29" s="175" t="s">
-        <v>447</v>
+      <c r="R29" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="58"/>
       <c r="B30" s="62"/>
       <c r="C30" s="64"/>
@@ -4844,13 +4883,13 @@
         <v>234</v>
       </c>
       <c r="F30" s="34"/>
-      <c r="G30" s="178"/>
+      <c r="G30" s="177"/>
       <c r="H30" s="34"/>
       <c r="I30" s="16"/>
       <c r="J30" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K30" s="163" t="s">
+      <c r="K30" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L30" s="16"/>
@@ -4863,12 +4902,12 @@
         <v>400461</v>
       </c>
       <c r="Q30" s="57"/>
-      <c r="R30" s="175" t="s">
-        <v>447</v>
+      <c r="R30" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="62"/>
       <c r="C31" s="64"/>
@@ -4879,13 +4918,13 @@
         <v>234</v>
       </c>
       <c r="F31" s="34"/>
-      <c r="G31" s="178"/>
+      <c r="G31" s="177"/>
       <c r="H31" s="34"/>
       <c r="I31" s="16"/>
       <c r="J31" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K31" s="163" t="s">
+      <c r="K31" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L31" s="16"/>
@@ -4898,12 +4937,12 @@
         <v>400462</v>
       </c>
       <c r="Q31" s="57"/>
-      <c r="R31" s="175" t="s">
-        <v>447</v>
+      <c r="R31" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="58"/>
       <c r="B32" s="62"/>
       <c r="C32" s="64"/>
@@ -4914,13 +4953,13 @@
         <v>234</v>
       </c>
       <c r="F32" s="34"/>
-      <c r="G32" s="178"/>
+      <c r="G32" s="177"/>
       <c r="H32" s="34"/>
       <c r="I32" s="16"/>
       <c r="J32" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K32" s="163" t="s">
+      <c r="K32" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L32" s="16"/>
@@ -4933,12 +4972,12 @@
         <v>400463</v>
       </c>
       <c r="Q32" s="57"/>
-      <c r="R32" s="175" t="s">
-        <v>447</v>
+      <c r="R32" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="58"/>
       <c r="B33" s="62"/>
       <c r="C33" s="64"/>
@@ -4949,13 +4988,13 @@
         <v>234</v>
       </c>
       <c r="F33" s="34"/>
-      <c r="G33" s="178"/>
+      <c r="G33" s="177"/>
       <c r="H33" s="34"/>
       <c r="I33" s="16"/>
       <c r="J33" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K33" s="163" t="s">
+      <c r="K33" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L33" s="16"/>
@@ -4968,29 +5007,29 @@
         <v>400464</v>
       </c>
       <c r="Q33" s="57"/>
-      <c r="R33" s="175" t="s">
-        <v>447</v>
+      <c r="R33" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="58"/>
       <c r="B34" s="62"/>
       <c r="C34" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E34" s="34"/>
       <c r="F34" s="34"/>
-      <c r="G34" s="178"/>
+      <c r="G34" s="177"/>
       <c r="H34" s="34"/>
       <c r="I34" s="16"/>
       <c r="J34" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K34" s="163" t="s">
+      <c r="K34" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L34" s="16"/>
@@ -5002,17 +5041,17 @@
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q34" s="57">
         <v>1</v>
       </c>
       <c r="R34" s="57"/>
-      <c r="S34" s="15" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="S34" s="19" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="58"/>
       <c r="B35" s="62"/>
       <c r="C35" s="59" t="s">
@@ -5021,7 +5060,7 @@
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="63"/>
-      <c r="G35" s="181"/>
+      <c r="G35" s="180"/>
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="63"/>
@@ -5032,10 +5071,12 @@
       <c r="O35" s="63"/>
       <c r="P35" s="63"/>
       <c r="Q35" s="63"/>
-      <c r="R35" s="63"/>
+      <c r="R35" s="199" t="s">
+        <v>455</v>
+      </c>
       <c r="S35" s="63"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="58"/>
       <c r="B36" s="62"/>
       <c r="C36" s="62"/>
@@ -5044,13 +5085,13 @@
       </c>
       <c r="E36" s="66"/>
       <c r="F36" s="66"/>
-      <c r="G36" s="182"/>
+      <c r="G36" s="181"/>
       <c r="H36" s="66"/>
       <c r="I36" s="20"/>
       <c r="J36" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="K36" s="164" t="s">
+      <c r="K36" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L36" s="20"/>
@@ -5066,9 +5107,9 @@
         <v>1</v>
       </c>
       <c r="R36" s="69"/>
-      <c r="S36" s="70"/>
-    </row>
-    <row r="37" spans="1:19" ht="40.5">
+      <c r="S36" s="165"/>
+    </row>
+    <row r="37" spans="1:19" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A37" s="58"/>
       <c r="B37" s="62"/>
       <c r="C37" s="62"/>
@@ -5077,7 +5118,7 @@
       </c>
       <c r="E37" s="34"/>
       <c r="F37" s="34"/>
-      <c r="G37" s="178"/>
+      <c r="G37" s="177"/>
       <c r="H37" s="34"/>
       <c r="I37" s="29" t="s">
         <v>238</v>
@@ -5085,7 +5126,7 @@
       <c r="J37" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K37" s="163" t="s">
+      <c r="K37" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L37" s="73"/>
@@ -5096,18 +5137,18 @@
         <v>239</v>
       </c>
       <c r="O37" s="72"/>
-      <c r="P37" s="162">
+      <c r="P37" s="161">
         <v>400242</v>
       </c>
       <c r="Q37" s="72">
         <v>1</v>
       </c>
-      <c r="R37" s="175" t="s">
-        <v>447</v>
+      <c r="R37" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="58"/>
       <c r="B38" s="62"/>
       <c r="C38" s="62"/>
@@ -5118,13 +5159,13 @@
       <c r="F38" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G38" s="179"/>
+      <c r="G38" s="178"/>
       <c r="H38" s="34"/>
       <c r="I38" s="29"/>
       <c r="J38" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K38" s="163" t="s">
+      <c r="K38" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L38" s="73"/>
@@ -5139,90 +5180,90 @@
       <c r="Q38" s="72">
         <v>1</v>
       </c>
-      <c r="R38" s="175" t="s">
-        <v>447</v>
+      <c r="R38" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="58"/>
       <c r="B39" s="62"/>
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
-      <c r="E39" s="169" t="s">
+      <c r="E39" s="168" t="s">
         <v>240</v>
       </c>
-      <c r="F39" s="170" t="s">
+      <c r="F39" s="169" t="s">
         <v>242</v>
       </c>
-      <c r="G39" s="179"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="169" t="s">
+      <c r="G39" s="178"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="168" t="s">
         <v>232</v>
       </c>
-      <c r="K39" s="173" t="s">
+      <c r="K39" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="L39" s="174"/>
-      <c r="M39" s="169" t="s">
+      <c r="L39" s="173"/>
+      <c r="M39" s="168" t="s">
         <v>181</v>
       </c>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="169">
+      <c r="N39" s="172"/>
+      <c r="O39" s="172"/>
+      <c r="P39" s="168">
         <v>400466</v>
       </c>
-      <c r="Q39" s="173">
+      <c r="Q39" s="172">
         <v>1</v>
       </c>
       <c r="R39" s="72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="58"/>
       <c r="B40" s="62"/>
       <c r="C40" s="62"/>
       <c r="D40" s="62"/>
-      <c r="E40" s="169" t="s">
+      <c r="E40" s="168" t="s">
         <v>240</v>
       </c>
-      <c r="F40" s="170" t="s">
+      <c r="F40" s="169" t="s">
         <v>243</v>
       </c>
-      <c r="G40" s="179"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="169" t="s">
+      <c r="G40" s="178"/>
+      <c r="H40" s="170"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="168" t="s">
         <v>232</v>
       </c>
-      <c r="K40" s="173" t="s">
+      <c r="K40" s="172" t="s">
         <v>233</v>
       </c>
-      <c r="L40" s="174"/>
-      <c r="M40" s="169" t="s">
+      <c r="L40" s="173"/>
+      <c r="M40" s="168" t="s">
         <v>181</v>
       </c>
-      <c r="N40" s="173"/>
-      <c r="O40" s="173"/>
-      <c r="P40" s="169">
+      <c r="N40" s="172"/>
+      <c r="O40" s="172"/>
+      <c r="P40" s="168">
         <v>400467</v>
       </c>
-      <c r="Q40" s="173">
+      <c r="Q40" s="172">
         <v>1</v>
       </c>
       <c r="R40" s="72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S40" s="22" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="58"/>
       <c r="B41" s="62"/>
       <c r="C41" s="62"/>
@@ -5233,13 +5274,13 @@
       <c r="F41" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G41" s="179"/>
+      <c r="G41" s="178"/>
       <c r="H41" s="34"/>
       <c r="I41" s="29"/>
       <c r="J41" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K41" s="163" t="s">
+      <c r="K41" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L41" s="73"/>
@@ -5254,12 +5295,12 @@
       <c r="Q41" s="72">
         <v>1</v>
       </c>
-      <c r="R41" s="175" t="s">
-        <v>447</v>
+      <c r="R41" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="58"/>
       <c r="B42" s="62"/>
       <c r="C42" s="62"/>
@@ -5270,13 +5311,13 @@
       <c r="F42" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="G42" s="179"/>
+      <c r="G42" s="178"/>
       <c r="H42" s="34"/>
       <c r="I42" s="29"/>
       <c r="J42" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K42" s="163" t="s">
+      <c r="K42" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L42" s="73"/>
@@ -5291,12 +5332,12 @@
       <c r="Q42" s="72">
         <v>1</v>
       </c>
-      <c r="R42" s="175" t="s">
-        <v>447</v>
+      <c r="R42" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="58"/>
       <c r="B43" s="62"/>
       <c r="C43" s="62"/>
@@ -5307,13 +5348,13 @@
       <c r="F43" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G43" s="179"/>
+      <c r="G43" s="178"/>
       <c r="H43" s="34"/>
       <c r="I43" s="29"/>
       <c r="J43" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K43" s="163" t="s">
+      <c r="K43" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L43" s="73"/>
@@ -5328,12 +5369,12 @@
       <c r="Q43" s="72">
         <v>1</v>
       </c>
-      <c r="R43" s="175" t="s">
-        <v>447</v>
+      <c r="R43" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="58"/>
       <c r="B44" s="62"/>
       <c r="C44" s="62"/>
@@ -5344,13 +5385,13 @@
       <c r="F44" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="G44" s="179"/>
+      <c r="G44" s="178"/>
       <c r="H44" s="34"/>
       <c r="I44" s="29"/>
       <c r="J44" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K44" s="163" t="s">
+      <c r="K44" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L44" s="73"/>
@@ -5364,12 +5405,12 @@
       <c r="Q44" s="72">
         <v>1</v>
       </c>
-      <c r="R44" s="175" t="s">
-        <v>447</v>
+      <c r="R44" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="58"/>
       <c r="B45" s="62"/>
       <c r="C45" s="62"/>
@@ -5378,13 +5419,13 @@
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="13"/>
-      <c r="G45" s="179"/>
+      <c r="G45" s="178"/>
       <c r="H45" s="34"/>
       <c r="I45" s="73"/>
       <c r="J45" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K45" s="163" t="s">
+      <c r="K45" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L45" s="73"/>
@@ -5399,12 +5440,12 @@
       <c r="Q45" s="72">
         <v>1</v>
       </c>
-      <c r="R45" s="175" t="s">
-        <v>447</v>
+      <c r="R45" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="58"/>
       <c r="B46" s="62"/>
       <c r="C46" s="62"/>
@@ -5415,13 +5456,13 @@
       <c r="F46" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="G46" s="179"/>
+      <c r="G46" s="178"/>
       <c r="H46" s="34"/>
       <c r="I46" s="73"/>
       <c r="J46" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K46" s="163" t="s">
+      <c r="K46" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L46" s="73"/>
@@ -5436,12 +5477,12 @@
       <c r="Q46" s="72">
         <v>1</v>
       </c>
-      <c r="R46" s="175" t="s">
-        <v>447</v>
+      <c r="R46" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="58"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62"/>
@@ -5452,13 +5493,13 @@
       <c r="F47" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G47" s="179"/>
+      <c r="G47" s="178"/>
       <c r="H47" s="34"/>
       <c r="I47" s="73"/>
       <c r="J47" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K47" s="163" t="s">
+      <c r="K47" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L47" s="73"/>
@@ -5473,12 +5514,12 @@
       <c r="Q47" s="72">
         <v>1</v>
       </c>
-      <c r="R47" s="175" t="s">
-        <v>447</v>
+      <c r="R47" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="58"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62"/>
@@ -5489,15 +5530,15 @@
       <c r="F48" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="178" t="s">
-        <v>448</v>
+      <c r="G48" s="177" t="s">
+        <v>447</v>
       </c>
       <c r="H48" s="34"/>
       <c r="I48" s="73"/>
       <c r="J48" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K48" s="163" t="s">
+      <c r="K48" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L48" s="73"/>
@@ -5512,12 +5553,12 @@
       <c r="Q48" s="72">
         <v>1</v>
       </c>
-      <c r="R48" s="175" t="s">
-        <v>447</v>
+      <c r="R48" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="58"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
@@ -5528,15 +5569,15 @@
       <c r="F49" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="G49" s="178" t="s">
-        <v>449</v>
+      <c r="G49" s="177" t="s">
+        <v>448</v>
       </c>
       <c r="H49" s="34"/>
       <c r="I49" s="73"/>
       <c r="J49" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K49" s="163" t="s">
+      <c r="K49" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L49" s="73"/>
@@ -5551,12 +5592,12 @@
       <c r="Q49" s="72">
         <v>1</v>
       </c>
-      <c r="R49" s="175" t="s">
-        <v>447</v>
+      <c r="R49" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="58"/>
       <c r="B50" s="62"/>
       <c r="C50" s="62"/>
@@ -5567,15 +5608,15 @@
       <c r="F50" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G50" s="178" t="s">
-        <v>449</v>
+      <c r="G50" s="177" t="s">
+        <v>448</v>
       </c>
       <c r="H50" s="34"/>
       <c r="I50" s="73"/>
       <c r="J50" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K50" s="163" t="s">
+      <c r="K50" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L50" s="73"/>
@@ -5590,12 +5631,12 @@
       <c r="Q50" s="72">
         <v>1</v>
       </c>
-      <c r="R50" s="175" t="s">
-        <v>447</v>
+      <c r="R50" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="58"/>
       <c r="B51" s="62"/>
       <c r="C51" s="62"/>
@@ -5606,15 +5647,15 @@
       <c r="F51" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="G51" s="178" t="s">
-        <v>449</v>
+      <c r="G51" s="177" t="s">
+        <v>448</v>
       </c>
       <c r="H51" s="34"/>
       <c r="I51" s="73"/>
       <c r="J51" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K51" s="163" t="s">
+      <c r="K51" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L51" s="73"/>
@@ -5629,12 +5670,12 @@
       <c r="Q51" s="72">
         <v>1</v>
       </c>
-      <c r="R51" s="175" t="s">
-        <v>447</v>
+      <c r="R51" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="58"/>
       <c r="B52" s="62"/>
       <c r="C52" s="62"/>
@@ -5645,15 +5686,15 @@
       <c r="F52" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G52" s="178" t="s">
-        <v>449</v>
+      <c r="G52" s="177" t="s">
+        <v>448</v>
       </c>
       <c r="H52" s="34"/>
       <c r="I52" s="73"/>
       <c r="J52" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K52" s="163" t="s">
+      <c r="K52" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L52" s="73"/>
@@ -5668,12 +5709,12 @@
       <c r="Q52" s="72">
         <v>1</v>
       </c>
-      <c r="R52" s="175" t="s">
-        <v>447</v>
+      <c r="R52" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="58"/>
       <c r="B53" s="62"/>
       <c r="C53" s="75"/>
@@ -5682,15 +5723,15 @@
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="13"/>
-      <c r="G53" s="179" t="s">
-        <v>446</v>
+      <c r="G53" s="178" t="s">
+        <v>445</v>
       </c>
       <c r="H53" s="34"/>
       <c r="I53" s="73"/>
       <c r="J53" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K53" s="163" t="s">
+      <c r="K53" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L53" s="73"/>
@@ -5705,12 +5746,12 @@
       <c r="Q53" s="72">
         <v>1</v>
       </c>
-      <c r="R53" s="175" t="s">
-        <v>447</v>
+      <c r="R53" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="58"/>
       <c r="B54" s="62"/>
       <c r="C54" s="75"/>
@@ -5721,15 +5762,15 @@
       <c r="F54" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="G54" s="179" t="s">
-        <v>449</v>
+      <c r="G54" s="178" t="s">
+        <v>448</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="73"/>
       <c r="J54" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="K54" s="163" t="s">
+      <c r="K54" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L54" s="73"/>
@@ -5744,12 +5785,12 @@
       <c r="Q54" s="72">
         <v>1</v>
       </c>
-      <c r="R54" s="175" t="s">
-        <v>447</v>
+      <c r="R54" s="174" t="s">
+        <v>446</v>
       </c>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="27">
+    <row r="55" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A55" s="58"/>
       <c r="B55" s="62"/>
       <c r="C55" s="31" t="s">
@@ -5758,7 +5799,7 @@
       <c r="D55" s="63"/>
       <c r="E55" s="16"/>
       <c r="F55" s="63"/>
-      <c r="G55" s="181"/>
+      <c r="G55" s="180"/>
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="63"/>
@@ -5769,10 +5810,12 @@
       <c r="O55" s="63"/>
       <c r="P55" s="63"/>
       <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
+      <c r="R55" s="199" t="s">
+        <v>455</v>
+      </c>
       <c r="S55" s="63"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="58"/>
       <c r="B56" s="62"/>
       <c r="C56" s="32"/>
@@ -5781,13 +5824,13 @@
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="13"/>
-      <c r="G56" s="179"/>
+      <c r="G56" s="178"/>
       <c r="H56" s="34"/>
       <c r="I56" s="73"/>
       <c r="J56" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K56" s="163" t="s">
+      <c r="K56" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L56" s="73"/>
@@ -5802,10 +5845,12 @@
       <c r="Q56" s="72">
         <v>2</v>
       </c>
-      <c r="R56" s="111"/>
-      <c r="S56" s="143"/>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="R56" s="72"/>
+      <c r="S56" s="122" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="58"/>
       <c r="B57" s="62"/>
       <c r="C57" s="32"/>
@@ -5814,13 +5859,13 @@
       </c>
       <c r="E57" s="33"/>
       <c r="F57" s="13"/>
-      <c r="G57" s="179"/>
+      <c r="G57" s="178"/>
       <c r="H57" s="34"/>
       <c r="I57" s="73"/>
       <c r="J57" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K57" s="163" t="s">
+      <c r="K57" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L57" s="73"/>
@@ -5835,10 +5880,12 @@
       <c r="Q57" s="72">
         <v>1</v>
       </c>
-      <c r="R57" s="136"/>
-      <c r="S57" s="158"/>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="R57" s="72"/>
+      <c r="S57" s="122" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="58"/>
       <c r="B58" s="62"/>
       <c r="C58" s="12"/>
@@ -5847,13 +5894,13 @@
       </c>
       <c r="E58" s="33"/>
       <c r="F58" s="13"/>
-      <c r="G58" s="179"/>
+      <c r="G58" s="178"/>
       <c r="H58" s="34"/>
       <c r="I58" s="73"/>
       <c r="J58" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K58" s="163" t="s">
+      <c r="K58" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L58" s="73"/>
@@ -5868,10 +5915,12 @@
       <c r="Q58" s="72">
         <v>1</v>
       </c>
-      <c r="R58" s="74"/>
-      <c r="S58" s="35"/>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="R58" s="72"/>
+      <c r="S58" s="122" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="58"/>
       <c r="B59" s="62"/>
       <c r="C59" s="76" t="s">
@@ -5882,13 +5931,13 @@
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
-      <c r="G59" s="179"/>
+      <c r="G59" s="178"/>
       <c r="H59" s="34"/>
       <c r="I59" s="73"/>
       <c r="J59" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K59" s="163" t="s">
+      <c r="K59" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L59" s="73"/>
@@ -5903,10 +5952,12 @@
       <c r="Q59" s="72">
         <v>2</v>
       </c>
-      <c r="R59" s="72"/>
+      <c r="R59" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="58"/>
       <c r="B60" s="62"/>
       <c r="C60" s="31" t="s">
@@ -5915,7 +5966,7 @@
       <c r="D60" s="31"/>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
-      <c r="G60" s="179"/>
+      <c r="G60" s="178"/>
       <c r="H60" s="34"/>
       <c r="I60" s="73"/>
       <c r="J60" s="22"/>
@@ -5926,10 +5977,12 @@
       <c r="O60" s="72"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="72"/>
-      <c r="R60" s="72"/>
+      <c r="R60" s="199" t="s">
+        <v>455</v>
+      </c>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="58"/>
       <c r="B61" s="62"/>
       <c r="C61" s="32"/>
@@ -5942,13 +5995,13 @@
       <c r="F61" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="G61" s="179"/>
+      <c r="G61" s="178"/>
       <c r="H61" s="34"/>
       <c r="I61" s="73"/>
       <c r="J61" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K61" s="163" t="s">
+      <c r="K61" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L61" s="73"/>
@@ -5963,10 +6016,12 @@
       <c r="Q61" s="72">
         <v>1</v>
       </c>
-      <c r="R61" s="72"/>
+      <c r="R61" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="58"/>
       <c r="B62" s="62"/>
       <c r="C62" s="32"/>
@@ -5977,13 +6032,13 @@
       <c r="F62" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="G62" s="179"/>
+      <c r="G62" s="178"/>
       <c r="H62" s="34"/>
       <c r="I62" s="73"/>
       <c r="J62" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K62" s="163" t="s">
+      <c r="K62" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L62" s="73"/>
@@ -5998,10 +6053,12 @@
       <c r="Q62" s="72">
         <v>2</v>
       </c>
-      <c r="R62" s="72"/>
+      <c r="R62" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="58"/>
       <c r="B63" s="78"/>
       <c r="C63" s="32"/>
@@ -6010,13 +6067,13 @@
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
-      <c r="G63" s="179"/>
+      <c r="G63" s="178"/>
       <c r="H63" s="34"/>
       <c r="I63" s="13"/>
       <c r="J63" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K63" s="163" t="s">
+      <c r="K63" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L63" s="73"/>
@@ -6031,10 +6088,12 @@
       <c r="Q63" s="72">
         <v>1</v>
       </c>
-      <c r="R63" s="72"/>
+      <c r="R63" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S63" s="73"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="58"/>
       <c r="B64" s="78"/>
       <c r="C64" s="32"/>
@@ -6047,7 +6106,7 @@
       <c r="F64" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="G64" s="183"/>
+      <c r="G64" s="182"/>
       <c r="H64" s="34"/>
       <c r="I64" s="73" t="s">
         <v>258</v>
@@ -6070,10 +6129,14 @@
       <c r="Q64" s="72">
         <v>1</v>
       </c>
-      <c r="R64" s="72"/>
-      <c r="S64" s="73"/>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="R64" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="S64" s="73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="58"/>
       <c r="B65" s="78"/>
       <c r="C65" s="32"/>
@@ -6084,7 +6147,7 @@
       <c r="F65" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="G65" s="184"/>
+      <c r="G65" s="183"/>
       <c r="H65" s="34"/>
       <c r="I65" s="73"/>
       <c r="J65" s="73" t="s">
@@ -6105,10 +6168,14 @@
       <c r="Q65" s="72">
         <v>1</v>
       </c>
-      <c r="R65" s="72"/>
-      <c r="S65" s="73"/>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="R65" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="S65" s="73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="58"/>
       <c r="B66" s="78"/>
       <c r="C66" s="32"/>
@@ -6119,7 +6186,7 @@
       <c r="F66" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="G66" s="184"/>
+      <c r="G66" s="183"/>
       <c r="H66" s="34"/>
       <c r="I66" s="73"/>
       <c r="J66" s="73" t="s">
@@ -6140,10 +6207,14 @@
       <c r="Q66" s="72">
         <v>1</v>
       </c>
-      <c r="R66" s="72"/>
-      <c r="S66" s="73"/>
-    </row>
-    <row r="67" spans="1:19" s="81" customFormat="1">
+      <c r="R66" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="S66" s="73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="58"/>
       <c r="B67" s="78"/>
       <c r="C67" s="32"/>
@@ -6152,13 +6223,13 @@
       </c>
       <c r="E67" s="60"/>
       <c r="F67" s="60"/>
-      <c r="G67" s="184"/>
+      <c r="G67" s="183"/>
       <c r="H67" s="34"/>
       <c r="I67" s="73"/>
       <c r="J67" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K67" s="163" t="s">
+      <c r="K67" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L67" s="73"/>
@@ -6173,10 +6244,12 @@
       <c r="Q67" s="72">
         <v>1</v>
       </c>
-      <c r="R67" s="72"/>
+      <c r="R67" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S67" s="73"/>
     </row>
-    <row r="68" spans="1:19" s="81" customFormat="1">
+    <row r="68" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="58"/>
       <c r="B68" s="78"/>
       <c r="C68" s="32"/>
@@ -6187,7 +6260,7 @@
         <v>260</v>
       </c>
       <c r="F68" s="60"/>
-      <c r="G68" s="184"/>
+      <c r="G68" s="183"/>
       <c r="H68" s="34"/>
       <c r="I68" s="73"/>
       <c r="J68" s="73" t="s">
@@ -6208,10 +6281,14 @@
       <c r="Q68" s="72">
         <v>1</v>
       </c>
-      <c r="R68" s="72"/>
-      <c r="S68" s="73"/>
-    </row>
-    <row r="69" spans="1:19" s="81" customFormat="1">
+      <c r="R68" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="S68" s="73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="58"/>
       <c r="B69" s="78"/>
       <c r="C69" s="32"/>
@@ -6222,7 +6299,7 @@
         <v>260</v>
       </c>
       <c r="F69" s="60"/>
-      <c r="G69" s="184"/>
+      <c r="G69" s="183"/>
       <c r="H69" s="34"/>
       <c r="I69" s="73"/>
       <c r="J69" s="73" t="s">
@@ -6243,10 +6320,14 @@
       <c r="Q69" s="72">
         <v>1</v>
       </c>
-      <c r="R69" s="72"/>
-      <c r="S69" s="73"/>
-    </row>
-    <row r="70" spans="1:19" s="81" customFormat="1">
+      <c r="R69" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="S69" s="73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="58"/>
       <c r="B70" s="78"/>
       <c r="C70" s="12"/>
@@ -6257,7 +6338,7 @@
         <v>260</v>
       </c>
       <c r="F70" s="60"/>
-      <c r="G70" s="184"/>
+      <c r="G70" s="183"/>
       <c r="H70" s="34"/>
       <c r="I70" s="73"/>
       <c r="J70" s="73" t="s">
@@ -6278,10 +6359,14 @@
       <c r="Q70" s="72">
         <v>1</v>
       </c>
-      <c r="R70" s="72"/>
-      <c r="S70" s="73"/>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="R70" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="S70" s="73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="58"/>
       <c r="B71" s="62"/>
       <c r="C71" s="31" t="s">
@@ -6290,7 +6375,7 @@
       <c r="D71" s="63"/>
       <c r="E71" s="82"/>
       <c r="F71" s="63"/>
-      <c r="G71" s="181"/>
+      <c r="G71" s="180"/>
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="63"/>
@@ -6301,10 +6386,12 @@
       <c r="O71" s="63"/>
       <c r="P71" s="63"/>
       <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
+      <c r="R71" s="199" t="s">
+        <v>455</v>
+      </c>
       <c r="S71" s="63"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="58"/>
       <c r="B72" s="62"/>
       <c r="C72" s="32"/>
@@ -6313,13 +6400,13 @@
       </c>
       <c r="E72" s="33"/>
       <c r="F72" s="12"/>
-      <c r="G72" s="185"/>
+      <c r="G72" s="184"/>
       <c r="H72" s="66"/>
       <c r="I72" s="83"/>
       <c r="J72" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="K72" s="164" t="s">
+      <c r="K72" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L72" s="83"/>
@@ -6334,10 +6421,12 @@
       <c r="Q72" s="74">
         <v>1</v>
       </c>
-      <c r="R72" s="74"/>
+      <c r="R72" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S72" s="35"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="58"/>
       <c r="B73" s="62"/>
       <c r="C73" s="32"/>
@@ -6350,13 +6439,13 @@
       <c r="F73" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="G73" s="178"/>
+      <c r="G73" s="177"/>
       <c r="H73" s="34"/>
       <c r="I73" s="73"/>
       <c r="J73" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K73" s="163" t="s">
+      <c r="K73" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L73" s="73"/>
@@ -6371,10 +6460,12 @@
       <c r="Q73" s="72">
         <v>1</v>
       </c>
-      <c r="R73" s="111"/>
+      <c r="R73" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S73" s="143"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="58"/>
       <c r="B74" s="62"/>
       <c r="C74" s="32"/>
@@ -6385,13 +6476,13 @@
       <c r="F74" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="G74" s="178"/>
+      <c r="G74" s="177"/>
       <c r="H74" s="34"/>
       <c r="I74" s="73"/>
       <c r="J74" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K74" s="163" t="s">
+      <c r="K74" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L74" s="73"/>
@@ -6406,10 +6497,12 @@
       <c r="Q74" s="72">
         <v>1</v>
       </c>
-      <c r="R74" s="136"/>
+      <c r="R74" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S74" s="158"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="58"/>
       <c r="B75" s="62"/>
       <c r="C75" s="32"/>
@@ -6420,13 +6513,13 @@
       <c r="F75" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="G75" s="178"/>
+      <c r="G75" s="177"/>
       <c r="H75" s="34"/>
       <c r="I75" s="73"/>
       <c r="J75" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K75" s="163" t="s">
+      <c r="K75" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L75" s="73"/>
@@ -6441,10 +6534,12 @@
       <c r="Q75" s="72">
         <v>1</v>
       </c>
-      <c r="R75" s="74"/>
+      <c r="R75" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S75" s="35"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="58"/>
       <c r="B76" s="75"/>
       <c r="C76" s="12"/>
@@ -6453,13 +6548,13 @@
       </c>
       <c r="E76" s="33"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="179"/>
+      <c r="G76" s="178"/>
       <c r="H76" s="34"/>
       <c r="I76" s="73"/>
       <c r="J76" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K76" s="163" t="s">
+      <c r="K76" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L76" s="73"/>
@@ -6474,10 +6569,12 @@
       <c r="Q76" s="72">
         <v>1</v>
       </c>
-      <c r="R76" s="72"/>
+      <c r="R76" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="58"/>
       <c r="B77" s="79" t="s">
         <v>82</v>
@@ -6486,7 +6583,7 @@
       <c r="D77" s="63"/>
       <c r="E77" s="82"/>
       <c r="F77" s="63"/>
-      <c r="G77" s="181"/>
+      <c r="G77" s="180"/>
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="63"/>
@@ -6497,10 +6594,12 @@
       <c r="O77" s="63"/>
       <c r="P77" s="63"/>
       <c r="Q77" s="63"/>
-      <c r="R77" s="63"/>
+      <c r="R77" s="199" t="s">
+        <v>455</v>
+      </c>
       <c r="S77" s="63"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="58"/>
       <c r="B78" s="78"/>
       <c r="C78" s="32" t="s">
@@ -6509,7 +6608,7 @@
       <c r="D78" s="63"/>
       <c r="E78" s="82"/>
       <c r="F78" s="63"/>
-      <c r="G78" s="181"/>
+      <c r="G78" s="180"/>
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="63"/>
@@ -6520,10 +6619,12 @@
       <c r="O78" s="63"/>
       <c r="P78" s="63"/>
       <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
+      <c r="R78" s="199" t="s">
+        <v>455</v>
+      </c>
       <c r="S78" s="63"/>
     </row>
-    <row r="79" spans="1:19" ht="54">
+    <row r="79" spans="1:19" ht="54" x14ac:dyDescent="0.3">
       <c r="A79" s="58"/>
       <c r="B79" s="78"/>
       <c r="C79" s="32"/>
@@ -6536,7 +6637,7 @@
       <c r="F79" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="185"/>
+      <c r="G79" s="184"/>
       <c r="H79" s="66"/>
       <c r="I79" s="35" t="s">
         <v>263</v>
@@ -6544,7 +6645,7 @@
       <c r="J79" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="K79" s="164" t="s">
+      <c r="K79" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L79" s="35"/>
@@ -6559,10 +6660,12 @@
       <c r="Q79" s="74">
         <v>2</v>
       </c>
-      <c r="R79" s="136"/>
+      <c r="R79" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S79" s="158"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="58"/>
       <c r="B80" s="78"/>
       <c r="C80" s="32"/>
@@ -6573,13 +6676,13 @@
       <c r="F80" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G80" s="179"/>
+      <c r="G80" s="178"/>
       <c r="H80" s="34"/>
       <c r="I80" s="15"/>
       <c r="J80" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K80" s="163" t="s">
+      <c r="K80" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L80" s="70"/>
@@ -6594,10 +6697,12 @@
       <c r="Q80" s="57">
         <v>1</v>
       </c>
-      <c r="R80" s="103"/>
+      <c r="R80" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S80" s="98"/>
     </row>
-    <row r="81" spans="1:19" ht="27">
+    <row r="81" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A81" s="58"/>
       <c r="B81" s="78"/>
       <c r="C81" s="32"/>
@@ -6608,7 +6713,7 @@
       <c r="F81" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="G81" s="179"/>
+      <c r="G81" s="178"/>
       <c r="H81" s="34"/>
       <c r="I81" s="15"/>
       <c r="J81" s="15" t="s">
@@ -6629,10 +6734,12 @@
       <c r="Q81" s="57">
         <v>1</v>
       </c>
-      <c r="R81" s="103"/>
+      <c r="R81" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S81" s="98"/>
     </row>
-    <row r="82" spans="1:19" ht="27">
+    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A82" s="58"/>
       <c r="B82" s="78"/>
       <c r="C82" s="32"/>
@@ -6643,13 +6750,13 @@
       <c r="F82" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="G82" s="179"/>
+      <c r="G82" s="178"/>
       <c r="H82" s="34"/>
       <c r="I82" s="15"/>
       <c r="J82" s="56" t="s">
         <v>232</v>
       </c>
-      <c r="K82" s="163" t="s">
+      <c r="K82" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L82" s="70"/>
@@ -6664,10 +6771,12 @@
       <c r="Q82" s="57">
         <v>1</v>
       </c>
-      <c r="R82" s="69"/>
+      <c r="R82" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S82" s="70"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="58"/>
       <c r="B83" s="78"/>
       <c r="C83" s="32"/>
@@ -6680,13 +6789,13 @@
       <c r="F83" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="G83" s="179"/>
+      <c r="G83" s="178"/>
       <c r="H83" s="34"/>
       <c r="I83" s="15"/>
       <c r="J83" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K83" s="163" t="s">
+      <c r="K83" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L83" s="69"/>
@@ -6697,14 +6806,18 @@
         <v>400402</v>
       </c>
       <c r="O83" s="36"/>
-      <c r="P83" s="16"/>
+      <c r="P83" s="28">
+        <v>400027</v>
+      </c>
       <c r="Q83" s="57">
         <v>1</v>
       </c>
-      <c r="R83" s="102"/>
-      <c r="S83" s="104"/>
-    </row>
-    <row r="84" spans="1:19" ht="27">
+      <c r="R83" s="57"/>
+      <c r="S83" s="123" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A84" s="58"/>
       <c r="B84" s="78"/>
       <c r="C84" s="32"/>
@@ -6715,13 +6828,13 @@
       <c r="F84" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="G84" s="179"/>
+      <c r="G84" s="178"/>
       <c r="H84" s="34"/>
       <c r="I84" s="15"/>
       <c r="J84" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K84" s="163" t="s">
+      <c r="K84" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L84" s="69"/>
@@ -6737,9 +6850,9 @@
         <v>1</v>
       </c>
       <c r="R84" s="103"/>
-      <c r="S84" s="146"/>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="S84" s="200"/>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="58"/>
       <c r="B85" s="78"/>
       <c r="C85" s="32"/>
@@ -6750,13 +6863,13 @@
       <c r="F85" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="G85" s="179"/>
+      <c r="G85" s="178"/>
       <c r="H85" s="34"/>
       <c r="I85" s="15"/>
       <c r="J85" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K85" s="163" t="s">
+      <c r="K85" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L85" s="69"/>
@@ -6771,10 +6884,12 @@
       <c r="Q85" s="57">
         <v>1</v>
       </c>
-      <c r="R85" s="69"/>
+      <c r="R85" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S85" s="20"/>
     </row>
-    <row r="86" spans="1:19" ht="27">
+    <row r="86" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A86" s="58"/>
       <c r="B86" s="78"/>
       <c r="C86" s="32"/>
@@ -6785,13 +6900,13 @@
       <c r="F86" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G86" s="179"/>
+      <c r="G86" s="178"/>
       <c r="H86" s="34"/>
       <c r="I86" s="15"/>
       <c r="J86" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K86" s="163" t="s">
+      <c r="K86" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L86" s="69"/>
@@ -6806,10 +6921,12 @@
       <c r="Q86" s="57">
         <v>1</v>
       </c>
-      <c r="R86" s="57"/>
+      <c r="R86" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S86" s="16"/>
     </row>
-    <row r="87" spans="1:19" ht="27">
+    <row r="87" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A87" s="58"/>
       <c r="B87" s="78"/>
       <c r="C87" s="32"/>
@@ -6822,7 +6939,7 @@
       <c r="F87" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G87" s="179"/>
+      <c r="G87" s="178"/>
       <c r="H87" s="34"/>
       <c r="I87" s="56" t="s">
         <v>264</v>
@@ -6847,10 +6964,12 @@
       <c r="Q87" s="57">
         <v>1</v>
       </c>
-      <c r="R87" s="57"/>
+      <c r="R87" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S87" s="16"/>
     </row>
-    <row r="88" spans="1:19" ht="27">
+    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A88" s="58"/>
       <c r="B88" s="78"/>
       <c r="C88" s="32"/>
@@ -6861,7 +6980,7 @@
       <c r="F88" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="G88" s="179"/>
+      <c r="G88" s="178"/>
       <c r="H88" s="34"/>
       <c r="I88" s="56"/>
       <c r="J88" s="15" t="s">
@@ -6878,10 +6997,12 @@
       <c r="O88" s="36"/>
       <c r="P88" s="16"/>
       <c r="Q88" s="57"/>
-      <c r="R88" s="57"/>
+      <c r="R88" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S88" s="16"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="58"/>
       <c r="B89" s="78"/>
       <c r="C89" s="12"/>
@@ -6890,13 +7011,13 @@
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="36"/>
-      <c r="G89" s="179"/>
+      <c r="G89" s="178"/>
       <c r="H89" s="34"/>
       <c r="I89" s="15"/>
       <c r="J89" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K89" s="163" t="s">
+      <c r="K89" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L89" s="57"/>
@@ -6911,10 +7032,12 @@
       <c r="Q89" s="57">
         <v>1</v>
       </c>
-      <c r="R89" s="57"/>
+      <c r="R89" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S89" s="16"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="58"/>
       <c r="B90" s="78"/>
       <c r="C90" s="31" t="s">
@@ -6923,7 +7046,7 @@
       <c r="D90" s="40"/>
       <c r="E90" s="44"/>
       <c r="F90" s="40"/>
-      <c r="G90" s="186"/>
+      <c r="G90" s="185"/>
       <c r="H90" s="40"/>
       <c r="I90" s="40"/>
       <c r="J90" s="40"/>
@@ -6934,10 +7057,12 @@
       <c r="O90" s="40"/>
       <c r="P90" s="40"/>
       <c r="Q90" s="40"/>
-      <c r="R90" s="40"/>
+      <c r="R90" s="199" t="s">
+        <v>455</v>
+      </c>
       <c r="S90" s="40"/>
     </row>
-    <row r="91" spans="1:19" ht="27">
+    <row r="91" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A91" s="58"/>
       <c r="B91" s="78"/>
       <c r="C91" s="32"/>
@@ -6950,13 +7075,13 @@
       <c r="F91" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="G91" s="178"/>
+      <c r="G91" s="177"/>
       <c r="H91" s="34"/>
       <c r="I91" s="15"/>
       <c r="J91" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K91" s="163" t="s">
+      <c r="K91" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L91" s="16"/>
@@ -6971,10 +7096,12 @@
       <c r="Q91" s="57">
         <v>1</v>
       </c>
-      <c r="R91" s="102"/>
+      <c r="R91" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S91" s="104"/>
     </row>
-    <row r="92" spans="1:19" ht="54">
+    <row r="92" spans="1:19" ht="54" x14ac:dyDescent="0.3">
       <c r="A92" s="58"/>
       <c r="B92" s="78"/>
       <c r="C92" s="32"/>
@@ -6985,13 +7112,13 @@
       <c r="F92" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="G92" s="178"/>
+      <c r="G92" s="177"/>
       <c r="H92" s="34"/>
       <c r="I92" s="15"/>
       <c r="J92" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K92" s="163" t="s">
+      <c r="K92" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L92" s="16"/>
@@ -7006,10 +7133,12 @@
       <c r="Q92" s="57">
         <v>1</v>
       </c>
-      <c r="R92" s="103"/>
+      <c r="R92" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S92" s="146"/>
     </row>
-    <row r="93" spans="1:19" ht="27">
+    <row r="93" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A93" s="58"/>
       <c r="B93" s="78"/>
       <c r="C93" s="32"/>
@@ -7020,13 +7149,13 @@
       <c r="F93" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="G93" s="178"/>
+      <c r="G93" s="177"/>
       <c r="H93" s="34"/>
       <c r="I93" s="15"/>
       <c r="J93" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K93" s="163" t="s">
+      <c r="K93" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L93" s="16"/>
@@ -7041,15 +7170,17 @@
       <c r="Q93" s="57">
         <v>1</v>
       </c>
-      <c r="R93" s="69"/>
+      <c r="R93" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S93" s="20"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="58"/>
       <c r="B94" s="78"/>
       <c r="C94" s="32"/>
       <c r="D94" s="31" t="s">
-        <v>5</v>
+        <v>458</v>
       </c>
       <c r="E94" s="33" t="s">
         <v>195</v>
@@ -7057,13 +7188,13 @@
       <c r="F94" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="G94" s="179"/>
+      <c r="G94" s="178"/>
       <c r="H94" s="34"/>
       <c r="I94" s="15"/>
       <c r="J94" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K94" s="163" t="s">
+      <c r="K94" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L94" s="16"/>
@@ -7078,10 +7209,12 @@
       <c r="Q94" s="57">
         <v>1</v>
       </c>
-      <c r="R94" s="102"/>
+      <c r="R94" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S94" s="104"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="58"/>
       <c r="B95" s="78"/>
       <c r="C95" s="32"/>
@@ -7092,13 +7225,13 @@
       <c r="F95" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="G95" s="179"/>
+      <c r="G95" s="178"/>
       <c r="H95" s="34"/>
       <c r="I95" s="15"/>
       <c r="J95" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K95" s="163" t="s">
+      <c r="K95" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L95" s="16"/>
@@ -7113,10 +7246,12 @@
       <c r="Q95" s="57">
         <v>1</v>
       </c>
-      <c r="R95" s="103"/>
+      <c r="R95" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S95" s="146"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="58"/>
       <c r="B96" s="78"/>
       <c r="C96" s="32"/>
@@ -7127,13 +7262,13 @@
       <c r="F96" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="G96" s="179"/>
+      <c r="G96" s="178"/>
       <c r="H96" s="34"/>
       <c r="I96" s="15"/>
       <c r="J96" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K96" s="163" t="s">
+      <c r="K96" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L96" s="16"/>
@@ -7148,10 +7283,12 @@
       <c r="Q96" s="57">
         <v>1</v>
       </c>
-      <c r="R96" s="69"/>
+      <c r="R96" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S96" s="20"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="58"/>
       <c r="B97" s="78"/>
       <c r="C97" s="32"/>
@@ -7164,13 +7301,13 @@
       <c r="F97" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="G97" s="179"/>
+      <c r="G97" s="178"/>
       <c r="H97" s="34"/>
       <c r="I97" s="15"/>
       <c r="J97" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K97" s="163" t="s">
+      <c r="K97" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L97" s="16"/>
@@ -7185,10 +7322,12 @@
       <c r="Q97" s="57">
         <v>1</v>
       </c>
-      <c r="R97" s="102"/>
+      <c r="R97" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S97" s="104"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="58"/>
       <c r="B98" s="78"/>
       <c r="C98" s="32"/>
@@ -7199,13 +7338,13 @@
       <c r="F98" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="G98" s="179"/>
+      <c r="G98" s="178"/>
       <c r="H98" s="34"/>
       <c r="I98" s="15"/>
       <c r="J98" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K98" s="163" t="s">
+      <c r="K98" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L98" s="20"/>
@@ -7220,10 +7359,12 @@
       <c r="Q98" s="57">
         <v>1</v>
       </c>
-      <c r="R98" s="103"/>
+      <c r="R98" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S98" s="146"/>
     </row>
-    <row r="99" spans="1:19" ht="27">
+    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A99" s="58"/>
       <c r="B99" s="78"/>
       <c r="C99" s="32"/>
@@ -7234,13 +7375,13 @@
       <c r="F99" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="G99" s="179"/>
+      <c r="G99" s="178"/>
       <c r="H99" s="34"/>
       <c r="I99" s="15"/>
       <c r="J99" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K99" s="163" t="s">
+      <c r="K99" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L99" s="20"/>
@@ -7255,10 +7396,12 @@
       <c r="Q99" s="57">
         <v>1</v>
       </c>
-      <c r="R99" s="69"/>
+      <c r="R99" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S99" s="20"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="58"/>
       <c r="B100" s="78"/>
       <c r="C100" s="32"/>
@@ -7271,13 +7414,13 @@
       <c r="F100" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="G100" s="179"/>
+      <c r="G100" s="178"/>
       <c r="H100" s="34"/>
       <c r="I100" s="15"/>
       <c r="J100" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="K100" s="163" t="s">
+      <c r="K100" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L100" s="69"/>
@@ -7292,10 +7435,12 @@
       <c r="Q100" s="57">
         <v>1</v>
       </c>
-      <c r="R100" s="102"/>
+      <c r="R100" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S100" s="104"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="58"/>
       <c r="B101" s="78"/>
       <c r="C101" s="32"/>
@@ -7306,7 +7451,7 @@
       <c r="F101" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="G101" s="179"/>
+      <c r="G101" s="178"/>
       <c r="H101" s="34"/>
       <c r="I101" s="15"/>
       <c r="J101" s="15" t="s">
@@ -7331,10 +7476,12 @@
       <c r="Q101" s="57">
         <v>2</v>
       </c>
-      <c r="R101" s="69"/>
+      <c r="R101" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S101" s="20"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="58"/>
       <c r="B102" s="78"/>
       <c r="C102" s="12"/>
@@ -7345,13 +7492,13 @@
         <v>195</v>
       </c>
       <c r="F102" s="36"/>
-      <c r="G102" s="179"/>
+      <c r="G102" s="178"/>
       <c r="H102" s="34"/>
       <c r="I102" s="15"/>
       <c r="J102" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K102" s="163" t="s">
+      <c r="K102" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L102" s="69"/>
@@ -7366,10 +7513,12 @@
       <c r="Q102" s="57">
         <v>1</v>
       </c>
-      <c r="R102" s="57"/>
+      <c r="R102" s="174" t="s">
+        <v>446</v>
+      </c>
       <c r="S102" s="16"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="58"/>
       <c r="B103" s="78"/>
       <c r="C103" s="31" t="s">
@@ -7378,7 +7527,7 @@
       <c r="D103" s="63"/>
       <c r="E103" s="82"/>
       <c r="F103" s="63"/>
-      <c r="G103" s="181"/>
+      <c r="G103" s="180"/>
       <c r="H103" s="63"/>
       <c r="I103" s="63"/>
       <c r="J103" s="63"/>
@@ -7389,10 +7538,12 @@
       <c r="O103" s="63"/>
       <c r="P103" s="63"/>
       <c r="Q103" s="63"/>
-      <c r="R103" s="63"/>
+      <c r="R103" s="199" t="s">
+        <v>455</v>
+      </c>
       <c r="S103" s="63"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="58"/>
       <c r="B104" s="78"/>
       <c r="C104" s="32"/>
@@ -7405,13 +7556,13 @@
       <c r="F104" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="G104" s="185"/>
+      <c r="G104" s="184"/>
       <c r="H104" s="66"/>
       <c r="I104" s="71"/>
       <c r="J104" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K104" s="164" t="s">
+      <c r="K104" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L104" s="20"/>
@@ -7426,10 +7577,14 @@
       <c r="Q104" s="69">
         <v>1</v>
       </c>
-      <c r="R104" s="103"/>
-      <c r="S104" s="146"/>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="R104" s="201" t="s">
+        <v>446</v>
+      </c>
+      <c r="S104" s="146" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="58"/>
       <c r="B105" s="78"/>
       <c r="C105" s="32"/>
@@ -7438,15 +7593,15 @@
         <v>195</v>
       </c>
       <c r="F105" s="36" t="s">
-        <v>285</v>
-      </c>
-      <c r="G105" s="179"/>
+        <v>460</v>
+      </c>
+      <c r="G105" s="178"/>
       <c r="H105" s="34"/>
       <c r="I105" s="36"/>
       <c r="J105" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K105" s="163" t="s">
+      <c r="K105" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L105" s="16"/>
@@ -7461,10 +7616,12 @@
       <c r="Q105" s="57">
         <v>1</v>
       </c>
-      <c r="R105" s="103"/>
-      <c r="S105" s="146"/>
-    </row>
-    <row r="106" spans="1:19" ht="27">
+      <c r="R105" s="201" t="s">
+        <v>446</v>
+      </c>
+      <c r="S105" s="16"/>
+    </row>
+    <row r="106" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A106" s="58"/>
       <c r="B106" s="78"/>
       <c r="C106" s="32"/>
@@ -7473,15 +7630,15 @@
         <v>195</v>
       </c>
       <c r="F106" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="G106" s="179"/>
+        <v>285</v>
+      </c>
+      <c r="G106" s="178"/>
       <c r="H106" s="34"/>
       <c r="I106" s="36"/>
       <c r="J106" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K106" s="163" t="s">
+      <c r="K106" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L106" s="16"/>
@@ -7496,10 +7653,12 @@
       <c r="Q106" s="57">
         <v>1</v>
       </c>
-      <c r="R106" s="69"/>
-      <c r="S106" s="20"/>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="R106" s="201" t="s">
+        <v>446</v>
+      </c>
+      <c r="S106" s="16"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="58"/>
       <c r="B107" s="78"/>
       <c r="C107" s="32"/>
@@ -7510,15 +7669,15 @@
         <v>195</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="G107" s="179"/>
+        <v>286</v>
+      </c>
+      <c r="G107" s="178"/>
       <c r="H107" s="34"/>
       <c r="I107" s="36"/>
       <c r="J107" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K107" s="163" t="s">
+      <c r="K107" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L107" s="16"/>
@@ -7533,10 +7692,12 @@
       <c r="Q107" s="57">
         <v>1</v>
       </c>
-      <c r="R107" s="102"/>
-      <c r="S107" s="104"/>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="R107" s="201" t="s">
+        <v>446</v>
+      </c>
+      <c r="S107" s="16"/>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="58"/>
       <c r="B108" s="78"/>
       <c r="C108" s="32"/>
@@ -7545,15 +7706,15 @@
         <v>195</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="G108" s="179"/>
+        <v>287</v>
+      </c>
+      <c r="G108" s="178"/>
       <c r="H108" s="34"/>
       <c r="I108" s="36"/>
       <c r="J108" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K108" s="163" t="s">
+      <c r="K108" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L108" s="16"/>
@@ -7568,10 +7729,12 @@
       <c r="Q108" s="57">
         <v>1</v>
       </c>
-      <c r="R108" s="103"/>
-      <c r="S108" s="146"/>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="R108" s="201" t="s">
+        <v>446</v>
+      </c>
+      <c r="S108" s="16"/>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="58"/>
       <c r="B109" s="78"/>
       <c r="C109" s="32"/>
@@ -7580,15 +7743,15 @@
         <v>195</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="G109" s="179"/>
+        <v>288</v>
+      </c>
+      <c r="G109" s="178"/>
       <c r="H109" s="34"/>
       <c r="I109" s="36"/>
       <c r="J109" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K109" s="163" t="s">
+      <c r="K109" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L109" s="16"/>
@@ -7603,10 +7766,12 @@
       <c r="Q109" s="57">
         <v>1</v>
       </c>
-      <c r="R109" s="103"/>
-      <c r="S109" s="146"/>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="R109" s="201" t="s">
+        <v>446</v>
+      </c>
+      <c r="S109" s="16"/>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="58"/>
       <c r="B110" s="78"/>
       <c r="C110" s="32"/>
@@ -7615,15 +7780,15 @@
         <v>195</v>
       </c>
       <c r="F110" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="G110" s="179"/>
+        <v>289</v>
+      </c>
+      <c r="G110" s="178"/>
       <c r="H110" s="34"/>
       <c r="I110" s="36"/>
       <c r="J110" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K110" s="163" t="s">
+      <c r="K110" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L110" s="16"/>
@@ -7638,10 +7803,12 @@
       <c r="Q110" s="57">
         <v>1</v>
       </c>
-      <c r="R110" s="103"/>
-      <c r="S110" s="146"/>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="R110" s="201" t="s">
+        <v>446</v>
+      </c>
+      <c r="S110" s="16"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="58"/>
       <c r="B111" s="78"/>
       <c r="C111" s="32"/>
@@ -7650,15 +7817,15 @@
         <v>195</v>
       </c>
       <c r="F111" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="G111" s="179"/>
+        <v>290</v>
+      </c>
+      <c r="G111" s="178"/>
       <c r="H111" s="34"/>
       <c r="I111" s="36"/>
       <c r="J111" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K111" s="163" t="s">
+      <c r="K111" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L111" s="16"/>
@@ -7673,10 +7840,12 @@
       <c r="Q111" s="57">
         <v>1</v>
       </c>
-      <c r="R111" s="103"/>
-      <c r="S111" s="146"/>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="R111" s="201" t="s">
+        <v>446</v>
+      </c>
+      <c r="S111" s="16"/>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="58"/>
       <c r="B112" s="78"/>
       <c r="C112" s="32"/>
@@ -7685,15 +7854,15 @@
         <v>195</v>
       </c>
       <c r="F112" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="G112" s="179"/>
+        <v>291</v>
+      </c>
+      <c r="G112" s="178"/>
       <c r="H112" s="34"/>
       <c r="I112" s="36"/>
       <c r="J112" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K112" s="163" t="s">
+      <c r="K112" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L112" s="16"/>
@@ -7708,10 +7877,12 @@
       <c r="Q112" s="57">
         <v>1</v>
       </c>
-      <c r="R112" s="69"/>
-      <c r="S112" s="20"/>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="R112" s="201" t="s">
+        <v>446</v>
+      </c>
+      <c r="S112" s="16"/>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="58"/>
       <c r="B113" s="78"/>
       <c r="C113" s="32"/>
@@ -7722,15 +7893,15 @@
         <v>195</v>
       </c>
       <c r="F113" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="G113" s="179"/>
+        <v>292</v>
+      </c>
+      <c r="G113" s="178"/>
       <c r="H113" s="34"/>
       <c r="I113" s="36"/>
       <c r="J113" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K113" s="163" t="s">
+      <c r="K113" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L113" s="16"/>
@@ -7745,10 +7916,10 @@
       <c r="Q113" s="57">
         <v>1</v>
       </c>
-      <c r="R113" s="102"/>
-      <c r="S113" s="104"/>
-    </row>
-    <row r="114" spans="1:19" ht="27">
+      <c r="R113" s="57"/>
+      <c r="S113" s="16"/>
+    </row>
+    <row r="114" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A114" s="58"/>
       <c r="B114" s="78"/>
       <c r="C114" s="32"/>
@@ -7757,15 +7928,15 @@
         <v>195</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="G114" s="179"/>
+        <v>293</v>
+      </c>
+      <c r="G114" s="178"/>
       <c r="H114" s="34"/>
       <c r="I114" s="36"/>
       <c r="J114" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K114" s="163" t="s">
+      <c r="K114" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L114" s="16"/>
@@ -7780,10 +7951,10 @@
       <c r="Q114" s="57">
         <v>1</v>
       </c>
-      <c r="R114" s="69"/>
-      <c r="S114" s="20"/>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="R114" s="57"/>
+      <c r="S114" s="16"/>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="58"/>
       <c r="B115" s="78"/>
       <c r="C115" s="32"/>
@@ -7794,15 +7965,15 @@
         <v>195</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="G115" s="179"/>
+        <v>294</v>
+      </c>
+      <c r="G115" s="178"/>
       <c r="H115" s="34"/>
       <c r="I115" s="36"/>
       <c r="J115" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K115" s="163" t="s">
+      <c r="K115" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L115" s="73"/>
@@ -7817,10 +7988,10 @@
       <c r="Q115" s="57">
         <v>1</v>
       </c>
-      <c r="R115" s="102"/>
-      <c r="S115" s="104"/>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="R115" s="57"/>
+      <c r="S115" s="16"/>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="58"/>
       <c r="B116" s="78"/>
       <c r="C116" s="32"/>
@@ -7829,15 +8000,15 @@
         <v>195</v>
       </c>
       <c r="F116" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="G116" s="179"/>
+        <v>295</v>
+      </c>
+      <c r="G116" s="178"/>
       <c r="H116" s="34"/>
       <c r="I116" s="36"/>
       <c r="J116" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="K116" s="163" t="s">
+      <c r="K116" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L116" s="73"/>
@@ -7852,10 +8023,10 @@
       <c r="Q116" s="57">
         <v>1</v>
       </c>
-      <c r="R116" s="69"/>
-      <c r="S116" s="20"/>
-    </row>
-    <row r="117" spans="1:19" ht="27">
+      <c r="R116" s="57"/>
+      <c r="S116" s="16"/>
+    </row>
+    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A117" s="58"/>
       <c r="B117" s="78"/>
       <c r="C117" s="32"/>
@@ -7866,17 +8037,17 @@
         <v>195</v>
       </c>
       <c r="F117" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="G117" s="186"/>
+      <c r="H117" s="34" t="s">
         <v>297</v>
-      </c>
-      <c r="G117" s="187"/>
-      <c r="H117" s="34" t="s">
-        <v>298</v>
       </c>
       <c r="I117" s="36"/>
       <c r="J117" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K117" s="163" t="s">
+      <c r="K117" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L117" s="16"/>
@@ -7891,10 +8062,10 @@
       <c r="Q117" s="57">
         <v>1</v>
       </c>
-      <c r="R117" s="102"/>
-      <c r="S117" s="104"/>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="R117" s="57"/>
+      <c r="S117" s="16"/>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="58"/>
       <c r="B118" s="78"/>
       <c r="C118" s="32"/>
@@ -7903,15 +8074,15 @@
         <v>195</v>
       </c>
       <c r="F118" s="32"/>
-      <c r="G118" s="188"/>
+      <c r="G118" s="187"/>
       <c r="H118" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I118" s="36"/>
       <c r="J118" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K118" s="163" t="s">
+      <c r="K118" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L118" s="16"/>
@@ -7926,10 +8097,10 @@
       <c r="Q118" s="57">
         <v>1</v>
       </c>
-      <c r="R118" s="103"/>
-      <c r="S118" s="146"/>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="R118" s="57"/>
+      <c r="S118" s="16"/>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A119" s="58"/>
       <c r="B119" s="78"/>
       <c r="C119" s="32"/>
@@ -7938,15 +8109,15 @@
         <v>195</v>
       </c>
       <c r="F119" s="32"/>
-      <c r="G119" s="188"/>
+      <c r="G119" s="187"/>
       <c r="H119" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I119" s="36"/>
       <c r="J119" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K119" s="163" t="s">
+      <c r="K119" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L119" s="16"/>
@@ -7961,10 +8132,10 @@
       <c r="Q119" s="57">
         <v>1</v>
       </c>
-      <c r="R119" s="103"/>
-      <c r="S119" s="146"/>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="R119" s="57"/>
+      <c r="S119" s="16"/>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A120" s="58"/>
       <c r="B120" s="78"/>
       <c r="C120" s="32"/>
@@ -7973,15 +8144,15 @@
         <v>195</v>
       </c>
       <c r="F120" s="32"/>
-      <c r="G120" s="188"/>
+      <c r="G120" s="187"/>
       <c r="H120" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I120" s="36"/>
       <c r="J120" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K120" s="163" t="s">
+      <c r="K120" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L120" s="16"/>
@@ -7996,10 +8167,10 @@
       <c r="Q120" s="57">
         <v>1</v>
       </c>
-      <c r="R120" s="103"/>
-      <c r="S120" s="146"/>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="R120" s="57"/>
+      <c r="S120" s="16"/>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A121" s="58"/>
       <c r="B121" s="78"/>
       <c r="C121" s="32"/>
@@ -8008,15 +8179,15 @@
         <v>195</v>
       </c>
       <c r="F121" s="32"/>
-      <c r="G121" s="188"/>
+      <c r="G121" s="187"/>
       <c r="H121" s="34" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I121" s="36"/>
       <c r="J121" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K121" s="163" t="s">
+      <c r="K121" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L121" s="16"/>
@@ -8031,10 +8202,10 @@
       <c r="Q121" s="57">
         <v>1</v>
       </c>
-      <c r="R121" s="103"/>
-      <c r="S121" s="146"/>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="R121" s="57"/>
+      <c r="S121" s="16"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A122" s="58"/>
       <c r="B122" s="78"/>
       <c r="C122" s="32"/>
@@ -8043,15 +8214,15 @@
         <v>195</v>
       </c>
       <c r="F122" s="32"/>
-      <c r="G122" s="188"/>
+      <c r="G122" s="187"/>
       <c r="H122" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I122" s="36"/>
       <c r="J122" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K122" s="163" t="s">
+      <c r="K122" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L122" s="16"/>
@@ -8066,10 +8237,10 @@
       <c r="Q122" s="57">
         <v>1</v>
       </c>
-      <c r="R122" s="103"/>
-      <c r="S122" s="146"/>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="R122" s="57"/>
+      <c r="S122" s="16"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A123" s="58"/>
       <c r="B123" s="78"/>
       <c r="C123" s="32"/>
@@ -8078,15 +8249,15 @@
         <v>195</v>
       </c>
       <c r="F123" s="32"/>
-      <c r="G123" s="188"/>
+      <c r="G123" s="187"/>
       <c r="H123" s="34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I123" s="36"/>
       <c r="J123" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K123" s="163" t="s">
+      <c r="K123" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L123" s="16"/>
@@ -8101,10 +8272,10 @@
       <c r="Q123" s="57">
         <v>1</v>
       </c>
-      <c r="R123" s="103"/>
-      <c r="S123" s="146"/>
-    </row>
-    <row r="124" spans="1:19" ht="27">
+      <c r="R123" s="57"/>
+      <c r="S123" s="16"/>
+    </row>
+    <row r="124" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A124" s="58"/>
       <c r="B124" s="78"/>
       <c r="C124" s="32"/>
@@ -8113,15 +8284,15 @@
         <v>195</v>
       </c>
       <c r="F124" s="12"/>
-      <c r="G124" s="185"/>
+      <c r="G124" s="184"/>
       <c r="H124" s="34" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I124" s="36"/>
       <c r="J124" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K124" s="163" t="s">
+      <c r="K124" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L124" s="16"/>
@@ -8136,10 +8307,10 @@
       <c r="Q124" s="57">
         <v>1</v>
       </c>
-      <c r="R124" s="103"/>
-      <c r="S124" s="146"/>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="R124" s="57"/>
+      <c r="S124" s="16"/>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A125" s="58"/>
       <c r="B125" s="78"/>
       <c r="C125" s="32"/>
@@ -8148,15 +8319,15 @@
         <v>195</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="G125" s="179"/>
+        <v>305</v>
+      </c>
+      <c r="G125" s="178"/>
       <c r="H125" s="34"/>
       <c r="I125" s="36"/>
       <c r="J125" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K125" s="163" t="s">
+      <c r="K125" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L125" s="16"/>
@@ -8171,10 +8342,10 @@
       <c r="Q125" s="57">
         <v>1</v>
       </c>
-      <c r="R125" s="69"/>
-      <c r="S125" s="20"/>
-    </row>
-    <row r="126" spans="1:19" ht="27">
+      <c r="R125" s="57"/>
+      <c r="S125" s="16"/>
+    </row>
+    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A126" s="58"/>
       <c r="B126" s="78"/>
       <c r="C126" s="32"/>
@@ -8183,13 +8354,13 @@
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="13"/>
-      <c r="G126" s="179"/>
+      <c r="G126" s="178"/>
       <c r="H126" s="34"/>
       <c r="I126" s="36"/>
       <c r="J126" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K126" s="163" t="s">
+      <c r="K126" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L126" s="16"/>
@@ -8207,7 +8378,7 @@
       <c r="R126" s="57"/>
       <c r="S126" s="16"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A127" s="58"/>
       <c r="B127" s="78"/>
       <c r="C127" s="32"/>
@@ -8218,13 +8389,13 @@
       <c r="F127" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G127" s="179"/>
+      <c r="G127" s="178"/>
       <c r="H127" s="34"/>
       <c r="I127" s="36"/>
       <c r="J127" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K127" s="163" t="s">
+      <c r="K127" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L127" s="16"/>
@@ -8242,7 +8413,7 @@
       <c r="R127" s="57"/>
       <c r="S127" s="16"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A128" s="58"/>
       <c r="B128" s="78"/>
       <c r="C128" s="32"/>
@@ -8253,15 +8424,15 @@
         <v>195</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="G128" s="179"/>
+        <v>306</v>
+      </c>
+      <c r="G128" s="178"/>
       <c r="H128" s="34"/>
       <c r="I128" s="36"/>
       <c r="J128" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K128" s="163" t="s">
+      <c r="K128" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L128" s="16"/>
@@ -8279,7 +8450,7 @@
       <c r="R128" s="102"/>
       <c r="S128" s="104"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A129" s="58"/>
       <c r="B129" s="80"/>
       <c r="C129" s="12"/>
@@ -8288,15 +8459,15 @@
         <v>195</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="G129" s="179"/>
+        <v>307</v>
+      </c>
+      <c r="G129" s="178"/>
       <c r="H129" s="34"/>
       <c r="I129" s="36"/>
       <c r="J129" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K129" s="163" t="s">
+      <c r="K129" s="162" t="s">
         <v>257</v>
       </c>
       <c r="L129" s="16"/>
@@ -8314,7 +8485,7 @@
       <c r="R129" s="69"/>
       <c r="S129" s="20"/>
     </row>
-    <row r="130" spans="1:19" ht="27">
+    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A130" s="58"/>
       <c r="B130" s="78"/>
       <c r="C130" s="31" t="s">
@@ -8323,7 +8494,7 @@
       <c r="D130" s="63"/>
       <c r="E130" s="82"/>
       <c r="F130" s="63"/>
-      <c r="G130" s="181"/>
+      <c r="G130" s="180"/>
       <c r="H130" s="63"/>
       <c r="I130" s="63"/>
       <c r="J130" s="63"/>
@@ -8337,7 +8508,7 @@
       <c r="R130" s="63"/>
       <c r="S130" s="63"/>
     </row>
-    <row r="131" spans="1:19" ht="27">
+    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A131" s="58"/>
       <c r="B131" s="78"/>
       <c r="C131" s="32"/>
@@ -8348,15 +8519,15 @@
         <v>195</v>
       </c>
       <c r="F131" s="71" t="s">
-        <v>309</v>
-      </c>
-      <c r="G131" s="185"/>
+        <v>308</v>
+      </c>
+      <c r="G131" s="184"/>
       <c r="H131" s="66"/>
       <c r="I131" s="70"/>
       <c r="J131" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K131" s="164" t="s">
+      <c r="K131" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L131" s="69"/>
@@ -8374,7 +8545,7 @@
       <c r="R131" s="103"/>
       <c r="S131" s="146"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A132" s="58"/>
       <c r="B132" s="78"/>
       <c r="C132" s="32"/>
@@ -8383,15 +8554,15 @@
         <v>195</v>
       </c>
       <c r="F132" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="G132" s="179"/>
+        <v>309</v>
+      </c>
+      <c r="G132" s="178"/>
       <c r="H132" s="34"/>
       <c r="I132" s="15"/>
       <c r="J132" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K132" s="163" t="s">
+      <c r="K132" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L132" s="69"/>
@@ -8409,7 +8580,7 @@
       <c r="R132" s="69"/>
       <c r="S132" s="20"/>
     </row>
-    <row r="133" spans="1:19" ht="27">
+    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A133" s="58"/>
       <c r="B133" s="78"/>
       <c r="C133" s="32"/>
@@ -8420,13 +8591,13 @@
       <c r="F133" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G133" s="179"/>
+      <c r="G133" s="178"/>
       <c r="H133" s="34"/>
       <c r="I133" s="15"/>
       <c r="J133" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K133" s="163" t="s">
+      <c r="K133" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L133" s="69"/>
@@ -8444,7 +8615,7 @@
       <c r="R133" s="57"/>
       <c r="S133" s="16"/>
     </row>
-    <row r="134" spans="1:19" ht="27">
+    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A134" s="58"/>
       <c r="B134" s="78"/>
       <c r="C134" s="32"/>
@@ -8457,13 +8628,13 @@
       <c r="F134" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="G134" s="179"/>
+      <c r="G134" s="178"/>
       <c r="H134" s="34"/>
       <c r="I134" s="15"/>
       <c r="J134" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K134" s="163" t="s">
+      <c r="K134" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L134" s="69"/>
@@ -8481,7 +8652,7 @@
       <c r="R134" s="102"/>
       <c r="S134" s="104"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A135" s="58"/>
       <c r="B135" s="78"/>
       <c r="C135" s="32"/>
@@ -8490,15 +8661,15 @@
         <v>195</v>
       </c>
       <c r="F135" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="G135" s="179"/>
+        <v>310</v>
+      </c>
+      <c r="G135" s="178"/>
       <c r="H135" s="34"/>
       <c r="I135" s="15"/>
       <c r="J135" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K135" s="163" t="s">
+      <c r="K135" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L135" s="69"/>
@@ -8516,7 +8687,7 @@
       <c r="R135" s="103"/>
       <c r="S135" s="146"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A136" s="58"/>
       <c r="B136" s="78"/>
       <c r="C136" s="32"/>
@@ -8525,15 +8696,15 @@
         <v>195</v>
       </c>
       <c r="F136" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="G136" s="179"/>
+        <v>311</v>
+      </c>
+      <c r="G136" s="178"/>
       <c r="H136" s="34"/>
       <c r="I136" s="15"/>
       <c r="J136" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K136" s="163" t="s">
+      <c r="K136" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L136" s="69"/>
@@ -8551,7 +8722,7 @@
       <c r="R136" s="103"/>
       <c r="S136" s="146"/>
     </row>
-    <row r="137" spans="1:19" s="95" customFormat="1">
+    <row r="137" spans="1:19" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="58"/>
       <c r="B137" s="85"/>
       <c r="C137" s="86"/>
@@ -8560,9 +8731,9 @@
         <v>195</v>
       </c>
       <c r="F137" s="89" t="s">
-        <v>313</v>
-      </c>
-      <c r="G137" s="189"/>
+        <v>312</v>
+      </c>
+      <c r="G137" s="188"/>
       <c r="H137" s="90"/>
       <c r="I137" s="91"/>
       <c r="J137" s="91" t="s">
@@ -8584,7 +8755,7 @@
       <c r="R137" s="93"/>
       <c r="S137" s="159"/>
     </row>
-    <row r="138" spans="1:19" ht="27">
+    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A138" s="58"/>
       <c r="B138" s="78"/>
       <c r="C138" s="13" t="s">
@@ -8595,13 +8766,13 @@
       <c r="F138" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="G138" s="179"/>
+      <c r="G138" s="178"/>
       <c r="H138" s="34"/>
       <c r="I138" s="15"/>
       <c r="J138" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K138" s="163" t="s">
+      <c r="K138" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L138" s="69"/>
@@ -8619,7 +8790,7 @@
       <c r="R138" s="57"/>
       <c r="S138" s="16"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A139" s="58"/>
       <c r="B139" s="78"/>
       <c r="C139" s="31" t="s">
@@ -8628,7 +8799,7 @@
       <c r="D139" s="63"/>
       <c r="E139" s="82"/>
       <c r="F139" s="63"/>
-      <c r="G139" s="181"/>
+      <c r="G139" s="180"/>
       <c r="H139" s="63"/>
       <c r="I139" s="63"/>
       <c r="J139" s="63"/>
@@ -8642,26 +8813,26 @@
       <c r="R139" s="63"/>
       <c r="S139" s="63"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A140" s="58"/>
       <c r="B140" s="78"/>
       <c r="C140" s="32"/>
       <c r="D140" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E140" s="33" t="s">
         <v>195</v>
       </c>
       <c r="F140" s="71" t="s">
-        <v>314</v>
-      </c>
-      <c r="G140" s="185"/>
+        <v>313</v>
+      </c>
+      <c r="G140" s="184"/>
       <c r="H140" s="66"/>
       <c r="I140" s="70"/>
       <c r="J140" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K140" s="164" t="s">
+      <c r="K140" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L140" s="69"/>
@@ -8679,7 +8850,7 @@
       <c r="R140" s="69"/>
       <c r="S140" s="16"/>
     </row>
-    <row r="141" spans="1:19" ht="27">
+    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A141" s="58"/>
       <c r="B141" s="78"/>
       <c r="C141" s="32"/>
@@ -8688,15 +8859,15 @@
         <v>195</v>
       </c>
       <c r="F141" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="G141" s="179"/>
+        <v>314</v>
+      </c>
+      <c r="G141" s="178"/>
       <c r="H141" s="34"/>
       <c r="I141" s="15"/>
       <c r="J141" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K141" s="163" t="s">
+      <c r="K141" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L141" s="69"/>
@@ -8714,7 +8885,7 @@
       <c r="R141" s="57"/>
       <c r="S141" s="16"/>
     </row>
-    <row r="142" spans="1:19" ht="27">
+    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A142" s="58"/>
       <c r="B142" s="78"/>
       <c r="C142" s="32"/>
@@ -8723,15 +8894,15 @@
         <v>195</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="G142" s="179"/>
+        <v>315</v>
+      </c>
+      <c r="G142" s="178"/>
       <c r="H142" s="34"/>
       <c r="I142" s="15"/>
       <c r="J142" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K142" s="163" t="s">
+      <c r="K142" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L142" s="69"/>
@@ -8749,16 +8920,16 @@
       <c r="R142" s="57"/>
       <c r="S142" s="16"/>
     </row>
-    <row r="143" spans="1:19" s="95" customFormat="1">
+    <row r="143" spans="1:19" s="95" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="96"/>
       <c r="B143" s="85"/>
       <c r="C143" s="86"/>
       <c r="D143" s="89" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E143" s="88"/>
       <c r="F143" s="89"/>
-      <c r="G143" s="189"/>
+      <c r="G143" s="188"/>
       <c r="H143" s="90"/>
       <c r="I143" s="91"/>
       <c r="J143" s="91"/>
@@ -8774,7 +8945,7 @@
       <c r="R143" s="93"/>
       <c r="S143" s="159"/>
     </row>
-    <row r="144" spans="1:19" ht="27">
+    <row r="144" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A144" s="58"/>
       <c r="B144" s="78"/>
       <c r="C144" s="12"/>
@@ -8783,13 +8954,13 @@
       </c>
       <c r="E144" s="33"/>
       <c r="F144" s="36"/>
-      <c r="G144" s="179"/>
+      <c r="G144" s="178"/>
       <c r="H144" s="34"/>
       <c r="I144" s="15"/>
       <c r="J144" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K144" s="163" t="s">
+      <c r="K144" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L144" s="69"/>
@@ -8807,7 +8978,7 @@
       <c r="R144" s="57"/>
       <c r="S144" s="16"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A145" s="58"/>
       <c r="B145" s="78"/>
       <c r="C145" s="31" t="s">
@@ -8816,7 +8987,7 @@
       <c r="D145" s="63"/>
       <c r="E145" s="82"/>
       <c r="F145" s="63"/>
-      <c r="G145" s="181"/>
+      <c r="G145" s="180"/>
       <c r="H145" s="63"/>
       <c r="I145" s="63"/>
       <c r="J145" s="63"/>
@@ -8827,10 +8998,10 @@
       <c r="O145" s="63"/>
       <c r="P145" s="63"/>
       <c r="Q145" s="63"/>
-      <c r="R145" s="167"/>
-      <c r="S145" s="167"/>
-    </row>
-    <row r="146" spans="1:19">
+      <c r="R145" s="166"/>
+      <c r="S145" s="166"/>
+    </row>
+    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A146" s="58"/>
       <c r="B146" s="78"/>
       <c r="C146" s="32"/>
@@ -8841,15 +9012,15 @@
         <v>195</v>
       </c>
       <c r="F146" s="71" t="s">
-        <v>318</v>
-      </c>
-      <c r="G146" s="185"/>
+        <v>317</v>
+      </c>
+      <c r="G146" s="184"/>
       <c r="H146" s="66"/>
       <c r="I146" s="71"/>
       <c r="J146" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K146" s="164" t="s">
+      <c r="K146" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L146" s="69"/>
@@ -8867,7 +9038,7 @@
       <c r="R146" s="69"/>
       <c r="S146" s="16"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A147" s="58"/>
       <c r="B147" s="78"/>
       <c r="C147" s="32"/>
@@ -8876,15 +9047,15 @@
         <v>195</v>
       </c>
       <c r="F147" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="G147" s="179"/>
+        <v>318</v>
+      </c>
+      <c r="G147" s="178"/>
       <c r="H147" s="34"/>
       <c r="I147" s="36"/>
       <c r="J147" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K147" s="163" t="s">
+      <c r="K147" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L147" s="69"/>
@@ -8902,7 +9073,7 @@
       <c r="R147" s="57"/>
       <c r="S147" s="16"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A148" s="58"/>
       <c r="B148" s="78"/>
       <c r="C148" s="32"/>
@@ -8911,15 +9082,15 @@
         <v>195</v>
       </c>
       <c r="F148" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="G148" s="179"/>
+        <v>319</v>
+      </c>
+      <c r="G148" s="178"/>
       <c r="H148" s="34"/>
       <c r="I148" s="36"/>
       <c r="J148" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K148" s="163" t="s">
+      <c r="K148" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L148" s="69"/>
@@ -8937,7 +9108,7 @@
       <c r="R148" s="57"/>
       <c r="S148" s="16"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A149" s="58"/>
       <c r="B149" s="78"/>
       <c r="C149" s="32"/>
@@ -8946,15 +9117,15 @@
         <v>195</v>
       </c>
       <c r="F149" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="G149" s="179"/>
+        <v>320</v>
+      </c>
+      <c r="G149" s="178"/>
       <c r="H149" s="34"/>
       <c r="I149" s="36"/>
       <c r="J149" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K149" s="163" t="s">
+      <c r="K149" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L149" s="69"/>
@@ -8972,7 +9143,7 @@
       <c r="R149" s="57"/>
       <c r="S149" s="16"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A150" s="58"/>
       <c r="B150" s="78"/>
       <c r="C150" s="32"/>
@@ -8981,15 +9152,15 @@
         <v>195</v>
       </c>
       <c r="F150" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="G150" s="179"/>
+        <v>321</v>
+      </c>
+      <c r="G150" s="178"/>
       <c r="H150" s="34"/>
       <c r="I150" s="36"/>
       <c r="J150" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K150" s="163" t="s">
+      <c r="K150" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L150" s="69"/>
@@ -9007,7 +9178,7 @@
       <c r="R150" s="57"/>
       <c r="S150" s="16"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A151" s="58"/>
       <c r="B151" s="78"/>
       <c r="C151" s="32"/>
@@ -9018,15 +9189,15 @@
         <v>195</v>
       </c>
       <c r="F151" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="G151" s="179"/>
+        <v>322</v>
+      </c>
+      <c r="G151" s="178"/>
       <c r="H151" s="34"/>
       <c r="I151" s="36"/>
       <c r="J151" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K151" s="163" t="s">
+      <c r="K151" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L151" s="69"/>
@@ -9044,7 +9215,7 @@
       <c r="R151" s="57"/>
       <c r="S151" s="16"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A152" s="58"/>
       <c r="B152" s="78"/>
       <c r="C152" s="32"/>
@@ -9053,15 +9224,15 @@
         <v>195</v>
       </c>
       <c r="F152" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="G152" s="179"/>
+        <v>323</v>
+      </c>
+      <c r="G152" s="178"/>
       <c r="H152" s="34"/>
       <c r="I152" s="36"/>
       <c r="J152" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K152" s="163" t="s">
+      <c r="K152" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L152" s="69"/>
@@ -9079,7 +9250,7 @@
       <c r="R152" s="57"/>
       <c r="S152" s="16"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A153" s="58"/>
       <c r="B153" s="78"/>
       <c r="C153" s="32"/>
@@ -9088,15 +9259,15 @@
         <v>195</v>
       </c>
       <c r="F153" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="G153" s="179"/>
+        <v>324</v>
+      </c>
+      <c r="G153" s="178"/>
       <c r="H153" s="34"/>
       <c r="I153" s="36"/>
       <c r="J153" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K153" s="163" t="s">
+      <c r="K153" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L153" s="69"/>
@@ -9114,7 +9285,7 @@
       <c r="R153" s="57"/>
       <c r="S153" s="16"/>
     </row>
-    <row r="154" spans="1:19" ht="27">
+    <row r="154" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A154" s="58"/>
       <c r="B154" s="78"/>
       <c r="C154" s="32"/>
@@ -9123,15 +9294,15 @@
         <v>195</v>
       </c>
       <c r="F154" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="G154" s="179"/>
+        <v>325</v>
+      </c>
+      <c r="G154" s="178"/>
       <c r="H154" s="34"/>
       <c r="I154" s="36"/>
       <c r="J154" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K154" s="163" t="s">
+      <c r="K154" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L154" s="69"/>
@@ -9149,7 +9320,7 @@
       <c r="R154" s="57"/>
       <c r="S154" s="16"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A155" s="58"/>
       <c r="B155" s="78"/>
       <c r="C155" s="32"/>
@@ -9158,15 +9329,15 @@
         <v>195</v>
       </c>
       <c r="F155" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="G155" s="179"/>
+        <v>326</v>
+      </c>
+      <c r="G155" s="178"/>
       <c r="H155" s="34"/>
       <c r="I155" s="36"/>
       <c r="J155" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K155" s="163" t="s">
+      <c r="K155" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L155" s="69"/>
@@ -9184,7 +9355,7 @@
       <c r="R155" s="57"/>
       <c r="S155" s="16"/>
     </row>
-    <row r="156" spans="1:19" ht="27">
+    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A156" s="58"/>
       <c r="B156" s="78"/>
       <c r="C156" s="32"/>
@@ -9195,15 +9366,15 @@
         <v>195</v>
       </c>
       <c r="F156" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="G156" s="179"/>
+        <v>327</v>
+      </c>
+      <c r="G156" s="178"/>
       <c r="H156" s="34"/>
       <c r="I156" s="36"/>
       <c r="J156" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K156" s="163" t="s">
+      <c r="K156" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L156" s="68"/>
@@ -9221,7 +9392,7 @@
       <c r="R156" s="57"/>
       <c r="S156" s="16"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A157" s="58"/>
       <c r="B157" s="78"/>
       <c r="C157" s="32"/>
@@ -9230,15 +9401,15 @@
         <v>195</v>
       </c>
       <c r="F157" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="G157" s="179"/>
+        <v>328</v>
+      </c>
+      <c r="G157" s="178"/>
       <c r="H157" s="34"/>
       <c r="I157" s="36"/>
       <c r="J157" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K157" s="163" t="s">
+      <c r="K157" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L157" s="68"/>
@@ -9256,7 +9427,7 @@
       <c r="R157" s="57"/>
       <c r="S157" s="16"/>
     </row>
-    <row r="158" spans="1:19" ht="27">
+    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A158" s="58"/>
       <c r="B158" s="78"/>
       <c r="C158" s="32"/>
@@ -9265,15 +9436,15 @@
         <v>195</v>
       </c>
       <c r="F158" s="36" t="s">
-        <v>330</v>
-      </c>
-      <c r="G158" s="179"/>
+        <v>329</v>
+      </c>
+      <c r="G158" s="178"/>
       <c r="H158" s="34"/>
       <c r="I158" s="36"/>
       <c r="J158" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K158" s="163" t="s">
+      <c r="K158" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L158" s="68"/>
@@ -9291,7 +9462,7 @@
       <c r="R158" s="57"/>
       <c r="S158" s="16"/>
     </row>
-    <row r="159" spans="1:19" ht="27">
+    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A159" s="58"/>
       <c r="B159" s="78"/>
       <c r="C159" s="32"/>
@@ -9300,15 +9471,15 @@
         <v>195</v>
       </c>
       <c r="F159" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="G159" s="179"/>
+        <v>330</v>
+      </c>
+      <c r="G159" s="178"/>
       <c r="H159" s="34"/>
       <c r="I159" s="36"/>
       <c r="J159" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K159" s="163" t="s">
+      <c r="K159" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L159" s="68"/>
@@ -9326,7 +9497,7 @@
       <c r="R159" s="57"/>
       <c r="S159" s="16"/>
     </row>
-    <row r="160" spans="1:19" ht="27">
+    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A160" s="58"/>
       <c r="B160" s="78"/>
       <c r="C160" s="32"/>
@@ -9335,15 +9506,15 @@
         <v>195</v>
       </c>
       <c r="F160" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="G160" s="179"/>
+        <v>331</v>
+      </c>
+      <c r="G160" s="178"/>
       <c r="H160" s="34"/>
       <c r="I160" s="36"/>
       <c r="J160" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="K160" s="163" t="s">
+      <c r="K160" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L160" s="68"/>
@@ -9361,7 +9532,7 @@
       <c r="R160" s="57"/>
       <c r="S160" s="16"/>
     </row>
-    <row r="161" spans="1:20" ht="27">
+    <row r="161" spans="1:20" ht="27" x14ac:dyDescent="0.3">
       <c r="A161" s="58"/>
       <c r="B161" s="78"/>
       <c r="C161" s="12"/>
@@ -9370,19 +9541,19 @@
         <v>195</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="G161" s="179"/>
+        <v>332</v>
+      </c>
+      <c r="G161" s="178"/>
       <c r="H161" s="34"/>
       <c r="I161" s="13"/>
       <c r="J161" s="22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K161" s="72" t="s">
         <v>280</v>
       </c>
       <c r="L161" s="74" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M161" s="22" t="s">
         <v>187</v>
@@ -9391,7 +9562,7 @@
         <v>400416</v>
       </c>
       <c r="O161" s="72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P161" s="74"/>
       <c r="Q161" s="72">
@@ -9400,7 +9571,7 @@
       <c r="R161" s="74"/>
       <c r="S161" s="83"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A162" s="58"/>
       <c r="B162" s="78"/>
       <c r="C162" s="31" t="s">
@@ -9409,7 +9580,7 @@
       <c r="D162" s="63"/>
       <c r="E162" s="82"/>
       <c r="F162" s="63"/>
-      <c r="G162" s="181"/>
+      <c r="G162" s="180"/>
       <c r="H162" s="63"/>
       <c r="I162" s="63"/>
       <c r="J162" s="63"/>
@@ -9423,22 +9594,22 @@
       <c r="R162" s="63"/>
       <c r="S162" s="63"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A163" s="58"/>
       <c r="B163" s="78"/>
       <c r="C163" s="32"/>
       <c r="D163" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E163" s="33"/>
       <c r="F163" s="71"/>
-      <c r="G163" s="185"/>
+      <c r="G163" s="184"/>
       <c r="H163" s="66"/>
       <c r="I163" s="71"/>
       <c r="J163" s="70" t="s">
         <v>232</v>
       </c>
-      <c r="K163" s="164" t="s">
+      <c r="K163" s="163" t="s">
         <v>233</v>
       </c>
       <c r="L163" s="69"/>
@@ -9449,7 +9620,7 @@
         <v>400198</v>
       </c>
       <c r="O163" s="69"/>
-      <c r="P163" s="162">
+      <c r="P163" s="161">
         <v>400414</v>
       </c>
       <c r="Q163" s="69">
@@ -9461,16 +9632,16 @@
         <v>131</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="27">
+    <row r="164" spans="1:20" ht="27" x14ac:dyDescent="0.3">
       <c r="A164" s="58"/>
       <c r="B164" s="78"/>
       <c r="C164" s="32"/>
       <c r="D164" s="71" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E164" s="33"/>
       <c r="F164" s="71"/>
-      <c r="G164" s="185"/>
+      <c r="G164" s="184"/>
       <c r="H164" s="66"/>
       <c r="I164" s="71"/>
       <c r="J164" s="98"/>
@@ -9479,25 +9650,25 @@
       <c r="M164" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="N164" s="166"/>
+      <c r="N164" s="165"/>
       <c r="O164" s="69"/>
-      <c r="P164" s="162">
+      <c r="P164" s="161">
         <v>400201</v>
       </c>
       <c r="Q164" s="69"/>
       <c r="R164" s="69"/>
       <c r="S164" s="16"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A165" s="58"/>
       <c r="B165" s="78"/>
       <c r="C165" s="32"/>
       <c r="D165" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E165" s="33"/>
       <c r="F165" s="36"/>
-      <c r="G165" s="179"/>
+      <c r="G165" s="178"/>
       <c r="H165" s="34"/>
       <c r="I165" s="36"/>
       <c r="J165" s="99"/>
@@ -9510,7 +9681,7 @@
         <v>400414</v>
       </c>
       <c r="O165" s="57"/>
-      <c r="P165" s="162">
+      <c r="P165" s="161">
         <v>400198</v>
       </c>
       <c r="Q165" s="57">
@@ -9519,16 +9690,16 @@
       <c r="R165" s="57"/>
       <c r="S165" s="16"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A166" s="58"/>
       <c r="B166" s="78"/>
       <c r="C166" s="32"/>
       <c r="D166" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E166" s="33"/>
       <c r="F166" s="100"/>
-      <c r="G166" s="187"/>
+      <c r="G166" s="186"/>
       <c r="H166" s="101"/>
       <c r="I166" s="100"/>
       <c r="J166" s="99"/>
@@ -9539,23 +9710,23 @@
       </c>
       <c r="N166" s="122"/>
       <c r="O166" s="102"/>
-      <c r="P166" s="168">
+      <c r="P166" s="167">
         <v>400487</v>
       </c>
       <c r="Q166" s="102"/>
       <c r="R166" s="102"/>
       <c r="S166" s="16"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A167" s="58"/>
       <c r="B167" s="78"/>
       <c r="C167" s="32"/>
       <c r="D167" s="100" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E167" s="33"/>
       <c r="F167" s="100"/>
-      <c r="G167" s="187"/>
+      <c r="G167" s="186"/>
       <c r="H167" s="101"/>
       <c r="I167" s="100"/>
       <c r="J167" s="99"/>
@@ -9577,7 +9748,7 @@
       <c r="R167" s="102"/>
       <c r="S167" s="16"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A168" s="58"/>
       <c r="B168" s="79" t="s">
         <v>95</v>
@@ -9586,7 +9757,7 @@
       <c r="D168" s="63"/>
       <c r="E168" s="82"/>
       <c r="F168" s="63"/>
-      <c r="G168" s="181"/>
+      <c r="G168" s="180"/>
       <c r="H168" s="63"/>
       <c r="I168" s="63"/>
       <c r="J168" s="63"/>
@@ -9600,7 +9771,7 @@
       <c r="R168" s="63"/>
       <c r="S168" s="63"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A169" s="58"/>
       <c r="B169" s="78"/>
       <c r="C169" s="32" t="s">
@@ -9609,7 +9780,7 @@
       <c r="D169" s="63"/>
       <c r="E169" s="82"/>
       <c r="F169" s="63"/>
-      <c r="G169" s="181"/>
+      <c r="G169" s="180"/>
       <c r="H169" s="63"/>
       <c r="I169" s="63"/>
       <c r="J169" s="63"/>
@@ -9623,23 +9794,23 @@
       <c r="R169" s="63"/>
       <c r="S169" s="63"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A170" s="58"/>
       <c r="B170" s="78"/>
       <c r="C170" s="32"/>
       <c r="D170" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="E170" s="105" t="s">
         <v>342</v>
-      </c>
-      <c r="E170" s="105" t="s">
-        <v>343</v>
       </c>
       <c r="F170" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="G170" s="185"/>
+      <c r="G170" s="184"/>
       <c r="H170" s="66"/>
       <c r="I170" s="70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J170" s="103" t="s">
         <v>279</v>
@@ -9648,7 +9819,7 @@
         <v>280</v>
       </c>
       <c r="L170" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M170" s="70" t="s">
         <v>187</v>
@@ -9657,7 +9828,7 @@
         <v>400022</v>
       </c>
       <c r="O170" s="69" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P170" s="69"/>
       <c r="Q170" s="69">
@@ -9666,21 +9837,21 @@
       <c r="R170" s="69"/>
       <c r="S170" s="16"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A171" s="58"/>
       <c r="B171" s="78"/>
       <c r="C171" s="32"/>
       <c r="D171" s="12"/>
       <c r="E171" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F171" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="G171" s="179"/>
+      <c r="G171" s="178"/>
       <c r="H171" s="34"/>
       <c r="I171" s="106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J171" s="102" t="s">
         <v>279</v>
@@ -9689,7 +9860,7 @@
         <v>280</v>
       </c>
       <c r="L171" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M171" s="15" t="s">
         <v>187</v>
@@ -9698,7 +9869,7 @@
         <v>400069</v>
       </c>
       <c r="O171" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P171" s="69"/>
       <c r="Q171" s="57">
@@ -9707,7 +9878,7 @@
       <c r="R171" s="57"/>
       <c r="S171" s="16"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A172" s="58"/>
       <c r="B172" s="78"/>
       <c r="C172" s="32"/>
@@ -9715,13 +9886,13 @@
         <v>55</v>
       </c>
       <c r="E172" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F172" s="36"/>
-      <c r="G172" s="179"/>
+      <c r="G172" s="178"/>
       <c r="H172" s="34"/>
       <c r="I172" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J172" s="102" t="s">
         <v>279</v>
@@ -9730,7 +9901,7 @@
         <v>280</v>
       </c>
       <c r="L172" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M172" s="15" t="s">
         <v>187</v>
@@ -9739,7 +9910,7 @@
         <v>400021</v>
       </c>
       <c r="O172" s="57" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P172" s="69"/>
       <c r="Q172" s="57">
@@ -9748,7 +9919,7 @@
       <c r="R172" s="57"/>
       <c r="S172" s="16"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A173" s="58"/>
       <c r="B173" s="78"/>
       <c r="C173" s="32"/>
@@ -9756,13 +9927,13 @@
         <v>98</v>
       </c>
       <c r="E173" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F173" s="100"/>
-      <c r="G173" s="187"/>
+      <c r="G173" s="186"/>
       <c r="H173" s="101"/>
       <c r="I173" s="107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J173" s="102" t="s">
         <v>279</v>
@@ -9771,7 +9942,7 @@
         <v>280</v>
       </c>
       <c r="L173" s="103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M173" s="99" t="s">
         <v>187</v>
@@ -9780,7 +9951,7 @@
         <v>400075</v>
       </c>
       <c r="O173" s="102" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P173" s="103"/>
       <c r="Q173" s="102">
@@ -9789,16 +9960,16 @@
       <c r="R173" s="102"/>
       <c r="S173" s="16"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A174" s="58"/>
       <c r="B174" s="78"/>
       <c r="C174" s="31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D174" s="63"/>
       <c r="E174" s="105"/>
       <c r="F174" s="63"/>
-      <c r="G174" s="181"/>
+      <c r="G174" s="180"/>
       <c r="H174" s="63"/>
       <c r="I174" s="63"/>
       <c r="J174" s="63"/>
@@ -9809,10 +9980,10 @@
       <c r="O174" s="63"/>
       <c r="P174" s="63"/>
       <c r="Q174" s="63"/>
-      <c r="R174" s="167"/>
-      <c r="S174" s="167"/>
-    </row>
-    <row r="175" spans="1:20">
+      <c r="R174" s="166"/>
+      <c r="S174" s="166"/>
+    </row>
+    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A175" s="58"/>
       <c r="B175" s="78"/>
       <c r="C175" s="32"/>
@@ -9820,13 +9991,13 @@
         <v>57</v>
       </c>
       <c r="E175" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F175" s="71"/>
-      <c r="G175" s="185"/>
+      <c r="G175" s="184"/>
       <c r="H175" s="66"/>
       <c r="I175" s="70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J175" s="103" t="s">
         <v>279</v>
@@ -9835,7 +10006,7 @@
         <v>280</v>
       </c>
       <c r="L175" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M175" s="70" t="s">
         <v>187</v>
@@ -9844,7 +10015,7 @@
         <v>400403</v>
       </c>
       <c r="O175" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P175" s="69"/>
       <c r="Q175" s="69">
@@ -9853,7 +10024,7 @@
       <c r="R175" s="69"/>
       <c r="S175" s="20"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A176" s="58"/>
       <c r="B176" s="78"/>
       <c r="C176" s="12"/>
@@ -9861,13 +10032,13 @@
         <v>97</v>
       </c>
       <c r="E176" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F176" s="100"/>
-      <c r="G176" s="187"/>
+      <c r="G176" s="186"/>
       <c r="H176" s="101"/>
       <c r="I176" s="107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J176" s="102" t="s">
         <v>279</v>
@@ -9876,7 +10047,7 @@
         <v>280</v>
       </c>
       <c r="L176" s="103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M176" s="99" t="s">
         <v>187</v>
@@ -9885,7 +10056,7 @@
         <v>400077</v>
       </c>
       <c r="O176" s="102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P176" s="103"/>
       <c r="Q176" s="102">
@@ -9894,18 +10065,18 @@
       <c r="R176" s="102"/>
       <c r="S176" s="104"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A177" s="58"/>
       <c r="B177" s="78"/>
       <c r="C177" s="31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D177" s="63"/>
       <c r="E177" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F177" s="63"/>
-      <c r="G177" s="181"/>
+      <c r="G177" s="180"/>
       <c r="H177" s="63"/>
       <c r="I177" s="63"/>
       <c r="J177" s="63"/>
@@ -9919,7 +10090,7 @@
       <c r="R177" s="63"/>
       <c r="S177" s="63"/>
     </row>
-    <row r="178" spans="1:19" ht="27">
+    <row r="178" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A178" s="58"/>
       <c r="B178" s="78"/>
       <c r="C178" s="32"/>
@@ -9927,13 +10098,13 @@
         <v>99</v>
       </c>
       <c r="E178" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F178" s="71"/>
-      <c r="G178" s="185"/>
+      <c r="G178" s="184"/>
       <c r="H178" s="66"/>
       <c r="I178" s="108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J178" s="103" t="s">
         <v>279</v>
@@ -9942,7 +10113,7 @@
         <v>280</v>
       </c>
       <c r="L178" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M178" s="70" t="s">
         <v>187</v>
@@ -9958,7 +10129,7 @@
       <c r="R178" s="69"/>
       <c r="S178" s="20"/>
     </row>
-    <row r="179" spans="1:19" ht="27">
+    <row r="179" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A179" s="58"/>
       <c r="B179" s="78"/>
       <c r="C179" s="12"/>
@@ -9966,13 +10137,13 @@
         <v>100</v>
       </c>
       <c r="E179" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F179" s="36"/>
-      <c r="G179" s="179"/>
+      <c r="G179" s="178"/>
       <c r="H179" s="34"/>
       <c r="I179" s="106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J179" s="102" t="s">
         <v>279</v>
@@ -9981,16 +10152,16 @@
         <v>280</v>
       </c>
       <c r="L179" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M179" s="17" t="s">
         <v>154</v>
       </c>
       <c r="N179" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="O179" s="84" t="s">
         <v>355</v>
-      </c>
-      <c r="O179" s="84" t="s">
-        <v>356</v>
       </c>
       <c r="P179" s="69"/>
       <c r="Q179" s="57">
@@ -9998,10 +10169,10 @@
       </c>
       <c r="R179" s="57"/>
       <c r="S179" s="16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A180" s="58"/>
       <c r="B180" s="78"/>
       <c r="C180" s="13" t="s">
@@ -10009,13 +10180,13 @@
       </c>
       <c r="D180" s="31"/>
       <c r="E180" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F180" s="100"/>
-      <c r="G180" s="187"/>
+      <c r="G180" s="186"/>
       <c r="H180" s="109"/>
       <c r="I180" s="107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J180" s="102" t="s">
         <v>279</v>
@@ -10024,7 +10195,7 @@
         <v>280</v>
       </c>
       <c r="L180" s="103" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M180" s="99" t="s">
         <v>187</v>
@@ -10033,7 +10204,7 @@
         <v>400074</v>
       </c>
       <c r="O180" s="102" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P180" s="104"/>
       <c r="Q180" s="102">
@@ -10042,7 +10213,7 @@
       <c r="R180" s="102"/>
       <c r="S180" s="104"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A181" s="58"/>
       <c r="B181" s="78"/>
       <c r="C181" s="31" t="s">
@@ -10050,10 +10221,10 @@
       </c>
       <c r="D181" s="63"/>
       <c r="E181" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F181" s="63"/>
-      <c r="G181" s="181"/>
+      <c r="G181" s="180"/>
       <c r="H181" s="63"/>
       <c r="I181" s="63"/>
       <c r="J181" s="63"/>
@@ -10067,7 +10238,7 @@
       <c r="R181" s="63"/>
       <c r="S181" s="63"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A182" s="58"/>
       <c r="B182" s="78"/>
       <c r="C182" s="32"/>
@@ -10075,13 +10246,13 @@
         <v>102</v>
       </c>
       <c r="E182" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F182" s="71"/>
-      <c r="G182" s="185"/>
+      <c r="G182" s="184"/>
       <c r="H182" s="110"/>
       <c r="I182" s="108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J182" s="103" t="s">
         <v>279</v>
@@ -10090,7 +10261,7 @@
         <v>280</v>
       </c>
       <c r="L182" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M182" s="70" t="s">
         <v>187</v>
@@ -10099,7 +10270,7 @@
         <v>400409</v>
       </c>
       <c r="O182" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P182" s="20"/>
       <c r="Q182" s="69">
@@ -10108,7 +10279,7 @@
       <c r="R182" s="69"/>
       <c r="S182" s="20"/>
     </row>
-    <row r="183" spans="1:19" ht="27">
+    <row r="183" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A183" s="58"/>
       <c r="B183" s="78"/>
       <c r="C183" s="32"/>
@@ -10116,13 +10287,13 @@
         <v>24</v>
       </c>
       <c r="E183" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F183" s="13"/>
-      <c r="G183" s="179"/>
+      <c r="G183" s="178"/>
       <c r="H183" s="82"/>
       <c r="I183" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J183" s="111" t="s">
         <v>279</v>
@@ -10131,7 +10302,7 @@
         <v>280</v>
       </c>
       <c r="L183" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M183" s="22" t="s">
         <v>187</v>
@@ -10140,7 +10311,7 @@
         <v>400067</v>
       </c>
       <c r="O183" s="72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P183" s="73"/>
       <c r="Q183" s="72">
@@ -10149,7 +10320,7 @@
       <c r="R183" s="72"/>
       <c r="S183" s="73"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A184" s="58"/>
       <c r="B184" s="78"/>
       <c r="C184" s="32"/>
@@ -10157,13 +10328,13 @@
         <v>150</v>
       </c>
       <c r="E184" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F184" s="36"/>
-      <c r="G184" s="179"/>
+      <c r="G184" s="178"/>
       <c r="H184" s="82"/>
       <c r="I184" s="112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J184" s="113" t="s">
         <v>279</v>
@@ -10172,7 +10343,7 @@
         <v>280</v>
       </c>
       <c r="L184" s="68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M184" s="56" t="s">
         <v>187</v>
@@ -10181,7 +10352,7 @@
         <v>400218</v>
       </c>
       <c r="O184" s="55" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P184" s="16"/>
       <c r="Q184" s="57">
@@ -10190,7 +10361,7 @@
       <c r="R184" s="57"/>
       <c r="S184" s="16"/>
     </row>
-    <row r="185" spans="1:19" s="81" customFormat="1" ht="45" customHeight="1">
+    <row r="185" spans="1:19" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="114"/>
       <c r="B185" s="115"/>
       <c r="C185" s="116"/>
@@ -10198,13 +10369,13 @@
         <v>151</v>
       </c>
       <c r="E185" s="117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F185" s="14"/>
-      <c r="G185" s="187"/>
+      <c r="G185" s="186"/>
       <c r="H185" s="118"/>
       <c r="I185" s="119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J185" s="120" t="s">
         <v>279</v>
@@ -10213,7 +10384,7 @@
         <v>280</v>
       </c>
       <c r="L185" s="121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M185" s="122" t="s">
         <v>181</v>
@@ -10227,7 +10398,7 @@
       <c r="R185" s="120"/>
       <c r="S185" s="123"/>
     </row>
-    <row r="186" spans="1:19" s="81" customFormat="1" ht="40.5">
+    <row r="186" spans="1:19" s="81" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A186" s="114"/>
       <c r="B186" s="115"/>
       <c r="C186" s="116"/>
@@ -10236,12 +10407,12 @@
         <v>260</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="G186" s="187"/>
+        <v>360</v>
+      </c>
+      <c r="G186" s="186"/>
       <c r="H186" s="118"/>
       <c r="I186" s="119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J186" s="120" t="s">
         <v>279</v>
@@ -10250,7 +10421,7 @@
         <v>280</v>
       </c>
       <c r="L186" s="121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M186" s="122" t="s">
         <v>181</v>
@@ -10264,7 +10435,7 @@
       <c r="R186" s="120"/>
       <c r="S186" s="123"/>
     </row>
-    <row r="187" spans="1:19" s="81" customFormat="1" ht="40.5">
+    <row r="187" spans="1:19" s="81" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A187" s="114"/>
       <c r="B187" s="115"/>
       <c r="C187" s="116"/>
@@ -10273,12 +10444,12 @@
         <v>260</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="G187" s="187"/>
+        <v>360</v>
+      </c>
+      <c r="G187" s="186"/>
       <c r="H187" s="118"/>
       <c r="I187" s="119" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J187" s="120" t="s">
         <v>279</v>
@@ -10287,7 +10458,7 @@
         <v>280</v>
       </c>
       <c r="L187" s="121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M187" s="122" t="s">
         <v>181</v>
@@ -10301,7 +10472,7 @@
       <c r="R187" s="120"/>
       <c r="S187" s="123"/>
     </row>
-    <row r="188" spans="1:19" ht="27">
+    <row r="188" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A188" s="58"/>
       <c r="B188" s="78"/>
       <c r="C188" s="12"/>
@@ -10309,13 +10480,13 @@
         <v>103</v>
       </c>
       <c r="E188" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F188" s="100"/>
-      <c r="G188" s="187"/>
+      <c r="G188" s="186"/>
       <c r="H188" s="125"/>
       <c r="I188" s="126" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J188" s="113" t="s">
         <v>279</v>
@@ -10324,16 +10495,16 @@
         <v>280</v>
       </c>
       <c r="L188" s="127" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M188" s="128" t="s">
         <v>187</v>
       </c>
       <c r="N188" s="128" t="s">
+        <v>361</v>
+      </c>
+      <c r="O188" s="113" t="s">
         <v>362</v>
-      </c>
-      <c r="O188" s="113" t="s">
-        <v>363</v>
       </c>
       <c r="P188" s="104"/>
       <c r="Q188" s="102">
@@ -10342,18 +10513,18 @@
       <c r="R188" s="102"/>
       <c r="S188" s="104"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A189" s="58"/>
       <c r="B189" s="78"/>
       <c r="C189" s="31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D189" s="63"/>
       <c r="E189" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F189" s="63"/>
-      <c r="G189" s="181"/>
+      <c r="G189" s="180"/>
       <c r="H189" s="63"/>
       <c r="I189" s="63"/>
       <c r="J189" s="63"/>
@@ -10367,7 +10538,7 @@
       <c r="R189" s="63"/>
       <c r="S189" s="63"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A190" s="58"/>
       <c r="B190" s="78"/>
       <c r="C190" s="32"/>
@@ -10375,13 +10546,13 @@
         <v>73</v>
       </c>
       <c r="E190" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F190" s="71"/>
-      <c r="G190" s="185"/>
+      <c r="G190" s="184"/>
       <c r="H190" s="129"/>
       <c r="I190" s="130" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J190" s="127" t="s">
         <v>279</v>
@@ -10390,7 +10561,7 @@
         <v>280</v>
       </c>
       <c r="L190" s="68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M190" s="67" t="s">
         <v>187</v>
@@ -10399,7 +10570,7 @@
         <v>400221</v>
       </c>
       <c r="O190" s="131" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P190" s="20"/>
       <c r="Q190" s="69">
@@ -10408,7 +10579,7 @@
       <c r="R190" s="69"/>
       <c r="S190" s="20"/>
     </row>
-    <row r="191" spans="1:19" ht="27">
+    <row r="191" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A191" s="58"/>
       <c r="B191" s="78"/>
       <c r="C191" s="32"/>
@@ -10416,13 +10587,13 @@
         <v>104</v>
       </c>
       <c r="E191" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F191" s="36"/>
-      <c r="G191" s="179"/>
+      <c r="G191" s="178"/>
       <c r="H191" s="82"/>
       <c r="I191" s="56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J191" s="113" t="s">
         <v>279</v>
@@ -10431,16 +10602,16 @@
         <v>280</v>
       </c>
       <c r="L191" s="68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M191" s="56" t="s">
         <v>187</v>
       </c>
       <c r="N191" s="56" t="s">
+        <v>365</v>
+      </c>
+      <c r="O191" s="55" t="s">
         <v>366</v>
-      </c>
-      <c r="O191" s="55" t="s">
-        <v>367</v>
       </c>
       <c r="P191" s="16"/>
       <c r="Q191" s="57">
@@ -10449,7 +10620,7 @@
       <c r="R191" s="57"/>
       <c r="S191" s="16"/>
     </row>
-    <row r="192" spans="1:19" ht="27">
+    <row r="192" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A192" s="58"/>
       <c r="B192" s="78"/>
       <c r="C192" s="32"/>
@@ -10457,13 +10628,13 @@
         <v>72</v>
       </c>
       <c r="E192" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F192" s="36"/>
-      <c r="G192" s="179"/>
+      <c r="G192" s="178"/>
       <c r="H192" s="82"/>
       <c r="I192" s="56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J192" s="113" t="s">
         <v>279</v>
@@ -10472,16 +10643,16 @@
         <v>280</v>
       </c>
       <c r="L192" s="68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M192" s="56" t="s">
         <v>187</v>
       </c>
       <c r="N192" s="56" t="s">
+        <v>367</v>
+      </c>
+      <c r="O192" s="55" t="s">
         <v>368</v>
-      </c>
-      <c r="O192" s="55" t="s">
-        <v>369</v>
       </c>
       <c r="P192" s="16"/>
       <c r="Q192" s="57">
@@ -10490,7 +10661,7 @@
       <c r="R192" s="57"/>
       <c r="S192" s="16"/>
     </row>
-    <row r="193" spans="1:19" ht="27">
+    <row r="193" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A193" s="58"/>
       <c r="B193" s="78"/>
       <c r="C193" s="32"/>
@@ -10498,13 +10669,13 @@
         <v>105</v>
       </c>
       <c r="E193" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F193" s="36"/>
-      <c r="G193" s="179"/>
+      <c r="G193" s="178"/>
       <c r="H193" s="132"/>
       <c r="I193" s="112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J193" s="113" t="s">
         <v>279</v>
@@ -10513,16 +10684,16 @@
         <v>280</v>
       </c>
       <c r="L193" s="68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M193" s="56" t="s">
         <v>187</v>
       </c>
       <c r="N193" s="56" t="s">
+        <v>369</v>
+      </c>
+      <c r="O193" s="55" t="s">
         <v>370</v>
-      </c>
-      <c r="O193" s="55" t="s">
-        <v>371</v>
       </c>
       <c r="P193" s="16"/>
       <c r="Q193" s="57">
@@ -10531,7 +10702,7 @@
       <c r="R193" s="57"/>
       <c r="S193" s="16"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A194" s="58"/>
       <c r="B194" s="78"/>
       <c r="C194" s="32"/>
@@ -10539,13 +10710,13 @@
         <v>69</v>
       </c>
       <c r="E194" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F194" s="36"/>
-      <c r="G194" s="179"/>
+      <c r="G194" s="178"/>
       <c r="H194" s="132"/>
       <c r="I194" s="106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J194" s="102" t="s">
         <v>279</v>
@@ -10554,7 +10725,7 @@
         <v>280</v>
       </c>
       <c r="L194" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M194" s="15" t="s">
         <v>187</v>
@@ -10563,7 +10734,7 @@
         <v>400413</v>
       </c>
       <c r="O194" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P194" s="16"/>
       <c r="Q194" s="57">
@@ -10572,7 +10743,7 @@
       <c r="R194" s="57"/>
       <c r="S194" s="16"/>
     </row>
-    <row r="195" spans="1:19" ht="27">
+    <row r="195" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A195" s="58"/>
       <c r="B195" s="78"/>
       <c r="C195" s="32"/>
@@ -10580,13 +10751,13 @@
         <v>71</v>
       </c>
       <c r="E195" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F195" s="36"/>
-      <c r="G195" s="179"/>
+      <c r="G195" s="178"/>
       <c r="H195" s="132"/>
       <c r="I195" s="112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J195" s="113" t="s">
         <v>279</v>
@@ -10595,7 +10766,7 @@
         <v>280</v>
       </c>
       <c r="L195" s="68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M195" s="56" t="s">
         <v>187</v>
@@ -10604,7 +10775,7 @@
         <v>400217</v>
       </c>
       <c r="O195" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P195" s="16"/>
       <c r="Q195" s="57">
@@ -10613,7 +10784,7 @@
       <c r="R195" s="57"/>
       <c r="S195" s="16"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A196" s="58"/>
       <c r="B196" s="78"/>
       <c r="C196" s="32"/>
@@ -10621,13 +10792,13 @@
         <v>74</v>
       </c>
       <c r="E196" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F196" s="36"/>
-      <c r="G196" s="179"/>
+      <c r="G196" s="178"/>
       <c r="H196" s="132"/>
       <c r="I196" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J196" s="111" t="s">
         <v>279</v>
@@ -10636,7 +10807,7 @@
         <v>280</v>
       </c>
       <c r="L196" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M196" s="133" t="s">
         <v>187</v>
@@ -10645,7 +10816,7 @@
         <v>400222</v>
       </c>
       <c r="O196" s="72" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P196" s="16"/>
       <c r="Q196" s="57">
@@ -10654,7 +10825,7 @@
       <c r="R196" s="57"/>
       <c r="S196" s="16"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A197" s="58"/>
       <c r="B197" s="78"/>
       <c r="C197" s="32"/>
@@ -10662,15 +10833,15 @@
         <v>106</v>
       </c>
       <c r="E197" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F197" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G197" s="179"/>
+      <c r="G197" s="178"/>
       <c r="H197" s="132"/>
       <c r="I197" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J197" s="111" t="s">
         <v>279</v>
@@ -10679,7 +10850,7 @@
         <v>280</v>
       </c>
       <c r="L197" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M197" s="133" t="s">
         <v>187</v>
@@ -10688,7 +10859,7 @@
         <v>400214</v>
       </c>
       <c r="O197" s="134" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P197" s="16"/>
       <c r="Q197" s="57">
@@ -10697,21 +10868,21 @@
       <c r="R197" s="57"/>
       <c r="S197" s="16"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A198" s="58"/>
       <c r="B198" s="78"/>
       <c r="C198" s="32"/>
       <c r="D198" s="32"/>
       <c r="E198" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F198" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="G198" s="179"/>
+      <c r="G198" s="178"/>
       <c r="H198" s="132"/>
       <c r="I198" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J198" s="111" t="s">
         <v>279</v>
@@ -10720,7 +10891,7 @@
         <v>280</v>
       </c>
       <c r="L198" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M198" s="133" t="s">
         <v>187</v>
@@ -10729,7 +10900,7 @@
         <v>400382</v>
       </c>
       <c r="O198" s="72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P198" s="16"/>
       <c r="Q198" s="57">
@@ -10738,21 +10909,21 @@
       <c r="R198" s="57"/>
       <c r="S198" s="16"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A199" s="58"/>
       <c r="B199" s="78"/>
       <c r="C199" s="12"/>
       <c r="D199" s="32"/>
       <c r="E199" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F199" s="100" t="s">
-        <v>377</v>
-      </c>
-      <c r="G199" s="187"/>
+        <v>376</v>
+      </c>
+      <c r="G199" s="186"/>
       <c r="H199" s="109"/>
       <c r="I199" s="135" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J199" s="111" t="s">
         <v>279</v>
@@ -10761,7 +10932,7 @@
         <v>280</v>
       </c>
       <c r="L199" s="136" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M199" s="137" t="s">
         <v>187</v>
@@ -10770,7 +10941,7 @@
         <v>400216</v>
       </c>
       <c r="O199" s="111" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="P199" s="104"/>
       <c r="Q199" s="102">
@@ -10779,18 +10950,18 @@
       <c r="R199" s="102"/>
       <c r="S199" s="104"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A200" s="58"/>
       <c r="B200" s="78"/>
       <c r="C200" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D200" s="63"/>
       <c r="E200" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F200" s="63"/>
-      <c r="G200" s="181"/>
+      <c r="G200" s="180"/>
       <c r="H200" s="63"/>
       <c r="I200" s="63"/>
       <c r="J200" s="63"/>
@@ -10804,7 +10975,7 @@
       <c r="R200" s="63"/>
       <c r="S200" s="63"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A201" s="58"/>
       <c r="B201" s="78"/>
       <c r="C201" s="32"/>
@@ -10812,13 +10983,13 @@
         <v>109</v>
       </c>
       <c r="E201" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F201" s="71"/>
-      <c r="G201" s="185"/>
+      <c r="G201" s="184"/>
       <c r="H201" s="110"/>
       <c r="I201" s="105" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J201" s="136" t="s">
         <v>279</v>
@@ -10827,7 +10998,7 @@
         <v>280</v>
       </c>
       <c r="L201" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M201" s="138" t="s">
         <v>187</v>
@@ -10836,7 +11007,7 @@
         <v>400224</v>
       </c>
       <c r="O201" s="139" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P201" s="20"/>
       <c r="Q201" s="69">
@@ -10845,7 +11016,7 @@
       <c r="R201" s="69"/>
       <c r="S201" s="20"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A202" s="58"/>
       <c r="B202" s="78"/>
       <c r="C202" s="32"/>
@@ -10853,13 +11024,13 @@
         <v>25</v>
       </c>
       <c r="E202" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F202" s="36"/>
-      <c r="G202" s="179"/>
+      <c r="G202" s="178"/>
       <c r="H202" s="132"/>
       <c r="I202" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J202" s="111" t="s">
         <v>279</v>
@@ -10868,7 +11039,7 @@
         <v>280</v>
       </c>
       <c r="L202" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M202" s="133" t="s">
         <v>187</v>
@@ -10877,7 +11048,7 @@
         <v>400225</v>
       </c>
       <c r="O202" s="72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P202" s="16"/>
       <c r="Q202" s="57">
@@ -10886,7 +11057,7 @@
       <c r="R202" s="57"/>
       <c r="S202" s="16"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A203" s="58"/>
       <c r="B203" s="78"/>
       <c r="C203" s="32"/>
@@ -10894,13 +11065,13 @@
         <v>5</v>
       </c>
       <c r="E203" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F203" s="36"/>
-      <c r="G203" s="179"/>
+      <c r="G203" s="178"/>
       <c r="H203" s="132"/>
       <c r="I203" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J203" s="111" t="s">
         <v>279</v>
@@ -10909,7 +11080,7 @@
         <v>280</v>
       </c>
       <c r="L203" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M203" s="133" t="s">
         <v>187</v>
@@ -10918,7 +11089,7 @@
         <v>400226</v>
       </c>
       <c r="O203" s="72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P203" s="16"/>
       <c r="Q203" s="57">
@@ -10927,7 +11098,7 @@
       <c r="R203" s="57"/>
       <c r="S203" s="16"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A204" s="58"/>
       <c r="B204" s="78"/>
       <c r="C204" s="32"/>
@@ -10935,13 +11106,13 @@
         <v>26</v>
       </c>
       <c r="E204" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F204" s="36"/>
-      <c r="G204" s="179"/>
+      <c r="G204" s="178"/>
       <c r="H204" s="132"/>
       <c r="I204" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J204" s="111" t="s">
         <v>279</v>
@@ -10950,7 +11121,7 @@
         <v>280</v>
       </c>
       <c r="L204" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M204" s="133" t="s">
         <v>187</v>
@@ -10959,7 +11130,7 @@
         <v>400227</v>
       </c>
       <c r="O204" s="72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P204" s="16"/>
       <c r="Q204" s="57">
@@ -10968,7 +11139,7 @@
       <c r="R204" s="57"/>
       <c r="S204" s="16"/>
     </row>
-    <row r="205" spans="1:19" ht="27">
+    <row r="205" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A205" s="58"/>
       <c r="B205" s="78"/>
       <c r="C205" s="32"/>
@@ -10976,13 +11147,13 @@
         <v>27</v>
       </c>
       <c r="E205" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F205" s="36"/>
-      <c r="G205" s="179"/>
+      <c r="G205" s="178"/>
       <c r="H205" s="132"/>
       <c r="I205" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J205" s="111" t="s">
         <v>279</v>
@@ -10991,7 +11162,7 @@
         <v>280</v>
       </c>
       <c r="L205" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M205" s="133" t="s">
         <v>187</v>
@@ -11000,7 +11171,7 @@
         <v>400228</v>
       </c>
       <c r="O205" s="72" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P205" s="16"/>
       <c r="Q205" s="57">
@@ -11009,7 +11180,7 @@
       <c r="R205" s="57"/>
       <c r="S205" s="16"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A206" s="58"/>
       <c r="B206" s="78"/>
       <c r="C206" s="32"/>
@@ -11017,13 +11188,13 @@
         <v>110</v>
       </c>
       <c r="E206" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F206" s="36"/>
-      <c r="G206" s="179"/>
+      <c r="G206" s="178"/>
       <c r="H206" s="132"/>
       <c r="I206" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J206" s="111" t="s">
         <v>279</v>
@@ -11032,7 +11203,7 @@
         <v>280</v>
       </c>
       <c r="L206" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M206" s="133" t="s">
         <v>187</v>
@@ -11041,7 +11212,7 @@
         <v>400229</v>
       </c>
       <c r="O206" s="72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P206" s="16"/>
       <c r="Q206" s="57">
@@ -11050,7 +11221,7 @@
       <c r="R206" s="57"/>
       <c r="S206" s="16"/>
     </row>
-    <row r="207" spans="1:19" ht="27">
+    <row r="207" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A207" s="58"/>
       <c r="B207" s="78"/>
       <c r="C207" s="32"/>
@@ -11058,13 +11229,13 @@
         <v>111</v>
       </c>
       <c r="E207" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F207" s="36"/>
-      <c r="G207" s="179"/>
+      <c r="G207" s="178"/>
       <c r="H207" s="132"/>
       <c r="I207" s="33" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J207" s="111" t="s">
         <v>279</v>
@@ -11073,7 +11244,7 @@
         <v>280</v>
       </c>
       <c r="L207" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M207" s="133" t="s">
         <v>187</v>
@@ -11082,7 +11253,7 @@
         <v>400230</v>
       </c>
       <c r="O207" s="72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P207" s="16"/>
       <c r="Q207" s="57">
@@ -11091,7 +11262,7 @@
       <c r="R207" s="57"/>
       <c r="S207" s="16"/>
     </row>
-    <row r="208" spans="1:19" ht="27">
+    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A208" s="58"/>
       <c r="B208" s="78"/>
       <c r="C208" s="12"/>
@@ -11099,13 +11270,13 @@
         <v>28</v>
       </c>
       <c r="E208" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F208" s="100"/>
-      <c r="G208" s="187"/>
+      <c r="G208" s="186"/>
       <c r="H208" s="109"/>
       <c r="I208" s="135" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J208" s="111" t="s">
         <v>279</v>
@@ -11114,7 +11285,7 @@
         <v>280</v>
       </c>
       <c r="L208" s="136" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M208" s="137" t="s">
         <v>187</v>
@@ -11123,7 +11294,7 @@
         <v>400231</v>
       </c>
       <c r="O208" s="111" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="P208" s="104"/>
       <c r="Q208" s="102">
@@ -11132,7 +11303,7 @@
       <c r="R208" s="102"/>
       <c r="S208" s="104"/>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A209" s="58"/>
       <c r="B209" s="78"/>
       <c r="C209" s="31" t="s">
@@ -11140,10 +11311,10 @@
       </c>
       <c r="D209" s="63"/>
       <c r="E209" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F209" s="63"/>
-      <c r="G209" s="181"/>
+      <c r="G209" s="180"/>
       <c r="H209" s="63"/>
       <c r="I209" s="63"/>
       <c r="J209" s="63"/>
@@ -11157,20 +11328,20 @@
       <c r="R209" s="63"/>
       <c r="S209" s="63"/>
     </row>
-    <row r="210" spans="1:19" ht="27">
+    <row r="210" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A210" s="58"/>
       <c r="B210" s="78"/>
       <c r="C210" s="32"/>
       <c r="D210" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E210" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F210" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="G210" s="185"/>
+      <c r="G210" s="184"/>
       <c r="H210" s="110"/>
       <c r="I210" s="35"/>
       <c r="J210" s="136" t="s">
@@ -11180,7 +11351,7 @@
         <v>280</v>
       </c>
       <c r="L210" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M210" s="35" t="s">
         <v>187</v>
@@ -11189,7 +11360,7 @@
         <v>400048</v>
       </c>
       <c r="O210" s="74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P210" s="20"/>
       <c r="Q210" s="69">
@@ -11198,24 +11369,24 @@
       <c r="R210" s="69"/>
       <c r="S210" s="20"/>
     </row>
-    <row r="211" spans="1:19" ht="40.5">
+    <row r="211" spans="1:19" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A211" s="58"/>
       <c r="B211" s="78"/>
       <c r="C211" s="32"/>
       <c r="D211" s="12"/>
       <c r="E211" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F211" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="G211" s="179"/>
+      <c r="G211" s="178"/>
       <c r="H211" s="132"/>
       <c r="I211" s="15"/>
       <c r="J211" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="K211" s="163" t="s">
+      <c r="K211" s="162" t="s">
         <v>233</v>
       </c>
       <c r="L211" s="69"/>
@@ -11226,7 +11397,7 @@
         <v>400378</v>
       </c>
       <c r="O211" s="57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P211" s="16"/>
       <c r="Q211" s="57">
@@ -11235,7 +11406,7 @@
       <c r="R211" s="57"/>
       <c r="S211" s="16"/>
     </row>
-    <row r="212" spans="1:19" s="140" customFormat="1" ht="27">
+    <row r="212" spans="1:19" s="140" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A212" s="58"/>
       <c r="B212" s="78"/>
       <c r="C212" s="32"/>
@@ -11243,12 +11414,12 @@
         <v>89</v>
       </c>
       <c r="E212" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F212" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="G212" s="179"/>
+      <c r="G212" s="178"/>
       <c r="H212" s="33"/>
       <c r="I212" s="36"/>
       <c r="J212" s="102" t="s">
@@ -11258,7 +11429,7 @@
         <v>280</v>
       </c>
       <c r="L212" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M212" s="15" t="s">
         <v>187</v>
@@ -11267,7 +11438,7 @@
         <v>400374</v>
       </c>
       <c r="O212" s="57" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P212" s="68"/>
       <c r="Q212" s="57">
@@ -11276,18 +11447,18 @@
       <c r="R212" s="57"/>
       <c r="S212" s="65"/>
     </row>
-    <row r="213" spans="1:19" ht="27">
+    <row r="213" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A213" s="58"/>
       <c r="B213" s="78"/>
       <c r="C213" s="32"/>
       <c r="D213" s="32"/>
       <c r="E213" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F213" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G213" s="179"/>
+      <c r="G213" s="178"/>
       <c r="H213" s="33"/>
       <c r="I213" s="13"/>
       <c r="J213" s="111" t="s">
@@ -11297,7 +11468,7 @@
         <v>280</v>
       </c>
       <c r="L213" s="141" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M213" s="22" t="s">
         <v>187</v>
@@ -11306,7 +11477,7 @@
         <v>400416</v>
       </c>
       <c r="O213" s="72" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="P213" s="74"/>
       <c r="Q213" s="72">
@@ -11315,18 +11486,18 @@
       <c r="R213" s="72"/>
       <c r="S213" s="73"/>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A214" s="58"/>
       <c r="B214" s="78"/>
       <c r="C214" s="32"/>
       <c r="D214" s="12"/>
       <c r="E214" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F214" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G214" s="179"/>
+      <c r="G214" s="178"/>
       <c r="H214" s="33"/>
       <c r="I214" s="36"/>
       <c r="J214" s="102" t="s">
@@ -11336,7 +11507,7 @@
         <v>280</v>
       </c>
       <c r="L214" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M214" s="15" t="s">
         <v>187</v>
@@ -11345,7 +11516,7 @@
         <v>400379</v>
       </c>
       <c r="O214" s="57" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="P214" s="69"/>
       <c r="Q214" s="57">
@@ -11354,23 +11525,23 @@
       <c r="R214" s="57"/>
       <c r="S214" s="16"/>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A215" s="58"/>
       <c r="B215" s="78"/>
       <c r="C215" s="32"/>
       <c r="D215" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E215" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F215" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="G215" s="179"/>
+        <v>393</v>
+      </c>
+      <c r="G215" s="178"/>
       <c r="H215" s="33"/>
       <c r="I215" s="106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J215" s="102" t="s">
         <v>279</v>
@@ -11379,7 +11550,7 @@
         <v>280</v>
       </c>
       <c r="L215" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M215" s="15" t="s">
         <v>187</v>
@@ -11388,7 +11559,7 @@
         <v>400261</v>
       </c>
       <c r="O215" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P215" s="69"/>
       <c r="Q215" s="57">
@@ -11397,21 +11568,21 @@
       <c r="R215" s="57"/>
       <c r="S215" s="16"/>
     </row>
-    <row r="216" spans="1:19" ht="27">
+    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A216" s="58"/>
       <c r="B216" s="78"/>
       <c r="C216" s="32"/>
       <c r="D216" s="32"/>
       <c r="E216" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F216" s="36" t="s">
-        <v>396</v>
-      </c>
-      <c r="G216" s="179"/>
+        <v>395</v>
+      </c>
+      <c r="G216" s="178"/>
       <c r="H216" s="33"/>
       <c r="I216" s="106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J216" s="102" t="s">
         <v>279</v>
@@ -11420,7 +11591,7 @@
         <v>280</v>
       </c>
       <c r="L216" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M216" s="15" t="s">
         <v>187</v>
@@ -11429,7 +11600,7 @@
         <v>400262</v>
       </c>
       <c r="O216" s="142" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="P216" s="69"/>
       <c r="Q216" s="57">
@@ -11438,21 +11609,21 @@
       <c r="R216" s="57"/>
       <c r="S216" s="16"/>
     </row>
-    <row r="217" spans="1:19" ht="27">
+    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A217" s="58"/>
       <c r="B217" s="80"/>
       <c r="C217" s="12"/>
       <c r="D217" s="12"/>
       <c r="E217" s="105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F217" s="36" t="s">
-        <v>398</v>
-      </c>
-      <c r="G217" s="179"/>
+        <v>397</v>
+      </c>
+      <c r="G217" s="178"/>
       <c r="H217" s="33"/>
       <c r="I217" s="106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J217" s="102" t="s">
         <v>279</v>
@@ -11461,7 +11632,7 @@
         <v>280</v>
       </c>
       <c r="L217" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M217" s="15" t="s">
         <v>187</v>
@@ -11470,7 +11641,7 @@
         <v>400263</v>
       </c>
       <c r="O217" s="142" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P217" s="69"/>
       <c r="Q217" s="57">
@@ -11479,19 +11650,19 @@
       <c r="R217" s="57"/>
       <c r="S217" s="16"/>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A218" s="58"/>
       <c r="B218" s="78"/>
       <c r="C218" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D218" s="31"/>
       <c r="E218" s="109"/>
       <c r="F218" s="109"/>
-      <c r="G218" s="187"/>
+      <c r="G218" s="186"/>
       <c r="H218" s="109"/>
       <c r="I218" s="135" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J218" s="111" t="s">
         <v>279</v>
@@ -11500,7 +11671,7 @@
         <v>280</v>
       </c>
       <c r="L218" s="136" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M218" s="143" t="s">
         <v>187</v>
@@ -11509,7 +11680,7 @@
         <v>400415</v>
       </c>
       <c r="O218" s="144" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P218" s="144"/>
       <c r="Q218" s="111">
@@ -11518,7 +11689,7 @@
       <c r="R218" s="111"/>
       <c r="S218" s="144"/>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A219" s="58"/>
       <c r="B219" s="31" t="s">
         <v>33</v>
@@ -11527,7 +11698,7 @@
       <c r="D219" s="63"/>
       <c r="E219" s="63"/>
       <c r="F219" s="63"/>
-      <c r="G219" s="181"/>
+      <c r="G219" s="180"/>
       <c r="H219" s="63"/>
       <c r="I219" s="63"/>
       <c r="J219" s="63"/>
@@ -11541,7 +11712,7 @@
       <c r="R219" s="63"/>
       <c r="S219" s="63"/>
     </row>
-    <row r="220" spans="1:19" ht="27">
+    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A220" s="58"/>
       <c r="B220" s="32"/>
       <c r="C220" s="31" t="s">
@@ -11552,15 +11723,15 @@
         <v>195</v>
       </c>
       <c r="F220" s="110" t="s">
-        <v>402</v>
-      </c>
-      <c r="G220" s="185"/>
+        <v>401</v>
+      </c>
+      <c r="G220" s="184"/>
       <c r="H220" s="105"/>
       <c r="I220" s="20"/>
       <c r="J220" s="67" t="s">
         <v>232</v>
       </c>
-      <c r="K220" s="164" t="s">
+      <c r="K220" s="163" t="s">
         <v>257</v>
       </c>
       <c r="L220" s="20"/>
@@ -11578,7 +11749,7 @@
       <c r="R220" s="103"/>
       <c r="S220" s="146"/>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A221" s="58"/>
       <c r="B221" s="32"/>
       <c r="C221" s="32"/>
@@ -11587,9 +11758,9 @@
         <v>195</v>
       </c>
       <c r="F221" s="132" t="s">
-        <v>403</v>
-      </c>
-      <c r="G221" s="179"/>
+        <v>402</v>
+      </c>
+      <c r="G221" s="178"/>
       <c r="H221" s="33"/>
       <c r="I221" s="16"/>
       <c r="J221" s="56"/>
@@ -11607,7 +11778,7 @@
       <c r="R221" s="103"/>
       <c r="S221" s="146"/>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A222" s="58"/>
       <c r="B222" s="32"/>
       <c r="C222" s="12"/>
@@ -11616,9 +11787,9 @@
         <v>195</v>
       </c>
       <c r="F222" s="132" t="s">
-        <v>404</v>
-      </c>
-      <c r="G222" s="179"/>
+        <v>403</v>
+      </c>
+      <c r="G222" s="178"/>
       <c r="H222" s="33"/>
       <c r="I222" s="16"/>
       <c r="J222" s="56"/>
@@ -11636,7 +11807,7 @@
       <c r="R222" s="69"/>
       <c r="S222" s="20"/>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A223" s="58"/>
       <c r="B223" s="32"/>
       <c r="C223" s="12" t="s">
@@ -11645,13 +11816,13 @@
       <c r="D223" s="32"/>
       <c r="E223" s="145"/>
       <c r="F223" s="145"/>
-      <c r="G223" s="188"/>
+      <c r="G223" s="187"/>
       <c r="H223" s="145"/>
       <c r="I223" s="146"/>
       <c r="J223" s="147" t="s">
         <v>232</v>
       </c>
-      <c r="K223" s="165" t="s">
+      <c r="K223" s="164" t="s">
         <v>233</v>
       </c>
       <c r="L223" s="98"/>
@@ -11669,16 +11840,16 @@
       <c r="R223" s="103"/>
       <c r="S223" s="146"/>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A224" s="58"/>
       <c r="B224" s="32"/>
       <c r="C224" s="31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D224" s="63"/>
       <c r="E224" s="63"/>
       <c r="F224" s="63"/>
-      <c r="G224" s="181"/>
+      <c r="G224" s="180"/>
       <c r="H224" s="63"/>
       <c r="I224" s="63"/>
       <c r="J224" s="63"/>
@@ -11692,22 +11863,22 @@
       <c r="R224" s="63"/>
       <c r="S224" s="63"/>
     </row>
-    <row r="225" spans="1:19" ht="27">
+    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A225" s="58"/>
       <c r="B225" s="32"/>
       <c r="C225" s="32"/>
       <c r="D225" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E225" s="33" t="s">
         <v>195</v>
       </c>
       <c r="F225" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="G225" s="178"/>
+      <c r="H225" s="132" t="s">
         <v>407</v>
-      </c>
-      <c r="G225" s="179"/>
-      <c r="H225" s="132" t="s">
-        <v>408</v>
       </c>
       <c r="I225" s="16"/>
       <c r="J225" s="65" t="s">
@@ -11731,7 +11902,7 @@
       <c r="R225" s="57"/>
       <c r="S225" s="16"/>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A226" s="58"/>
       <c r="B226" s="32"/>
       <c r="C226" s="32"/>
@@ -11740,9 +11911,9 @@
         <v>195</v>
       </c>
       <c r="F226" s="36"/>
-      <c r="G226" s="179"/>
+      <c r="G226" s="178"/>
       <c r="H226" s="132" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I226" s="16"/>
       <c r="J226" s="65"/>
@@ -11758,7 +11929,7 @@
       <c r="R226" s="57"/>
       <c r="S226" s="16"/>
     </row>
-    <row r="227" spans="1:19" ht="49.5" customHeight="1">
+    <row r="227" spans="1:19" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="58"/>
       <c r="B227" s="32"/>
       <c r="C227" s="32"/>
@@ -11767,9 +11938,9 @@
         <v>195</v>
       </c>
       <c r="F227" s="36"/>
-      <c r="G227" s="179"/>
+      <c r="G227" s="178"/>
       <c r="H227" s="132" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I227" s="16"/>
       <c r="J227" s="65"/>
@@ -11785,7 +11956,7 @@
       <c r="R227" s="57"/>
       <c r="S227" s="16"/>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A228" s="58"/>
       <c r="B228" s="32"/>
       <c r="C228" s="32"/>
@@ -11794,9 +11965,9 @@
         <v>195</v>
       </c>
       <c r="F228" s="36"/>
-      <c r="G228" s="179"/>
+      <c r="G228" s="178"/>
       <c r="H228" s="132" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I228" s="16"/>
       <c r="J228" s="65"/>
@@ -11812,7 +11983,7 @@
       <c r="R228" s="57"/>
       <c r="S228" s="16"/>
     </row>
-    <row r="229" spans="1:19" ht="27">
+    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A229" s="58"/>
       <c r="B229" s="32"/>
       <c r="C229" s="32"/>
@@ -11821,9 +11992,9 @@
         <v>195</v>
       </c>
       <c r="F229" s="36"/>
-      <c r="G229" s="179"/>
+      <c r="G229" s="178"/>
       <c r="H229" s="132" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I229" s="16"/>
       <c r="J229" s="65"/>
@@ -11839,7 +12010,7 @@
       <c r="R229" s="57"/>
       <c r="S229" s="16"/>
     </row>
-    <row r="230" spans="1:19" ht="27">
+    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A230" s="58"/>
       <c r="B230" s="32"/>
       <c r="C230" s="32"/>
@@ -11848,11 +12019,11 @@
         <v>195</v>
       </c>
       <c r="F230" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="G230" s="178"/>
+      <c r="H230" s="132" t="s">
         <v>413</v>
-      </c>
-      <c r="G230" s="179"/>
-      <c r="H230" s="132" t="s">
-        <v>414</v>
       </c>
       <c r="I230" s="16"/>
       <c r="J230" s="65" t="s">
@@ -11876,7 +12047,7 @@
       <c r="R230" s="57"/>
       <c r="S230" s="16"/>
     </row>
-    <row r="231" spans="1:19" ht="45" customHeight="1">
+    <row r="231" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="58"/>
       <c r="B231" s="32"/>
       <c r="C231" s="32"/>
@@ -11885,9 +12056,9 @@
         <v>195</v>
       </c>
       <c r="F231" s="100"/>
-      <c r="G231" s="187"/>
+      <c r="G231" s="186"/>
       <c r="H231" s="132" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I231" s="16"/>
       <c r="J231" s="65"/>
@@ -11903,7 +12074,7 @@
       <c r="R231" s="57"/>
       <c r="S231" s="16"/>
     </row>
-    <row r="232" spans="1:19" ht="58.5" customHeight="1">
+    <row r="232" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="58"/>
       <c r="B232" s="32"/>
       <c r="C232" s="32"/>
@@ -11912,9 +12083,9 @@
         <v>195</v>
       </c>
       <c r="F232" s="100"/>
-      <c r="G232" s="187"/>
+      <c r="G232" s="186"/>
       <c r="H232" s="132" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I232" s="16"/>
       <c r="J232" s="65"/>
@@ -11930,7 +12101,7 @@
       <c r="R232" s="57"/>
       <c r="S232" s="16"/>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A233" s="58"/>
       <c r="B233" s="32"/>
       <c r="C233" s="32"/>
@@ -11939,11 +12110,11 @@
         <v>195</v>
       </c>
       <c r="F233" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="G233" s="182"/>
+      <c r="H233" s="132" t="s">
         <v>417</v>
-      </c>
-      <c r="G233" s="183"/>
-      <c r="H233" s="132" t="s">
-        <v>418</v>
       </c>
       <c r="I233" s="16"/>
       <c r="J233" s="65" t="s">
@@ -11967,7 +12138,7 @@
       <c r="R233" s="57"/>
       <c r="S233" s="16"/>
     </row>
-    <row r="234" spans="1:19" ht="27">
+    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A234" s="58"/>
       <c r="B234" s="32"/>
       <c r="C234" s="32"/>
@@ -11976,9 +12147,9 @@
         <v>195</v>
       </c>
       <c r="F234" s="79"/>
-      <c r="G234" s="183"/>
+      <c r="G234" s="182"/>
       <c r="H234" s="132" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I234" s="16"/>
       <c r="J234" s="148"/>
@@ -11994,7 +12165,7 @@
       <c r="R234" s="57"/>
       <c r="S234" s="16"/>
     </row>
-    <row r="235" spans="1:19" ht="27">
+    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A235" s="58"/>
       <c r="B235" s="32"/>
       <c r="C235" s="32"/>
@@ -12003,9 +12174,9 @@
         <v>195</v>
       </c>
       <c r="F235" s="79"/>
-      <c r="G235" s="183"/>
+      <c r="G235" s="182"/>
       <c r="H235" s="132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I235" s="16"/>
       <c r="J235" s="148"/>
@@ -12021,7 +12192,7 @@
       <c r="R235" s="57"/>
       <c r="S235" s="16"/>
     </row>
-    <row r="236" spans="1:19" ht="27">
+    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.3">
       <c r="A236" s="58"/>
       <c r="B236" s="32"/>
       <c r="C236" s="32"/>
@@ -12030,9 +12201,9 @@
         <v>195</v>
       </c>
       <c r="F236" s="79"/>
-      <c r="G236" s="183"/>
+      <c r="G236" s="182"/>
       <c r="H236" s="132" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I236" s="16"/>
       <c r="J236" s="148"/>
@@ -12048,7 +12219,7 @@
       <c r="R236" s="57"/>
       <c r="S236" s="16"/>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A237" s="58"/>
       <c r="B237" s="32"/>
       <c r="C237" s="32"/>
@@ -12057,9 +12228,9 @@
         <v>195</v>
       </c>
       <c r="F237" s="79"/>
-      <c r="G237" s="183"/>
+      <c r="G237" s="182"/>
       <c r="H237" s="132" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I237" s="16"/>
       <c r="J237" s="148"/>
@@ -12075,7 +12246,7 @@
       <c r="R237" s="57"/>
       <c r="S237" s="16"/>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A238" s="58"/>
       <c r="B238" s="32"/>
       <c r="C238" s="32"/>
@@ -12084,10 +12255,10 @@
       </c>
       <c r="E238" s="132"/>
       <c r="F238" s="132"/>
-      <c r="G238" s="179"/>
+      <c r="G238" s="178"/>
       <c r="H238" s="132"/>
       <c r="I238" s="106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J238" s="65" t="s">
         <v>236</v>
@@ -12096,7 +12267,7 @@
         <v>237</v>
       </c>
       <c r="L238" s="149" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M238" s="15" t="s">
         <v>187</v>
@@ -12112,7 +12283,7 @@
       <c r="R238" s="57"/>
       <c r="S238" s="16"/>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A239" s="58"/>
       <c r="B239" s="32"/>
       <c r="C239" s="32"/>
@@ -12121,10 +12292,10 @@
       </c>
       <c r="E239" s="132"/>
       <c r="F239" s="132"/>
-      <c r="G239" s="179"/>
+      <c r="G239" s="178"/>
       <c r="H239" s="132"/>
       <c r="I239" s="106" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J239" s="102" t="s">
         <v>279</v>
@@ -12133,7 +12304,7 @@
         <v>280</v>
       </c>
       <c r="L239" s="149" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M239" s="15" t="s">
         <v>187</v>
@@ -12142,7 +12313,7 @@
         <v>400387</v>
       </c>
       <c r="O239" s="57" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P239" s="69"/>
       <c r="Q239" s="57">
@@ -12151,7 +12322,7 @@
       <c r="R239" s="57"/>
       <c r="S239" s="16"/>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A240" s="58"/>
       <c r="B240" s="32"/>
       <c r="C240" s="12"/>
@@ -12160,10 +12331,10 @@
       </c>
       <c r="E240" s="109"/>
       <c r="F240" s="109"/>
-      <c r="G240" s="187"/>
+      <c r="G240" s="186"/>
       <c r="H240" s="109"/>
       <c r="I240" s="107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J240" s="102" t="s">
         <v>279</v>
@@ -12172,7 +12343,7 @@
         <v>280</v>
       </c>
       <c r="L240" s="150" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M240" s="99" t="s">
         <v>187</v>
@@ -12181,7 +12352,7 @@
         <v>400388</v>
       </c>
       <c r="O240" s="102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P240" s="103"/>
       <c r="Q240" s="102">
@@ -12190,7 +12361,7 @@
       <c r="R240" s="102"/>
       <c r="S240" s="104"/>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A241" s="58"/>
       <c r="B241" s="32"/>
       <c r="C241" s="31" t="s">
@@ -12199,7 +12370,7 @@
       <c r="D241" s="63"/>
       <c r="E241" s="63"/>
       <c r="F241" s="63"/>
-      <c r="G241" s="181"/>
+      <c r="G241" s="180"/>
       <c r="H241" s="63"/>
       <c r="I241" s="63"/>
       <c r="J241" s="63"/>
@@ -12213,7 +12384,7 @@
       <c r="R241" s="63"/>
       <c r="S241" s="63"/>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A242" s="58"/>
       <c r="B242" s="32"/>
       <c r="C242" s="32"/>
@@ -12222,10 +12393,10 @@
       </c>
       <c r="E242" s="110"/>
       <c r="F242" s="110"/>
-      <c r="G242" s="185"/>
+      <c r="G242" s="184"/>
       <c r="H242" s="110"/>
       <c r="I242" s="108" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J242" s="65" t="s">
         <v>236</v>
@@ -12234,7 +12405,7 @@
         <v>237</v>
       </c>
       <c r="L242" s="151" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M242" s="70" t="s">
         <v>187</v>
@@ -12250,7 +12421,7 @@
       <c r="R242" s="69"/>
       <c r="S242" s="20"/>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A243" s="58"/>
       <c r="B243" s="32"/>
       <c r="C243" s="12"/>
@@ -12259,10 +12430,10 @@
       </c>
       <c r="E243" s="109"/>
       <c r="F243" s="109"/>
-      <c r="G243" s="187"/>
+      <c r="G243" s="186"/>
       <c r="H243" s="109"/>
       <c r="I243" s="107" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J243" s="102" t="s">
         <v>279</v>
@@ -12271,7 +12442,7 @@
         <v>280</v>
       </c>
       <c r="L243" s="150" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M243" s="99" t="s">
         <v>187</v>
@@ -12280,7 +12451,7 @@
         <v>400390</v>
       </c>
       <c r="O243" s="102" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="P243" s="104"/>
       <c r="Q243" s="102">
@@ -12289,16 +12460,16 @@
       <c r="R243" s="102"/>
       <c r="S243" s="104"/>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A244" s="58"/>
       <c r="B244" s="32"/>
       <c r="C244" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D244" s="63"/>
       <c r="E244" s="63"/>
       <c r="F244" s="63"/>
-      <c r="G244" s="181"/>
+      <c r="G244" s="180"/>
       <c r="H244" s="63"/>
       <c r="I244" s="63"/>
       <c r="J244" s="63"/>
@@ -12312,16 +12483,16 @@
       <c r="R244" s="63"/>
       <c r="S244" s="63"/>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A245" s="58"/>
       <c r="B245" s="32"/>
       <c r="C245" s="32"/>
       <c r="D245" s="152" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E245" s="33"/>
       <c r="F245" s="152"/>
-      <c r="G245" s="190"/>
+      <c r="G245" s="189"/>
       <c r="H245" s="110"/>
       <c r="I245" s="71"/>
       <c r="J245" s="131" t="s">
@@ -12345,16 +12516,16 @@
       <c r="R245" s="69"/>
       <c r="S245" s="20"/>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A246" s="58"/>
       <c r="B246" s="32"/>
       <c r="C246" s="32"/>
       <c r="D246" s="153" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E246" s="33"/>
       <c r="F246" s="153"/>
-      <c r="G246" s="184"/>
+      <c r="G246" s="183"/>
       <c r="H246" s="132"/>
       <c r="I246" s="36"/>
       <c r="J246" s="65" t="s">
@@ -12378,16 +12549,16 @@
       <c r="R246" s="57"/>
       <c r="S246" s="16"/>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A247" s="58"/>
       <c r="B247" s="32"/>
       <c r="C247" s="32"/>
       <c r="D247" s="44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E247" s="33"/>
       <c r="F247" s="44"/>
-      <c r="G247" s="186"/>
+      <c r="G247" s="185"/>
       <c r="H247" s="132"/>
       <c r="I247" s="36"/>
       <c r="J247" s="65" t="s">
@@ -12411,16 +12582,16 @@
       <c r="R247" s="57"/>
       <c r="S247" s="16"/>
     </row>
-    <row r="248" spans="1:19">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A248" s="58"/>
       <c r="B248" s="32"/>
       <c r="C248" s="32"/>
       <c r="D248" s="153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E248" s="33"/>
       <c r="F248" s="153"/>
-      <c r="G248" s="184"/>
+      <c r="G248" s="183"/>
       <c r="H248" s="132"/>
       <c r="I248" s="36"/>
       <c r="J248" s="65" t="s">
@@ -12444,16 +12615,16 @@
       <c r="R248" s="57"/>
       <c r="S248" s="16"/>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A249" s="58"/>
       <c r="B249" s="32"/>
       <c r="C249" s="32"/>
       <c r="D249" s="153" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E249" s="33"/>
       <c r="F249" s="153"/>
-      <c r="G249" s="184"/>
+      <c r="G249" s="183"/>
       <c r="H249" s="33"/>
       <c r="I249" s="36"/>
       <c r="J249" s="65" t="s">
@@ -12477,16 +12648,16 @@
       <c r="R249" s="57"/>
       <c r="S249" s="16"/>
     </row>
-    <row r="250" spans="1:19">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A250" s="58"/>
       <c r="B250" s="32"/>
       <c r="C250" s="32"/>
       <c r="D250" s="153" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E250" s="33"/>
       <c r="F250" s="153"/>
-      <c r="G250" s="184"/>
+      <c r="G250" s="183"/>
       <c r="H250" s="33"/>
       <c r="I250" s="36"/>
       <c r="J250" s="65" t="s">
@@ -12510,16 +12681,16 @@
       <c r="R250" s="57"/>
       <c r="S250" s="16"/>
     </row>
-    <row r="251" spans="1:19">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A251" s="58"/>
       <c r="B251" s="32"/>
       <c r="C251" s="32"/>
       <c r="D251" s="153" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E251" s="33"/>
       <c r="F251" s="153"/>
-      <c r="G251" s="184"/>
+      <c r="G251" s="183"/>
       <c r="H251" s="33"/>
       <c r="I251" s="36"/>
       <c r="J251" s="65" t="s">
@@ -12543,16 +12714,16 @@
       <c r="R251" s="57"/>
       <c r="S251" s="16"/>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A252" s="58"/>
       <c r="B252" s="32"/>
       <c r="C252" s="32"/>
       <c r="D252" s="153" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E252" s="33"/>
       <c r="F252" s="153"/>
-      <c r="G252" s="184"/>
+      <c r="G252" s="183"/>
       <c r="H252" s="33"/>
       <c r="I252" s="36"/>
       <c r="J252" s="65" t="s">
@@ -12576,16 +12747,16 @@
       <c r="R252" s="57"/>
       <c r="S252" s="16"/>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A253" s="53"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
       <c r="D253" s="153" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E253" s="33"/>
       <c r="F253" s="153"/>
-      <c r="G253" s="184"/>
+      <c r="G253" s="183"/>
       <c r="H253" s="33"/>
       <c r="I253" s="36"/>
       <c r="J253" s="65" t="s">
@@ -12609,87 +12780,95 @@
       <c r="R253" s="57"/>
       <c r="S253" s="16"/>
     </row>
-    <row r="254" spans="1:19" s="155" customFormat="1" ht="33" customHeight="1">
-      <c r="A254" s="192" t="s">
-        <v>439</v>
-      </c>
-      <c r="B254" s="193"/>
-      <c r="C254" s="193"/>
-      <c r="D254" s="193"/>
-      <c r="E254" s="193"/>
-      <c r="F254" s="193"/>
-      <c r="G254" s="193"/>
-      <c r="H254" s="193"/>
-      <c r="I254" s="193"/>
-      <c r="J254" s="193"/>
-      <c r="K254" s="193"/>
-      <c r="L254" s="193"/>
-      <c r="M254" s="193"/>
-      <c r="N254" s="193"/>
-      <c r="O254" s="193"/>
-      <c r="P254" s="193"/>
+    <row r="254" spans="1:19" s="155" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="191" t="s">
+        <v>438</v>
+      </c>
+      <c r="B254" s="192"/>
+      <c r="C254" s="192"/>
+      <c r="D254" s="192"/>
+      <c r="E254" s="192"/>
+      <c r="F254" s="192"/>
+      <c r="G254" s="192"/>
+      <c r="H254" s="192"/>
+      <c r="I254" s="192"/>
+      <c r="J254" s="192"/>
+      <c r="K254" s="192"/>
+      <c r="L254" s="192"/>
+      <c r="M254" s="192"/>
+      <c r="N254" s="192"/>
+      <c r="O254" s="192"/>
+      <c r="P254" s="192"/>
       <c r="Q254" s="154">
         <f>SUM(Q5:Q253)</f>
         <v>233</v>
       </c>
-      <c r="R254" s="160"/>
-      <c r="S254" s="160"/>
-    </row>
-    <row r="255" spans="1:19">
+      <c r="R254" s="154"/>
+      <c r="S254" s="154"/>
+    </row>
+    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C255" s="40"/>
       <c r="D255" s="40"/>
       <c r="E255" s="40"/>
       <c r="F255" s="40"/>
-      <c r="G255" s="186"/>
+      <c r="G255" s="185"/>
       <c r="H255" s="40"/>
       <c r="J255" s="40"/>
       <c r="K255" s="40"/>
       <c r="M255" s="40"/>
       <c r="O255" s="40"/>
     </row>
-    <row r="256" spans="1:19">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C256" s="40"/>
       <c r="D256" s="40"/>
       <c r="E256" s="40"/>
       <c r="F256" s="40"/>
-      <c r="G256" s="186"/>
+      <c r="G256" s="185"/>
       <c r="H256" s="40"/>
       <c r="J256" s="40"/>
       <c r="K256" s="40"/>
       <c r="M256" s="40"/>
       <c r="O256" s="40"/>
     </row>
-    <row r="259" spans="13:14">
+    <row r="259" spans="13:17" x14ac:dyDescent="0.3">
       <c r="M259" s="156" t="s">
+        <v>442</v>
+      </c>
+      <c r="N259" s="156" t="s">
         <v>443</v>
       </c>
-      <c r="N259" s="156" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="264" spans="13:14" ht="13.5" customHeight="1"/>
-    <row r="265" spans="13:14" ht="13.5" customHeight="1"/>
-    <row r="266" spans="13:14" ht="13.5" customHeight="1"/>
-    <row r="267" spans="13:14" ht="13.5" customHeight="1"/>
-    <row r="268" spans="13:14" ht="13.5" customHeight="1"/>
-    <row r="269" spans="13:14" ht="13.5" customHeight="1"/>
-    <row r="270" spans="13:14" ht="13.5" customHeight="1"/>
-    <row r="271" spans="13:14" ht="13.5" customHeight="1"/>
-    <row r="272" spans="13:14" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
+      <c r="Q259" s="156">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="260" spans="13:17" x14ac:dyDescent="0.3">
+      <c r="Q260" s="156">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="264" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A4:T254" xr:uid="{E34A958B-0152-4677-938C-94B96D7C6F27}"/>
   <mergeCells count="5">
@@ -12725,10 +12904,10 @@
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="2" width="18" style="9" customWidth="1"/>
@@ -12742,13 +12921,13 @@
     <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>149</v>
       </c>
@@ -12779,7 +12958,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="49.5">
+    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -12804,7 +12983,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -12825,7 +13004,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -12844,7 +13023,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -12863,7 +13042,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -12882,7 +13061,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -12901,7 +13080,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -12920,7 +13099,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -12939,7 +13118,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -12958,7 +13137,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -12977,7 +13156,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -12996,7 +13175,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -13015,7 +13194,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -13034,7 +13213,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -13053,7 +13232,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -13072,7 +13251,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -13091,7 +13270,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -13110,7 +13289,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -13129,7 +13308,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -13148,7 +13327,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -13167,7 +13346,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -13186,7 +13365,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -13205,7 +13384,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -13224,7 +13403,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -13243,7 +13422,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -13262,7 +13441,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -13281,7 +13460,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -13300,7 +13479,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="99">
+    <row r="32" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>3</v>
       </c>
@@ -13325,7 +13504,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="49.5">
+    <row r="33" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>4</v>
       </c>
@@ -13350,7 +13529,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" ht="99">
+    <row r="34" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>5</v>
       </c>
@@ -13371,7 +13550,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
@@ -13384,7 +13563,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
@@ -13397,7 +13576,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
@@ -13410,7 +13589,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="8"/>
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
@@ -13423,7 +13602,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="8"/>
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
@@ -13436,7 +13615,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" ht="66">
+    <row r="40" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>6</v>
       </c>
@@ -13457,7 +13636,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" ht="66">
+    <row r="41" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>7</v>
       </c>
@@ -13480,7 +13659,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
@@ -13493,7 +13672,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" ht="49.5">
+    <row r="43" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>8</v>
       </c>
@@ -13514,7 +13693,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
@@ -13533,7 +13712,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
@@ -13552,7 +13731,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" ht="27">
+    <row r="46" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
@@ -13571,7 +13750,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>9</v>
       </c>
@@ -13596,7 +13775,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="82.5">
+    <row r="48" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>10</v>
       </c>
@@ -13623,7 +13802,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
@@ -13644,7 +13823,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" ht="66">
+    <row r="50" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>11</v>
       </c>
@@ -13663,7 +13842,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
@@ -13682,7 +13861,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="8"/>
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
@@ -13705,7 +13884,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="8"/>
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
@@ -13726,7 +13905,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
@@ -13747,7 +13926,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
@@ -13766,7 +13945,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>12</v>
       </c>
@@ -13783,7 +13962,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" ht="66">
+    <row r="57" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="B57" s="5"/>
       <c r="C57" s="4" t="s">
         <v>83</v>
@@ -13799,7 +13978,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" ht="49.5">
+    <row r="58" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B58" s="5"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
@@ -13813,7 +13992,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:11" ht="27">
+    <row r="59" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -13833,7 +14012,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -13853,7 +14032,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" ht="27">
+    <row r="61" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B61" s="5"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -13873,7 +14052,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:11" ht="27">
+    <row r="62" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B62" s="5"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -13893,7 +14072,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" ht="49.5">
+    <row r="63" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>13</v>
       </c>
@@ -13912,7 +14091,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
@@ -13933,7 +14112,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:11" ht="27">
+    <row r="65" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="5"/>
       <c r="C65" s="4"/>
@@ -13954,7 +14133,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
       <c r="B66" s="5"/>
       <c r="C66" s="4"/>
@@ -13975,7 +14154,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="1:11" ht="49.5">
+    <row r="67" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>14</v>
       </c>
@@ -13998,7 +14177,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="1:11" ht="33">
+    <row r="68" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>15</v>
       </c>
@@ -14017,7 +14196,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="8"/>
       <c r="B69" s="5"/>
       <c r="C69" s="4"/>
@@ -14038,7 +14217,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="1:11" ht="27">
+    <row r="70" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
       <c r="B70" s="5"/>
       <c r="C70" s="4"/>
@@ -14059,7 +14238,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>16</v>
       </c>
@@ -14080,7 +14259,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="1:11" ht="82.5">
+    <row r="72" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>17</v>
       </c>
@@ -14101,7 +14280,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="1:11" ht="49.5">
+    <row r="73" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>18</v>
       </c>
@@ -14120,7 +14299,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="1:11" ht="49.5">
+    <row r="74" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>19</v>
       </c>
@@ -14139,7 +14318,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" ht="66">
+    <row r="75" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>20</v>
       </c>
@@ -14158,7 +14337,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>21</v>
       </c>
@@ -14175,7 +14354,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" ht="49.5">
+    <row r="77" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>22</v>
       </c>
@@ -14198,7 +14377,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11" ht="33">
+    <row r="78" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>23</v>
       </c>
@@ -14217,7 +14396,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="1:11" ht="49.5">
+    <row r="79" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>24</v>
       </c>
@@ -14236,7 +14415,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:11" ht="49.5">
+    <row r="80" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>25</v>
       </c>
@@ -14255,7 +14434,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" ht="49.5">
+    <row r="81" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>26</v>
       </c>
@@ -14274,7 +14453,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" ht="33">
+    <row r="82" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>27</v>
       </c>
@@ -14293,7 +14472,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" ht="115.5">
+    <row r="83" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>28</v>
       </c>
@@ -14314,7 +14493,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="1:11" ht="287.25" customHeight="1">
+    <row r="84" spans="1:11" ht="287.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>29</v>
       </c>
@@ -14333,7 +14512,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" ht="354" customHeight="1">
+    <row r="85" spans="1:11" ht="354" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>30</v>
       </c>
@@ -14352,7 +14531,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" ht="49.5">
+    <row r="86" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>31</v>
       </c>
@@ -14371,7 +14550,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" ht="66">
+    <row r="87" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>32</v>
       </c>
@@ -14392,7 +14571,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" ht="49.5">
+    <row r="88" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>33</v>
       </c>
@@ -14411,7 +14590,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" ht="49.5">
+    <row r="89" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>34</v>
       </c>
@@ -14430,7 +14609,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" ht="49.5">
+    <row r="90" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>35</v>
       </c>
@@ -14451,7 +14630,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" ht="33">
+    <row r="91" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>36</v>
       </c>
@@ -14470,7 +14649,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" ht="33">
+    <row r="92" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>37</v>
       </c>
@@ -14489,7 +14668,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>38</v>
       </c>
@@ -14508,7 +14687,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" ht="49.5">
+    <row r="94" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>39</v>
       </c>
@@ -14527,7 +14706,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" ht="33">
+    <row r="95" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>40</v>
       </c>
@@ -14550,7 +14729,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="6"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>41</v>
       </c>
@@ -14567,7 +14746,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>42</v>
       </c>
@@ -14584,7 +14763,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" spans="1:11" ht="33">
+    <row r="98" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>43</v>
       </c>
@@ -14601,7 +14780,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="6"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>44</v>
       </c>
@@ -14618,7 +14797,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>45</v>
       </c>
@@ -14635,7 +14814,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="6"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>46</v>
       </c>
@@ -14652,7 +14831,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>47</v>
       </c>
@@ -14669,7 +14848,7 @@
       <c r="J102" s="4"/>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>48</v>
       </c>
@@ -14686,7 +14865,7 @@
       <c r="J103" s="4"/>
       <c r="K103" s="6"/>
     </row>
-    <row r="104" spans="1:11" ht="33">
+    <row r="104" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>49</v>
       </c>
@@ -14705,7 +14884,7 @@
       <c r="J104" s="4"/>
       <c r="K104" s="6"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>50</v>
       </c>
@@ -14722,7 +14901,7 @@
       <c r="J105" s="4"/>
       <c r="K105" s="6"/>
     </row>
-    <row r="106" spans="1:11" ht="33">
+    <row r="106" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>51</v>
       </c>
@@ -14741,7 +14920,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="107" spans="1:11" ht="33">
+    <row r="107" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>52</v>
       </c>
@@ -14760,7 +14939,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>53</v>
       </c>
@@ -14777,7 +14956,7 @@
       <c r="J108" s="4"/>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>54</v>
       </c>
@@ -14794,7 +14973,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="6"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>55</v>
       </c>
@@ -14813,7 +14992,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="6"/>
     </row>
-    <row r="111" spans="1:11" ht="27">
+    <row r="111" spans="1:11" ht="27" x14ac:dyDescent="0.3">
       <c r="A111" s="8"/>
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
@@ -14828,7 +15007,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="6"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>56</v>
       </c>
@@ -14845,7 +15024,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="6"/>
     </row>
-    <row r="113" spans="1:11" ht="40.5">
+    <row r="113" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
         <v>57</v>
       </c>
@@ -14862,7 +15041,7 @@
       <c r="J113" s="4"/>
       <c r="K113" s="6"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
         <v>58</v>
       </c>
@@ -14879,7 +15058,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="6"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
         <v>59</v>
       </c>
@@ -14898,7 +15077,7 @@
       <c r="J115" s="4"/>
       <c r="K115" s="6"/>
     </row>
-    <row r="116" spans="1:11" ht="33">
+    <row r="116" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
         <v>60</v>
       </c>
@@ -14915,7 +15094,7 @@
       <c r="J116" s="4"/>
       <c r="K116" s="6"/>
     </row>
-    <row r="117" spans="1:11" ht="33">
+    <row r="117" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
         <v>61</v>
       </c>
@@ -14932,7 +15111,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="1:11" ht="49.5">
+    <row r="118" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
         <v>62</v>
       </c>
@@ -14949,7 +15128,7 @@
       <c r="J118" s="4"/>
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="1:11" ht="33">
+    <row r="119" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>63</v>
       </c>
@@ -14966,7 +15145,7 @@
       <c r="J119" s="4"/>
       <c r="K119" s="6"/>
     </row>
-    <row r="120" spans="1:11" ht="49.5">
+    <row r="120" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
         <v>64</v>
       </c>
@@ -14983,7 +15162,7 @@
       <c r="J120" s="4"/>
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="1:11" ht="33">
+    <row r="121" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
         <v>65</v>
       </c>
@@ -15000,7 +15179,7 @@
       <c r="J121" s="4"/>
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="1:11" ht="33">
+    <row r="122" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
         <v>66</v>
       </c>
@@ -15019,7 +15198,7 @@
       <c r="J122" s="4"/>
       <c r="K122" s="6"/>
     </row>
-    <row r="123" spans="1:11" ht="33">
+    <row r="123" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
         <v>67</v>
       </c>
@@ -15036,7 +15215,7 @@
       <c r="J123" s="4"/>
       <c r="K123" s="6"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>68</v>
       </c>
@@ -15053,7 +15232,7 @@
       <c r="J124" s="4"/>
       <c r="K124" s="6"/>
     </row>
-    <row r="125" spans="1:11" ht="33">
+    <row r="125" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
         <v>69</v>
       </c>
@@ -15072,7 +15251,7 @@
       <c r="J125" s="4"/>
       <c r="K125" s="6"/>
     </row>
-    <row r="126" spans="1:11" ht="33">
+    <row r="126" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
         <v>70</v>
       </c>
@@ -15089,7 +15268,7 @@
       <c r="J126" s="4"/>
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="1:11" ht="33">
+    <row r="127" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
         <v>71</v>
       </c>
@@ -15106,7 +15285,7 @@
       <c r="J127" s="4"/>
       <c r="K127" s="6"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
         <v>72</v>
       </c>
@@ -15123,7 +15302,7 @@
       <c r="J128" s="4"/>
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="1:11" ht="33">
+    <row r="129" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
         <v>73</v>
       </c>
@@ -15140,7 +15319,7 @@
       <c r="J129" s="4"/>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="1:11" ht="33">
+    <row r="130" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>74</v>
       </c>
@@ -15157,7 +15336,7 @@
       <c r="J130" s="4"/>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="1:11" ht="49.5">
+    <row r="131" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
         <v>75</v>
       </c>
@@ -15174,7 +15353,7 @@
       <c r="J131" s="4"/>
       <c r="K131" s="6"/>
     </row>
-    <row r="132" spans="1:11" ht="33">
+    <row r="132" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
         <v>76</v>
       </c>
@@ -15191,7 +15370,7 @@
       <c r="J132" s="4"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" ht="33">
+    <row r="133" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
         <v>77</v>
       </c>
@@ -15212,7 +15391,7 @@
       <c r="J133" s="4"/>
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="1:11" ht="49.5">
+    <row r="134" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
         <v>78</v>
       </c>
@@ -15229,7 +15408,7 @@
       <c r="J134" s="4"/>
       <c r="K134" s="6"/>
     </row>
-    <row r="135" spans="1:11" ht="33">
+    <row r="135" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
         <v>79</v>
       </c>
@@ -15248,7 +15427,7 @@
       <c r="J135" s="4"/>
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="1:11" ht="33">
+    <row r="136" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
         <v>80</v>
       </c>
@@ -15265,7 +15444,7 @@
       <c r="J136" s="4"/>
       <c r="K136" s="6"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
         <v>81</v>
       </c>
@@ -15282,7 +15461,7 @@
       <c r="J137" s="4"/>
       <c r="K137" s="6"/>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
         <v>82</v>
       </c>
@@ -15301,7 +15480,7 @@
       <c r="J138" s="4"/>
       <c r="K138" s="6"/>
     </row>
-    <row r="139" spans="1:11" ht="49.5">
+    <row r="139" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>83</v>
       </c>
@@ -15318,7 +15497,7 @@
       <c r="J139" s="4"/>
       <c r="K139" s="6"/>
     </row>
-    <row r="140" spans="1:11" ht="33">
+    <row r="140" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
         <v>84</v>
       </c>
@@ -15335,7 +15514,7 @@
       <c r="J140" s="4"/>
       <c r="K140" s="6"/>
     </row>
-    <row r="141" spans="1:11" ht="33">
+    <row r="141" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
         <v>85</v>
       </c>
@@ -15358,7 +15537,7 @@
       <c r="J141" s="4"/>
       <c r="K141" s="6"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
         <v>86</v>
       </c>
@@ -15379,7 +15558,7 @@
       <c r="J142" s="4"/>
       <c r="K142" s="6"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
         <v>87</v>
       </c>
@@ -15402,7 +15581,7 @@
       <c r="J143" s="4"/>
       <c r="K143" s="6"/>
     </row>
-    <row r="144" spans="1:11" ht="33">
+    <row r="144" spans="1:11" ht="33" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
         <v>88</v>
       </c>
@@ -15421,7 +15600,7 @@
       <c r="J144" s="4"/>
       <c r="K144" s="6"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>89</v>
       </c>
@@ -15440,7 +15619,7 @@
       <c r="J145" s="4"/>
       <c r="K145" s="6"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
         <v>90</v>
       </c>
@@ -15459,7 +15638,7 @@
       <c r="J146" s="4"/>
       <c r="K146" s="6"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
         <v>91</v>
       </c>
@@ -15480,7 +15659,7 @@
       <c r="J147" s="4"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
         <v>92</v>
       </c>
@@ -15499,7 +15678,7 @@
       <c r="J148" s="4"/>
       <c r="K148" s="6"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
         <v>93</v>
       </c>

--- a/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
+++ b/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebContent\static\guide\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29522C33-5B29-4CE7-A428-D7D99F62A33A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7AE101-CC5F-4B80-BAAF-0F9893853C36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="15540" tabRatio="869" xr2:uid="{1E9DB366-6AE4-4F47-9B28-6B909BD1B54D}"/>
   </bookViews>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="465">
   <si>
     <t>Notice</t>
   </si>
@@ -1478,9 +1478,6 @@
     <t>Overview of Securities Business</t>
   </si>
   <si>
-    <t>[Appendix] Overview of Treasury Bond</t>
-  </si>
-  <si>
     <t>Overview of Securities Business</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2015,6 +2012,25 @@
   </si>
   <si>
     <t>Introduction to Coins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Appendix] Overview of Treasury Bond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부망</t>
+  </si>
+  <si>
+    <t>내부망</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2022,7 +2038,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2465,7 +2481,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3039,6 +3055,15 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3063,14 +3088,8 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3478,10 +3497,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S256" sqref="S256"/>
+      <selection pane="bottomLeft" activeCell="Q262" sqref="Q262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2" style="40" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="40" customWidth="1"/>
@@ -3883,30 +3902,30 @@
     <col min="16075" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="193" t="s">
+    <row r="1" spans="1:19" ht="31.5">
+      <c r="A1" s="196" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-      <c r="Q1" s="194"/>
-      <c r="R1" s="194"/>
-      <c r="S1" s="194"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="42"/>
@@ -3927,40 +3946,40 @@
       <c r="R2" s="43"/>
       <c r="S2" s="43"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="16.5" customHeight="1">
       <c r="A3" s="45"/>
       <c r="B3" s="45" t="s">
         <v>209</v>
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="195" t="s">
+      <c r="E3" s="198" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="195"/>
+      <c r="F3" s="198"/>
       <c r="G3" s="175"/>
       <c r="H3" s="47"/>
-      <c r="I3" s="196" t="s">
+      <c r="I3" s="199" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="196"/>
-      <c r="K3" s="196"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="198" t="s">
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="200"/>
+      <c r="M3" s="201" t="s">
         <v>211</v>
       </c>
-      <c r="N3" s="196"/>
-      <c r="O3" s="196"/>
-      <c r="P3" s="197"/>
+      <c r="N3" s="199"/>
+      <c r="O3" s="199"/>
+      <c r="P3" s="200"/>
       <c r="Q3" s="48" t="s">
         <v>212</v>
       </c>
       <c r="R3" s="48"/>
       <c r="S3" s="160" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="24" customHeight="1">
       <c r="A4" s="49"/>
       <c r="B4" s="49" t="s">
         <v>213</v>
@@ -4011,7 +4030,7 @@
       <c r="R4" s="49"/>
       <c r="S4" s="160"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="s">
         <v>228</v>
@@ -4042,7 +4061,7 @@
       <c r="R5" s="174"/>
       <c r="S5" s="15"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19">
       <c r="A6" s="58"/>
       <c r="B6" s="59" t="s">
         <v>231</v>
@@ -4065,7 +4084,7 @@
       <c r="R6" s="57"/>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19">
       <c r="A7" s="58"/>
       <c r="B7" s="62"/>
       <c r="C7" s="60" t="s">
@@ -4096,11 +4115,11 @@
         <v>1</v>
       </c>
       <c r="R7" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S7" s="15"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19">
       <c r="A8" s="58"/>
       <c r="B8" s="62"/>
       <c r="C8" s="60" t="s">
@@ -4131,11 +4150,11 @@
         <v>1</v>
       </c>
       <c r="R8" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S8" s="15"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19">
       <c r="A9" s="58"/>
       <c r="B9" s="62"/>
       <c r="C9" s="64"/>
@@ -4166,11 +4185,11 @@
       </c>
       <c r="Q9" s="57"/>
       <c r="R9" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S9" s="15"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19">
       <c r="A10" s="58"/>
       <c r="B10" s="62"/>
       <c r="C10" s="64"/>
@@ -4201,11 +4220,11 @@
       </c>
       <c r="Q10" s="57"/>
       <c r="R10" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S10" s="15"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19">
       <c r="A11" s="58"/>
       <c r="B11" s="62"/>
       <c r="C11" s="64"/>
@@ -4236,11 +4255,11 @@
       </c>
       <c r="Q11" s="57"/>
       <c r="R11" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S11" s="15"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19">
       <c r="A12" s="58"/>
       <c r="B12" s="62"/>
       <c r="C12" s="64"/>
@@ -4271,11 +4290,11 @@
       </c>
       <c r="Q12" s="57"/>
       <c r="R12" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S12" s="15"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19">
       <c r="A13" s="58"/>
       <c r="B13" s="62"/>
       <c r="C13" s="64"/>
@@ -4306,11 +4325,11 @@
       </c>
       <c r="Q13" s="57"/>
       <c r="R13" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S13" s="15"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19">
       <c r="A14" s="58"/>
       <c r="B14" s="62"/>
       <c r="C14" s="64"/>
@@ -4341,11 +4360,11 @@
       </c>
       <c r="Q14" s="57"/>
       <c r="R14" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S14" s="15"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19">
       <c r="A15" s="58"/>
       <c r="B15" s="62"/>
       <c r="C15" s="64"/>
@@ -4376,11 +4395,11 @@
       </c>
       <c r="Q15" s="57"/>
       <c r="R15" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19">
       <c r="A16" s="58"/>
       <c r="B16" s="62"/>
       <c r="C16" s="64"/>
@@ -4411,11 +4430,11 @@
       </c>
       <c r="Q16" s="57"/>
       <c r="R16" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S16" s="15"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19">
       <c r="A17" s="58"/>
       <c r="B17" s="62"/>
       <c r="C17" s="64"/>
@@ -4446,11 +4465,11 @@
       </c>
       <c r="Q17" s="57"/>
       <c r="R17" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S17" s="15"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19">
       <c r="A18" s="58"/>
       <c r="B18" s="62"/>
       <c r="C18" s="64"/>
@@ -4481,11 +4500,11 @@
       </c>
       <c r="Q18" s="57"/>
       <c r="R18" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S18" s="15"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19">
       <c r="A19" s="58"/>
       <c r="B19" s="62"/>
       <c r="C19" s="64"/>
@@ -4516,11 +4535,11 @@
       </c>
       <c r="Q19" s="57"/>
       <c r="R19" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S19" s="15"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19">
       <c r="A20" s="58"/>
       <c r="B20" s="62"/>
       <c r="C20" s="64"/>
@@ -4551,11 +4570,11 @@
       </c>
       <c r="Q20" s="57"/>
       <c r="R20" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S20" s="15"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19">
       <c r="A21" s="58"/>
       <c r="B21" s="62"/>
       <c r="C21" s="64"/>
@@ -4586,11 +4605,11 @@
       </c>
       <c r="Q21" s="57"/>
       <c r="R21" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S21" s="15"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19">
       <c r="A22" s="58"/>
       <c r="B22" s="62" t="s">
         <v>235</v>
@@ -4623,11 +4642,11 @@
       </c>
       <c r="Q22" s="57"/>
       <c r="R22" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S22" s="15"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19">
       <c r="A23" s="58"/>
       <c r="B23" s="62"/>
       <c r="C23" s="64"/>
@@ -4658,11 +4677,11 @@
       </c>
       <c r="Q23" s="57"/>
       <c r="R23" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S23" s="15"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19">
       <c r="A24" s="58"/>
       <c r="B24" s="62"/>
       <c r="C24" s="64"/>
@@ -4693,11 +4712,11 @@
       </c>
       <c r="Q24" s="57"/>
       <c r="R24" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S24" s="15"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19">
       <c r="A25" s="58"/>
       <c r="B25" s="62"/>
       <c r="C25" s="64"/>
@@ -4728,11 +4747,11 @@
       </c>
       <c r="Q25" s="57"/>
       <c r="R25" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S25" s="15"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19">
       <c r="A26" s="58"/>
       <c r="B26" s="62"/>
       <c r="C26" s="64"/>
@@ -4763,11 +4782,11 @@
       </c>
       <c r="Q26" s="57"/>
       <c r="R26" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S26" s="15"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19">
       <c r="A27" s="58"/>
       <c r="B27" s="62"/>
       <c r="C27" s="64"/>
@@ -4798,11 +4817,11 @@
       </c>
       <c r="Q27" s="57"/>
       <c r="R27" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S27" s="15"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19">
       <c r="A28" s="58"/>
       <c r="B28" s="62"/>
       <c r="C28" s="64"/>
@@ -4833,11 +4852,11 @@
       </c>
       <c r="Q28" s="57"/>
       <c r="R28" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S28" s="15"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19">
       <c r="A29" s="58"/>
       <c r="B29" s="62"/>
       <c r="C29" s="64"/>
@@ -4868,11 +4887,11 @@
       </c>
       <c r="Q29" s="57"/>
       <c r="R29" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S29" s="15"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19">
       <c r="A30" s="58"/>
       <c r="B30" s="62"/>
       <c r="C30" s="64"/>
@@ -4903,11 +4922,11 @@
       </c>
       <c r="Q30" s="57"/>
       <c r="R30" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S30" s="15"/>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19">
       <c r="A31" s="58"/>
       <c r="B31" s="62"/>
       <c r="C31" s="64"/>
@@ -4938,11 +4957,11 @@
       </c>
       <c r="Q31" s="57"/>
       <c r="R31" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S31" s="15"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19">
       <c r="A32" s="58"/>
       <c r="B32" s="62"/>
       <c r="C32" s="64"/>
@@ -4973,11 +4992,11 @@
       </c>
       <c r="Q32" s="57"/>
       <c r="R32" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S32" s="15"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19">
       <c r="A33" s="58"/>
       <c r="B33" s="62"/>
       <c r="C33" s="64"/>
@@ -5008,15 +5027,15 @@
       </c>
       <c r="Q33" s="57"/>
       <c r="R33" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S33" s="15"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19">
       <c r="A34" s="58"/>
       <c r="B34" s="62"/>
       <c r="C34" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>79</v>
@@ -5041,17 +5060,17 @@
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="19" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q34" s="57">
         <v>1</v>
       </c>
       <c r="R34" s="57"/>
       <c r="S34" s="19" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
       <c r="A35" s="58"/>
       <c r="B35" s="62"/>
       <c r="C35" s="59" t="s">
@@ -5071,12 +5090,12 @@
       <c r="O35" s="63"/>
       <c r="P35" s="63"/>
       <c r="Q35" s="63"/>
-      <c r="R35" s="199" t="s">
-        <v>455</v>
+      <c r="R35" s="191" t="s">
+        <v>454</v>
       </c>
       <c r="S35" s="63"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19">
       <c r="A36" s="58"/>
       <c r="B36" s="62"/>
       <c r="C36" s="62"/>
@@ -5109,7 +5128,7 @@
       <c r="R36" s="69"/>
       <c r="S36" s="165"/>
     </row>
-    <row r="37" spans="1:19" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="40.5">
       <c r="A37" s="58"/>
       <c r="B37" s="62"/>
       <c r="C37" s="62"/>
@@ -5144,11 +5163,11 @@
         <v>1</v>
       </c>
       <c r="R37" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19">
       <c r="A38" s="58"/>
       <c r="B38" s="62"/>
       <c r="C38" s="62"/>
@@ -5181,11 +5200,11 @@
         <v>1</v>
       </c>
       <c r="R38" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19">
       <c r="A39" s="58"/>
       <c r="B39" s="62"/>
       <c r="C39" s="62"/>
@@ -5218,13 +5237,13 @@
         <v>1</v>
       </c>
       <c r="R39" s="72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="58"/>
       <c r="B40" s="62"/>
       <c r="C40" s="62"/>
@@ -5257,13 +5276,13 @@
         <v>1</v>
       </c>
       <c r="R40" s="72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S40" s="22" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
       <c r="A41" s="58"/>
       <c r="B41" s="62"/>
       <c r="C41" s="62"/>
@@ -5296,11 +5315,11 @@
         <v>1</v>
       </c>
       <c r="R41" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19">
       <c r="A42" s="58"/>
       <c r="B42" s="62"/>
       <c r="C42" s="62"/>
@@ -5333,11 +5352,11 @@
         <v>1</v>
       </c>
       <c r="R42" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19">
       <c r="A43" s="58"/>
       <c r="B43" s="62"/>
       <c r="C43" s="62"/>
@@ -5370,11 +5389,11 @@
         <v>1</v>
       </c>
       <c r="R43" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19">
       <c r="A44" s="58"/>
       <c r="B44" s="62"/>
       <c r="C44" s="62"/>
@@ -5406,11 +5425,11 @@
         <v>1</v>
       </c>
       <c r="R44" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19">
       <c r="A45" s="58"/>
       <c r="B45" s="62"/>
       <c r="C45" s="62"/>
@@ -5441,11 +5460,11 @@
         <v>1</v>
       </c>
       <c r="R45" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19">
       <c r="A46" s="58"/>
       <c r="B46" s="62"/>
       <c r="C46" s="62"/>
@@ -5478,11 +5497,11 @@
         <v>1</v>
       </c>
       <c r="R46" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19">
       <c r="A47" s="58"/>
       <c r="B47" s="62"/>
       <c r="C47" s="62"/>
@@ -5515,11 +5534,11 @@
         <v>1</v>
       </c>
       <c r="R47" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19">
       <c r="A48" s="58"/>
       <c r="B48" s="62"/>
       <c r="C48" s="62"/>
@@ -5531,7 +5550,7 @@
         <v>248</v>
       </c>
       <c r="G48" s="177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H48" s="34"/>
       <c r="I48" s="73"/>
@@ -5554,11 +5573,11 @@
         <v>1</v>
       </c>
       <c r="R48" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19">
       <c r="A49" s="58"/>
       <c r="B49" s="62"/>
       <c r="C49" s="62"/>
@@ -5570,7 +5589,7 @@
         <v>249</v>
       </c>
       <c r="G49" s="177" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H49" s="34"/>
       <c r="I49" s="73"/>
@@ -5593,11 +5612,11 @@
         <v>1</v>
       </c>
       <c r="R49" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19">
       <c r="A50" s="58"/>
       <c r="B50" s="62"/>
       <c r="C50" s="62"/>
@@ -5609,7 +5628,7 @@
         <v>250</v>
       </c>
       <c r="G50" s="177" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H50" s="34"/>
       <c r="I50" s="73"/>
@@ -5632,11 +5651,11 @@
         <v>1</v>
       </c>
       <c r="R50" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19">
       <c r="A51" s="58"/>
       <c r="B51" s="62"/>
       <c r="C51" s="62"/>
@@ -5648,7 +5667,7 @@
         <v>251</v>
       </c>
       <c r="G51" s="177" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H51" s="34"/>
       <c r="I51" s="73"/>
@@ -5671,11 +5690,11 @@
         <v>1</v>
       </c>
       <c r="R51" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19">
       <c r="A52" s="58"/>
       <c r="B52" s="62"/>
       <c r="C52" s="62"/>
@@ -5687,7 +5706,7 @@
         <v>252</v>
       </c>
       <c r="G52" s="177" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H52" s="34"/>
       <c r="I52" s="73"/>
@@ -5710,11 +5729,11 @@
         <v>1</v>
       </c>
       <c r="R52" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19">
       <c r="A53" s="58"/>
       <c r="B53" s="62"/>
       <c r="C53" s="75"/>
@@ -5724,7 +5743,7 @@
       <c r="E53" s="22"/>
       <c r="F53" s="13"/>
       <c r="G53" s="178" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H53" s="34"/>
       <c r="I53" s="73"/>
@@ -5747,11 +5766,11 @@
         <v>1</v>
       </c>
       <c r="R53" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19">
       <c r="A54" s="58"/>
       <c r="B54" s="62"/>
       <c r="C54" s="75"/>
@@ -5763,7 +5782,7 @@
         <v>254</v>
       </c>
       <c r="G54" s="178" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="73"/>
@@ -5786,11 +5805,11 @@
         <v>1</v>
       </c>
       <c r="R54" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="27">
       <c r="A55" s="58"/>
       <c r="B55" s="62"/>
       <c r="C55" s="31" t="s">
@@ -5810,12 +5829,12 @@
       <c r="O55" s="63"/>
       <c r="P55" s="63"/>
       <c r="Q55" s="63"/>
-      <c r="R55" s="199" t="s">
-        <v>455</v>
+      <c r="R55" s="191" t="s">
+        <v>454</v>
       </c>
       <c r="S55" s="63"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19">
       <c r="A56" s="58"/>
       <c r="B56" s="62"/>
       <c r="C56" s="32"/>
@@ -5847,10 +5866,10 @@
       </c>
       <c r="R56" s="72"/>
       <c r="S56" s="122" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
       <c r="A57" s="58"/>
       <c r="B57" s="62"/>
       <c r="C57" s="32"/>
@@ -5882,10 +5901,10 @@
       </c>
       <c r="R57" s="72"/>
       <c r="S57" s="122" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
       <c r="A58" s="58"/>
       <c r="B58" s="62"/>
       <c r="C58" s="12"/>
@@ -5917,10 +5936,10 @@
       </c>
       <c r="R58" s="72"/>
       <c r="S58" s="122" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
       <c r="A59" s="58"/>
       <c r="B59" s="62"/>
       <c r="C59" s="76" t="s">
@@ -5953,11 +5972,11 @@
         <v>2</v>
       </c>
       <c r="R59" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19">
       <c r="A60" s="58"/>
       <c r="B60" s="62"/>
       <c r="C60" s="31" t="s">
@@ -5977,12 +5996,12 @@
       <c r="O60" s="72"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="72"/>
-      <c r="R60" s="199" t="s">
-        <v>455</v>
+      <c r="R60" s="191" t="s">
+        <v>454</v>
       </c>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19">
       <c r="A61" s="58"/>
       <c r="B61" s="62"/>
       <c r="C61" s="32"/>
@@ -6017,11 +6036,11 @@
         <v>1</v>
       </c>
       <c r="R61" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19">
       <c r="A62" s="58"/>
       <c r="B62" s="62"/>
       <c r="C62" s="32"/>
@@ -6054,11 +6073,11 @@
         <v>2</v>
       </c>
       <c r="R62" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19">
       <c r="A63" s="58"/>
       <c r="B63" s="78"/>
       <c r="C63" s="32"/>
@@ -6089,11 +6108,11 @@
         <v>1</v>
       </c>
       <c r="R63" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S63" s="73"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19">
       <c r="A64" s="58"/>
       <c r="B64" s="78"/>
       <c r="C64" s="32"/>
@@ -6130,13 +6149,13 @@
         <v>1</v>
       </c>
       <c r="R64" s="72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S64" s="73" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="58"/>
       <c r="B65" s="78"/>
       <c r="C65" s="32"/>
@@ -6169,13 +6188,13 @@
         <v>1</v>
       </c>
       <c r="R65" s="72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S65" s="73" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="58"/>
       <c r="B66" s="78"/>
       <c r="C66" s="32"/>
@@ -6208,13 +6227,13 @@
         <v>1</v>
       </c>
       <c r="R66" s="72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S66" s="73" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" s="81" customFormat="1">
       <c r="A67" s="58"/>
       <c r="B67" s="78"/>
       <c r="C67" s="32"/>
@@ -6245,11 +6264,11 @@
         <v>1</v>
       </c>
       <c r="R67" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S67" s="73"/>
     </row>
-    <row r="68" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" s="81" customFormat="1">
       <c r="A68" s="58"/>
       <c r="B68" s="78"/>
       <c r="C68" s="32"/>
@@ -6282,13 +6301,13 @@
         <v>1</v>
       </c>
       <c r="R68" s="72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S68" s="73" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" s="81" customFormat="1">
       <c r="A69" s="58"/>
       <c r="B69" s="78"/>
       <c r="C69" s="32"/>
@@ -6321,13 +6340,13 @@
         <v>1</v>
       </c>
       <c r="R69" s="72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S69" s="73" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" s="81" customFormat="1" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" s="81" customFormat="1">
       <c r="A70" s="58"/>
       <c r="B70" s="78"/>
       <c r="C70" s="12"/>
@@ -6360,13 +6379,13 @@
         <v>1</v>
       </c>
       <c r="R70" s="72" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S70" s="73" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="58"/>
       <c r="B71" s="62"/>
       <c r="C71" s="31" t="s">
@@ -6386,12 +6405,12 @@
       <c r="O71" s="63"/>
       <c r="P71" s="63"/>
       <c r="Q71" s="63"/>
-      <c r="R71" s="199" t="s">
-        <v>455</v>
+      <c r="R71" s="191" t="s">
+        <v>454</v>
       </c>
       <c r="S71" s="63"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19">
       <c r="A72" s="58"/>
       <c r="B72" s="62"/>
       <c r="C72" s="32"/>
@@ -6422,11 +6441,11 @@
         <v>1</v>
       </c>
       <c r="R72" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S72" s="35"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19">
       <c r="A73" s="58"/>
       <c r="B73" s="62"/>
       <c r="C73" s="32"/>
@@ -6461,11 +6480,11 @@
         <v>1</v>
       </c>
       <c r="R73" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S73" s="143"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19">
       <c r="A74" s="58"/>
       <c r="B74" s="62"/>
       <c r="C74" s="32"/>
@@ -6498,11 +6517,11 @@
         <v>1</v>
       </c>
       <c r="R74" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S74" s="158"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19">
       <c r="A75" s="58"/>
       <c r="B75" s="62"/>
       <c r="C75" s="32"/>
@@ -6535,11 +6554,11 @@
         <v>1</v>
       </c>
       <c r="R75" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S75" s="35"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19">
       <c r="A76" s="58"/>
       <c r="B76" s="75"/>
       <c r="C76" s="12"/>
@@ -6570,11 +6589,11 @@
         <v>1</v>
       </c>
       <c r="R76" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19">
       <c r="A77" s="58"/>
       <c r="B77" s="79" t="s">
         <v>82</v>
@@ -6594,12 +6613,12 @@
       <c r="O77" s="63"/>
       <c r="P77" s="63"/>
       <c r="Q77" s="63"/>
-      <c r="R77" s="199" t="s">
-        <v>455</v>
+      <c r="R77" s="191" t="s">
+        <v>454</v>
       </c>
       <c r="S77" s="63"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19">
       <c r="A78" s="58"/>
       <c r="B78" s="78"/>
       <c r="C78" s="32" t="s">
@@ -6619,12 +6638,12 @@
       <c r="O78" s="63"/>
       <c r="P78" s="63"/>
       <c r="Q78" s="63"/>
-      <c r="R78" s="199" t="s">
-        <v>455</v>
+      <c r="R78" s="191" t="s">
+        <v>454</v>
       </c>
       <c r="S78" s="63"/>
     </row>
-    <row r="79" spans="1:19" ht="54" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="54">
       <c r="A79" s="58"/>
       <c r="B79" s="78"/>
       <c r="C79" s="32"/>
@@ -6661,11 +6680,11 @@
         <v>2</v>
       </c>
       <c r="R79" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S79" s="158"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19">
       <c r="A80" s="58"/>
       <c r="B80" s="78"/>
       <c r="C80" s="32"/>
@@ -6698,11 +6717,11 @@
         <v>1</v>
       </c>
       <c r="R80" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S80" s="98"/>
     </row>
-    <row r="81" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="27">
       <c r="A81" s="58"/>
       <c r="B81" s="78"/>
       <c r="C81" s="32"/>
@@ -6735,11 +6754,11 @@
         <v>1</v>
       </c>
       <c r="R81" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S81" s="98"/>
     </row>
-    <row r="82" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="27">
       <c r="A82" s="58"/>
       <c r="B82" s="78"/>
       <c r="C82" s="32"/>
@@ -6772,11 +6791,11 @@
         <v>1</v>
       </c>
       <c r="R82" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S82" s="70"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19">
       <c r="A83" s="58"/>
       <c r="B83" s="78"/>
       <c r="C83" s="32"/>
@@ -6814,10 +6833,10 @@
       </c>
       <c r="R83" s="57"/>
       <c r="S83" s="123" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" ht="27">
       <c r="A84" s="58"/>
       <c r="B84" s="78"/>
       <c r="C84" s="32"/>
@@ -6850,9 +6869,9 @@
         <v>1</v>
       </c>
       <c r="R84" s="103"/>
-      <c r="S84" s="200"/>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S84" s="192"/>
+    </row>
+    <row r="85" spans="1:19">
       <c r="A85" s="58"/>
       <c r="B85" s="78"/>
       <c r="C85" s="32"/>
@@ -6885,11 +6904,11 @@
         <v>1</v>
       </c>
       <c r="R85" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S85" s="20"/>
     </row>
-    <row r="86" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="27">
       <c r="A86" s="58"/>
       <c r="B86" s="78"/>
       <c r="C86" s="32"/>
@@ -6922,11 +6941,11 @@
         <v>1</v>
       </c>
       <c r="R86" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S86" s="16"/>
     </row>
-    <row r="87" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="27">
       <c r="A87" s="58"/>
       <c r="B87" s="78"/>
       <c r="C87" s="32"/>
@@ -6965,11 +6984,11 @@
         <v>1</v>
       </c>
       <c r="R87" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S87" s="16"/>
     </row>
-    <row r="88" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="27">
       <c r="A88" s="58"/>
       <c r="B88" s="78"/>
       <c r="C88" s="32"/>
@@ -6998,11 +7017,11 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="57"/>
       <c r="R88" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S88" s="16"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19">
       <c r="A89" s="58"/>
       <c r="B89" s="78"/>
       <c r="C89" s="12"/>
@@ -7033,11 +7052,11 @@
         <v>1</v>
       </c>
       <c r="R89" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S89" s="16"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19">
       <c r="A90" s="58"/>
       <c r="B90" s="78"/>
       <c r="C90" s="31" t="s">
@@ -7057,12 +7076,12 @@
       <c r="O90" s="40"/>
       <c r="P90" s="40"/>
       <c r="Q90" s="40"/>
-      <c r="R90" s="199" t="s">
-        <v>455</v>
+      <c r="R90" s="191" t="s">
+        <v>454</v>
       </c>
       <c r="S90" s="40"/>
     </row>
-    <row r="91" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="27">
       <c r="A91" s="58"/>
       <c r="B91" s="78"/>
       <c r="C91" s="32"/>
@@ -7097,11 +7116,11 @@
         <v>1</v>
       </c>
       <c r="R91" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S91" s="104"/>
     </row>
-    <row r="92" spans="1:19" ht="54" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="54">
       <c r="A92" s="58"/>
       <c r="B92" s="78"/>
       <c r="C92" s="32"/>
@@ -7134,11 +7153,11 @@
         <v>1</v>
       </c>
       <c r="R92" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S92" s="146"/>
     </row>
-    <row r="93" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="27">
       <c r="A93" s="58"/>
       <c r="B93" s="78"/>
       <c r="C93" s="32"/>
@@ -7171,16 +7190,16 @@
         <v>1</v>
       </c>
       <c r="R93" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S93" s="20"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19">
       <c r="A94" s="58"/>
       <c r="B94" s="78"/>
       <c r="C94" s="32"/>
       <c r="D94" s="31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E94" s="33" t="s">
         <v>195</v>
@@ -7210,11 +7229,11 @@
         <v>1</v>
       </c>
       <c r="R94" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S94" s="104"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19">
       <c r="A95" s="58"/>
       <c r="B95" s="78"/>
       <c r="C95" s="32"/>
@@ -7247,11 +7266,11 @@
         <v>1</v>
       </c>
       <c r="R95" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S95" s="146"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19">
       <c r="A96" s="58"/>
       <c r="B96" s="78"/>
       <c r="C96" s="32"/>
@@ -7284,11 +7303,11 @@
         <v>1</v>
       </c>
       <c r="R96" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S96" s="20"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19">
       <c r="A97" s="58"/>
       <c r="B97" s="78"/>
       <c r="C97" s="32"/>
@@ -7323,11 +7342,11 @@
         <v>1</v>
       </c>
       <c r="R97" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S97" s="104"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19">
       <c r="A98" s="58"/>
       <c r="B98" s="78"/>
       <c r="C98" s="32"/>
@@ -7356,15 +7375,15 @@
       </c>
       <c r="O98" s="36"/>
       <c r="P98" s="16"/>
-      <c r="Q98" s="57">
+      <c r="Q98" s="102">
         <v>1</v>
       </c>
-      <c r="R98" s="174" t="s">
-        <v>446</v>
+      <c r="R98" s="193" t="s">
+        <v>445</v>
       </c>
       <c r="S98" s="146"/>
     </row>
-    <row r="99" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="27">
       <c r="A99" s="58"/>
       <c r="B99" s="78"/>
       <c r="C99" s="32"/>
@@ -7397,11 +7416,11 @@
         <v>1</v>
       </c>
       <c r="R99" s="174" t="s">
-        <v>446</v>
-      </c>
-      <c r="S99" s="20"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="S99" s="16"/>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="58"/>
       <c r="B100" s="78"/>
       <c r="C100" s="32"/>
@@ -7436,11 +7455,11 @@
         <v>1</v>
       </c>
       <c r="R100" s="174" t="s">
-        <v>446</v>
-      </c>
-      <c r="S100" s="104"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="S100" s="16"/>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="58"/>
       <c r="B101" s="78"/>
       <c r="C101" s="32"/>
@@ -7477,11 +7496,11 @@
         <v>2</v>
       </c>
       <c r="R101" s="174" t="s">
-        <v>446</v>
-      </c>
-      <c r="S101" s="20"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+      <c r="S101" s="16"/>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="58"/>
       <c r="B102" s="78"/>
       <c r="C102" s="12"/>
@@ -7514,11 +7533,11 @@
         <v>1</v>
       </c>
       <c r="R102" s="174" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S102" s="16"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19">
       <c r="A103" s="58"/>
       <c r="B103" s="78"/>
       <c r="C103" s="31" t="s">
@@ -7538,12 +7557,12 @@
       <c r="O103" s="63"/>
       <c r="P103" s="63"/>
       <c r="Q103" s="63"/>
-      <c r="R103" s="199" t="s">
-        <v>455</v>
+      <c r="R103" s="191" t="s">
+        <v>454</v>
       </c>
       <c r="S103" s="63"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19">
       <c r="A104" s="58"/>
       <c r="B104" s="78"/>
       <c r="C104" s="32"/>
@@ -7574,17 +7593,17 @@
       </c>
       <c r="O104" s="69"/>
       <c r="P104" s="69"/>
-      <c r="Q104" s="69">
+      <c r="Q104" s="57">
         <v>1</v>
       </c>
-      <c r="R104" s="201" t="s">
-        <v>446</v>
-      </c>
-      <c r="S104" s="146" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R104" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S104" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="58"/>
       <c r="B105" s="78"/>
       <c r="C105" s="32"/>
@@ -7593,7 +7612,7 @@
         <v>195</v>
       </c>
       <c r="F105" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G105" s="178"/>
       <c r="H105" s="34"/>
@@ -7616,12 +7635,12 @@
       <c r="Q105" s="57">
         <v>1</v>
       </c>
-      <c r="R105" s="201" t="s">
-        <v>446</v>
+      <c r="R105" s="174" t="s">
+        <v>445</v>
       </c>
       <c r="S105" s="16"/>
     </row>
-    <row r="106" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="27">
       <c r="A106" s="58"/>
       <c r="B106" s="78"/>
       <c r="C106" s="32"/>
@@ -7653,12 +7672,12 @@
       <c r="Q106" s="57">
         <v>1</v>
       </c>
-      <c r="R106" s="201" t="s">
-        <v>446</v>
+      <c r="R106" s="174" t="s">
+        <v>445</v>
       </c>
       <c r="S106" s="16"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19">
       <c r="A107" s="58"/>
       <c r="B107" s="78"/>
       <c r="C107" s="32"/>
@@ -7692,12 +7711,12 @@
       <c r="Q107" s="57">
         <v>1</v>
       </c>
-      <c r="R107" s="201" t="s">
-        <v>446</v>
+      <c r="R107" s="174" t="s">
+        <v>445</v>
       </c>
       <c r="S107" s="16"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19">
       <c r="A108" s="58"/>
       <c r="B108" s="78"/>
       <c r="C108" s="32"/>
@@ -7729,12 +7748,12 @@
       <c r="Q108" s="57">
         <v>1</v>
       </c>
-      <c r="R108" s="201" t="s">
-        <v>446</v>
+      <c r="R108" s="174" t="s">
+        <v>445</v>
       </c>
       <c r="S108" s="16"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19">
       <c r="A109" s="58"/>
       <c r="B109" s="78"/>
       <c r="C109" s="32"/>
@@ -7766,12 +7785,12 @@
       <c r="Q109" s="57">
         <v>1</v>
       </c>
-      <c r="R109" s="201" t="s">
-        <v>446</v>
+      <c r="R109" s="174" t="s">
+        <v>445</v>
       </c>
       <c r="S109" s="16"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19">
       <c r="A110" s="58"/>
       <c r="B110" s="78"/>
       <c r="C110" s="32"/>
@@ -7803,12 +7822,12 @@
       <c r="Q110" s="57">
         <v>1</v>
       </c>
-      <c r="R110" s="201" t="s">
-        <v>446</v>
+      <c r="R110" s="174" t="s">
+        <v>445</v>
       </c>
       <c r="S110" s="16"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19">
       <c r="A111" s="58"/>
       <c r="B111" s="78"/>
       <c r="C111" s="32"/>
@@ -7840,12 +7859,12 @@
       <c r="Q111" s="57">
         <v>1</v>
       </c>
-      <c r="R111" s="201" t="s">
-        <v>446</v>
+      <c r="R111" s="174" t="s">
+        <v>445</v>
       </c>
       <c r="S111" s="16"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19">
       <c r="A112" s="58"/>
       <c r="B112" s="78"/>
       <c r="C112" s="32"/>
@@ -7877,12 +7896,12 @@
       <c r="Q112" s="57">
         <v>1</v>
       </c>
-      <c r="R112" s="201" t="s">
-        <v>446</v>
+      <c r="R112" s="174" t="s">
+        <v>445</v>
       </c>
       <c r="S112" s="16"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19">
       <c r="A113" s="58"/>
       <c r="B113" s="78"/>
       <c r="C113" s="32"/>
@@ -7916,10 +7935,14 @@
       <c r="Q113" s="57">
         <v>1</v>
       </c>
-      <c r="R113" s="57"/>
-      <c r="S113" s="16"/>
-    </row>
-    <row r="114" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="R113" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S113" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" ht="27">
       <c r="A114" s="58"/>
       <c r="B114" s="78"/>
       <c r="C114" s="32"/>
@@ -7951,10 +7974,14 @@
       <c r="Q114" s="57">
         <v>1</v>
       </c>
-      <c r="R114" s="57"/>
-      <c r="S114" s="16"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R114" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S114" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="58"/>
       <c r="B115" s="78"/>
       <c r="C115" s="32"/>
@@ -7988,10 +8015,12 @@
       <c r="Q115" s="57">
         <v>1</v>
       </c>
-      <c r="R115" s="57"/>
+      <c r="R115" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S115" s="16"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19">
       <c r="A116" s="58"/>
       <c r="B116" s="78"/>
       <c r="C116" s="32"/>
@@ -8023,10 +8052,12 @@
       <c r="Q116" s="57">
         <v>1</v>
       </c>
-      <c r="R116" s="57"/>
+      <c r="R116" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S116" s="16"/>
     </row>
-    <row r="117" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="27">
       <c r="A117" s="58"/>
       <c r="B117" s="78"/>
       <c r="C117" s="32"/>
@@ -8062,10 +8093,14 @@
       <c r="Q117" s="57">
         <v>1</v>
       </c>
-      <c r="R117" s="57"/>
-      <c r="S117" s="16"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R117" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S117" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="58"/>
       <c r="B118" s="78"/>
       <c r="C118" s="32"/>
@@ -8097,10 +8132,14 @@
       <c r="Q118" s="57">
         <v>1</v>
       </c>
-      <c r="R118" s="57"/>
-      <c r="S118" s="16"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R118" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S118" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="58"/>
       <c r="B119" s="78"/>
       <c r="C119" s="32"/>
@@ -8132,10 +8171,14 @@
       <c r="Q119" s="57">
         <v>1</v>
       </c>
-      <c r="R119" s="57"/>
-      <c r="S119" s="16"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R119" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S119" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="58"/>
       <c r="B120" s="78"/>
       <c r="C120" s="32"/>
@@ -8167,10 +8210,14 @@
       <c r="Q120" s="57">
         <v>1</v>
       </c>
-      <c r="R120" s="57"/>
-      <c r="S120" s="16"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R120" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S120" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="58"/>
       <c r="B121" s="78"/>
       <c r="C121" s="32"/>
@@ -8202,10 +8249,14 @@
       <c r="Q121" s="57">
         <v>1</v>
       </c>
-      <c r="R121" s="57"/>
-      <c r="S121" s="16"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R121" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S121" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="58"/>
       <c r="B122" s="78"/>
       <c r="C122" s="32"/>
@@ -8237,10 +8288,14 @@
       <c r="Q122" s="57">
         <v>1</v>
       </c>
-      <c r="R122" s="57"/>
-      <c r="S122" s="16"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R122" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S122" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="58"/>
       <c r="B123" s="78"/>
       <c r="C123" s="32"/>
@@ -8272,10 +8327,14 @@
       <c r="Q123" s="57">
         <v>1</v>
       </c>
-      <c r="R123" s="57"/>
-      <c r="S123" s="16"/>
-    </row>
-    <row r="124" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="R123" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S123" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" ht="27">
       <c r="A124" s="58"/>
       <c r="B124" s="78"/>
       <c r="C124" s="32"/>
@@ -8307,10 +8366,14 @@
       <c r="Q124" s="57">
         <v>1</v>
       </c>
-      <c r="R124" s="57"/>
-      <c r="S124" s="16"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R124" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S124" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="58"/>
       <c r="B125" s="78"/>
       <c r="C125" s="32"/>
@@ -8342,10 +8405,12 @@
       <c r="Q125" s="57">
         <v>1</v>
       </c>
-      <c r="R125" s="57"/>
+      <c r="R125" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S125" s="16"/>
     </row>
-    <row r="126" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="27">
       <c r="A126" s="58"/>
       <c r="B126" s="78"/>
       <c r="C126" s="32"/>
@@ -8375,10 +8440,12 @@
       <c r="Q126" s="57">
         <v>1</v>
       </c>
-      <c r="R126" s="57"/>
+      <c r="R126" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S126" s="16"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19">
       <c r="A127" s="58"/>
       <c r="B127" s="78"/>
       <c r="C127" s="32"/>
@@ -8410,10 +8477,12 @@
       <c r="Q127" s="57">
         <v>1</v>
       </c>
-      <c r="R127" s="57"/>
+      <c r="R127" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S127" s="16"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19">
       <c r="A128" s="58"/>
       <c r="B128" s="78"/>
       <c r="C128" s="32"/>
@@ -8447,10 +8516,14 @@
       <c r="Q128" s="57">
         <v>1</v>
       </c>
-      <c r="R128" s="102"/>
-      <c r="S128" s="104"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R128" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S128" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="58"/>
       <c r="B129" s="80"/>
       <c r="C129" s="12"/>
@@ -8482,10 +8555,14 @@
       <c r="Q129" s="57">
         <v>1</v>
       </c>
-      <c r="R129" s="69"/>
-      <c r="S129" s="20"/>
-    </row>
-    <row r="130" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="R129" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S129" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" ht="27">
       <c r="A130" s="58"/>
       <c r="B130" s="78"/>
       <c r="C130" s="31" t="s">
@@ -8505,10 +8582,12 @@
       <c r="O130" s="63"/>
       <c r="P130" s="63"/>
       <c r="Q130" s="63"/>
-      <c r="R130" s="63"/>
+      <c r="R130" s="202" t="s">
+        <v>460</v>
+      </c>
       <c r="S130" s="63"/>
     </row>
-    <row r="131" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="27">
       <c r="A131" s="58"/>
       <c r="B131" s="78"/>
       <c r="C131" s="32"/>
@@ -8539,13 +8618,15 @@
       </c>
       <c r="O131" s="71"/>
       <c r="P131" s="69"/>
-      <c r="Q131" s="69">
+      <c r="Q131" s="57">
         <v>1</v>
       </c>
-      <c r="R131" s="103"/>
-      <c r="S131" s="146"/>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R131" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S131" s="16"/>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="58"/>
       <c r="B132" s="78"/>
       <c r="C132" s="32"/>
@@ -8577,10 +8658,14 @@
       <c r="Q132" s="57">
         <v>1</v>
       </c>
-      <c r="R132" s="69"/>
-      <c r="S132" s="20"/>
-    </row>
-    <row r="133" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="R132" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S132" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" ht="27">
       <c r="A133" s="58"/>
       <c r="B133" s="78"/>
       <c r="C133" s="32"/>
@@ -8612,10 +8697,14 @@
       <c r="Q133" s="57">
         <v>1</v>
       </c>
-      <c r="R133" s="57"/>
-      <c r="S133" s="16"/>
-    </row>
-    <row r="134" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="R133" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S133" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" ht="27">
       <c r="A134" s="58"/>
       <c r="B134" s="78"/>
       <c r="C134" s="32"/>
@@ -8649,10 +8738,14 @@
       <c r="Q134" s="57">
         <v>1</v>
       </c>
-      <c r="R134" s="102"/>
-      <c r="S134" s="104"/>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R134" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S134" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="58"/>
       <c r="B135" s="78"/>
       <c r="C135" s="32"/>
@@ -8684,10 +8777,14 @@
       <c r="Q135" s="57">
         <v>1</v>
       </c>
-      <c r="R135" s="103"/>
-      <c r="S135" s="146"/>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R135" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S135" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="58"/>
       <c r="B136" s="78"/>
       <c r="C136" s="32"/>
@@ -8719,10 +8816,14 @@
       <c r="Q136" s="57">
         <v>1</v>
       </c>
-      <c r="R136" s="103"/>
-      <c r="S136" s="146"/>
-    </row>
-    <row r="137" spans="1:19" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R136" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S136" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" s="95" customFormat="1">
       <c r="A137" s="58"/>
       <c r="B137" s="85"/>
       <c r="C137" s="86"/>
@@ -8752,10 +8853,14 @@
       <c r="Q137" s="92">
         <v>1</v>
       </c>
-      <c r="R137" s="93"/>
-      <c r="S137" s="159"/>
-    </row>
-    <row r="138" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="R137" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S137" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" ht="27">
       <c r="A138" s="58"/>
       <c r="B138" s="78"/>
       <c r="C138" s="13" t="s">
@@ -8769,11 +8874,11 @@
       <c r="G138" s="178"/>
       <c r="H138" s="34"/>
       <c r="I138" s="15"/>
-      <c r="J138" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="K138" s="162" t="s">
-        <v>233</v>
+      <c r="J138" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="K138" s="69" t="s">
+        <v>280</v>
       </c>
       <c r="L138" s="69"/>
       <c r="M138" s="15" t="s">
@@ -8787,10 +8892,12 @@
       <c r="Q138" s="57">
         <v>1</v>
       </c>
-      <c r="R138" s="57"/>
-      <c r="S138" s="16"/>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R138" s="38"/>
+      <c r="S138" s="28" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="58"/>
       <c r="B139" s="78"/>
       <c r="C139" s="31" t="s">
@@ -8810,10 +8917,14 @@
       <c r="O139" s="63"/>
       <c r="P139" s="63"/>
       <c r="Q139" s="63"/>
-      <c r="R139" s="63"/>
-      <c r="S139" s="63"/>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R139" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S139" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="58"/>
       <c r="B140" s="78"/>
       <c r="C140" s="32"/>
@@ -8844,13 +8955,15 @@
       </c>
       <c r="O140" s="71"/>
       <c r="P140" s="69"/>
-      <c r="Q140" s="69">
+      <c r="Q140" s="57">
         <v>1</v>
       </c>
-      <c r="R140" s="69"/>
+      <c r="R140" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S140" s="16"/>
     </row>
-    <row r="141" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="27">
       <c r="A141" s="58"/>
       <c r="B141" s="78"/>
       <c r="C141" s="32"/>
@@ -8882,10 +8995,14 @@
       <c r="Q141" s="57">
         <v>1</v>
       </c>
-      <c r="R141" s="57"/>
-      <c r="S141" s="16"/>
-    </row>
-    <row r="142" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="R141" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S141" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" ht="27">
       <c r="A142" s="58"/>
       <c r="B142" s="78"/>
       <c r="C142" s="32"/>
@@ -8894,7 +9011,7 @@
         <v>195</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>315</v>
+        <v>461</v>
       </c>
       <c r="G142" s="178"/>
       <c r="H142" s="34"/>
@@ -8917,15 +9034,19 @@
       <c r="Q142" s="57">
         <v>1</v>
       </c>
-      <c r="R142" s="57"/>
-      <c r="S142" s="16"/>
-    </row>
-    <row r="143" spans="1:19" s="95" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="R142" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S142" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" s="95" customFormat="1">
       <c r="A143" s="96"/>
       <c r="B143" s="85"/>
       <c r="C143" s="86"/>
       <c r="D143" s="89" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E143" s="88"/>
       <c r="F143" s="89"/>
@@ -8945,7 +9066,7 @@
       <c r="R143" s="93"/>
       <c r="S143" s="159"/>
     </row>
-    <row r="144" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="40.5" customHeight="1">
       <c r="A144" s="58"/>
       <c r="B144" s="78"/>
       <c r="C144" s="12"/>
@@ -8971,14 +9092,20 @@
         <v>400377</v>
       </c>
       <c r="O144" s="36"/>
-      <c r="P144" s="69"/>
+      <c r="P144" s="69">
+        <v>400052</v>
+      </c>
       <c r="Q144" s="57">
         <v>1</v>
       </c>
-      <c r="R144" s="57"/>
-      <c r="S144" s="16"/>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R144" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S144" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="58"/>
       <c r="B145" s="78"/>
       <c r="C145" s="31" t="s">
@@ -9001,7 +9128,7 @@
       <c r="R145" s="166"/>
       <c r="S145" s="166"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19">
       <c r="A146" s="58"/>
       <c r="B146" s="78"/>
       <c r="C146" s="32"/>
@@ -9012,7 +9139,7 @@
         <v>195</v>
       </c>
       <c r="F146" s="71" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G146" s="184"/>
       <c r="H146" s="66"/>
@@ -9035,10 +9162,14 @@
       <c r="Q146" s="69">
         <v>1</v>
       </c>
-      <c r="R146" s="69"/>
-      <c r="S146" s="16"/>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R146" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S146" s="16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="58"/>
       <c r="B147" s="78"/>
       <c r="C147" s="32"/>
@@ -9047,7 +9178,7 @@
         <v>195</v>
       </c>
       <c r="F147" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G147" s="178"/>
       <c r="H147" s="34"/>
@@ -9070,10 +9201,14 @@
       <c r="Q147" s="57">
         <v>1</v>
       </c>
-      <c r="R147" s="57"/>
-      <c r="S147" s="16"/>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R147" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S147" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="58"/>
       <c r="B148" s="78"/>
       <c r="C148" s="32"/>
@@ -9082,7 +9217,7 @@
         <v>195</v>
       </c>
       <c r="F148" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G148" s="178"/>
       <c r="H148" s="34"/>
@@ -9105,10 +9240,14 @@
       <c r="Q148" s="57">
         <v>1</v>
       </c>
-      <c r="R148" s="57"/>
-      <c r="S148" s="16"/>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R148" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S148" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="58"/>
       <c r="B149" s="78"/>
       <c r="C149" s="32"/>
@@ -9117,7 +9256,7 @@
         <v>195</v>
       </c>
       <c r="F149" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G149" s="178"/>
       <c r="H149" s="34"/>
@@ -9140,10 +9279,14 @@
       <c r="Q149" s="57">
         <v>1</v>
       </c>
-      <c r="R149" s="57"/>
-      <c r="S149" s="16"/>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R149" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S149" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="58"/>
       <c r="B150" s="78"/>
       <c r="C150" s="32"/>
@@ -9152,7 +9295,7 @@
         <v>195</v>
       </c>
       <c r="F150" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G150" s="178"/>
       <c r="H150" s="34"/>
@@ -9175,10 +9318,14 @@
       <c r="Q150" s="57">
         <v>1</v>
       </c>
-      <c r="R150" s="57"/>
-      <c r="S150" s="16"/>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R150" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S150" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="58"/>
       <c r="B151" s="78"/>
       <c r="C151" s="32"/>
@@ -9189,7 +9336,7 @@
         <v>195</v>
       </c>
       <c r="F151" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G151" s="178"/>
       <c r="H151" s="34"/>
@@ -9212,10 +9359,14 @@
       <c r="Q151" s="57">
         <v>1</v>
       </c>
-      <c r="R151" s="57"/>
-      <c r="S151" s="16"/>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R151" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S151" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="58"/>
       <c r="B152" s="78"/>
       <c r="C152" s="32"/>
@@ -9224,7 +9375,7 @@
         <v>195</v>
       </c>
       <c r="F152" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G152" s="178"/>
       <c r="H152" s="34"/>
@@ -9247,10 +9398,10 @@
       <c r="Q152" s="57">
         <v>1</v>
       </c>
-      <c r="R152" s="57"/>
+      <c r="R152" s="174"/>
       <c r="S152" s="16"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19">
       <c r="A153" s="58"/>
       <c r="B153" s="78"/>
       <c r="C153" s="32"/>
@@ -9259,7 +9410,7 @@
         <v>195</v>
       </c>
       <c r="F153" s="36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G153" s="178"/>
       <c r="H153" s="34"/>
@@ -9282,10 +9433,14 @@
       <c r="Q153" s="57">
         <v>1</v>
       </c>
-      <c r="R153" s="57"/>
-      <c r="S153" s="16"/>
-    </row>
-    <row r="154" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+      <c r="R153" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S153" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" ht="27">
       <c r="A154" s="58"/>
       <c r="B154" s="78"/>
       <c r="C154" s="32"/>
@@ -9294,7 +9449,7 @@
         <v>195</v>
       </c>
       <c r="F154" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G154" s="178"/>
       <c r="H154" s="34"/>
@@ -9317,10 +9472,14 @@
       <c r="Q154" s="57">
         <v>1</v>
       </c>
-      <c r="R154" s="57"/>
-      <c r="S154" s="16"/>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R154" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S154" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="58"/>
       <c r="B155" s="78"/>
       <c r="C155" s="32"/>
@@ -9329,7 +9488,7 @@
         <v>195</v>
       </c>
       <c r="F155" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G155" s="178"/>
       <c r="H155" s="34"/>
@@ -9355,7 +9514,7 @@
       <c r="R155" s="57"/>
       <c r="S155" s="16"/>
     </row>
-    <row r="156" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="27">
       <c r="A156" s="58"/>
       <c r="B156" s="78"/>
       <c r="C156" s="32"/>
@@ -9366,7 +9525,7 @@
         <v>195</v>
       </c>
       <c r="F156" s="36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G156" s="178"/>
       <c r="H156" s="34"/>
@@ -9392,7 +9551,7 @@
       <c r="R156" s="57"/>
       <c r="S156" s="16"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19">
       <c r="A157" s="58"/>
       <c r="B157" s="78"/>
       <c r="C157" s="32"/>
@@ -9401,7 +9560,7 @@
         <v>195</v>
       </c>
       <c r="F157" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G157" s="178"/>
       <c r="H157" s="34"/>
@@ -9427,7 +9586,7 @@
       <c r="R157" s="57"/>
       <c r="S157" s="16"/>
     </row>
-    <row r="158" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="27">
       <c r="A158" s="58"/>
       <c r="B158" s="78"/>
       <c r="C158" s="32"/>
@@ -9436,7 +9595,7 @@
         <v>195</v>
       </c>
       <c r="F158" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G158" s="178"/>
       <c r="H158" s="34"/>
@@ -9462,7 +9621,7 @@
       <c r="R158" s="57"/>
       <c r="S158" s="16"/>
     </row>
-    <row r="159" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="27">
       <c r="A159" s="58"/>
       <c r="B159" s="78"/>
       <c r="C159" s="32"/>
@@ -9471,7 +9630,7 @@
         <v>195</v>
       </c>
       <c r="F159" s="36" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G159" s="178"/>
       <c r="H159" s="34"/>
@@ -9497,7 +9656,7 @@
       <c r="R159" s="57"/>
       <c r="S159" s="16"/>
     </row>
-    <row r="160" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="27">
       <c r="A160" s="58"/>
       <c r="B160" s="78"/>
       <c r="C160" s="32"/>
@@ -9506,7 +9665,7 @@
         <v>195</v>
       </c>
       <c r="F160" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G160" s="178"/>
       <c r="H160" s="34"/>
@@ -9532,7 +9691,7 @@
       <c r="R160" s="57"/>
       <c r="S160" s="16"/>
     </row>
-    <row r="161" spans="1:20" ht="27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" ht="27">
       <c r="A161" s="58"/>
       <c r="B161" s="78"/>
       <c r="C161" s="12"/>
@@ -9541,19 +9700,19 @@
         <v>195</v>
       </c>
       <c r="F161" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G161" s="178"/>
       <c r="H161" s="34"/>
       <c r="I161" s="13"/>
       <c r="J161" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K161" s="72" t="s">
         <v>280</v>
       </c>
       <c r="L161" s="74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M161" s="22" t="s">
         <v>187</v>
@@ -9562,7 +9721,7 @@
         <v>400416</v>
       </c>
       <c r="O161" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P161" s="74"/>
       <c r="Q161" s="72">
@@ -9571,7 +9730,7 @@
       <c r="R161" s="74"/>
       <c r="S161" s="83"/>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20">
       <c r="A162" s="58"/>
       <c r="B162" s="78"/>
       <c r="C162" s="31" t="s">
@@ -9594,12 +9753,12 @@
       <c r="R162" s="63"/>
       <c r="S162" s="63"/>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20">
       <c r="A163" s="58"/>
       <c r="B163" s="78"/>
       <c r="C163" s="32"/>
       <c r="D163" s="71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E163" s="33"/>
       <c r="F163" s="71"/>
@@ -9632,12 +9791,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="164" spans="1:20" ht="27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" ht="27">
       <c r="A164" s="58"/>
       <c r="B164" s="78"/>
       <c r="C164" s="32"/>
       <c r="D164" s="71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E164" s="33"/>
       <c r="F164" s="71"/>
@@ -9659,12 +9818,12 @@
       <c r="R164" s="69"/>
       <c r="S164" s="16"/>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20">
       <c r="A165" s="58"/>
       <c r="B165" s="78"/>
       <c r="C165" s="32"/>
       <c r="D165" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E165" s="33"/>
       <c r="F165" s="36"/>
@@ -9690,12 +9849,12 @@
       <c r="R165" s="57"/>
       <c r="S165" s="16"/>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20">
       <c r="A166" s="58"/>
       <c r="B166" s="78"/>
       <c r="C166" s="32"/>
       <c r="D166" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E166" s="33"/>
       <c r="F166" s="100"/>
@@ -9717,12 +9876,12 @@
       <c r="R166" s="102"/>
       <c r="S166" s="16"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20">
       <c r="A167" s="58"/>
       <c r="B167" s="78"/>
       <c r="C167" s="32"/>
       <c r="D167" s="100" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E167" s="33"/>
       <c r="F167" s="100"/>
@@ -9748,7 +9907,7 @@
       <c r="R167" s="102"/>
       <c r="S167" s="16"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20">
       <c r="A168" s="58"/>
       <c r="B168" s="79" t="s">
         <v>95</v>
@@ -9771,7 +9930,7 @@
       <c r="R168" s="63"/>
       <c r="S168" s="63"/>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20">
       <c r="A169" s="58"/>
       <c r="B169" s="78"/>
       <c r="C169" s="32" t="s">
@@ -9794,15 +9953,15 @@
       <c r="R169" s="63"/>
       <c r="S169" s="63"/>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20">
       <c r="A170" s="58"/>
       <c r="B170" s="78"/>
       <c r="C170" s="32"/>
       <c r="D170" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E170" s="105" t="s">
         <v>341</v>
-      </c>
-      <c r="E170" s="105" t="s">
-        <v>342</v>
       </c>
       <c r="F170" s="71" t="s">
         <v>56</v>
@@ -9810,7 +9969,7 @@
       <c r="G170" s="184"/>
       <c r="H170" s="66"/>
       <c r="I170" s="70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J170" s="103" t="s">
         <v>279</v>
@@ -9819,7 +9978,7 @@
         <v>280</v>
       </c>
       <c r="L170" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M170" s="70" t="s">
         <v>187</v>
@@ -9828,7 +9987,7 @@
         <v>400022</v>
       </c>
       <c r="O170" s="69" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="P170" s="69"/>
       <c r="Q170" s="69">
@@ -9837,13 +9996,13 @@
       <c r="R170" s="69"/>
       <c r="S170" s="16"/>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20">
       <c r="A171" s="58"/>
       <c r="B171" s="78"/>
       <c r="C171" s="32"/>
       <c r="D171" s="12"/>
       <c r="E171" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F171" s="36" t="s">
         <v>97</v>
@@ -9851,7 +10010,7 @@
       <c r="G171" s="178"/>
       <c r="H171" s="34"/>
       <c r="I171" s="106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J171" s="102" t="s">
         <v>279</v>
@@ -9860,7 +10019,7 @@
         <v>280</v>
       </c>
       <c r="L171" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M171" s="15" t="s">
         <v>187</v>
@@ -9869,7 +10028,7 @@
         <v>400069</v>
       </c>
       <c r="O171" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P171" s="69"/>
       <c r="Q171" s="57">
@@ -9878,7 +10037,7 @@
       <c r="R171" s="57"/>
       <c r="S171" s="16"/>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20">
       <c r="A172" s="58"/>
       <c r="B172" s="78"/>
       <c r="C172" s="32"/>
@@ -9886,13 +10045,13 @@
         <v>55</v>
       </c>
       <c r="E172" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F172" s="36"/>
       <c r="G172" s="178"/>
       <c r="H172" s="34"/>
       <c r="I172" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J172" s="102" t="s">
         <v>279</v>
@@ -9901,7 +10060,7 @@
         <v>280</v>
       </c>
       <c r="L172" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M172" s="15" t="s">
         <v>187</v>
@@ -9910,7 +10069,7 @@
         <v>400021</v>
       </c>
       <c r="O172" s="57" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="P172" s="69"/>
       <c r="Q172" s="57">
@@ -9919,7 +10078,7 @@
       <c r="R172" s="57"/>
       <c r="S172" s="16"/>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20">
       <c r="A173" s="58"/>
       <c r="B173" s="78"/>
       <c r="C173" s="32"/>
@@ -9927,13 +10086,13 @@
         <v>98</v>
       </c>
       <c r="E173" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F173" s="100"/>
       <c r="G173" s="186"/>
       <c r="H173" s="101"/>
       <c r="I173" s="107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J173" s="102" t="s">
         <v>279</v>
@@ -9942,7 +10101,7 @@
         <v>280</v>
       </c>
       <c r="L173" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M173" s="99" t="s">
         <v>187</v>
@@ -9951,7 +10110,7 @@
         <v>400075</v>
       </c>
       <c r="O173" s="102" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P173" s="103"/>
       <c r="Q173" s="102">
@@ -9960,11 +10119,11 @@
       <c r="R173" s="102"/>
       <c r="S173" s="16"/>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20">
       <c r="A174" s="58"/>
       <c r="B174" s="78"/>
       <c r="C174" s="31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D174" s="63"/>
       <c r="E174" s="105"/>
@@ -9983,7 +10142,7 @@
       <c r="R174" s="166"/>
       <c r="S174" s="166"/>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20">
       <c r="A175" s="58"/>
       <c r="B175" s="78"/>
       <c r="C175" s="32"/>
@@ -9991,13 +10150,13 @@
         <v>57</v>
       </c>
       <c r="E175" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F175" s="71"/>
       <c r="G175" s="184"/>
       <c r="H175" s="66"/>
       <c r="I175" s="70" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J175" s="103" t="s">
         <v>279</v>
@@ -10006,7 +10165,7 @@
         <v>280</v>
       </c>
       <c r="L175" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M175" s="70" t="s">
         <v>187</v>
@@ -10015,7 +10174,7 @@
         <v>400403</v>
       </c>
       <c r="O175" s="69" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P175" s="69"/>
       <c r="Q175" s="69">
@@ -10024,7 +10183,7 @@
       <c r="R175" s="69"/>
       <c r="S175" s="20"/>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20">
       <c r="A176" s="58"/>
       <c r="B176" s="78"/>
       <c r="C176" s="12"/>
@@ -10032,13 +10191,13 @@
         <v>97</v>
       </c>
       <c r="E176" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F176" s="100"/>
       <c r="G176" s="186"/>
       <c r="H176" s="101"/>
       <c r="I176" s="107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J176" s="102" t="s">
         <v>279</v>
@@ -10047,7 +10206,7 @@
         <v>280</v>
       </c>
       <c r="L176" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M176" s="99" t="s">
         <v>187</v>
@@ -10056,7 +10215,7 @@
         <v>400077</v>
       </c>
       <c r="O176" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P176" s="103"/>
       <c r="Q176" s="102">
@@ -10065,15 +10224,15 @@
       <c r="R176" s="102"/>
       <c r="S176" s="104"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19">
       <c r="A177" s="58"/>
       <c r="B177" s="78"/>
       <c r="C177" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D177" s="63"/>
       <c r="E177" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F177" s="63"/>
       <c r="G177" s="180"/>
@@ -10090,7 +10249,7 @@
       <c r="R177" s="63"/>
       <c r="S177" s="63"/>
     </row>
-    <row r="178" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="27">
       <c r="A178" s="58"/>
       <c r="B178" s="78"/>
       <c r="C178" s="32"/>
@@ -10098,13 +10257,13 @@
         <v>99</v>
       </c>
       <c r="E178" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F178" s="71"/>
       <c r="G178" s="184"/>
       <c r="H178" s="66"/>
       <c r="I178" s="108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J178" s="103" t="s">
         <v>279</v>
@@ -10113,7 +10272,7 @@
         <v>280</v>
       </c>
       <c r="L178" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M178" s="70" t="s">
         <v>187</v>
@@ -10129,7 +10288,7 @@
       <c r="R178" s="69"/>
       <c r="S178" s="20"/>
     </row>
-    <row r="179" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="27">
       <c r="A179" s="58"/>
       <c r="B179" s="78"/>
       <c r="C179" s="12"/>
@@ -10137,13 +10296,13 @@
         <v>100</v>
       </c>
       <c r="E179" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F179" s="36"/>
       <c r="G179" s="178"/>
       <c r="H179" s="34"/>
       <c r="I179" s="106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J179" s="102" t="s">
         <v>279</v>
@@ -10152,16 +10311,16 @@
         <v>280</v>
       </c>
       <c r="L179" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M179" s="17" t="s">
         <v>154</v>
       </c>
       <c r="N179" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="O179" s="84" t="s">
         <v>354</v>
-      </c>
-      <c r="O179" s="84" t="s">
-        <v>355</v>
       </c>
       <c r="P179" s="69"/>
       <c r="Q179" s="57">
@@ -10169,10 +10328,10 @@
       </c>
       <c r="R179" s="57"/>
       <c r="S179" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="58"/>
       <c r="B180" s="78"/>
       <c r="C180" s="13" t="s">
@@ -10180,13 +10339,13 @@
       </c>
       <c r="D180" s="31"/>
       <c r="E180" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F180" s="100"/>
       <c r="G180" s="186"/>
       <c r="H180" s="109"/>
       <c r="I180" s="107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J180" s="102" t="s">
         <v>279</v>
@@ -10195,7 +10354,7 @@
         <v>280</v>
       </c>
       <c r="L180" s="103" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M180" s="99" t="s">
         <v>187</v>
@@ -10204,7 +10363,7 @@
         <v>400074</v>
       </c>
       <c r="O180" s="102" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P180" s="104"/>
       <c r="Q180" s="102">
@@ -10213,7 +10372,7 @@
       <c r="R180" s="102"/>
       <c r="S180" s="104"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19">
       <c r="A181" s="58"/>
       <c r="B181" s="78"/>
       <c r="C181" s="31" t="s">
@@ -10221,7 +10380,7 @@
       </c>
       <c r="D181" s="63"/>
       <c r="E181" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F181" s="63"/>
       <c r="G181" s="180"/>
@@ -10238,7 +10397,7 @@
       <c r="R181" s="63"/>
       <c r="S181" s="63"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19">
       <c r="A182" s="58"/>
       <c r="B182" s="78"/>
       <c r="C182" s="32"/>
@@ -10246,13 +10405,13 @@
         <v>102</v>
       </c>
       <c r="E182" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F182" s="71"/>
       <c r="G182" s="184"/>
       <c r="H182" s="110"/>
       <c r="I182" s="108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J182" s="103" t="s">
         <v>279</v>
@@ -10261,7 +10420,7 @@
         <v>280</v>
       </c>
       <c r="L182" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M182" s="70" t="s">
         <v>187</v>
@@ -10270,7 +10429,7 @@
         <v>400409</v>
       </c>
       <c r="O182" s="20" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P182" s="20"/>
       <c r="Q182" s="69">
@@ -10279,7 +10438,7 @@
       <c r="R182" s="69"/>
       <c r="S182" s="20"/>
     </row>
-    <row r="183" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="27">
       <c r="A183" s="58"/>
       <c r="B183" s="78"/>
       <c r="C183" s="32"/>
@@ -10287,13 +10446,13 @@
         <v>24</v>
       </c>
       <c r="E183" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F183" s="13"/>
       <c r="G183" s="178"/>
       <c r="H183" s="82"/>
       <c r="I183" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J183" s="111" t="s">
         <v>279</v>
@@ -10302,7 +10461,7 @@
         <v>280</v>
       </c>
       <c r="L183" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M183" s="22" t="s">
         <v>187</v>
@@ -10311,7 +10470,7 @@
         <v>400067</v>
       </c>
       <c r="O183" s="72" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P183" s="73"/>
       <c r="Q183" s="72">
@@ -10320,7 +10479,7 @@
       <c r="R183" s="72"/>
       <c r="S183" s="73"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19">
       <c r="A184" s="58"/>
       <c r="B184" s="78"/>
       <c r="C184" s="32"/>
@@ -10328,13 +10487,13 @@
         <v>150</v>
       </c>
       <c r="E184" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F184" s="36"/>
       <c r="G184" s="178"/>
       <c r="H184" s="82"/>
       <c r="I184" s="112" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J184" s="113" t="s">
         <v>279</v>
@@ -10343,7 +10502,7 @@
         <v>280</v>
       </c>
       <c r="L184" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M184" s="56" t="s">
         <v>187</v>
@@ -10352,7 +10511,7 @@
         <v>400218</v>
       </c>
       <c r="O184" s="55" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P184" s="16"/>
       <c r="Q184" s="57">
@@ -10361,7 +10520,7 @@
       <c r="R184" s="57"/>
       <c r="S184" s="16"/>
     </row>
-    <row r="185" spans="1:19" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" s="81" customFormat="1" ht="45" customHeight="1">
       <c r="A185" s="114"/>
       <c r="B185" s="115"/>
       <c r="C185" s="116"/>
@@ -10369,13 +10528,13 @@
         <v>151</v>
       </c>
       <c r="E185" s="117" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F185" s="14"/>
       <c r="G185" s="186"/>
       <c r="H185" s="118"/>
       <c r="I185" s="119" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J185" s="120" t="s">
         <v>279</v>
@@ -10384,7 +10543,7 @@
         <v>280</v>
       </c>
       <c r="L185" s="121" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M185" s="122" t="s">
         <v>181</v>
@@ -10398,7 +10557,7 @@
       <c r="R185" s="120"/>
       <c r="S185" s="123"/>
     </row>
-    <row r="186" spans="1:19" s="81" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" s="81" customFormat="1" ht="40.5">
       <c r="A186" s="114"/>
       <c r="B186" s="115"/>
       <c r="C186" s="116"/>
@@ -10407,12 +10566,12 @@
         <v>260</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G186" s="186"/>
       <c r="H186" s="118"/>
       <c r="I186" s="119" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J186" s="120" t="s">
         <v>279</v>
@@ -10421,7 +10580,7 @@
         <v>280</v>
       </c>
       <c r="L186" s="121" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M186" s="122" t="s">
         <v>181</v>
@@ -10435,7 +10594,7 @@
       <c r="R186" s="120"/>
       <c r="S186" s="123"/>
     </row>
-    <row r="187" spans="1:19" s="81" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" s="81" customFormat="1" ht="40.5">
       <c r="A187" s="114"/>
       <c r="B187" s="115"/>
       <c r="C187" s="116"/>
@@ -10444,12 +10603,12 @@
         <v>260</v>
       </c>
       <c r="F187" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G187" s="186"/>
       <c r="H187" s="118"/>
       <c r="I187" s="119" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J187" s="120" t="s">
         <v>279</v>
@@ -10458,7 +10617,7 @@
         <v>280</v>
       </c>
       <c r="L187" s="121" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M187" s="122" t="s">
         <v>181</v>
@@ -10472,7 +10631,7 @@
       <c r="R187" s="120"/>
       <c r="S187" s="123"/>
     </row>
-    <row r="188" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="27">
       <c r="A188" s="58"/>
       <c r="B188" s="78"/>
       <c r="C188" s="12"/>
@@ -10480,13 +10639,13 @@
         <v>103</v>
       </c>
       <c r="E188" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F188" s="100"/>
       <c r="G188" s="186"/>
       <c r="H188" s="125"/>
       <c r="I188" s="126" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J188" s="113" t="s">
         <v>279</v>
@@ -10495,16 +10654,16 @@
         <v>280</v>
       </c>
       <c r="L188" s="127" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M188" s="128" t="s">
         <v>187</v>
       </c>
       <c r="N188" s="128" t="s">
+        <v>360</v>
+      </c>
+      <c r="O188" s="113" t="s">
         <v>361</v>
-      </c>
-      <c r="O188" s="113" t="s">
-        <v>362</v>
       </c>
       <c r="P188" s="104"/>
       <c r="Q188" s="102">
@@ -10513,15 +10672,15 @@
       <c r="R188" s="102"/>
       <c r="S188" s="104"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19">
       <c r="A189" s="58"/>
       <c r="B189" s="78"/>
       <c r="C189" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D189" s="63"/>
       <c r="E189" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F189" s="63"/>
       <c r="G189" s="180"/>
@@ -10538,7 +10697,7 @@
       <c r="R189" s="63"/>
       <c r="S189" s="63"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19">
       <c r="A190" s="58"/>
       <c r="B190" s="78"/>
       <c r="C190" s="32"/>
@@ -10546,13 +10705,13 @@
         <v>73</v>
       </c>
       <c r="E190" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F190" s="71"/>
       <c r="G190" s="184"/>
       <c r="H190" s="129"/>
       <c r="I190" s="130" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J190" s="127" t="s">
         <v>279</v>
@@ -10561,7 +10720,7 @@
         <v>280</v>
       </c>
       <c r="L190" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M190" s="67" t="s">
         <v>187</v>
@@ -10570,7 +10729,7 @@
         <v>400221</v>
       </c>
       <c r="O190" s="131" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P190" s="20"/>
       <c r="Q190" s="69">
@@ -10579,7 +10738,7 @@
       <c r="R190" s="69"/>
       <c r="S190" s="20"/>
     </row>
-    <row r="191" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="27">
       <c r="A191" s="58"/>
       <c r="B191" s="78"/>
       <c r="C191" s="32"/>
@@ -10587,13 +10746,13 @@
         <v>104</v>
       </c>
       <c r="E191" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F191" s="36"/>
       <c r="G191" s="178"/>
       <c r="H191" s="82"/>
       <c r="I191" s="56" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J191" s="113" t="s">
         <v>279</v>
@@ -10602,16 +10761,16 @@
         <v>280</v>
       </c>
       <c r="L191" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M191" s="56" t="s">
         <v>187</v>
       </c>
       <c r="N191" s="56" t="s">
+        <v>364</v>
+      </c>
+      <c r="O191" s="55" t="s">
         <v>365</v>
-      </c>
-      <c r="O191" s="55" t="s">
-        <v>366</v>
       </c>
       <c r="P191" s="16"/>
       <c r="Q191" s="57">
@@ -10620,7 +10779,7 @@
       <c r="R191" s="57"/>
       <c r="S191" s="16"/>
     </row>
-    <row r="192" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="27">
       <c r="A192" s="58"/>
       <c r="B192" s="78"/>
       <c r="C192" s="32"/>
@@ -10628,13 +10787,13 @@
         <v>72</v>
       </c>
       <c r="E192" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F192" s="36"/>
       <c r="G192" s="178"/>
       <c r="H192" s="82"/>
       <c r="I192" s="56" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J192" s="113" t="s">
         <v>279</v>
@@ -10643,16 +10802,16 @@
         <v>280</v>
       </c>
       <c r="L192" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M192" s="56" t="s">
         <v>187</v>
       </c>
       <c r="N192" s="56" t="s">
+        <v>366</v>
+      </c>
+      <c r="O192" s="55" t="s">
         <v>367</v>
-      </c>
-      <c r="O192" s="55" t="s">
-        <v>368</v>
       </c>
       <c r="P192" s="16"/>
       <c r="Q192" s="57">
@@ -10661,7 +10820,7 @@
       <c r="R192" s="57"/>
       <c r="S192" s="16"/>
     </row>
-    <row r="193" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="27">
       <c r="A193" s="58"/>
       <c r="B193" s="78"/>
       <c r="C193" s="32"/>
@@ -10669,13 +10828,13 @@
         <v>105</v>
       </c>
       <c r="E193" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F193" s="36"/>
       <c r="G193" s="178"/>
       <c r="H193" s="132"/>
       <c r="I193" s="112" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J193" s="113" t="s">
         <v>279</v>
@@ -10684,16 +10843,16 @@
         <v>280</v>
       </c>
       <c r="L193" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M193" s="56" t="s">
         <v>187</v>
       </c>
       <c r="N193" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="O193" s="55" t="s">
         <v>369</v>
-      </c>
-      <c r="O193" s="55" t="s">
-        <v>370</v>
       </c>
       <c r="P193" s="16"/>
       <c r="Q193" s="57">
@@ -10702,7 +10861,7 @@
       <c r="R193" s="57"/>
       <c r="S193" s="16"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19">
       <c r="A194" s="58"/>
       <c r="B194" s="78"/>
       <c r="C194" s="32"/>
@@ -10710,13 +10869,13 @@
         <v>69</v>
       </c>
       <c r="E194" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F194" s="36"/>
       <c r="G194" s="178"/>
       <c r="H194" s="132"/>
       <c r="I194" s="106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J194" s="102" t="s">
         <v>279</v>
@@ -10725,7 +10884,7 @@
         <v>280</v>
       </c>
       <c r="L194" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M194" s="15" t="s">
         <v>187</v>
@@ -10734,7 +10893,7 @@
         <v>400413</v>
       </c>
       <c r="O194" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="P194" s="16"/>
       <c r="Q194" s="57">
@@ -10743,7 +10902,7 @@
       <c r="R194" s="57"/>
       <c r="S194" s="16"/>
     </row>
-    <row r="195" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="27">
       <c r="A195" s="58"/>
       <c r="B195" s="78"/>
       <c r="C195" s="32"/>
@@ -10751,13 +10910,13 @@
         <v>71</v>
       </c>
       <c r="E195" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F195" s="36"/>
       <c r="G195" s="178"/>
       <c r="H195" s="132"/>
       <c r="I195" s="112" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J195" s="113" t="s">
         <v>279</v>
@@ -10766,7 +10925,7 @@
         <v>280</v>
       </c>
       <c r="L195" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M195" s="56" t="s">
         <v>187</v>
@@ -10775,7 +10934,7 @@
         <v>400217</v>
       </c>
       <c r="O195" s="55" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P195" s="16"/>
       <c r="Q195" s="57">
@@ -10784,7 +10943,7 @@
       <c r="R195" s="57"/>
       <c r="S195" s="16"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19">
       <c r="A196" s="58"/>
       <c r="B196" s="78"/>
       <c r="C196" s="32"/>
@@ -10792,13 +10951,13 @@
         <v>74</v>
       </c>
       <c r="E196" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F196" s="36"/>
       <c r="G196" s="178"/>
       <c r="H196" s="132"/>
       <c r="I196" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J196" s="111" t="s">
         <v>279</v>
@@ -10807,7 +10966,7 @@
         <v>280</v>
       </c>
       <c r="L196" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M196" s="133" t="s">
         <v>187</v>
@@ -10816,7 +10975,7 @@
         <v>400222</v>
       </c>
       <c r="O196" s="72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P196" s="16"/>
       <c r="Q196" s="57">
@@ -10825,7 +10984,7 @@
       <c r="R196" s="57"/>
       <c r="S196" s="16"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19">
       <c r="A197" s="58"/>
       <c r="B197" s="78"/>
       <c r="C197" s="32"/>
@@ -10833,7 +10992,7 @@
         <v>106</v>
       </c>
       <c r="E197" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F197" s="36" t="s">
         <v>107</v>
@@ -10841,7 +11000,7 @@
       <c r="G197" s="178"/>
       <c r="H197" s="132"/>
       <c r="I197" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J197" s="111" t="s">
         <v>279</v>
@@ -10850,7 +11009,7 @@
         <v>280</v>
       </c>
       <c r="L197" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M197" s="133" t="s">
         <v>187</v>
@@ -10859,7 +11018,7 @@
         <v>400214</v>
       </c>
       <c r="O197" s="134" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P197" s="16"/>
       <c r="Q197" s="57">
@@ -10868,13 +11027,13 @@
       <c r="R197" s="57"/>
       <c r="S197" s="16"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19">
       <c r="A198" s="58"/>
       <c r="B198" s="78"/>
       <c r="C198" s="32"/>
       <c r="D198" s="32"/>
       <c r="E198" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F198" s="36" t="s">
         <v>108</v>
@@ -10882,7 +11041,7 @@
       <c r="G198" s="178"/>
       <c r="H198" s="132"/>
       <c r="I198" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J198" s="111" t="s">
         <v>279</v>
@@ -10891,7 +11050,7 @@
         <v>280</v>
       </c>
       <c r="L198" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M198" s="133" t="s">
         <v>187</v>
@@ -10900,7 +11059,7 @@
         <v>400382</v>
       </c>
       <c r="O198" s="72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P198" s="16"/>
       <c r="Q198" s="57">
@@ -10909,21 +11068,21 @@
       <c r="R198" s="57"/>
       <c r="S198" s="16"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19">
       <c r="A199" s="58"/>
       <c r="B199" s="78"/>
       <c r="C199" s="12"/>
       <c r="D199" s="32"/>
       <c r="E199" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F199" s="100" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G199" s="186"/>
       <c r="H199" s="109"/>
       <c r="I199" s="135" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J199" s="111" t="s">
         <v>279</v>
@@ -10932,7 +11091,7 @@
         <v>280</v>
       </c>
       <c r="L199" s="136" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M199" s="137" t="s">
         <v>187</v>
@@ -10941,7 +11100,7 @@
         <v>400216</v>
       </c>
       <c r="O199" s="111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="P199" s="104"/>
       <c r="Q199" s="102">
@@ -10950,15 +11109,15 @@
       <c r="R199" s="102"/>
       <c r="S199" s="104"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19">
       <c r="A200" s="58"/>
       <c r="B200" s="78"/>
       <c r="C200" s="31" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D200" s="63"/>
       <c r="E200" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F200" s="63"/>
       <c r="G200" s="180"/>
@@ -10975,7 +11134,7 @@
       <c r="R200" s="63"/>
       <c r="S200" s="63"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19">
       <c r="A201" s="58"/>
       <c r="B201" s="78"/>
       <c r="C201" s="32"/>
@@ -10983,13 +11142,13 @@
         <v>109</v>
       </c>
       <c r="E201" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F201" s="71"/>
       <c r="G201" s="184"/>
       <c r="H201" s="110"/>
       <c r="I201" s="105" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J201" s="136" t="s">
         <v>279</v>
@@ -10998,7 +11157,7 @@
         <v>280</v>
       </c>
       <c r="L201" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M201" s="138" t="s">
         <v>187</v>
@@ -11007,7 +11166,7 @@
         <v>400224</v>
       </c>
       <c r="O201" s="139" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P201" s="20"/>
       <c r="Q201" s="69">
@@ -11016,7 +11175,7 @@
       <c r="R201" s="69"/>
       <c r="S201" s="20"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19">
       <c r="A202" s="58"/>
       <c r="B202" s="78"/>
       <c r="C202" s="32"/>
@@ -11024,13 +11183,13 @@
         <v>25</v>
       </c>
       <c r="E202" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F202" s="36"/>
       <c r="G202" s="178"/>
       <c r="H202" s="132"/>
       <c r="I202" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J202" s="111" t="s">
         <v>279</v>
@@ -11039,7 +11198,7 @@
         <v>280</v>
       </c>
       <c r="L202" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M202" s="133" t="s">
         <v>187</v>
@@ -11048,7 +11207,7 @@
         <v>400225</v>
       </c>
       <c r="O202" s="72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P202" s="16"/>
       <c r="Q202" s="57">
@@ -11057,7 +11216,7 @@
       <c r="R202" s="57"/>
       <c r="S202" s="16"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19">
       <c r="A203" s="58"/>
       <c r="B203" s="78"/>
       <c r="C203" s="32"/>
@@ -11065,13 +11224,13 @@
         <v>5</v>
       </c>
       <c r="E203" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F203" s="36"/>
       <c r="G203" s="178"/>
       <c r="H203" s="132"/>
       <c r="I203" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J203" s="111" t="s">
         <v>279</v>
@@ -11080,7 +11239,7 @@
         <v>280</v>
       </c>
       <c r="L203" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M203" s="133" t="s">
         <v>187</v>
@@ -11089,7 +11248,7 @@
         <v>400226</v>
       </c>
       <c r="O203" s="72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P203" s="16"/>
       <c r="Q203" s="57">
@@ -11098,7 +11257,7 @@
       <c r="R203" s="57"/>
       <c r="S203" s="16"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19">
       <c r="A204" s="58"/>
       <c r="B204" s="78"/>
       <c r="C204" s="32"/>
@@ -11106,13 +11265,13 @@
         <v>26</v>
       </c>
       <c r="E204" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F204" s="36"/>
       <c r="G204" s="178"/>
       <c r="H204" s="132"/>
       <c r="I204" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J204" s="111" t="s">
         <v>279</v>
@@ -11121,7 +11280,7 @@
         <v>280</v>
       </c>
       <c r="L204" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M204" s="133" t="s">
         <v>187</v>
@@ -11130,7 +11289,7 @@
         <v>400227</v>
       </c>
       <c r="O204" s="72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P204" s="16"/>
       <c r="Q204" s="57">
@@ -11139,7 +11298,7 @@
       <c r="R204" s="57"/>
       <c r="S204" s="16"/>
     </row>
-    <row r="205" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="27">
       <c r="A205" s="58"/>
       <c r="B205" s="78"/>
       <c r="C205" s="32"/>
@@ -11147,13 +11306,13 @@
         <v>27</v>
       </c>
       <c r="E205" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F205" s="36"/>
       <c r="G205" s="178"/>
       <c r="H205" s="132"/>
       <c r="I205" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J205" s="111" t="s">
         <v>279</v>
@@ -11162,7 +11321,7 @@
         <v>280</v>
       </c>
       <c r="L205" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M205" s="133" t="s">
         <v>187</v>
@@ -11171,7 +11330,7 @@
         <v>400228</v>
       </c>
       <c r="O205" s="72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P205" s="16"/>
       <c r="Q205" s="57">
@@ -11180,7 +11339,7 @@
       <c r="R205" s="57"/>
       <c r="S205" s="16"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19">
       <c r="A206" s="58"/>
       <c r="B206" s="78"/>
       <c r="C206" s="32"/>
@@ -11188,13 +11347,13 @@
         <v>110</v>
       </c>
       <c r="E206" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F206" s="36"/>
       <c r="G206" s="178"/>
       <c r="H206" s="132"/>
       <c r="I206" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J206" s="111" t="s">
         <v>279</v>
@@ -11203,7 +11362,7 @@
         <v>280</v>
       </c>
       <c r="L206" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M206" s="133" t="s">
         <v>187</v>
@@ -11212,7 +11371,7 @@
         <v>400229</v>
       </c>
       <c r="O206" s="72" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P206" s="16"/>
       <c r="Q206" s="57">
@@ -11221,7 +11380,7 @@
       <c r="R206" s="57"/>
       <c r="S206" s="16"/>
     </row>
-    <row r="207" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="27">
       <c r="A207" s="58"/>
       <c r="B207" s="78"/>
       <c r="C207" s="32"/>
@@ -11229,13 +11388,13 @@
         <v>111</v>
       </c>
       <c r="E207" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F207" s="36"/>
       <c r="G207" s="178"/>
       <c r="H207" s="132"/>
       <c r="I207" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J207" s="111" t="s">
         <v>279</v>
@@ -11244,7 +11403,7 @@
         <v>280</v>
       </c>
       <c r="L207" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M207" s="133" t="s">
         <v>187</v>
@@ -11253,7 +11412,7 @@
         <v>400230</v>
       </c>
       <c r="O207" s="72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P207" s="16"/>
       <c r="Q207" s="57">
@@ -11262,7 +11421,7 @@
       <c r="R207" s="57"/>
       <c r="S207" s="16"/>
     </row>
-    <row r="208" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="27">
       <c r="A208" s="58"/>
       <c r="B208" s="78"/>
       <c r="C208" s="12"/>
@@ -11270,13 +11429,13 @@
         <v>28</v>
       </c>
       <c r="E208" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F208" s="100"/>
       <c r="G208" s="186"/>
       <c r="H208" s="109"/>
       <c r="I208" s="135" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J208" s="111" t="s">
         <v>279</v>
@@ -11285,7 +11444,7 @@
         <v>280</v>
       </c>
       <c r="L208" s="136" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M208" s="137" t="s">
         <v>187</v>
@@ -11294,7 +11453,7 @@
         <v>400231</v>
       </c>
       <c r="O208" s="111" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P208" s="104"/>
       <c r="Q208" s="102">
@@ -11303,7 +11462,7 @@
       <c r="R208" s="102"/>
       <c r="S208" s="104"/>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19">
       <c r="A209" s="58"/>
       <c r="B209" s="78"/>
       <c r="C209" s="31" t="s">
@@ -11311,7 +11470,7 @@
       </c>
       <c r="D209" s="63"/>
       <c r="E209" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F209" s="63"/>
       <c r="G209" s="180"/>
@@ -11328,15 +11487,15 @@
       <c r="R209" s="63"/>
       <c r="S209" s="63"/>
     </row>
-    <row r="210" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="27">
       <c r="A210" s="58"/>
       <c r="B210" s="78"/>
       <c r="C210" s="32"/>
       <c r="D210" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E210" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F210" s="71" t="s">
         <v>113</v>
@@ -11351,7 +11510,7 @@
         <v>280</v>
       </c>
       <c r="L210" s="74" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M210" s="35" t="s">
         <v>187</v>
@@ -11360,7 +11519,7 @@
         <v>400048</v>
       </c>
       <c r="O210" s="74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="P210" s="20"/>
       <c r="Q210" s="69">
@@ -11369,13 +11528,13 @@
       <c r="R210" s="69"/>
       <c r="S210" s="20"/>
     </row>
-    <row r="211" spans="1:19" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="40.5">
       <c r="A211" s="58"/>
       <c r="B211" s="78"/>
       <c r="C211" s="32"/>
       <c r="D211" s="12"/>
       <c r="E211" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F211" s="36" t="s">
         <v>88</v>
@@ -11397,7 +11556,7 @@
         <v>400378</v>
       </c>
       <c r="O211" s="57" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P211" s="16"/>
       <c r="Q211" s="57">
@@ -11406,7 +11565,7 @@
       <c r="R211" s="57"/>
       <c r="S211" s="16"/>
     </row>
-    <row r="212" spans="1:19" s="140" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" s="140" customFormat="1" ht="27">
       <c r="A212" s="58"/>
       <c r="B212" s="78"/>
       <c r="C212" s="32"/>
@@ -11414,7 +11573,7 @@
         <v>89</v>
       </c>
       <c r="E212" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F212" s="36" t="s">
         <v>114</v>
@@ -11429,7 +11588,7 @@
         <v>280</v>
       </c>
       <c r="L212" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M212" s="15" t="s">
         <v>187</v>
@@ -11438,7 +11597,7 @@
         <v>400374</v>
       </c>
       <c r="O212" s="57" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P212" s="68"/>
       <c r="Q212" s="57">
@@ -11447,13 +11606,13 @@
       <c r="R212" s="57"/>
       <c r="S212" s="65"/>
     </row>
-    <row r="213" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="27">
       <c r="A213" s="58"/>
       <c r="B213" s="78"/>
       <c r="C213" s="32"/>
       <c r="D213" s="32"/>
       <c r="E213" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F213" s="13" t="s">
         <v>76</v>
@@ -11468,7 +11627,7 @@
         <v>280</v>
       </c>
       <c r="L213" s="141" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M213" s="22" t="s">
         <v>187</v>
@@ -11477,7 +11636,7 @@
         <v>400416</v>
       </c>
       <c r="O213" s="72" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P213" s="74"/>
       <c r="Q213" s="72">
@@ -11486,13 +11645,13 @@
       <c r="R213" s="72"/>
       <c r="S213" s="73"/>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19">
       <c r="A214" s="58"/>
       <c r="B214" s="78"/>
       <c r="C214" s="32"/>
       <c r="D214" s="12"/>
       <c r="E214" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F214" s="36" t="s">
         <v>14</v>
@@ -11507,7 +11666,7 @@
         <v>280</v>
       </c>
       <c r="L214" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M214" s="15" t="s">
         <v>187</v>
@@ -11516,7 +11675,7 @@
         <v>400379</v>
       </c>
       <c r="O214" s="57" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P214" s="69"/>
       <c r="Q214" s="57">
@@ -11525,23 +11684,23 @@
       <c r="R214" s="57"/>
       <c r="S214" s="16"/>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19">
       <c r="A215" s="58"/>
       <c r="B215" s="78"/>
       <c r="C215" s="32"/>
       <c r="D215" s="31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E215" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F215" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G215" s="178"/>
       <c r="H215" s="33"/>
       <c r="I215" s="106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J215" s="102" t="s">
         <v>279</v>
@@ -11550,7 +11709,7 @@
         <v>280</v>
       </c>
       <c r="L215" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M215" s="15" t="s">
         <v>187</v>
@@ -11559,7 +11718,7 @@
         <v>400261</v>
       </c>
       <c r="O215" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P215" s="69"/>
       <c r="Q215" s="57">
@@ -11568,21 +11727,21 @@
       <c r="R215" s="57"/>
       <c r="S215" s="16"/>
     </row>
-    <row r="216" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="27">
       <c r="A216" s="58"/>
       <c r="B216" s="78"/>
       <c r="C216" s="32"/>
       <c r="D216" s="32"/>
       <c r="E216" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F216" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G216" s="178"/>
       <c r="H216" s="33"/>
       <c r="I216" s="106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J216" s="102" t="s">
         <v>279</v>
@@ -11591,7 +11750,7 @@
         <v>280</v>
       </c>
       <c r="L216" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M216" s="15" t="s">
         <v>187</v>
@@ -11600,7 +11759,7 @@
         <v>400262</v>
       </c>
       <c r="O216" s="142" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="P216" s="69"/>
       <c r="Q216" s="57">
@@ -11609,21 +11768,21 @@
       <c r="R216" s="57"/>
       <c r="S216" s="16"/>
     </row>
-    <row r="217" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="27">
       <c r="A217" s="58"/>
       <c r="B217" s="80"/>
       <c r="C217" s="12"/>
       <c r="D217" s="12"/>
       <c r="E217" s="105" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F217" s="36" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G217" s="178"/>
       <c r="H217" s="33"/>
       <c r="I217" s="106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J217" s="102" t="s">
         <v>279</v>
@@ -11632,7 +11791,7 @@
         <v>280</v>
       </c>
       <c r="L217" s="69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M217" s="15" t="s">
         <v>187</v>
@@ -11641,7 +11800,7 @@
         <v>400263</v>
       </c>
       <c r="O217" s="142" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P217" s="69"/>
       <c r="Q217" s="57">
@@ -11650,11 +11809,11 @@
       <c r="R217" s="57"/>
       <c r="S217" s="16"/>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19">
       <c r="A218" s="58"/>
       <c r="B218" s="78"/>
       <c r="C218" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D218" s="31"/>
       <c r="E218" s="109"/>
@@ -11662,7 +11821,7 @@
       <c r="G218" s="186"/>
       <c r="H218" s="109"/>
       <c r="I218" s="135" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J218" s="111" t="s">
         <v>279</v>
@@ -11671,7 +11830,7 @@
         <v>280</v>
       </c>
       <c r="L218" s="136" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M218" s="143" t="s">
         <v>187</v>
@@ -11680,7 +11839,7 @@
         <v>400415</v>
       </c>
       <c r="O218" s="144" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="P218" s="144"/>
       <c r="Q218" s="111">
@@ -11689,7 +11848,7 @@
       <c r="R218" s="111"/>
       <c r="S218" s="144"/>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19">
       <c r="A219" s="58"/>
       <c r="B219" s="31" t="s">
         <v>33</v>
@@ -11712,7 +11871,7 @@
       <c r="R219" s="63"/>
       <c r="S219" s="63"/>
     </row>
-    <row r="220" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="27">
       <c r="A220" s="58"/>
       <c r="B220" s="32"/>
       <c r="C220" s="31" t="s">
@@ -11723,7 +11882,7 @@
         <v>195</v>
       </c>
       <c r="F220" s="110" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G220" s="184"/>
       <c r="H220" s="105"/>
@@ -11749,7 +11908,7 @@
       <c r="R220" s="103"/>
       <c r="S220" s="146"/>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19">
       <c r="A221" s="58"/>
       <c r="B221" s="32"/>
       <c r="C221" s="32"/>
@@ -11758,7 +11917,7 @@
         <v>195</v>
       </c>
       <c r="F221" s="132" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G221" s="178"/>
       <c r="H221" s="33"/>
@@ -11778,7 +11937,7 @@
       <c r="R221" s="103"/>
       <c r="S221" s="146"/>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19">
       <c r="A222" s="58"/>
       <c r="B222" s="32"/>
       <c r="C222" s="12"/>
@@ -11787,7 +11946,7 @@
         <v>195</v>
       </c>
       <c r="F222" s="132" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G222" s="178"/>
       <c r="H222" s="33"/>
@@ -11807,7 +11966,7 @@
       <c r="R222" s="69"/>
       <c r="S222" s="20"/>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19">
       <c r="A223" s="58"/>
       <c r="B223" s="32"/>
       <c r="C223" s="12" t="s">
@@ -11840,11 +11999,11 @@
       <c r="R223" s="103"/>
       <c r="S223" s="146"/>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19">
       <c r="A224" s="58"/>
       <c r="B224" s="32"/>
       <c r="C224" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D224" s="63"/>
       <c r="E224" s="63"/>
@@ -11863,22 +12022,22 @@
       <c r="R224" s="63"/>
       <c r="S224" s="63"/>
     </row>
-    <row r="225" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="27">
       <c r="A225" s="58"/>
       <c r="B225" s="32"/>
       <c r="C225" s="32"/>
       <c r="D225" s="13" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E225" s="33" t="s">
         <v>195</v>
       </c>
       <c r="F225" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G225" s="178"/>
       <c r="H225" s="132" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I225" s="16"/>
       <c r="J225" s="65" t="s">
@@ -11902,7 +12061,7 @@
       <c r="R225" s="57"/>
       <c r="S225" s="16"/>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19">
       <c r="A226" s="58"/>
       <c r="B226" s="32"/>
       <c r="C226" s="32"/>
@@ -11913,7 +12072,7 @@
       <c r="F226" s="36"/>
       <c r="G226" s="178"/>
       <c r="H226" s="132" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I226" s="16"/>
       <c r="J226" s="65"/>
@@ -11929,7 +12088,7 @@
       <c r="R226" s="57"/>
       <c r="S226" s="16"/>
     </row>
-    <row r="227" spans="1:19" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="49.5" customHeight="1">
       <c r="A227" s="58"/>
       <c r="B227" s="32"/>
       <c r="C227" s="32"/>
@@ -11940,7 +12099,7 @@
       <c r="F227" s="36"/>
       <c r="G227" s="178"/>
       <c r="H227" s="132" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I227" s="16"/>
       <c r="J227" s="65"/>
@@ -11956,7 +12115,7 @@
       <c r="R227" s="57"/>
       <c r="S227" s="16"/>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19">
       <c r="A228" s="58"/>
       <c r="B228" s="32"/>
       <c r="C228" s="32"/>
@@ -11967,7 +12126,7 @@
       <c r="F228" s="36"/>
       <c r="G228" s="178"/>
       <c r="H228" s="132" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I228" s="16"/>
       <c r="J228" s="65"/>
@@ -11983,7 +12142,7 @@
       <c r="R228" s="57"/>
       <c r="S228" s="16"/>
     </row>
-    <row r="229" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="27">
       <c r="A229" s="58"/>
       <c r="B229" s="32"/>
       <c r="C229" s="32"/>
@@ -11994,7 +12153,7 @@
       <c r="F229" s="36"/>
       <c r="G229" s="178"/>
       <c r="H229" s="132" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I229" s="16"/>
       <c r="J229" s="65"/>
@@ -12010,7 +12169,7 @@
       <c r="R229" s="57"/>
       <c r="S229" s="16"/>
     </row>
-    <row r="230" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="27">
       <c r="A230" s="58"/>
       <c r="B230" s="32"/>
       <c r="C230" s="32"/>
@@ -12019,11 +12178,11 @@
         <v>195</v>
       </c>
       <c r="F230" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G230" s="178"/>
       <c r="H230" s="132" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I230" s="16"/>
       <c r="J230" s="65" t="s">
@@ -12047,7 +12206,7 @@
       <c r="R230" s="57"/>
       <c r="S230" s="16"/>
     </row>
-    <row r="231" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="45" customHeight="1">
       <c r="A231" s="58"/>
       <c r="B231" s="32"/>
       <c r="C231" s="32"/>
@@ -12058,7 +12217,7 @@
       <c r="F231" s="100"/>
       <c r="G231" s="186"/>
       <c r="H231" s="132" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I231" s="16"/>
       <c r="J231" s="65"/>
@@ -12074,7 +12233,7 @@
       <c r="R231" s="57"/>
       <c r="S231" s="16"/>
     </row>
-    <row r="232" spans="1:19" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="58.5" customHeight="1">
       <c r="A232" s="58"/>
       <c r="B232" s="32"/>
       <c r="C232" s="32"/>
@@ -12085,7 +12244,7 @@
       <c r="F232" s="100"/>
       <c r="G232" s="186"/>
       <c r="H232" s="132" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I232" s="16"/>
       <c r="J232" s="65"/>
@@ -12101,7 +12260,7 @@
       <c r="R232" s="57"/>
       <c r="S232" s="16"/>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19">
       <c r="A233" s="58"/>
       <c r="B233" s="32"/>
       <c r="C233" s="32"/>
@@ -12110,11 +12269,11 @@
         <v>195</v>
       </c>
       <c r="F233" s="79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G233" s="182"/>
       <c r="H233" s="132" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I233" s="16"/>
       <c r="J233" s="65" t="s">
@@ -12138,7 +12297,7 @@
       <c r="R233" s="57"/>
       <c r="S233" s="16"/>
     </row>
-    <row r="234" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="27">
       <c r="A234" s="58"/>
       <c r="B234" s="32"/>
       <c r="C234" s="32"/>
@@ -12149,7 +12308,7 @@
       <c r="F234" s="79"/>
       <c r="G234" s="182"/>
       <c r="H234" s="132" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I234" s="16"/>
       <c r="J234" s="148"/>
@@ -12165,7 +12324,7 @@
       <c r="R234" s="57"/>
       <c r="S234" s="16"/>
     </row>
-    <row r="235" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="27">
       <c r="A235" s="58"/>
       <c r="B235" s="32"/>
       <c r="C235" s="32"/>
@@ -12176,7 +12335,7 @@
       <c r="F235" s="79"/>
       <c r="G235" s="182"/>
       <c r="H235" s="132" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I235" s="16"/>
       <c r="J235" s="148"/>
@@ -12192,7 +12351,7 @@
       <c r="R235" s="57"/>
       <c r="S235" s="16"/>
     </row>
-    <row r="236" spans="1:19" ht="27" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="27">
       <c r="A236" s="58"/>
       <c r="B236" s="32"/>
       <c r="C236" s="32"/>
@@ -12203,7 +12362,7 @@
       <c r="F236" s="79"/>
       <c r="G236" s="182"/>
       <c r="H236" s="132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I236" s="16"/>
       <c r="J236" s="148"/>
@@ -12219,7 +12378,7 @@
       <c r="R236" s="57"/>
       <c r="S236" s="16"/>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19">
       <c r="A237" s="58"/>
       <c r="B237" s="32"/>
       <c r="C237" s="32"/>
@@ -12230,7 +12389,7 @@
       <c r="F237" s="79"/>
       <c r="G237" s="182"/>
       <c r="H237" s="132" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I237" s="16"/>
       <c r="J237" s="148"/>
@@ -12246,7 +12405,7 @@
       <c r="R237" s="57"/>
       <c r="S237" s="16"/>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19">
       <c r="A238" s="58"/>
       <c r="B238" s="32"/>
       <c r="C238" s="32"/>
@@ -12258,7 +12417,7 @@
       <c r="G238" s="178"/>
       <c r="H238" s="132"/>
       <c r="I238" s="106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J238" s="65" t="s">
         <v>236</v>
@@ -12267,7 +12426,7 @@
         <v>237</v>
       </c>
       <c r="L238" s="149" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M238" s="15" t="s">
         <v>187</v>
@@ -12283,7 +12442,7 @@
       <c r="R238" s="57"/>
       <c r="S238" s="16"/>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19">
       <c r="A239" s="58"/>
       <c r="B239" s="32"/>
       <c r="C239" s="32"/>
@@ -12295,7 +12454,7 @@
       <c r="G239" s="178"/>
       <c r="H239" s="132"/>
       <c r="I239" s="106" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J239" s="102" t="s">
         <v>279</v>
@@ -12304,7 +12463,7 @@
         <v>280</v>
       </c>
       <c r="L239" s="149" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M239" s="15" t="s">
         <v>187</v>
@@ -12313,7 +12472,7 @@
         <v>400387</v>
       </c>
       <c r="O239" s="57" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P239" s="69"/>
       <c r="Q239" s="57">
@@ -12322,7 +12481,7 @@
       <c r="R239" s="57"/>
       <c r="S239" s="16"/>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19">
       <c r="A240" s="58"/>
       <c r="B240" s="32"/>
       <c r="C240" s="12"/>
@@ -12334,7 +12493,7 @@
       <c r="G240" s="186"/>
       <c r="H240" s="109"/>
       <c r="I240" s="107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J240" s="102" t="s">
         <v>279</v>
@@ -12343,7 +12502,7 @@
         <v>280</v>
       </c>
       <c r="L240" s="150" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M240" s="99" t="s">
         <v>187</v>
@@ -12352,7 +12511,7 @@
         <v>400388</v>
       </c>
       <c r="O240" s="102" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P240" s="103"/>
       <c r="Q240" s="102">
@@ -12361,7 +12520,7 @@
       <c r="R240" s="102"/>
       <c r="S240" s="104"/>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19">
       <c r="A241" s="58"/>
       <c r="B241" s="32"/>
       <c r="C241" s="31" t="s">
@@ -12384,7 +12543,7 @@
       <c r="R241" s="63"/>
       <c r="S241" s="63"/>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19">
       <c r="A242" s="58"/>
       <c r="B242" s="32"/>
       <c r="C242" s="32"/>
@@ -12396,7 +12555,7 @@
       <c r="G242" s="184"/>
       <c r="H242" s="110"/>
       <c r="I242" s="108" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J242" s="65" t="s">
         <v>236</v>
@@ -12405,7 +12564,7 @@
         <v>237</v>
       </c>
       <c r="L242" s="151" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M242" s="70" t="s">
         <v>187</v>
@@ -12421,7 +12580,7 @@
       <c r="R242" s="69"/>
       <c r="S242" s="20"/>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19">
       <c r="A243" s="58"/>
       <c r="B243" s="32"/>
       <c r="C243" s="12"/>
@@ -12433,7 +12592,7 @@
       <c r="G243" s="186"/>
       <c r="H243" s="109"/>
       <c r="I243" s="107" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J243" s="102" t="s">
         <v>279</v>
@@ -12442,7 +12601,7 @@
         <v>280</v>
       </c>
       <c r="L243" s="150" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M243" s="99" t="s">
         <v>187</v>
@@ -12451,7 +12610,7 @@
         <v>400390</v>
       </c>
       <c r="O243" s="102" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P243" s="104"/>
       <c r="Q243" s="102">
@@ -12460,11 +12619,11 @@
       <c r="R243" s="102"/>
       <c r="S243" s="104"/>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19">
       <c r="A244" s="58"/>
       <c r="B244" s="32"/>
       <c r="C244" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D244" s="63"/>
       <c r="E244" s="63"/>
@@ -12483,12 +12642,12 @@
       <c r="R244" s="63"/>
       <c r="S244" s="63"/>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19">
       <c r="A245" s="58"/>
       <c r="B245" s="32"/>
       <c r="C245" s="32"/>
       <c r="D245" s="152" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E245" s="33"/>
       <c r="F245" s="152"/>
@@ -12516,12 +12675,12 @@
       <c r="R245" s="69"/>
       <c r="S245" s="20"/>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19">
       <c r="A246" s="58"/>
       <c r="B246" s="32"/>
       <c r="C246" s="32"/>
       <c r="D246" s="153" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E246" s="33"/>
       <c r="F246" s="153"/>
@@ -12549,12 +12708,12 @@
       <c r="R246" s="57"/>
       <c r="S246" s="16"/>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19">
       <c r="A247" s="58"/>
       <c r="B247" s="32"/>
       <c r="C247" s="32"/>
       <c r="D247" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E247" s="33"/>
       <c r="F247" s="44"/>
@@ -12582,12 +12741,12 @@
       <c r="R247" s="57"/>
       <c r="S247" s="16"/>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19">
       <c r="A248" s="58"/>
       <c r="B248" s="32"/>
       <c r="C248" s="32"/>
       <c r="D248" s="153" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E248" s="33"/>
       <c r="F248" s="153"/>
@@ -12615,12 +12774,12 @@
       <c r="R248" s="57"/>
       <c r="S248" s="16"/>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19">
       <c r="A249" s="58"/>
       <c r="B249" s="32"/>
       <c r="C249" s="32"/>
       <c r="D249" s="153" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E249" s="33"/>
       <c r="F249" s="153"/>
@@ -12648,12 +12807,12 @@
       <c r="R249" s="57"/>
       <c r="S249" s="16"/>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19">
       <c r="A250" s="58"/>
       <c r="B250" s="32"/>
       <c r="C250" s="32"/>
       <c r="D250" s="153" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E250" s="33"/>
       <c r="F250" s="153"/>
@@ -12681,12 +12840,12 @@
       <c r="R250" s="57"/>
       <c r="S250" s="16"/>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19">
       <c r="A251" s="58"/>
       <c r="B251" s="32"/>
       <c r="C251" s="32"/>
       <c r="D251" s="153" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E251" s="33"/>
       <c r="F251" s="153"/>
@@ -12714,12 +12873,12 @@
       <c r="R251" s="57"/>
       <c r="S251" s="16"/>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19">
       <c r="A252" s="58"/>
       <c r="B252" s="32"/>
       <c r="C252" s="32"/>
       <c r="D252" s="153" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E252" s="33"/>
       <c r="F252" s="153"/>
@@ -12747,12 +12906,12 @@
       <c r="R252" s="57"/>
       <c r="S252" s="16"/>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19">
       <c r="A253" s="53"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
       <c r="D253" s="153" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E253" s="33"/>
       <c r="F253" s="153"/>
@@ -12780,25 +12939,25 @@
       <c r="R253" s="57"/>
       <c r="S253" s="16"/>
     </row>
-    <row r="254" spans="1:19" s="155" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="191" t="s">
-        <v>438</v>
-      </c>
-      <c r="B254" s="192"/>
-      <c r="C254" s="192"/>
-      <c r="D254" s="192"/>
-      <c r="E254" s="192"/>
-      <c r="F254" s="192"/>
-      <c r="G254" s="192"/>
-      <c r="H254" s="192"/>
-      <c r="I254" s="192"/>
-      <c r="J254" s="192"/>
-      <c r="K254" s="192"/>
-      <c r="L254" s="192"/>
-      <c r="M254" s="192"/>
-      <c r="N254" s="192"/>
-      <c r="O254" s="192"/>
-      <c r="P254" s="192"/>
+    <row r="254" spans="1:19" s="155" customFormat="1" ht="33" customHeight="1">
+      <c r="A254" s="194" t="s">
+        <v>437</v>
+      </c>
+      <c r="B254" s="195"/>
+      <c r="C254" s="195"/>
+      <c r="D254" s="195"/>
+      <c r="E254" s="195"/>
+      <c r="F254" s="195"/>
+      <c r="G254" s="195"/>
+      <c r="H254" s="195"/>
+      <c r="I254" s="195"/>
+      <c r="J254" s="195"/>
+      <c r="K254" s="195"/>
+      <c r="L254" s="195"/>
+      <c r="M254" s="195"/>
+      <c r="N254" s="195"/>
+      <c r="O254" s="195"/>
+      <c r="P254" s="195"/>
       <c r="Q254" s="154">
         <f>SUM(Q5:Q253)</f>
         <v>233</v>
@@ -12806,7 +12965,7 @@
       <c r="R254" s="154"/>
       <c r="S254" s="154"/>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19">
       <c r="C255" s="40"/>
       <c r="D255" s="40"/>
       <c r="E255" s="40"/>
@@ -12818,7 +12977,7 @@
       <c r="M255" s="40"/>
       <c r="O255" s="40"/>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19">
       <c r="C256" s="40"/>
       <c r="D256" s="40"/>
       <c r="E256" s="40"/>
@@ -12830,45 +12989,50 @@
       <c r="M256" s="40"/>
       <c r="O256" s="40"/>
     </row>
-    <row r="259" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="259" spans="13:17">
       <c r="M259" s="156" t="s">
+        <v>441</v>
+      </c>
+      <c r="N259" s="156" t="s">
         <v>442</v>
-      </c>
-      <c r="N259" s="156" t="s">
-        <v>443</v>
       </c>
       <c r="Q259" s="156">
         <v>57</v>
       </c>
     </row>
-    <row r="260" spans="13:17" x14ac:dyDescent="0.3">
+    <row r="260" spans="13:17">
       <c r="Q260" s="156">
         <v>83</v>
       </c>
     </row>
-    <row r="264" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="265" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="266" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="267" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="268" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="269" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="270" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="271" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="272" spans="13:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" spans="13:17">
+      <c r="Q261" s="156">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="264" spans="13:17" ht="13.5" customHeight="1"/>
+    <row r="265" spans="13:17" ht="13.5" customHeight="1"/>
+    <row r="266" spans="13:17" ht="13.5" customHeight="1"/>
+    <row r="267" spans="13:17" ht="13.5" customHeight="1"/>
+    <row r="268" spans="13:17" ht="13.5" customHeight="1"/>
+    <row r="269" spans="13:17" ht="13.5" customHeight="1"/>
+    <row r="270" spans="13:17" ht="13.5" customHeight="1"/>
+    <row r="271" spans="13:17" ht="13.5" customHeight="1"/>
+    <row r="272" spans="13:17" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A4:T254" xr:uid="{E34A958B-0152-4677-938C-94B96D7C6F27}"/>
   <mergeCells count="5">
@@ -12907,7 +13071,7 @@
       <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="2" width="18" style="9" customWidth="1"/>
@@ -12921,13 +13085,13 @@
     <col min="12" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>149</v>
       </c>
@@ -12958,7 +13122,7 @@
       <c r="J4" s="3"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="49.5">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -12983,7 +13147,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -13004,7 +13168,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
@@ -13023,7 +13187,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -13042,7 +13206,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -13061,7 +13225,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
@@ -13080,7 +13244,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="2"/>
@@ -13099,7 +13263,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2"/>
@@ -13118,7 +13282,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11">
       <c r="A13" s="8"/>
       <c r="B13" s="1"/>
       <c r="C13" s="2"/>
@@ -13137,7 +13301,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11">
       <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2"/>
@@ -13156,7 +13320,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11">
       <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="2"/>
@@ -13175,7 +13339,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11">
       <c r="A16" s="8"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
@@ -13194,7 +13358,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11">
       <c r="A17" s="8"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2"/>
@@ -13213,7 +13377,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11">
       <c r="A18" s="8"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -13232,7 +13396,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="C19" s="2"/>
@@ -13251,7 +13415,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
@@ -13270,7 +13434,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2"/>
@@ -13289,7 +13453,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="C22" s="2"/>
@@ -13308,7 +13472,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -13327,7 +13491,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="6"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -13346,7 +13510,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -13365,7 +13529,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
@@ -13384,7 +13548,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2"/>
@@ -13403,7 +13567,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2"/>
@@ -13422,7 +13586,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2"/>
@@ -13441,7 +13605,7 @@
       <c r="J29" s="4"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2"/>
@@ -13460,7 +13624,7 @@
       <c r="J30" s="4"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11">
       <c r="A31" s="8"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2"/>
@@ -13479,7 +13643,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="99">
       <c r="A32" s="8">
         <v>3</v>
       </c>
@@ -13504,7 +13668,7 @@
       <c r="J32" s="4"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="49.5">
       <c r="A33" s="8">
         <v>4</v>
       </c>
@@ -13529,7 +13693,7 @@
       <c r="J33" s="4"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" ht="99" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="99">
       <c r="A34" s="8">
         <v>5</v>
       </c>
@@ -13550,7 +13714,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11">
       <c r="A35" s="8"/>
       <c r="B35" s="4"/>
       <c r="C35" s="1"/>
@@ -13563,7 +13727,7 @@
       <c r="J35" s="4"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11">
       <c r="A36" s="8"/>
       <c r="B36" s="4"/>
       <c r="C36" s="1"/>
@@ -13576,7 +13740,7 @@
       <c r="J36" s="4"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11">
       <c r="A37" s="8"/>
       <c r="B37" s="4"/>
       <c r="C37" s="1"/>
@@ -13589,7 +13753,7 @@
       <c r="J37" s="4"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11">
       <c r="A38" s="8"/>
       <c r="B38" s="4"/>
       <c r="C38" s="1"/>
@@ -13602,7 +13766,7 @@
       <c r="J38" s="4"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11">
       <c r="A39" s="8"/>
       <c r="B39" s="4"/>
       <c r="C39" s="1"/>
@@ -13615,7 +13779,7 @@
       <c r="J39" s="4"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="66">
       <c r="A40" s="8">
         <v>6</v>
       </c>
@@ -13636,7 +13800,7 @@
       <c r="J40" s="4"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="66">
       <c r="A41" s="8">
         <v>7</v>
       </c>
@@ -13659,7 +13823,7 @@
       <c r="J41" s="4"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11">
       <c r="A42" s="8"/>
       <c r="B42" s="4"/>
       <c r="C42" s="1"/>
@@ -13672,7 +13836,7 @@
       <c r="J42" s="4"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="49.5">
       <c r="A43" s="8">
         <v>8</v>
       </c>
@@ -13693,7 +13857,7 @@
       <c r="J43" s="4"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11">
       <c r="A44" s="8"/>
       <c r="B44" s="4"/>
       <c r="C44" s="1"/>
@@ -13712,7 +13876,7 @@
       <c r="J44" s="4"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11">
       <c r="A45" s="8"/>
       <c r="B45" s="4"/>
       <c r="C45" s="1"/>
@@ -13731,7 +13895,7 @@
       <c r="J45" s="4"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="27">
       <c r="A46" s="8"/>
       <c r="B46" s="4"/>
       <c r="C46" s="1"/>
@@ -13750,7 +13914,7 @@
       <c r="J46" s="4"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11">
       <c r="A47" s="8">
         <v>9</v>
       </c>
@@ -13775,7 +13939,7 @@
       <c r="J47" s="4"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="82.5">
       <c r="A48" s="8">
         <v>10</v>
       </c>
@@ -13802,7 +13966,7 @@
       <c r="J48" s="4"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11">
       <c r="A49" s="8"/>
       <c r="B49" s="4"/>
       <c r="C49" s="1"/>
@@ -13823,7 +13987,7 @@
       <c r="J49" s="4"/>
       <c r="K49" s="5"/>
     </row>
-    <row r="50" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="66">
       <c r="A50" s="8">
         <v>11</v>
       </c>
@@ -13842,7 +14006,7 @@
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11">
       <c r="A51" s="8"/>
       <c r="B51" s="4"/>
       <c r="C51" s="1"/>
@@ -13861,7 +14025,7 @@
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11">
       <c r="A52" s="8"/>
       <c r="B52" s="4"/>
       <c r="C52" s="1"/>
@@ -13884,7 +14048,7 @@
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11">
       <c r="A53" s="8"/>
       <c r="B53" s="4"/>
       <c r="C53" s="1"/>
@@ -13905,7 +14069,7 @@
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11">
       <c r="A54" s="8"/>
       <c r="B54" s="4"/>
       <c r="C54" s="1"/>
@@ -13926,7 +14090,7 @@
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11">
       <c r="A55" s="8"/>
       <c r="B55" s="4"/>
       <c r="C55" s="1"/>
@@ -13945,7 +14109,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11">
       <c r="A56" s="8">
         <v>12</v>
       </c>
@@ -13962,7 +14126,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="66">
       <c r="B57" s="5"/>
       <c r="C57" s="4" t="s">
         <v>83</v>
@@ -13978,7 +14142,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="6"/>
     </row>
-    <row r="58" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="49.5">
       <c r="B58" s="5"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
@@ -13992,7 +14156,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="6"/>
     </row>
-    <row r="59" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="27">
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -14012,7 +14176,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="6"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11">
       <c r="B60" s="5"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -14032,7 +14196,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="6"/>
     </row>
-    <row r="61" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="27">
       <c r="B61" s="5"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -14052,7 +14216,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="6"/>
     </row>
-    <row r="62" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="27">
       <c r="B62" s="5"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -14072,7 +14236,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="6"/>
     </row>
-    <row r="63" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="49.5">
       <c r="A63" s="8">
         <v>13</v>
       </c>
@@ -14091,7 +14255,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="6"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11">
       <c r="A64" s="8"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
@@ -14112,7 +14276,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="6"/>
     </row>
-    <row r="65" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="27">
       <c r="A65" s="8"/>
       <c r="B65" s="5"/>
       <c r="C65" s="4"/>
@@ -14133,7 +14297,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="6"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11">
       <c r="A66" s="8"/>
       <c r="B66" s="5"/>
       <c r="C66" s="4"/>
@@ -14154,7 +14318,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="6"/>
     </row>
-    <row r="67" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="49.5">
       <c r="A67" s="8">
         <v>14</v>
       </c>
@@ -14177,7 +14341,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="6"/>
     </row>
-    <row r="68" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="33">
       <c r="A68" s="8">
         <v>15</v>
       </c>
@@ -14196,7 +14360,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="6"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11">
       <c r="A69" s="8"/>
       <c r="B69" s="5"/>
       <c r="C69" s="4"/>
@@ -14217,7 +14381,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="6"/>
     </row>
-    <row r="70" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="27">
       <c r="A70" s="8"/>
       <c r="B70" s="5"/>
       <c r="C70" s="4"/>
@@ -14238,7 +14402,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="6"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11">
       <c r="A71" s="8">
         <v>16</v>
       </c>
@@ -14259,7 +14423,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="6"/>
     </row>
-    <row r="72" spans="1:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="82.5">
       <c r="A72" s="8">
         <v>17</v>
       </c>
@@ -14280,7 +14444,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="6"/>
     </row>
-    <row r="73" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="49.5">
       <c r="A73" s="8">
         <v>18</v>
       </c>
@@ -14299,7 +14463,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="6"/>
     </row>
-    <row r="74" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="49.5">
       <c r="A74" s="8">
         <v>19</v>
       </c>
@@ -14318,7 +14482,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="66">
       <c r="A75" s="8">
         <v>20</v>
       </c>
@@ -14337,7 +14501,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="6"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11">
       <c r="A76" s="8">
         <v>21</v>
       </c>
@@ -14354,7 +14518,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="6"/>
     </row>
-    <row r="77" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="49.5">
       <c r="A77" s="8">
         <v>22</v>
       </c>
@@ -14377,7 +14541,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="6"/>
     </row>
-    <row r="78" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="33">
       <c r="A78" s="8">
         <v>23</v>
       </c>
@@ -14396,7 +14560,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="6"/>
     </row>
-    <row r="79" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="49.5">
       <c r="A79" s="8">
         <v>24</v>
       </c>
@@ -14415,7 +14579,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="6"/>
     </row>
-    <row r="80" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="49.5">
       <c r="A80" s="8">
         <v>25</v>
       </c>
@@ -14434,7 +14598,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="5"/>
     </row>
-    <row r="81" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="49.5">
       <c r="A81" s="8">
         <v>26</v>
       </c>
@@ -14453,7 +14617,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="5"/>
     </row>
-    <row r="82" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="33">
       <c r="A82" s="8">
         <v>27</v>
       </c>
@@ -14472,7 +14636,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="5"/>
     </row>
-    <row r="83" spans="1:11" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="115.5">
       <c r="A83" s="8">
         <v>28</v>
       </c>
@@ -14493,7 +14657,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="6"/>
     </row>
-    <row r="84" spans="1:11" ht="287.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="287.25" customHeight="1">
       <c r="A84" s="8">
         <v>29</v>
       </c>
@@ -14512,7 +14676,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="5"/>
     </row>
-    <row r="85" spans="1:11" ht="354" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="354" customHeight="1">
       <c r="A85" s="8">
         <v>30</v>
       </c>
@@ -14531,7 +14695,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="5"/>
     </row>
-    <row r="86" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="49.5">
       <c r="A86" s="8">
         <v>31</v>
       </c>
@@ -14550,7 +14714,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="66">
       <c r="A87" s="8">
         <v>32</v>
       </c>
@@ -14571,7 +14735,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="5"/>
     </row>
-    <row r="88" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="49.5">
       <c r="A88" s="8">
         <v>33</v>
       </c>
@@ -14590,7 +14754,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="5"/>
     </row>
-    <row r="89" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="49.5">
       <c r="A89" s="8">
         <v>34</v>
       </c>
@@ -14609,7 +14773,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="5"/>
     </row>
-    <row r="90" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="49.5">
       <c r="A90" s="8">
         <v>35</v>
       </c>
@@ -14630,7 +14794,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="5"/>
     </row>
-    <row r="91" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="33">
       <c r="A91" s="8">
         <v>36</v>
       </c>
@@ -14649,7 +14813,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="5"/>
     </row>
-    <row r="92" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="33">
       <c r="A92" s="8">
         <v>37</v>
       </c>
@@ -14668,7 +14832,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="5"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11">
       <c r="A93" s="8">
         <v>38</v>
       </c>
@@ -14687,7 +14851,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="5"/>
     </row>
-    <row r="94" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="49.5">
       <c r="A94" s="8">
         <v>39</v>
       </c>
@@ -14706,7 +14870,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="5"/>
     </row>
-    <row r="95" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="33">
       <c r="A95" s="8">
         <v>40</v>
       </c>
@@ -14729,7 +14893,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="6"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11">
       <c r="A96" s="8">
         <v>41</v>
       </c>
@@ -14746,7 +14910,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="6"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11">
       <c r="A97" s="8">
         <v>42</v>
       </c>
@@ -14763,7 +14927,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="33">
       <c r="A98" s="8">
         <v>43</v>
       </c>
@@ -14780,7 +14944,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="6"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11">
       <c r="A99" s="8">
         <v>44</v>
       </c>
@@ -14797,7 +14961,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="6"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11">
       <c r="A100" s="8">
         <v>45</v>
       </c>
@@ -14814,7 +14978,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="6"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11">
       <c r="A101" s="8">
         <v>46</v>
       </c>
@@ -14831,7 +14995,7 @@
       <c r="J101" s="4"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11">
       <c r="A102" s="8">
         <v>47</v>
       </c>
@@ -14848,7 +15012,7 @@
       <c r="J102" s="4"/>
       <c r="K102" s="6"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11">
       <c r="A103" s="8">
         <v>48</v>
       </c>
@@ -14865,7 +15029,7 @@
       <c r="J103" s="4"/>
       <c r="K103" s="6"/>
     </row>
-    <row r="104" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="33">
       <c r="A104" s="8">
         <v>49</v>
       </c>
@@ -14884,7 +15048,7 @@
       <c r="J104" s="4"/>
       <c r="K104" s="6"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11">
       <c r="A105" s="8">
         <v>50</v>
       </c>
@@ -14901,7 +15065,7 @@
       <c r="J105" s="4"/>
       <c r="K105" s="6"/>
     </row>
-    <row r="106" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="33">
       <c r="A106" s="8">
         <v>51</v>
       </c>
@@ -14920,7 +15084,7 @@
       <c r="J106" s="4"/>
       <c r="K106" s="6"/>
     </row>
-    <row r="107" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="33">
       <c r="A107" s="8">
         <v>52</v>
       </c>
@@ -14939,7 +15103,7 @@
       <c r="J107" s="4"/>
       <c r="K107" s="6"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11">
       <c r="A108" s="8">
         <v>53</v>
       </c>
@@ -14956,7 +15120,7 @@
       <c r="J108" s="4"/>
       <c r="K108" s="6"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11">
       <c r="A109" s="8">
         <v>54</v>
       </c>
@@ -14973,7 +15137,7 @@
       <c r="J109" s="4"/>
       <c r="K109" s="6"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11">
       <c r="A110" s="8">
         <v>55</v>
       </c>
@@ -14992,7 +15156,7 @@
       <c r="J110" s="4"/>
       <c r="K110" s="6"/>
     </row>
-    <row r="111" spans="1:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="27">
       <c r="A111" s="8"/>
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
@@ -15007,7 +15171,7 @@
       <c r="J111" s="4"/>
       <c r="K111" s="6"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11">
       <c r="A112" s="8">
         <v>56</v>
       </c>
@@ -15024,7 +15188,7 @@
       <c r="J112" s="4"/>
       <c r="K112" s="6"/>
     </row>
-    <row r="113" spans="1:11" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="40.5">
       <c r="A113" s="8">
         <v>57</v>
       </c>
@@ -15041,7 +15205,7 @@
       <c r="J113" s="4"/>
       <c r="K113" s="6"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11">
       <c r="A114" s="8">
         <v>58</v>
       </c>
@@ -15058,7 +15222,7 @@
       <c r="J114" s="4"/>
       <c r="K114" s="6"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11">
       <c r="A115" s="8">
         <v>59</v>
       </c>
@@ -15077,7 +15241,7 @@
       <c r="J115" s="4"/>
       <c r="K115" s="6"/>
     </row>
-    <row r="116" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="33">
       <c r="A116" s="8">
         <v>60</v>
       </c>
@@ -15094,7 +15258,7 @@
       <c r="J116" s="4"/>
       <c r="K116" s="6"/>
     </row>
-    <row r="117" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="33">
       <c r="A117" s="8">
         <v>61</v>
       </c>
@@ -15111,7 +15275,7 @@
       <c r="J117" s="4"/>
       <c r="K117" s="6"/>
     </row>
-    <row r="118" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="49.5">
       <c r="A118" s="8">
         <v>62</v>
       </c>
@@ -15128,7 +15292,7 @@
       <c r="J118" s="4"/>
       <c r="K118" s="6"/>
     </row>
-    <row r="119" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="33">
       <c r="A119" s="8">
         <v>63</v>
       </c>
@@ -15145,7 +15309,7 @@
       <c r="J119" s="4"/>
       <c r="K119" s="6"/>
     </row>
-    <row r="120" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="49.5">
       <c r="A120" s="8">
         <v>64</v>
       </c>
@@ -15162,7 +15326,7 @@
       <c r="J120" s="4"/>
       <c r="K120" s="6"/>
     </row>
-    <row r="121" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="33">
       <c r="A121" s="8">
         <v>65</v>
       </c>
@@ -15179,7 +15343,7 @@
       <c r="J121" s="4"/>
       <c r="K121" s="6"/>
     </row>
-    <row r="122" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="33">
       <c r="A122" s="8">
         <v>66</v>
       </c>
@@ -15198,7 +15362,7 @@
       <c r="J122" s="4"/>
       <c r="K122" s="6"/>
     </row>
-    <row r="123" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="33">
       <c r="A123" s="8">
         <v>67</v>
       </c>
@@ -15215,7 +15379,7 @@
       <c r="J123" s="4"/>
       <c r="K123" s="6"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11">
       <c r="A124" s="8">
         <v>68</v>
       </c>
@@ -15232,7 +15396,7 @@
       <c r="J124" s="4"/>
       <c r="K124" s="6"/>
     </row>
-    <row r="125" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="33">
       <c r="A125" s="8">
         <v>69</v>
       </c>
@@ -15251,7 +15415,7 @@
       <c r="J125" s="4"/>
       <c r="K125" s="6"/>
     </row>
-    <row r="126" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="33">
       <c r="A126" s="8">
         <v>70</v>
       </c>
@@ -15268,7 +15432,7 @@
       <c r="J126" s="4"/>
       <c r="K126" s="6"/>
     </row>
-    <row r="127" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="33">
       <c r="A127" s="8">
         <v>71</v>
       </c>
@@ -15285,7 +15449,7 @@
       <c r="J127" s="4"/>
       <c r="K127" s="6"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11">
       <c r="A128" s="8">
         <v>72</v>
       </c>
@@ -15302,7 +15466,7 @@
       <c r="J128" s="4"/>
       <c r="K128" s="6"/>
     </row>
-    <row r="129" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="33">
       <c r="A129" s="8">
         <v>73</v>
       </c>
@@ -15319,7 +15483,7 @@
       <c r="J129" s="4"/>
       <c r="K129" s="6"/>
     </row>
-    <row r="130" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="33">
       <c r="A130" s="8">
         <v>74</v>
       </c>
@@ -15336,7 +15500,7 @@
       <c r="J130" s="4"/>
       <c r="K130" s="6"/>
     </row>
-    <row r="131" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="49.5">
       <c r="A131" s="8">
         <v>75</v>
       </c>
@@ -15353,7 +15517,7 @@
       <c r="J131" s="4"/>
       <c r="K131" s="6"/>
     </row>
-    <row r="132" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="33">
       <c r="A132" s="8">
         <v>76</v>
       </c>
@@ -15370,7 +15534,7 @@
       <c r="J132" s="4"/>
       <c r="K132" s="6"/>
     </row>
-    <row r="133" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="33">
       <c r="A133" s="8">
         <v>77</v>
       </c>
@@ -15391,7 +15555,7 @@
       <c r="J133" s="4"/>
       <c r="K133" s="6"/>
     </row>
-    <row r="134" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="49.5">
       <c r="A134" s="8">
         <v>78</v>
       </c>
@@ -15408,7 +15572,7 @@
       <c r="J134" s="4"/>
       <c r="K134" s="6"/>
     </row>
-    <row r="135" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="33">
       <c r="A135" s="8">
         <v>79</v>
       </c>
@@ -15427,7 +15591,7 @@
       <c r="J135" s="4"/>
       <c r="K135" s="6"/>
     </row>
-    <row r="136" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="33">
       <c r="A136" s="8">
         <v>80</v>
       </c>
@@ -15444,7 +15608,7 @@
       <c r="J136" s="4"/>
       <c r="K136" s="6"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11">
       <c r="A137" s="8">
         <v>81</v>
       </c>
@@ -15461,7 +15625,7 @@
       <c r="J137" s="4"/>
       <c r="K137" s="6"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11">
       <c r="A138" s="8">
         <v>82</v>
       </c>
@@ -15480,7 +15644,7 @@
       <c r="J138" s="4"/>
       <c r="K138" s="6"/>
     </row>
-    <row r="139" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="49.5">
       <c r="A139" s="8">
         <v>83</v>
       </c>
@@ -15497,7 +15661,7 @@
       <c r="J139" s="4"/>
       <c r="K139" s="6"/>
     </row>
-    <row r="140" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="33">
       <c r="A140" s="8">
         <v>84</v>
       </c>
@@ -15514,7 +15678,7 @@
       <c r="J140" s="4"/>
       <c r="K140" s="6"/>
     </row>
-    <row r="141" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="33">
       <c r="A141" s="8">
         <v>85</v>
       </c>
@@ -15537,7 +15701,7 @@
       <c r="J141" s="4"/>
       <c r="K141" s="6"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11">
       <c r="A142" s="8">
         <v>86</v>
       </c>
@@ -15558,7 +15722,7 @@
       <c r="J142" s="4"/>
       <c r="K142" s="6"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11">
       <c r="A143" s="8">
         <v>87</v>
       </c>
@@ -15581,7 +15745,7 @@
       <c r="J143" s="4"/>
       <c r="K143" s="6"/>
     </row>
-    <row r="144" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="33">
       <c r="A144" s="8">
         <v>88</v>
       </c>
@@ -15600,7 +15764,7 @@
       <c r="J144" s="4"/>
       <c r="K144" s="6"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11">
       <c r="A145" s="8">
         <v>89</v>
       </c>
@@ -15619,7 +15783,7 @@
       <c r="J145" s="4"/>
       <c r="K145" s="6"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11">
       <c r="A146" s="8">
         <v>90</v>
       </c>
@@ -15638,7 +15802,7 @@
       <c r="J146" s="4"/>
       <c r="K146" s="6"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11">
       <c r="A147" s="8">
         <v>91</v>
       </c>
@@ -15659,7 +15823,7 @@
       <c r="J147" s="4"/>
       <c r="K147" s="6"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11">
       <c r="A148" s="8">
         <v>92</v>
       </c>
@@ -15678,7 +15842,7 @@
       <c r="J148" s="4"/>
       <c r="K148" s="6"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11">
       <c r="A149" s="8">
         <v>93</v>
       </c>

--- a/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
+++ b/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebContent\static\guide\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7AE101-CC5F-4B80-BAAF-0F9893853C36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D7C72C-ECDF-4D47-AFB6-2664CB0CC9EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="15540" tabRatio="869" xr2:uid="{1E9DB366-6AE4-4F47-9B28-6B909BD1B54D}"/>
   </bookViews>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="467">
   <si>
     <t>Notice</t>
   </si>
@@ -2031,6 +2031,14 @@
   </si>
   <si>
     <t>내부망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 저장안됐음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2481,7 +2489,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3064,6 +3072,12 @@
     <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3087,9 +3101,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3496,8 +3507,8 @@
   <dimension ref="A1:T286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q262" sqref="Q262"/>
+      <pane ySplit="4" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R164" sqref="R164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3903,27 +3914,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="198" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="199"/>
+      <c r="F1" s="199"/>
+      <c r="G1" s="199"/>
+      <c r="H1" s="199"/>
+      <c r="I1" s="199"/>
+      <c r="J1" s="199"/>
+      <c r="K1" s="199"/>
+      <c r="L1" s="199"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="199"/>
+      <c r="O1" s="199"/>
+      <c r="P1" s="199"/>
+      <c r="Q1" s="199"/>
+      <c r="R1" s="199"/>
+      <c r="S1" s="199"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="41"/>
@@ -3953,28 +3964,28 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="198" t="s">
+      <c r="E3" s="200" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="198"/>
+      <c r="F3" s="200"/>
       <c r="G3" s="175"/>
       <c r="H3" s="47"/>
-      <c r="I3" s="199" t="s">
+      <c r="I3" s="201" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="200"/>
-      <c r="M3" s="201" t="s">
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="202"/>
+      <c r="M3" s="203" t="s">
         <v>211</v>
       </c>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="200"/>
+      <c r="N3" s="201"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202"/>
       <c r="Q3" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="R3" s="48"/>
+      <c r="R3" s="194"/>
       <c r="S3" s="160" t="s">
         <v>438</v>
       </c>
@@ -8582,7 +8593,7 @@
       <c r="O130" s="63"/>
       <c r="P130" s="63"/>
       <c r="Q130" s="63"/>
-      <c r="R130" s="202" t="s">
+      <c r="R130" s="195" t="s">
         <v>460</v>
       </c>
       <c r="S130" s="63"/>
@@ -9125,7 +9136,7 @@
       <c r="O145" s="63"/>
       <c r="P145" s="63"/>
       <c r="Q145" s="63"/>
-      <c r="R145" s="166"/>
+      <c r="R145" s="20"/>
       <c r="S145" s="166"/>
     </row>
     <row r="146" spans="1:19">
@@ -9398,7 +9409,9 @@
       <c r="Q152" s="57">
         <v>1</v>
       </c>
-      <c r="R152" s="174"/>
+      <c r="R152" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S152" s="16"/>
     </row>
     <row r="153" spans="1:19">
@@ -9511,7 +9524,9 @@
       <c r="Q155" s="57">
         <v>1</v>
       </c>
-      <c r="R155" s="57"/>
+      <c r="R155" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S155" s="16"/>
     </row>
     <row r="156" spans="1:19" ht="27">
@@ -9548,8 +9563,12 @@
       <c r="Q156" s="57">
         <v>1</v>
       </c>
-      <c r="R156" s="57"/>
-      <c r="S156" s="16"/>
+      <c r="R156" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S156" s="16" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="157" spans="1:19">
       <c r="A157" s="58"/>
@@ -9583,8 +9602,12 @@
       <c r="Q157" s="57">
         <v>1</v>
       </c>
-      <c r="R157" s="57"/>
-      <c r="S157" s="16"/>
+      <c r="R157" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S157" s="16" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="158" spans="1:19" ht="27">
       <c r="A158" s="58"/>
@@ -9618,8 +9641,12 @@
       <c r="Q158" s="57">
         <v>1</v>
       </c>
-      <c r="R158" s="57"/>
-      <c r="S158" s="16"/>
+      <c r="R158" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S158" s="16" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="159" spans="1:19" ht="27">
       <c r="A159" s="58"/>
@@ -9653,8 +9680,12 @@
       <c r="Q159" s="57">
         <v>1</v>
       </c>
-      <c r="R159" s="57"/>
-      <c r="S159" s="16"/>
+      <c r="R159" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S159" s="28" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="160" spans="1:19" ht="27">
       <c r="A160" s="58"/>
@@ -9688,8 +9719,12 @@
       <c r="Q160" s="57">
         <v>1</v>
       </c>
-      <c r="R160" s="57"/>
-      <c r="S160" s="16"/>
+      <c r="R160" s="174" t="s">
+        <v>445</v>
+      </c>
+      <c r="S160" s="16" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="161" spans="1:20" ht="27">
       <c r="A161" s="58"/>
@@ -9750,7 +9785,9 @@
       <c r="O162" s="63"/>
       <c r="P162" s="63"/>
       <c r="Q162" s="63"/>
-      <c r="R162" s="63"/>
+      <c r="R162" s="195" t="s">
+        <v>466</v>
+      </c>
       <c r="S162" s="63"/>
     </row>
     <row r="163" spans="1:20">
@@ -9785,7 +9822,9 @@
       <c r="Q163" s="69">
         <v>1</v>
       </c>
-      <c r="R163" s="69"/>
+      <c r="R163" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S163" s="16"/>
       <c r="T163" s="40">
         <v>131</v>
@@ -9927,7 +9966,7 @@
       <c r="O168" s="63"/>
       <c r="P168" s="63"/>
       <c r="Q168" s="63"/>
-      <c r="R168" s="63"/>
+      <c r="R168" s="16"/>
       <c r="S168" s="63"/>
     </row>
     <row r="169" spans="1:20">
@@ -9950,7 +9989,7 @@
       <c r="O169" s="63"/>
       <c r="P169" s="63"/>
       <c r="Q169" s="63"/>
-      <c r="R169" s="63"/>
+      <c r="R169" s="16"/>
       <c r="S169" s="63"/>
     </row>
     <row r="170" spans="1:20">
@@ -10139,7 +10178,7 @@
       <c r="O174" s="63"/>
       <c r="P174" s="63"/>
       <c r="Q174" s="63"/>
-      <c r="R174" s="166"/>
+      <c r="R174" s="20"/>
       <c r="S174" s="166"/>
     </row>
     <row r="175" spans="1:20">
@@ -10246,7 +10285,7 @@
       <c r="O177" s="63"/>
       <c r="P177" s="63"/>
       <c r="Q177" s="63"/>
-      <c r="R177" s="63"/>
+      <c r="R177" s="16"/>
       <c r="S177" s="63"/>
     </row>
     <row r="178" spans="1:19" ht="27">
@@ -10394,7 +10433,7 @@
       <c r="O181" s="63"/>
       <c r="P181" s="63"/>
       <c r="Q181" s="63"/>
-      <c r="R181" s="63"/>
+      <c r="R181" s="16"/>
       <c r="S181" s="63"/>
     </row>
     <row r="182" spans="1:19">
@@ -10694,7 +10733,7 @@
       <c r="O189" s="63"/>
       <c r="P189" s="63"/>
       <c r="Q189" s="63"/>
-      <c r="R189" s="63"/>
+      <c r="R189" s="16"/>
       <c r="S189" s="63"/>
     </row>
     <row r="190" spans="1:19">
@@ -11131,7 +11170,7 @@
       <c r="O200" s="63"/>
       <c r="P200" s="63"/>
       <c r="Q200" s="63"/>
-      <c r="R200" s="63"/>
+      <c r="R200" s="16"/>
       <c r="S200" s="63"/>
     </row>
     <row r="201" spans="1:19">
@@ -11484,7 +11523,7 @@
       <c r="O209" s="63"/>
       <c r="P209" s="63"/>
       <c r="Q209" s="63"/>
-      <c r="R209" s="63"/>
+      <c r="R209" s="16"/>
       <c r="S209" s="63"/>
     </row>
     <row r="210" spans="1:19" ht="27">
@@ -11868,7 +11907,7 @@
       <c r="O219" s="63"/>
       <c r="P219" s="63"/>
       <c r="Q219" s="63"/>
-      <c r="R219" s="63"/>
+      <c r="R219" s="16"/>
       <c r="S219" s="63"/>
     </row>
     <row r="220" spans="1:19" ht="27">
@@ -12019,7 +12058,7 @@
       <c r="O224" s="63"/>
       <c r="P224" s="63"/>
       <c r="Q224" s="63"/>
-      <c r="R224" s="63"/>
+      <c r="R224" s="16"/>
       <c r="S224" s="63"/>
     </row>
     <row r="225" spans="1:19" ht="27">
@@ -12540,7 +12579,7 @@
       <c r="O241" s="63"/>
       <c r="P241" s="63"/>
       <c r="Q241" s="63"/>
-      <c r="R241" s="63"/>
+      <c r="R241" s="16"/>
       <c r="S241" s="63"/>
     </row>
     <row r="242" spans="1:19">
@@ -12639,7 +12678,7 @@
       <c r="O244" s="63"/>
       <c r="P244" s="63"/>
       <c r="Q244" s="63"/>
-      <c r="R244" s="63"/>
+      <c r="R244" s="16"/>
       <c r="S244" s="63"/>
     </row>
     <row r="245" spans="1:19">
@@ -12940,24 +12979,24 @@
       <c r="S253" s="16"/>
     </row>
     <row r="254" spans="1:19" s="155" customFormat="1" ht="33" customHeight="1">
-      <c r="A254" s="194" t="s">
+      <c r="A254" s="196" t="s">
         <v>437</v>
       </c>
-      <c r="B254" s="195"/>
-      <c r="C254" s="195"/>
-      <c r="D254" s="195"/>
-      <c r="E254" s="195"/>
-      <c r="F254" s="195"/>
-      <c r="G254" s="195"/>
-      <c r="H254" s="195"/>
-      <c r="I254" s="195"/>
-      <c r="J254" s="195"/>
-      <c r="K254" s="195"/>
-      <c r="L254" s="195"/>
-      <c r="M254" s="195"/>
-      <c r="N254" s="195"/>
-      <c r="O254" s="195"/>
-      <c r="P254" s="195"/>
+      <c r="B254" s="197"/>
+      <c r="C254" s="197"/>
+      <c r="D254" s="197"/>
+      <c r="E254" s="197"/>
+      <c r="F254" s="197"/>
+      <c r="G254" s="197"/>
+      <c r="H254" s="197"/>
+      <c r="I254" s="197"/>
+      <c r="J254" s="197"/>
+      <c r="K254" s="197"/>
+      <c r="L254" s="197"/>
+      <c r="M254" s="197"/>
+      <c r="N254" s="197"/>
+      <c r="O254" s="197"/>
+      <c r="P254" s="197"/>
       <c r="Q254" s="154">
         <f>SUM(Q5:Q253)</f>
         <v>233</v>
@@ -13007,7 +13046,7 @@
     </row>
     <row r="261" spans="13:17">
       <c r="Q261" s="156">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="264" spans="13:17" ht="13.5" customHeight="1"/>

--- a/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
+++ b/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebContent\static\guide\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D7C72C-ECDF-4D47-AFB6-2664CB0CC9EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F06D69-506A-4FB4-A7FC-ED8FC0D26960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="15540" tabRatio="869" xr2:uid="{1E9DB366-6AE4-4F47-9B28-6B909BD1B54D}"/>
   </bookViews>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="466">
   <si>
     <t>Notice</t>
   </si>
@@ -2031,10 +2031,6 @@
   </si>
   <si>
     <t>내부망</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 저장안됐음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2234,7 +2230,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2329,6 +2325,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2489,7 +2491,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3100,6 +3102,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3508,7 +3513,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R164" sqref="R164"/>
+      <selection pane="bottomLeft" activeCell="R166" sqref="R166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9683,9 +9688,7 @@
       <c r="R159" s="174" t="s">
         <v>445</v>
       </c>
-      <c r="S159" s="28" t="s">
-        <v>465</v>
-      </c>
+      <c r="S159" s="83"/>
     </row>
     <row r="160" spans="1:19" ht="27">
       <c r="A160" s="58"/>
@@ -9762,7 +9765,7 @@
       <c r="Q161" s="72">
         <v>2</v>
       </c>
-      <c r="R161" s="74"/>
+      <c r="R161" s="204"/>
       <c r="S161" s="83"/>
     </row>
     <row r="162" spans="1:20">
@@ -9786,7 +9789,7 @@
       <c r="P162" s="63"/>
       <c r="Q162" s="63"/>
       <c r="R162" s="195" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="S162" s="63"/>
     </row>
@@ -9854,7 +9857,9 @@
         <v>400201</v>
       </c>
       <c r="Q164" s="69"/>
-      <c r="R164" s="69"/>
+      <c r="R164" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S164" s="16"/>
     </row>
     <row r="165" spans="1:20">
@@ -9885,7 +9890,9 @@
       <c r="Q165" s="57">
         <v>1</v>
       </c>
-      <c r="R165" s="57"/>
+      <c r="R165" s="174" t="s">
+        <v>445</v>
+      </c>
       <c r="S165" s="16"/>
     </row>
     <row r="166" spans="1:20">

--- a/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
+++ b/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebContent\static\guide\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1F06D69-506A-4FB4-A7FC-ED8FC0D26960}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51473F29-8154-4DD5-ADEE-76F5508AA859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="15540" tabRatio="869" xr2:uid="{1E9DB366-6AE4-4F47-9B28-6B909BD1B54D}"/>
   </bookViews>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="469">
   <si>
     <t>Notice</t>
   </si>
@@ -1943,10 +1943,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>약 140개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2035,6 +2031,22 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 확인.. 디 , 지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약 144개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3080,6 +3092,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3102,9 +3117,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3512,8 +3524,8 @@
   <dimension ref="A1:T286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R166" sqref="R166"/>
+      <pane ySplit="4" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R232" sqref="R230:R232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3919,27 +3931,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="31.5">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="199" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="41"/>
@@ -3969,24 +3981,24 @@
       </c>
       <c r="C3" s="46"/>
       <c r="D3" s="46"/>
-      <c r="E3" s="200" t="s">
+      <c r="E3" s="201" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="200"/>
+      <c r="F3" s="201"/>
       <c r="G3" s="175"/>
       <c r="H3" s="47"/>
-      <c r="I3" s="201" t="s">
+      <c r="I3" s="202" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="201"/>
-      <c r="K3" s="201"/>
-      <c r="L3" s="202"/>
-      <c r="M3" s="203" t="s">
+      <c r="J3" s="202"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="204" t="s">
         <v>211</v>
       </c>
-      <c r="N3" s="201"/>
-      <c r="O3" s="201"/>
-      <c r="P3" s="202"/>
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="203"/>
       <c r="Q3" s="48" t="s">
         <v>212</v>
       </c>
@@ -4131,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S7" s="15"/>
     </row>
@@ -4166,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S8" s="15"/>
     </row>
@@ -4201,7 +4213,7 @@
       </c>
       <c r="Q9" s="57"/>
       <c r="R9" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S9" s="15"/>
     </row>
@@ -4236,7 +4248,7 @@
       </c>
       <c r="Q10" s="57"/>
       <c r="R10" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S10" s="15"/>
     </row>
@@ -4271,7 +4283,7 @@
       </c>
       <c r="Q11" s="57"/>
       <c r="R11" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S11" s="15"/>
     </row>
@@ -4306,7 +4318,7 @@
       </c>
       <c r="Q12" s="57"/>
       <c r="R12" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S12" s="15"/>
     </row>
@@ -4341,7 +4353,7 @@
       </c>
       <c r="Q13" s="57"/>
       <c r="R13" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S13" s="15"/>
     </row>
@@ -4376,7 +4388,7 @@
       </c>
       <c r="Q14" s="57"/>
       <c r="R14" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S14" s="15"/>
     </row>
@@ -4411,7 +4423,7 @@
       </c>
       <c r="Q15" s="57"/>
       <c r="R15" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S15" s="15"/>
     </row>
@@ -4446,7 +4458,7 @@
       </c>
       <c r="Q16" s="57"/>
       <c r="R16" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S16" s="15"/>
     </row>
@@ -4481,7 +4493,7 @@
       </c>
       <c r="Q17" s="57"/>
       <c r="R17" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S17" s="15"/>
     </row>
@@ -4516,7 +4528,7 @@
       </c>
       <c r="Q18" s="57"/>
       <c r="R18" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S18" s="15"/>
     </row>
@@ -4551,7 +4563,7 @@
       </c>
       <c r="Q19" s="57"/>
       <c r="R19" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S19" s="15"/>
     </row>
@@ -4586,7 +4598,7 @@
       </c>
       <c r="Q20" s="57"/>
       <c r="R20" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S20" s="15"/>
     </row>
@@ -4621,7 +4633,7 @@
       </c>
       <c r="Q21" s="57"/>
       <c r="R21" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S21" s="15"/>
     </row>
@@ -4658,7 +4670,7 @@
       </c>
       <c r="Q22" s="57"/>
       <c r="R22" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S22" s="15"/>
     </row>
@@ -4693,7 +4705,7 @@
       </c>
       <c r="Q23" s="57"/>
       <c r="R23" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S23" s="15"/>
     </row>
@@ -4728,7 +4740,7 @@
       </c>
       <c r="Q24" s="57"/>
       <c r="R24" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S24" s="15"/>
     </row>
@@ -4763,7 +4775,7 @@
       </c>
       <c r="Q25" s="57"/>
       <c r="R25" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S25" s="15"/>
     </row>
@@ -4798,7 +4810,7 @@
       </c>
       <c r="Q26" s="57"/>
       <c r="R26" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S26" s="15"/>
     </row>
@@ -4833,7 +4845,7 @@
       </c>
       <c r="Q27" s="57"/>
       <c r="R27" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S27" s="15"/>
     </row>
@@ -4868,7 +4880,7 @@
       </c>
       <c r="Q28" s="57"/>
       <c r="R28" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S28" s="15"/>
     </row>
@@ -4903,7 +4915,7 @@
       </c>
       <c r="Q29" s="57"/>
       <c r="R29" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S29" s="15"/>
     </row>
@@ -4938,7 +4950,7 @@
       </c>
       <c r="Q30" s="57"/>
       <c r="R30" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S30" s="15"/>
     </row>
@@ -4973,7 +4985,7 @@
       </c>
       <c r="Q31" s="57"/>
       <c r="R31" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S31" s="15"/>
     </row>
@@ -5008,7 +5020,7 @@
       </c>
       <c r="Q32" s="57"/>
       <c r="R32" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S32" s="15"/>
     </row>
@@ -5043,7 +5055,7 @@
       </c>
       <c r="Q33" s="57"/>
       <c r="R33" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S33" s="15"/>
     </row>
@@ -5076,14 +5088,14 @@
       </c>
       <c r="O34" s="16"/>
       <c r="P34" s="19" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q34" s="57">
         <v>1</v>
       </c>
       <c r="R34" s="57"/>
       <c r="S34" s="19" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5107,7 +5119,7 @@
       <c r="P35" s="63"/>
       <c r="Q35" s="63"/>
       <c r="R35" s="191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S35" s="63"/>
     </row>
@@ -5179,7 +5191,7 @@
         <v>1</v>
       </c>
       <c r="R37" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S37" s="22"/>
     </row>
@@ -5216,7 +5228,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S38" s="22"/>
     </row>
@@ -5253,10 +5265,10 @@
         <v>1</v>
       </c>
       <c r="R39" s="72" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S39" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -5292,10 +5304,10 @@
         <v>1</v>
       </c>
       <c r="R40" s="72" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S40" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -5331,7 +5343,7 @@
         <v>1</v>
       </c>
       <c r="R41" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S41" s="22"/>
     </row>
@@ -5368,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="R42" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S42" s="22"/>
     </row>
@@ -5405,7 +5417,7 @@
         <v>1</v>
       </c>
       <c r="R43" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S43" s="22"/>
     </row>
@@ -5441,7 +5453,7 @@
         <v>1</v>
       </c>
       <c r="R44" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S44" s="22"/>
     </row>
@@ -5476,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="R45" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S45" s="22"/>
     </row>
@@ -5513,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="R46" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S46" s="22"/>
     </row>
@@ -5550,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="R47" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S47" s="22"/>
     </row>
@@ -5566,7 +5578,7 @@
         <v>248</v>
       </c>
       <c r="G48" s="177" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H48" s="34"/>
       <c r="I48" s="73"/>
@@ -5589,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="R48" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S48" s="22"/>
     </row>
@@ -5605,7 +5617,7 @@
         <v>249</v>
       </c>
       <c r="G49" s="177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H49" s="34"/>
       <c r="I49" s="73"/>
@@ -5628,7 +5640,7 @@
         <v>1</v>
       </c>
       <c r="R49" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S49" s="22"/>
     </row>
@@ -5644,7 +5656,7 @@
         <v>250</v>
       </c>
       <c r="G50" s="177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H50" s="34"/>
       <c r="I50" s="73"/>
@@ -5667,7 +5679,7 @@
         <v>1</v>
       </c>
       <c r="R50" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S50" s="22"/>
     </row>
@@ -5683,7 +5695,7 @@
         <v>251</v>
       </c>
       <c r="G51" s="177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H51" s="34"/>
       <c r="I51" s="73"/>
@@ -5706,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="R51" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S51" s="22"/>
     </row>
@@ -5722,7 +5734,7 @@
         <v>252</v>
       </c>
       <c r="G52" s="177" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H52" s="34"/>
       <c r="I52" s="73"/>
@@ -5745,7 +5757,7 @@
         <v>1</v>
       </c>
       <c r="R52" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S52" s="22"/>
     </row>
@@ -5759,7 +5771,7 @@
       <c r="E53" s="22"/>
       <c r="F53" s="13"/>
       <c r="G53" s="178" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H53" s="34"/>
       <c r="I53" s="73"/>
@@ -5782,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="R53" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S53" s="22"/>
     </row>
@@ -5798,7 +5810,7 @@
         <v>254</v>
       </c>
       <c r="G54" s="178" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H54" s="34"/>
       <c r="I54" s="73"/>
@@ -5821,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="R54" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S54" s="22"/>
     </row>
@@ -5846,7 +5858,7 @@
       <c r="P55" s="63"/>
       <c r="Q55" s="63"/>
       <c r="R55" s="191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S55" s="63"/>
     </row>
@@ -5882,7 +5894,7 @@
       </c>
       <c r="R56" s="72"/>
       <c r="S56" s="122" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -5917,7 +5929,7 @@
       </c>
       <c r="R57" s="72"/>
       <c r="S57" s="122" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -5952,7 +5964,7 @@
       </c>
       <c r="R58" s="72"/>
       <c r="S58" s="122" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -5988,7 +6000,7 @@
         <v>2</v>
       </c>
       <c r="R59" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S59" s="22"/>
     </row>
@@ -6013,7 +6025,7 @@
       <c r="P60" s="74"/>
       <c r="Q60" s="72"/>
       <c r="R60" s="191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S60" s="22"/>
     </row>
@@ -6052,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="R61" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S61" s="22"/>
     </row>
@@ -6089,7 +6101,7 @@
         <v>2</v>
       </c>
       <c r="R62" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S62" s="22"/>
     </row>
@@ -6124,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="R63" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S63" s="73"/>
     </row>
@@ -6165,10 +6177,10 @@
         <v>1</v>
       </c>
       <c r="R64" s="72" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S64" s="73" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -6204,10 +6216,10 @@
         <v>1</v>
       </c>
       <c r="R65" s="72" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S65" s="73" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -6243,10 +6255,10 @@
         <v>1</v>
       </c>
       <c r="R66" s="72" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S66" s="73" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:19" s="81" customFormat="1">
@@ -6280,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="R67" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S67" s="73"/>
     </row>
@@ -6317,10 +6329,10 @@
         <v>1</v>
       </c>
       <c r="R68" s="72" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S68" s="73" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:19" s="81" customFormat="1">
@@ -6356,10 +6368,10 @@
         <v>1</v>
       </c>
       <c r="R69" s="72" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S69" s="73" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:19" s="81" customFormat="1">
@@ -6395,10 +6407,10 @@
         <v>1</v>
       </c>
       <c r="R70" s="72" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="S70" s="73" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -6422,7 +6434,7 @@
       <c r="P71" s="63"/>
       <c r="Q71" s="63"/>
       <c r="R71" s="191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S71" s="63"/>
     </row>
@@ -6457,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="R72" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S72" s="35"/>
     </row>
@@ -6496,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="R73" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S73" s="143"/>
     </row>
@@ -6533,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="R74" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S74" s="158"/>
     </row>
@@ -6570,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="R75" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S75" s="35"/>
     </row>
@@ -6605,7 +6617,7 @@
         <v>1</v>
       </c>
       <c r="R76" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S76" s="22"/>
     </row>
@@ -6630,7 +6642,7 @@
       <c r="P77" s="63"/>
       <c r="Q77" s="63"/>
       <c r="R77" s="191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S77" s="63"/>
     </row>
@@ -6655,7 +6667,7 @@
       <c r="P78" s="63"/>
       <c r="Q78" s="63"/>
       <c r="R78" s="191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S78" s="63"/>
     </row>
@@ -6696,7 +6708,7 @@
         <v>2</v>
       </c>
       <c r="R79" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S79" s="158"/>
     </row>
@@ -6733,7 +6745,7 @@
         <v>1</v>
       </c>
       <c r="R80" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S80" s="98"/>
     </row>
@@ -6770,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="R81" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S81" s="98"/>
     </row>
@@ -6807,7 +6819,7 @@
         <v>1</v>
       </c>
       <c r="R82" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S82" s="70"/>
     </row>
@@ -6849,7 +6861,7 @@
       </c>
       <c r="R83" s="57"/>
       <c r="S83" s="123" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="27">
@@ -6920,7 +6932,7 @@
         <v>1</v>
       </c>
       <c r="R85" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S85" s="20"/>
     </row>
@@ -6957,7 +6969,7 @@
         <v>1</v>
       </c>
       <c r="R86" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S86" s="16"/>
     </row>
@@ -7000,7 +7012,7 @@
         <v>1</v>
       </c>
       <c r="R87" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S87" s="16"/>
     </row>
@@ -7033,7 +7045,7 @@
       <c r="P88" s="16"/>
       <c r="Q88" s="57"/>
       <c r="R88" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S88" s="16"/>
     </row>
@@ -7068,7 +7080,7 @@
         <v>1</v>
       </c>
       <c r="R89" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S89" s="16"/>
     </row>
@@ -7093,7 +7105,7 @@
       <c r="P90" s="40"/>
       <c r="Q90" s="40"/>
       <c r="R90" s="191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S90" s="40"/>
     </row>
@@ -7132,7 +7144,7 @@
         <v>1</v>
       </c>
       <c r="R91" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S91" s="104"/>
     </row>
@@ -7169,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="R92" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S92" s="146"/>
     </row>
@@ -7206,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="R93" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S93" s="20"/>
     </row>
@@ -7215,7 +7227,7 @@
       <c r="B94" s="78"/>
       <c r="C94" s="32"/>
       <c r="D94" s="31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E94" s="33" t="s">
         <v>195</v>
@@ -7245,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="R94" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S94" s="104"/>
     </row>
@@ -7282,7 +7294,7 @@
         <v>1</v>
       </c>
       <c r="R95" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S95" s="146"/>
     </row>
@@ -7319,7 +7331,7 @@
         <v>1</v>
       </c>
       <c r="R96" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S96" s="20"/>
     </row>
@@ -7358,7 +7370,7 @@
         <v>1</v>
       </c>
       <c r="R97" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S97" s="104"/>
     </row>
@@ -7395,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="R98" s="193" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S98" s="146"/>
     </row>
@@ -7432,7 +7444,7 @@
         <v>1</v>
       </c>
       <c r="R99" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S99" s="16"/>
     </row>
@@ -7471,7 +7483,7 @@
         <v>1</v>
       </c>
       <c r="R100" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S100" s="16"/>
     </row>
@@ -7512,7 +7524,7 @@
         <v>2</v>
       </c>
       <c r="R101" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S101" s="16"/>
     </row>
@@ -7549,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="R102" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S102" s="16"/>
     </row>
@@ -7574,7 +7586,7 @@
       <c r="P103" s="63"/>
       <c r="Q103" s="63"/>
       <c r="R103" s="191" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S103" s="63"/>
     </row>
@@ -7613,10 +7625,10 @@
         <v>1</v>
       </c>
       <c r="R104" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S104" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -7628,7 +7640,7 @@
         <v>195</v>
       </c>
       <c r="F105" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G105" s="178"/>
       <c r="H105" s="34"/>
@@ -7652,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="R105" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S105" s="16"/>
     </row>
@@ -7689,7 +7701,7 @@
         <v>1</v>
       </c>
       <c r="R106" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S106" s="16"/>
     </row>
@@ -7728,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="R107" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S107" s="16"/>
     </row>
@@ -7765,7 +7777,7 @@
         <v>1</v>
       </c>
       <c r="R108" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S108" s="16"/>
     </row>
@@ -7802,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="R109" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S109" s="16"/>
     </row>
@@ -7839,7 +7851,7 @@
         <v>1</v>
       </c>
       <c r="R110" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S110" s="16"/>
     </row>
@@ -7876,7 +7888,7 @@
         <v>1</v>
       </c>
       <c r="R111" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S111" s="16"/>
     </row>
@@ -7913,7 +7925,7 @@
         <v>1</v>
       </c>
       <c r="R112" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S112" s="16"/>
     </row>
@@ -7952,10 +7964,10 @@
         <v>1</v>
       </c>
       <c r="R113" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S113" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="27">
@@ -7991,10 +8003,10 @@
         <v>1</v>
       </c>
       <c r="R114" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S114" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -8032,7 +8044,7 @@
         <v>1</v>
       </c>
       <c r="R115" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S115" s="16"/>
     </row>
@@ -8069,7 +8081,7 @@
         <v>1</v>
       </c>
       <c r="R116" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S116" s="16"/>
     </row>
@@ -8110,10 +8122,10 @@
         <v>1</v>
       </c>
       <c r="R117" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S117" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -8149,10 +8161,10 @@
         <v>1</v>
       </c>
       <c r="R118" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S118" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -8188,10 +8200,10 @@
         <v>1</v>
       </c>
       <c r="R119" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S119" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -8227,10 +8239,10 @@
         <v>1</v>
       </c>
       <c r="R120" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S120" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -8266,10 +8278,10 @@
         <v>1</v>
       </c>
       <c r="R121" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S121" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="122" spans="1:19">
@@ -8305,10 +8317,10 @@
         <v>1</v>
       </c>
       <c r="R122" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S122" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="1:19">
@@ -8344,10 +8356,10 @@
         <v>1</v>
       </c>
       <c r="R123" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S123" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="27">
@@ -8383,10 +8395,10 @@
         <v>1</v>
       </c>
       <c r="R124" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S124" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="125" spans="1:19">
@@ -8422,7 +8434,7 @@
         <v>1</v>
       </c>
       <c r="R125" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S125" s="16"/>
     </row>
@@ -8457,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="R126" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S126" s="16"/>
     </row>
@@ -8494,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="R127" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S127" s="16"/>
     </row>
@@ -8533,10 +8545,10 @@
         <v>1</v>
       </c>
       <c r="R128" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S128" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" spans="1:19">
@@ -8572,10 +8584,10 @@
         <v>1</v>
       </c>
       <c r="R129" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S129" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="27">
@@ -8599,7 +8611,7 @@
       <c r="P130" s="63"/>
       <c r="Q130" s="63"/>
       <c r="R130" s="195" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S130" s="63"/>
     </row>
@@ -8638,7 +8650,7 @@
         <v>1</v>
       </c>
       <c r="R131" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S131" s="16"/>
     </row>
@@ -8675,10 +8687,10 @@
         <v>1</v>
       </c>
       <c r="R132" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S132" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="133" spans="1:19" ht="27">
@@ -8714,10 +8726,10 @@
         <v>1</v>
       </c>
       <c r="R133" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S133" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="134" spans="1:19" ht="27">
@@ -8755,10 +8767,10 @@
         <v>1</v>
       </c>
       <c r="R134" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S134" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="135" spans="1:19">
@@ -8794,10 +8806,10 @@
         <v>1</v>
       </c>
       <c r="R135" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S135" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="136" spans="1:19">
@@ -8833,10 +8845,10 @@
         <v>1</v>
       </c>
       <c r="R136" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S136" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="1:19" s="95" customFormat="1">
@@ -8870,10 +8882,10 @@
         <v>1</v>
       </c>
       <c r="R137" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S137" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="138" spans="1:19" ht="27">
@@ -8910,7 +8922,7 @@
       </c>
       <c r="R138" s="38"/>
       <c r="S138" s="28" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="139" spans="1:19">
@@ -8934,10 +8946,10 @@
       <c r="P139" s="63"/>
       <c r="Q139" s="63"/>
       <c r="R139" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S139" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" spans="1:19">
@@ -8975,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="R140" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S140" s="16"/>
     </row>
@@ -9012,10 +9024,10 @@
         <v>1</v>
       </c>
       <c r="R141" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S141" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="142" spans="1:19" ht="27">
@@ -9027,7 +9039,7 @@
         <v>195</v>
       </c>
       <c r="F142" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G142" s="178"/>
       <c r="H142" s="34"/>
@@ -9051,10 +9063,10 @@
         <v>1</v>
       </c>
       <c r="R142" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S142" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="143" spans="1:19" s="95" customFormat="1">
@@ -9115,10 +9127,10 @@
         <v>1</v>
       </c>
       <c r="R144" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S144" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="1:19">
@@ -9179,10 +9191,10 @@
         <v>1</v>
       </c>
       <c r="R146" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S146" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="147" spans="1:19">
@@ -9218,10 +9230,10 @@
         <v>1</v>
       </c>
       <c r="R147" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S147" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="148" spans="1:19">
@@ -9257,10 +9269,10 @@
         <v>1</v>
       </c>
       <c r="R148" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S148" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="149" spans="1:19">
@@ -9296,10 +9308,10 @@
         <v>1</v>
       </c>
       <c r="R149" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S149" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="150" spans="1:19">
@@ -9335,10 +9347,10 @@
         <v>1</v>
       </c>
       <c r="R150" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S150" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="151" spans="1:19">
@@ -9376,10 +9388,10 @@
         <v>1</v>
       </c>
       <c r="R151" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S151" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="152" spans="1:19">
@@ -9415,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="R152" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S152" s="16"/>
     </row>
@@ -9452,10 +9464,10 @@
         <v>1</v>
       </c>
       <c r="R153" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S153" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:19" ht="27">
@@ -9491,10 +9503,10 @@
         <v>1</v>
       </c>
       <c r="R154" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S154" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="155" spans="1:19">
@@ -9530,7 +9542,7 @@
         <v>1</v>
       </c>
       <c r="R155" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S155" s="16"/>
     </row>
@@ -9569,10 +9581,10 @@
         <v>1</v>
       </c>
       <c r="R156" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S156" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="157" spans="1:19">
@@ -9608,10 +9620,10 @@
         <v>1</v>
       </c>
       <c r="R157" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S157" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="158" spans="1:19" ht="27">
@@ -9647,10 +9659,10 @@
         <v>1</v>
       </c>
       <c r="R158" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S158" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="159" spans="1:19" ht="27">
@@ -9686,7 +9698,7 @@
         <v>1</v>
       </c>
       <c r="R159" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S159" s="83"/>
     </row>
@@ -9723,10 +9735,10 @@
         <v>1</v>
       </c>
       <c r="R160" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S160" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:20" ht="27">
@@ -9765,7 +9777,7 @@
       <c r="Q161" s="72">
         <v>2</v>
       </c>
-      <c r="R161" s="204"/>
+      <c r="R161" s="196"/>
       <c r="S161" s="83"/>
     </row>
     <row r="162" spans="1:20">
@@ -9789,7 +9801,7 @@
       <c r="P162" s="63"/>
       <c r="Q162" s="63"/>
       <c r="R162" s="195" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="S162" s="63"/>
     </row>
@@ -9826,7 +9838,7 @@
         <v>1</v>
       </c>
       <c r="R163" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S163" s="16"/>
       <c r="T163" s="40">
@@ -9858,7 +9870,7 @@
       </c>
       <c r="Q164" s="69"/>
       <c r="R164" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S164" s="16"/>
     </row>
@@ -9891,7 +9903,7 @@
         <v>1</v>
       </c>
       <c r="R165" s="174" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S165" s="16"/>
     </row>
@@ -9919,8 +9931,10 @@
         <v>400487</v>
       </c>
       <c r="Q166" s="102"/>
-      <c r="R166" s="102"/>
-      <c r="S166" s="16"/>
+      <c r="R166" s="120"/>
+      <c r="S166" s="28" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="167" spans="1:20">
       <c r="A167" s="58"/>
@@ -9950,7 +9964,9 @@
       <c r="Q167" s="102">
         <v>1</v>
       </c>
-      <c r="R167" s="102"/>
+      <c r="R167" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S167" s="16"/>
     </row>
     <row r="168" spans="1:20">
@@ -11951,7 +11967,9 @@
       <c r="Q220" s="69">
         <v>1</v>
       </c>
-      <c r="R220" s="103"/>
+      <c r="R220" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S220" s="146"/>
     </row>
     <row r="221" spans="1:19">
@@ -11980,7 +11998,9 @@
       <c r="O221" s="57"/>
       <c r="P221" s="57"/>
       <c r="Q221" s="57"/>
-      <c r="R221" s="103"/>
+      <c r="R221" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S221" s="146"/>
     </row>
     <row r="222" spans="1:19">
@@ -12009,7 +12029,9 @@
       <c r="O222" s="57"/>
       <c r="P222" s="57"/>
       <c r="Q222" s="57"/>
-      <c r="R222" s="69"/>
+      <c r="R222" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S222" s="20"/>
     </row>
     <row r="223" spans="1:19">
@@ -12042,8 +12064,12 @@
       <c r="Q223" s="103">
         <v>1</v>
       </c>
-      <c r="R223" s="103"/>
-      <c r="S223" s="146"/>
+      <c r="R223" s="174" t="s">
+        <v>444</v>
+      </c>
+      <c r="S223" s="192" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="224" spans="1:19">
       <c r="A224" s="58"/>
@@ -12100,11 +12126,15 @@
         <v>400385</v>
       </c>
       <c r="O225" s="57"/>
-      <c r="P225" s="65"/>
+      <c r="P225" s="28">
+        <v>400490</v>
+      </c>
       <c r="Q225" s="57">
         <v>1</v>
       </c>
-      <c r="R225" s="57"/>
+      <c r="R225" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S225" s="16"/>
     </row>
     <row r="226" spans="1:19">
@@ -12131,7 +12161,9 @@
       <c r="O226" s="57"/>
       <c r="P226" s="131"/>
       <c r="Q226" s="57"/>
-      <c r="R226" s="57"/>
+      <c r="R226" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S226" s="16"/>
     </row>
     <row r="227" spans="1:19" ht="49.5" customHeight="1">
@@ -12158,7 +12190,9 @@
       <c r="O227" s="57"/>
       <c r="P227" s="131"/>
       <c r="Q227" s="57"/>
-      <c r="R227" s="57"/>
+      <c r="R227" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S227" s="16"/>
     </row>
     <row r="228" spans="1:19">
@@ -12185,7 +12219,9 @@
       <c r="O228" s="57"/>
       <c r="P228" s="131"/>
       <c r="Q228" s="57"/>
-      <c r="R228" s="57"/>
+      <c r="R228" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S228" s="16"/>
     </row>
     <row r="229" spans="1:19" ht="27">
@@ -12212,7 +12248,9 @@
       <c r="O229" s="57"/>
       <c r="P229" s="131"/>
       <c r="Q229" s="57"/>
-      <c r="R229" s="57"/>
+      <c r="R229" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S229" s="16"/>
     </row>
     <row r="230" spans="1:19" ht="27">
@@ -12245,11 +12283,15 @@
         <v>400385</v>
       </c>
       <c r="O230" s="57"/>
-      <c r="P230" s="68"/>
+      <c r="P230" s="28">
+        <v>400491</v>
+      </c>
       <c r="Q230" s="57">
         <v>1</v>
       </c>
-      <c r="R230" s="57"/>
+      <c r="R230" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S230" s="16"/>
     </row>
     <row r="231" spans="1:19" ht="45" customHeight="1">
@@ -12276,7 +12318,9 @@
       <c r="O231" s="57"/>
       <c r="P231" s="68"/>
       <c r="Q231" s="57"/>
-      <c r="R231" s="57"/>
+      <c r="R231" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S231" s="16"/>
     </row>
     <row r="232" spans="1:19" ht="58.5" customHeight="1">
@@ -12303,7 +12347,9 @@
       <c r="O232" s="57"/>
       <c r="P232" s="68"/>
       <c r="Q232" s="57"/>
-      <c r="R232" s="57"/>
+      <c r="R232" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S232" s="16"/>
     </row>
     <row r="233" spans="1:19">
@@ -12336,7 +12382,9 @@
         <v>400385</v>
       </c>
       <c r="O233" s="57"/>
-      <c r="P233" s="68"/>
+      <c r="P233" s="28">
+        <v>400492</v>
+      </c>
       <c r="Q233" s="57">
         <v>1</v>
       </c>
@@ -12700,11 +12748,11 @@
       <c r="G245" s="189"/>
       <c r="H245" s="110"/>
       <c r="I245" s="71"/>
-      <c r="J245" s="131" t="s">
-        <v>236</v>
-      </c>
-      <c r="K245" s="68" t="s">
-        <v>237</v>
+      <c r="J245" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="K245" s="164" t="s">
+        <v>233</v>
       </c>
       <c r="L245" s="131"/>
       <c r="M245" s="67" t="s">
@@ -12718,8 +12766,12 @@
       <c r="Q245" s="69">
         <v>1</v>
       </c>
-      <c r="R245" s="69"/>
-      <c r="S245" s="20"/>
+      <c r="R245" s="174" t="s">
+        <v>444</v>
+      </c>
+      <c r="S245" s="20" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="246" spans="1:19">
       <c r="A246" s="58"/>
@@ -12733,11 +12785,11 @@
       <c r="G246" s="183"/>
       <c r="H246" s="132"/>
       <c r="I246" s="36"/>
-      <c r="J246" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="K246" s="55" t="s">
-        <v>237</v>
+      <c r="J246" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="K246" s="164" t="s">
+        <v>233</v>
       </c>
       <c r="L246" s="65"/>
       <c r="M246" s="56" t="s">
@@ -12751,7 +12803,9 @@
       <c r="Q246" s="57">
         <v>1</v>
       </c>
-      <c r="R246" s="57"/>
+      <c r="R246" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S246" s="16"/>
     </row>
     <row r="247" spans="1:19">
@@ -12766,11 +12820,11 @@
       <c r="G247" s="185"/>
       <c r="H247" s="132"/>
       <c r="I247" s="36"/>
-      <c r="J247" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="K247" s="55" t="s">
-        <v>237</v>
+      <c r="J247" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="K247" s="164" t="s">
+        <v>233</v>
       </c>
       <c r="L247" s="65"/>
       <c r="M247" s="56" t="s">
@@ -12784,7 +12838,9 @@
       <c r="Q247" s="57">
         <v>1</v>
       </c>
-      <c r="R247" s="57"/>
+      <c r="R247" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S247" s="16"/>
     </row>
     <row r="248" spans="1:19">
@@ -12799,11 +12855,11 @@
       <c r="G248" s="183"/>
       <c r="H248" s="132"/>
       <c r="I248" s="36"/>
-      <c r="J248" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="K248" s="55" t="s">
-        <v>237</v>
+      <c r="J248" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="K248" s="164" t="s">
+        <v>233</v>
       </c>
       <c r="L248" s="65"/>
       <c r="M248" s="56" t="s">
@@ -12817,7 +12873,9 @@
       <c r="Q248" s="57">
         <v>1</v>
       </c>
-      <c r="R248" s="57"/>
+      <c r="R248" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S248" s="16"/>
     </row>
     <row r="249" spans="1:19">
@@ -12832,11 +12890,11 @@
       <c r="G249" s="183"/>
       <c r="H249" s="33"/>
       <c r="I249" s="36"/>
-      <c r="J249" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="K249" s="55" t="s">
-        <v>237</v>
+      <c r="J249" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="K249" s="164" t="s">
+        <v>233</v>
       </c>
       <c r="L249" s="65"/>
       <c r="M249" s="56" t="s">
@@ -12850,7 +12908,9 @@
       <c r="Q249" s="57">
         <v>1</v>
       </c>
-      <c r="R249" s="57"/>
+      <c r="R249" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S249" s="16"/>
     </row>
     <row r="250" spans="1:19">
@@ -12865,11 +12925,11 @@
       <c r="G250" s="183"/>
       <c r="H250" s="33"/>
       <c r="I250" s="36"/>
-      <c r="J250" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="K250" s="55" t="s">
-        <v>237</v>
+      <c r="J250" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="K250" s="164" t="s">
+        <v>233</v>
       </c>
       <c r="L250" s="65"/>
       <c r="M250" s="56" t="s">
@@ -12883,7 +12943,9 @@
       <c r="Q250" s="57">
         <v>1</v>
       </c>
-      <c r="R250" s="57"/>
+      <c r="R250" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S250" s="16"/>
     </row>
     <row r="251" spans="1:19">
@@ -12898,11 +12960,11 @@
       <c r="G251" s="183"/>
       <c r="H251" s="33"/>
       <c r="I251" s="36"/>
-      <c r="J251" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="K251" s="55" t="s">
-        <v>237</v>
+      <c r="J251" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="K251" s="164" t="s">
+        <v>233</v>
       </c>
       <c r="L251" s="65"/>
       <c r="M251" s="56" t="s">
@@ -12916,7 +12978,9 @@
       <c r="Q251" s="57">
         <v>1</v>
       </c>
-      <c r="R251" s="57"/>
+      <c r="R251" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S251" s="16"/>
     </row>
     <row r="252" spans="1:19">
@@ -12931,11 +12995,11 @@
       <c r="G252" s="183"/>
       <c r="H252" s="33"/>
       <c r="I252" s="36"/>
-      <c r="J252" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="K252" s="55" t="s">
-        <v>237</v>
+      <c r="J252" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="K252" s="164" t="s">
+        <v>233</v>
       </c>
       <c r="L252" s="65"/>
       <c r="M252" s="56" t="s">
@@ -12949,7 +13013,9 @@
       <c r="Q252" s="57">
         <v>1</v>
       </c>
-      <c r="R252" s="57"/>
+      <c r="R252" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S252" s="16"/>
     </row>
     <row r="253" spans="1:19">
@@ -12964,11 +13030,11 @@
       <c r="G253" s="183"/>
       <c r="H253" s="33"/>
       <c r="I253" s="36"/>
-      <c r="J253" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="K253" s="55" t="s">
-        <v>237</v>
+      <c r="J253" s="147" t="s">
+        <v>232</v>
+      </c>
+      <c r="K253" s="164" t="s">
+        <v>233</v>
       </c>
       <c r="L253" s="65"/>
       <c r="M253" s="56" t="s">
@@ -12982,28 +13048,30 @@
       <c r="Q253" s="57">
         <v>1</v>
       </c>
-      <c r="R253" s="57"/>
+      <c r="R253" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S253" s="16"/>
     </row>
     <row r="254" spans="1:19" s="155" customFormat="1" ht="33" customHeight="1">
-      <c r="A254" s="196" t="s">
+      <c r="A254" s="197" t="s">
         <v>437</v>
       </c>
-      <c r="B254" s="197"/>
-      <c r="C254" s="197"/>
-      <c r="D254" s="197"/>
-      <c r="E254" s="197"/>
-      <c r="F254" s="197"/>
-      <c r="G254" s="197"/>
-      <c r="H254" s="197"/>
-      <c r="I254" s="197"/>
-      <c r="J254" s="197"/>
-      <c r="K254" s="197"/>
-      <c r="L254" s="197"/>
-      <c r="M254" s="197"/>
-      <c r="N254" s="197"/>
-      <c r="O254" s="197"/>
-      <c r="P254" s="197"/>
+      <c r="B254" s="198"/>
+      <c r="C254" s="198"/>
+      <c r="D254" s="198"/>
+      <c r="E254" s="198"/>
+      <c r="F254" s="198"/>
+      <c r="G254" s="198"/>
+      <c r="H254" s="198"/>
+      <c r="I254" s="198"/>
+      <c r="J254" s="198"/>
+      <c r="K254" s="198"/>
+      <c r="L254" s="198"/>
+      <c r="M254" s="198"/>
+      <c r="N254" s="198"/>
+      <c r="O254" s="198"/>
+      <c r="P254" s="198"/>
       <c r="Q254" s="154">
         <f>SUM(Q5:Q253)</f>
         <v>233</v>
@@ -13040,7 +13108,7 @@
         <v>441</v>
       </c>
       <c r="N259" s="156" t="s">
-        <v>442</v>
+        <v>467</v>
       </c>
       <c r="Q259" s="156">
         <v>57</v>
@@ -13054,6 +13122,11 @@
     <row r="261" spans="13:17">
       <c r="Q261" s="156">
         <v>128</v>
+      </c>
+    </row>
+    <row r="262" spans="13:17">
+      <c r="Q262" s="156">
+        <v>135</v>
       </c>
     </row>
     <row r="264" spans="13:17" ht="13.5" customHeight="1"/>

--- a/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
+++ b/static/guide/eng/BOK-A-IAT-메뉴구조도설계서(영문)_v2.3(20240409).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebContent\static\guide\eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51473F29-8154-4DD5-ADEE-76F5508AA859}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587B90F9-D793-4DCD-81B0-A8FE114C13ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="15540" tabRatio="869" xr2:uid="{1E9DB366-6AE4-4F47-9B28-6B909BD1B54D}"/>
   </bookViews>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="470">
   <si>
     <t>Notice</t>
   </si>
@@ -2047,6 +2047,10 @@
   </si>
   <si>
     <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3524,8 +3528,8 @@
   <dimension ref="A1:T286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R232" sqref="R230:R232"/>
+      <pane ySplit="4" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R225" sqref="R225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12091,7 +12095,9 @@
       <c r="O224" s="63"/>
       <c r="P224" s="63"/>
       <c r="Q224" s="63"/>
-      <c r="R224" s="16"/>
+      <c r="R224" s="195" t="s">
+        <v>469</v>
+      </c>
       <c r="S224" s="63"/>
     </row>
     <row r="225" spans="1:19" ht="27">
@@ -12388,7 +12394,9 @@
       <c r="Q233" s="57">
         <v>1</v>
       </c>
-      <c r="R233" s="57"/>
+      <c r="R233" s="174" t="s">
+        <v>444</v>
+      </c>
       <c r="S233" s="16"/>
     </row>
     <row r="234" spans="1:19" ht="27">
